--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z283"/>
+  <dimension ref="A1:Z284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45796</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>44503.35390046296</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45943.38998842592</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45771.42275462963</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>45783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>46031.65877314815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>46007.44545138889</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,14 +1242,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 63573-2025</t>
+          <t>A 22648-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>46013.66015046297</v>
+        <v>45447.89238425926</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1261,11 +1261,16 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1296,134 +1301,129 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Spindelblomster</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 22648-2024 artfynd.xlsx", "A 22648-2024")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 22648-2024 karta.png", "A 22648-2024")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 22648-2024 FSC-klagomål.docx", "A 22648-2024")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 22648-2024 FSC-klagomål mail.docx", "A 22648-2024")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 22648-2024 tillsynsbegäran.docx", "A 22648-2024")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 22648-2024 tillsynsbegäran mail.docx", "A 22648-2024")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 22648-2024 prioriterade fågelarter.docx", "A 22648-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 63573-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>46013.66015046297</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Järpe
 Sotriska</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 63573-2025 artfynd.xlsx", "A 63573-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 63573-2025 karta.png", "A 63573-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 63573-2025 FSC-klagomål.docx", "A 63573-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 63573-2025 FSC-klagomål mail.docx", "A 63573-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 63573-2025 tillsynsbegäran.docx", "A 63573-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 63573-2025 tillsynsbegäran mail.docx", "A 63573-2025")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 63573-2025 prioriterade fågelarter.docx", "A 63573-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 22648-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45447.89238425926</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Spindelblomster</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 22648-2024 artfynd.xlsx", "A 22648-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 22648-2024 karta.png", "A 22648-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 22648-2024 FSC-klagomål.docx", "A 22648-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 22648-2024 FSC-klagomål mail.docx", "A 22648-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 22648-2024 tillsynsbegäran.docx", "A 22648-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 22648-2024 tillsynsbegäran mail.docx", "A 22648-2024")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 22648-2024 prioriterade fågelarter.docx", "A 22648-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>45698.44841435185</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45979.59435185185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>46000.62998842593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>46007.44689814815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>46010.37401620371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44452</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>44355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>44651</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>44565.92820601852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44265</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44524.54244212963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>44446</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>44854.92494212963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>44565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44610</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2488,14 +2488,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 18231-2025</t>
+          <t>A 67514-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45761.87467592592</v>
+        <v>44524.5028587963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2545,14 +2545,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 36801-2025</t>
+          <t>A 54793-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45873.66607638889</v>
+        <v>45229</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2602,14 +2602,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 20228-2023</t>
+          <t>A 58340-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45055</v>
+        <v>45632.6391087963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2659,14 +2659,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 38566-2025</t>
+          <t>A 15409-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45884.45541666666</v>
+        <v>44285</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5.5</v>
+        <v>1.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2716,14 +2716,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 31839-2024</t>
+          <t>A 22002-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45509.65498842593</v>
+        <v>45068.92707175926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2735,13 +2735,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2778,14 +2773,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 67514-2021</t>
+          <t>A 50413-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44524.5028587963</v>
+        <v>45601.37128472222</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2797,8 +2792,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>2.7</v>
+        <v>23.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2835,14 +2835,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 37364-2025</t>
+          <t>A 16782-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45877.32516203704</v>
+        <v>45411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2892,14 +2892,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 25347-2024</t>
+          <t>A 35737-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45462</v>
+        <v>45532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2949,14 +2949,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 1437-2025</t>
+          <t>A 35771-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45669.67790509259</v>
+        <v>45532</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>11.7</v>
+        <v>4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3006,14 +3006,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 22002-2023</t>
+          <t>A 846-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45068.92707175926</v>
+        <v>44571</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3063,14 +3063,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 29476-2023</t>
+          <t>A 31133-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45106.57149305556</v>
+        <v>45103</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3120,14 +3120,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 29485-2023</t>
+          <t>A 33319-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45106</v>
+        <v>45127.88890046296</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3177,14 +3177,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 52536-2023</t>
+          <t>A 28337-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45218</v>
+        <v>44747.42982638889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3234,14 +3234,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 426-2022</t>
+          <t>A 31421-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44565</v>
+        <v>45114.60027777778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3253,8 +3253,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>0.9</v>
+        <v>5.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3291,14 +3296,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 42317-2023</t>
+          <t>A 20228-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45175</v>
+        <v>45055</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3311,7 +3316,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3348,14 +3353,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 42327-2023</t>
+          <t>A 60646-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45175</v>
+        <v>45644.4325462963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3367,8 +3372,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3405,14 +3415,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 9039-2024</t>
+          <t>A 35734-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45356</v>
+        <v>45532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3425,7 +3435,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3462,14 +3472,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 55173-2023</t>
+          <t>A 59253-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45237</v>
+        <v>45637.59724537037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3482,7 +3492,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3519,14 +3529,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 38956-2022</t>
+          <t>A 17409-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44816</v>
+        <v>45757.36844907407</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3539,7 +3549,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3576,14 +3586,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 29462-2025</t>
+          <t>A 17414-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45824.69697916666</v>
+        <v>45757</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3596,7 +3606,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>11.1</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3633,14 +3643,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 54793-2023</t>
+          <t>A 19100-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45229</v>
+        <v>44691.52804398148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3653,7 +3663,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3690,14 +3700,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 35734-2024</t>
+          <t>A 47976-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45532</v>
+        <v>44853</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3710,7 +3720,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3747,14 +3757,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 56622-2025</t>
+          <t>A 31264-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45975.60040509259</v>
+        <v>45503.96868055555</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3766,8 +3776,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3804,14 +3819,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 56833-2025</t>
+          <t>A 31277-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45978.47253472222</v>
+        <v>45504.39555555556</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3823,8 +3838,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>2.7</v>
+        <v>5.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3861,14 +3881,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 46434-2022</t>
+          <t>A 32809-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44846</v>
+        <v>45516.57067129629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3881,7 +3901,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3918,14 +3938,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 64966-2023</t>
+          <t>A 35354-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45283</v>
+        <v>45146</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3975,14 +3995,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 35006-2024</t>
+          <t>A 47-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45527</v>
+        <v>45659</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3995,7 +4015,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4032,14 +4052,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 57347-2025</t>
+          <t>A 24756-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45980.35763888889</v>
+        <v>45799.37510416667</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4052,7 +4072,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>6.9</v>
+        <v>3.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4089,14 +4109,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 57448-2025</t>
+          <t>A 24846-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45980.49452546296</v>
+        <v>45799.46851851852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4108,13 +4128,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4151,14 +4166,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 57203-2025</t>
+          <t>A 24805-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45979.58972222222</v>
+        <v>45799.4409375</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4170,13 +4185,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>20.1</v>
+        <v>1.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4213,14 +4223,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 57424-2025</t>
+          <t>A 24812-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45980.46134259259</v>
+        <v>45799.44790509259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,13 +4242,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4275,14 +4280,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 15674-2025</t>
+          <t>A 24792-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45748.44657407407</v>
+        <v>45799</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4295,7 +4300,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4332,14 +4337,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 13758-2024</t>
+          <t>A 24868-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45390.92747685185</v>
+        <v>45799.48819444444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4352,7 +4357,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4389,14 +4394,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 58637-2025</t>
+          <t>A 28615-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45986.49008101852</v>
+        <v>45103.59210648148</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4409,7 +4414,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4446,14 +4451,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 42902-2025</t>
+          <t>A 24856-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45908.67744212963</v>
+        <v>45799.47508101852</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4466,7 +4471,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4503,14 +4508,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 58584-2025</t>
+          <t>A 25205-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45986.39486111111</v>
+        <v>45800.46907407408</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4523,7 +4528,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4560,14 +4565,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 862-2026</t>
+          <t>A 25206-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>46030.42516203703</v>
+        <v>45800.46908564815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4580,7 +4585,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4617,14 +4622,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 29823-2025</t>
+          <t>A 57777-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45825.85599537037</v>
+        <v>45246</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4637,7 +4642,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>7.2</v>
+        <v>4.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4674,14 +4679,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 42584-2025</t>
+          <t>A 38566-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45905.62662037037</v>
+        <v>45884.45541666666</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4694,7 +4699,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.8</v>
+        <v>5.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4731,14 +4736,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 686-2026</t>
+          <t>A 26576-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>46029.60719907407</v>
+        <v>45807.68725694445</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4751,7 +4756,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4788,14 +4793,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 42990-2025</t>
+          <t>A 26665-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45909.45178240741</v>
+        <v>45810</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4808,7 +4813,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4845,14 +4850,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 43030-2025</t>
+          <t>A 426-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45909</v>
+        <v>44565</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4864,13 +4869,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4907,14 +4907,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 43685-2025</t>
+          <t>A 29462-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45912.38184027778</v>
+        <v>45824.69697916666</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.6</v>
+        <v>11.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4964,14 +4964,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 1614-2026</t>
+          <t>A 3584-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>46034.46947916667</v>
+        <v>45680.78527777778</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>9.1</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5021,14 +5021,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 1633-2026</t>
+          <t>A 2286-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>46034.49119212963</v>
+        <v>45673</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5041,7 +5041,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5078,14 +5078,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 31264-2024</t>
+          <t>A 30221-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45503.96868055555</v>
+        <v>45099</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5097,13 +5097,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5140,14 +5135,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 31277-2024</t>
+          <t>A 28694-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45504.39555555556</v>
+        <v>45819.88594907407</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5159,13 +5154,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>5.2</v>
+        <v>2.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5202,14 +5192,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 44889-2025</t>
+          <t>A 42584-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45918.49681712963</v>
+        <v>45905.62662037037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5222,7 +5212,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5259,14 +5249,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 44832-2025</t>
+          <t>A 42902-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45918.406875</v>
+        <v>45908.67744212963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5279,7 +5269,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5316,14 +5306,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 44975-2025</t>
+          <t>A 29823-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45918.64300925926</v>
+        <v>45825.85599537037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5336,7 +5326,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.6</v>
+        <v>7.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5373,14 +5363,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 59867-2025</t>
+          <t>A 42990-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45992.87564814815</v>
+        <v>45909.45178240741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5393,7 +5383,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5430,14 +5420,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 44895-2025</t>
+          <t>A 47771-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45918.50277777778</v>
+        <v>44854</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5450,7 +5440,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5487,14 +5477,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 1058-2023</t>
+          <t>A 43030-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44929</v>
+        <v>45909</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5506,8 +5496,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5544,14 +5539,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 2072-2026</t>
+          <t>A 9026-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>46036.33851851852</v>
+        <v>45356</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5564,7 +5559,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5601,14 +5596,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 63980-2021</t>
+          <t>A 42141-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44509</v>
+        <v>45177</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5621,7 +5616,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5658,14 +5653,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 2774-2026</t>
+          <t>A 30163-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>46038.37543981482</v>
+        <v>45827.32722222222</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5678,7 +5673,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5715,14 +5710,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 60533-2025</t>
+          <t>A 43685-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45995.65939814815</v>
+        <v>45912.38184027778</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5735,7 +5730,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5772,14 +5767,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 60619-2025</t>
+          <t>A 29912-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45996.38447916666</v>
+        <v>45826.40885416666</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5792,7 +5787,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5829,14 +5824,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 2772-2026</t>
+          <t>A 59771-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>46038.37417824074</v>
+        <v>45257</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5849,7 +5844,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>7.7</v>
+        <v>0.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5886,14 +5881,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 2496-2026</t>
+          <t>A 44975-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>46037.40002314815</v>
+        <v>45918.64300925926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5943,14 +5938,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 61176-2025</t>
+          <t>A 44832-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>46000.57684027778</v>
+        <v>45918.406875</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5963,7 +5958,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>8.300000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6000,14 +5995,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 61182-2025</t>
+          <t>A 44889-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>46000.58409722222</v>
+        <v>45918.49681712963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6020,7 +6015,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6057,14 +6052,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 61204-2025</t>
+          <t>A 44895-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>46000.61395833334</v>
+        <v>45918.50277777778</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6077,7 +6072,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6114,14 +6109,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 61118-2025</t>
+          <t>A 46434-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>46000.46293981482</v>
+        <v>44846</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6134,7 +6129,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6171,14 +6166,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 3538-2026</t>
+          <t>A 33226-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46042.6296412037</v>
+        <v>44376</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6191,7 +6186,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6228,14 +6223,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 61127-2025</t>
+          <t>A 35755-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46000.48337962963</v>
+        <v>45532</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6248,7 +6243,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6285,14 +6280,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 61216-2025</t>
+          <t>A 32956-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46000.62005787037</v>
+        <v>45517</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6304,8 +6299,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6342,14 +6342,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 61221-2025</t>
+          <t>A 2018-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46000</v>
+        <v>45672</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6361,8 +6361,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6399,14 +6404,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 61142-2025</t>
+          <t>A 2020-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46000.51967592593</v>
+        <v>45672</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6418,8 +6423,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6456,14 +6466,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 61155-2025</t>
+          <t>A 12425-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46000.54702546296</v>
+        <v>45730</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6476,7 +6486,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6513,14 +6523,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 32956-2024</t>
+          <t>A 31986-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45517</v>
+        <v>45835.36210648148</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6532,13 +6542,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6575,14 +6580,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 3540-2026</t>
+          <t>A 1058-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46042.63204861111</v>
+        <v>44929</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6595,7 +6600,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6632,14 +6637,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 4090-2026</t>
+          <t>A 49559-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46044.55434027778</v>
+        <v>45939.45946759259</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6652,7 +6657,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.2</v>
+        <v>7.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6689,14 +6694,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 61403-2025</t>
+          <t>A 48859-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46001.48989583334</v>
+        <v>45937</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6709,7 +6714,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>12.8</v>
+        <v>1.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6746,14 +6751,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 31132-2023</t>
+          <t>A 48886-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45103</v>
+        <v>45937.46611111111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6766,7 +6771,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6803,14 +6808,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 61158-2025</t>
+          <t>A 1438-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>46000.55134259259</v>
+        <v>45669.68052083333</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6823,7 +6828,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6860,14 +6865,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 4108-2026</t>
+          <t>A 48852-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46044.59416666667</v>
+        <v>45937.43040509259</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6880,7 +6885,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6917,14 +6922,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 35349-2023</t>
+          <t>A 8993-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45146</v>
+        <v>45357.55085648148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6937,7 +6942,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>5.4</v>
+        <v>0.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6974,14 +6979,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 4109-2026</t>
+          <t>A 49520-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46044.59418981482</v>
+        <v>45939.39337962963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6994,7 +6999,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5.3</v>
+        <v>1.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7031,14 +7036,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 48859-2025</t>
+          <t>A 46501-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45937</v>
+        <v>45582.6006712963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7051,7 +7056,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7095,7 +7100,7 @@
         <v>45938.63061342593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7145,14 +7150,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 4870-2026</t>
+          <t>A 49820-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46048.6465625</v>
+        <v>45940.43907407407</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7164,8 +7169,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7202,14 +7212,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 4081-2026</t>
+          <t>A 52255-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>46044</v>
+        <v>45608.64011574074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7222,7 +7232,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7259,14 +7269,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 48886-2025</t>
+          <t>A 6288-2021</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45937.46611111111</v>
+        <v>44235</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7279,7 +7289,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7316,14 +7326,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 48852-2025</t>
+          <t>A 51553-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45937.43040509259</v>
+        <v>45950.87297453704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7336,7 +7346,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7373,14 +7383,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 49820-2025</t>
+          <t>A 8935-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45940.43907407407</v>
+        <v>45713.44832175926</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7392,13 +7402,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>2.8</v>
+        <v>0.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7435,14 +7440,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 49520-2025</t>
+          <t>A 8939-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45939.39337962963</v>
+        <v>45713.4485300926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7455,7 +7460,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7492,14 +7497,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 49559-2025</t>
+          <t>A 51722-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45939.45946759259</v>
+        <v>45951.58085648148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7512,7 +7517,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>7.2</v>
+        <v>2.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7549,14 +7554,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 4685-2026</t>
+          <t>A 51605-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46048.43700231481</v>
+        <v>45951.38592592593</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7569,7 +7574,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.8</v>
+        <v>4.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7606,14 +7611,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 62787-2025</t>
+          <t>A 51737-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>46008.61939814815</v>
+        <v>45951.59630787037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7626,7 +7631,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.9</v>
+        <v>2.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7663,14 +7668,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 58340-2024</t>
+          <t>A 47472-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45632.6391087963</v>
+        <v>45587.5741087963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7683,7 +7688,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7727,7 +7732,7 @@
         <v>44970</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7777,14 +7782,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 63289-2025</t>
+          <t>A 52835-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46010.59076388889</v>
+        <v>45957.47133101852</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7797,7 +7802,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7834,14 +7839,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 51605-2025</t>
+          <t>A 52845-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45951.38592592593</v>
+        <v>45957.48430555555</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7854,7 +7859,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7891,14 +7896,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 63160-2025</t>
+          <t>A 52842-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>46010.37174768518</v>
+        <v>45957.47827546296</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7911,7 +7916,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7948,14 +7953,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 51737-2025</t>
+          <t>A 36801-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45951.59630787037</v>
+        <v>45873.66607638889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7968,7 +7973,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8005,14 +8010,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 51722-2025</t>
+          <t>A 52820-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45951.58085648148</v>
+        <v>45957.45483796296</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8025,7 +8030,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8062,14 +8067,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 51553-2025</t>
+          <t>A 18377-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45950.87297453704</v>
+        <v>45762.57496527778</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8082,7 +8087,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8119,14 +8124,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 46205-2024</t>
+          <t>A 18380-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45581.54357638889</v>
+        <v>45762.57891203704</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8139,7 +8144,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8176,14 +8181,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 52842-2025</t>
+          <t>A 17981-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45957.47827546296</v>
+        <v>45419</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8196,7 +8201,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8233,14 +8238,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 52820-2025</t>
+          <t>A 25453-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45957.45483796296</v>
+        <v>45463.42144675926</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8253,7 +8258,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.3</v>
+        <v>0.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8290,14 +8295,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 46195-2024</t>
+          <t>A 1006-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45581.51873842593</v>
+        <v>44935</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8310,7 +8315,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8347,14 +8352,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 52845-2025</t>
+          <t>A 37364-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45957.48430555555</v>
+        <v>45877.32516203704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8367,7 +8372,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8404,14 +8409,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 63447-2025</t>
+          <t>A 54570-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>46013.4020949074</v>
+        <v>45965.67487268519</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8423,13 +8428,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>21.4</v>
+        <v>1.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8466,14 +8466,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 52835-2025</t>
+          <t>A 25347-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45957.47133101852</v>
+        <v>45462</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8523,14 +8523,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 63574-2025</t>
+          <t>A 54243-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46013.66307870371</v>
+        <v>45964.63417824074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>6.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8580,14 +8580,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 54243-2025</t>
+          <t>A 54562-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45964.63417824074</v>
+        <v>45965.66751157407</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>6.7</v>
+        <v>1.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8637,14 +8637,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 6288-2021</t>
+          <t>A 54421-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44235</v>
+        <v>45965.48461805555</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.1</v>
+        <v>10.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8694,14 +8694,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 54562-2025</t>
+          <t>A 15678-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45965.66751157407</v>
+        <v>45748.45042824074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.5</v>
+        <v>7.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8751,14 +8751,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 9026-2024</t>
+          <t>A 18231-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45356</v>
+        <v>45761.87467592592</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8808,14 +8808,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 46212-2024</t>
+          <t>A 53783-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45581.55569444445</v>
+        <v>45615</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8828,7 +8828,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8865,14 +8865,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 57777-2023</t>
+          <t>A 56320-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45246</v>
+        <v>45974.63405092592</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.9</v>
+        <v>0.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8922,14 +8922,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 54421-2025</t>
+          <t>A 56513-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45965.48461805555</v>
+        <v>45975.45373842592</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8942,7 +8942,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>10.4</v>
+        <v>8.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8979,14 +8979,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 12410-2025</t>
+          <t>A 56622-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45730.43505787037</v>
+        <v>45975.60040509259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8999,7 +8999,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9036,14 +9036,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 35011-2024</t>
+          <t>A 56553-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45527</v>
+        <v>45975.48762731482</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9056,7 +9056,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9093,14 +9093,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 54570-2025</t>
+          <t>A 56329-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45965.67487268519</v>
+        <v>45974.64</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9150,14 +9150,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 27110-2024</t>
+          <t>A 56831-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45471.50009259259</v>
+        <v>45978.46716435185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9170,7 +9170,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9207,14 +9207,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 8939-2025</t>
+          <t>A 57203-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45713.4485300926</v>
+        <v>45979.58972222222</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9226,8 +9226,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>1.1</v>
+        <v>20.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9264,14 +9269,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 56320-2025</t>
+          <t>A 56833-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45974.63405092592</v>
+        <v>45978.47253472222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9284,7 +9289,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9321,14 +9326,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 2201-2025</t>
+          <t>A 56835-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45673.39678240741</v>
+        <v>45978.47366898148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9341,7 +9346,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9378,14 +9383,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 56329-2025</t>
+          <t>A 56966-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45974.64</v>
+        <v>45978.67543981481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9398,7 +9403,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9435,14 +9440,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 6292-2021</t>
+          <t>A 57448-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44235</v>
+        <v>45980.49452546296</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9454,8 +9459,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9492,14 +9502,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 32792-2024</t>
+          <t>A 57347-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45516.55068287037</v>
+        <v>45980.35763888889</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9512,7 +9522,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.5</v>
+        <v>6.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9549,14 +9559,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 32809-2024</t>
+          <t>A 57424-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45516.57067129629</v>
+        <v>45980.46134259259</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9568,8 +9578,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9606,14 +9621,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 56553-2025</t>
+          <t>A 2933-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45975.48762731482</v>
+        <v>44581</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9626,7 +9641,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9663,14 +9678,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 56513-2025</t>
+          <t>A 52536-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45975.45373842592</v>
+        <v>45218</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9683,7 +9698,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9720,14 +9735,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 28615-2023</t>
+          <t>A 35360-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45103.59210648148</v>
+        <v>45146.52483796296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9740,7 +9755,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>5.2</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9777,14 +9792,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 35360-2023</t>
+          <t>A 2201-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45146.52483796296</v>
+        <v>45673.39678240741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9797,7 +9812,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9834,14 +9849,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 56835-2025</t>
+          <t>A 58637-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45978.47366898148</v>
+        <v>45986.49008101852</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9854,7 +9869,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9891,14 +9906,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 56966-2025</t>
+          <t>A 686-2026</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45978.67543981481</v>
+        <v>46029.60719907407</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9911,7 +9926,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9948,14 +9963,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 56831-2025</t>
+          <t>A 58584-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45978.46716435185</v>
+        <v>45986.39486111111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9968,7 +9983,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10005,14 +10020,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 42141-2023</t>
+          <t>A 52536-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45177</v>
+        <v>45609.61851851852</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10025,7 +10040,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10062,14 +10077,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 35123-2023</t>
+          <t>A 862-2026</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45145.50380787037</v>
+        <v>46030.42516203703</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10081,13 +10096,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10124,14 +10134,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 31133-2023</t>
+          <t>A 12410-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45103</v>
+        <v>45730.43505787037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10144,7 +10154,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10181,14 +10191,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 1438-2025</t>
+          <t>A 59867-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45669.68052083333</v>
+        <v>45992.87564814815</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10201,7 +10211,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>4.3</v>
+        <v>0.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10238,14 +10248,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 46726-2024</t>
+          <t>A 1633-2026</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45583.46103009259</v>
+        <v>46034.49119212963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10258,7 +10268,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10295,14 +10305,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 2286-2025</t>
+          <t>A 1614-2026</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45673</v>
+        <v>46034.46947916667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10315,7 +10325,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.7</v>
+        <v>9.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10352,14 +10362,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 46501-2024</t>
+          <t>A 2496-2026</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45582.6006712963</v>
+        <v>46037.40002314815</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10372,7 +10382,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10409,14 +10419,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 31867-2023</t>
+          <t>A 34760-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45118.61844907407</v>
+        <v>45139</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10429,7 +10439,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10466,14 +10476,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 33319-2023</t>
+          <t>A 2072-2026</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45127.88890046296</v>
+        <v>46036.33851851852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10486,7 +10496,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10523,14 +10533,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 17981-2024</t>
+          <t>A 17073-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45419</v>
+        <v>45754</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10543,7 +10553,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10580,14 +10590,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 8935-2025</t>
+          <t>A 60533-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45713.44832175926</v>
+        <v>45995.65939814815</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10600,7 +10610,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10637,14 +10647,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 45899-2024</t>
+          <t>A 6292-2021</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45580.43047453704</v>
+        <v>44235</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10654,11 +10664,6 @@
       <c r="E169" t="inlineStr">
         <is>
           <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G169" t="n">
@@ -10699,14 +10704,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 31421-2023</t>
+          <t>A 60619-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45114.60027777778</v>
+        <v>45996.38447916666</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10718,13 +10723,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>5.8</v>
+        <v>2.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10761,14 +10761,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 31817-2024</t>
+          <t>A 2772-2026</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45509</v>
+        <v>46038.37417824074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10781,7 +10781,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.7</v>
+        <v>7.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10818,14 +10818,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 32739-2021</t>
+          <t>A 63817-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44375</v>
+        <v>45275</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10838,7 +10838,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.7</v>
+        <v>6.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10875,14 +10875,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 52531-2024</t>
+          <t>A 2774-2026</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45609.61578703704</v>
+        <v>46038.37543981482</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10932,14 +10932,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 52533-2024</t>
+          <t>A 1437-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45609.61697916667</v>
+        <v>45669.67790509259</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.9</v>
+        <v>11.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10989,14 +10989,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 8940-2025</t>
+          <t>A 39220-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45713.44855324074</v>
+        <v>45549</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11046,14 +11046,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 21041-2024</t>
+          <t>A 15674-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45439.666875</v>
+        <v>45748.44657407407</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11103,14 +11103,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 59716-2024</t>
+          <t>A 35011-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45639.45857638889</v>
+        <v>45527</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>5.8</v>
+        <v>0.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11160,14 +11160,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 60640-2024</t>
+          <t>A 61176-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45644.42787037037</v>
+        <v>46000.57684027778</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11179,13 +11179,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>0.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11222,14 +11217,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 47976-2022</t>
+          <t>A 61221-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44853</v>
+        <v>46000</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11242,7 +11237,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11279,14 +11274,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 63981-2021</t>
+          <t>A 3540-2026</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44509</v>
+        <v>46042.63204861111</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11299,7 +11294,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11336,14 +11331,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 44319-2023</t>
+          <t>A 61216-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45183</v>
+        <v>46000.62005787037</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11356,7 +11351,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11393,14 +11388,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 50413-2024</t>
+          <t>A 61403-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45601.37128472222</v>
+        <v>46001.48989583334</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11412,13 +11407,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>23.4</v>
+        <v>12.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11455,14 +11445,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 3584-2025</t>
+          <t>A 61142-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45680.78527777778</v>
+        <v>46000.51967592593</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11475,7 +11465,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11512,14 +11502,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 47-2025</t>
+          <t>A 61155-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45659</v>
+        <v>46000.54702546296</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11532,7 +11522,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11569,14 +11559,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 33226-2021</t>
+          <t>A 61158-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44376</v>
+        <v>46000.55134259259</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11589,7 +11579,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11626,14 +11616,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 18380-2025</t>
+          <t>A 32739-2021</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45762.57891203704</v>
+        <v>44375</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11646,7 +11636,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11683,14 +11673,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 13762-2025</t>
+          <t>A 61182-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45737.43103009259</v>
+        <v>46000.58409722222</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11703,7 +11693,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11740,14 +11730,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 29573-2023</t>
+          <t>A 61204-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45098</v>
+        <v>46000.61395833334</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11760,7 +11750,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>5.3</v>
+        <v>2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11797,14 +11787,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 21135-2024</t>
+          <t>A 61127-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45440</v>
+        <v>46000.48337962963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11816,13 +11806,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11859,14 +11844,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 2942-2025</t>
+          <t>A 3538-2026</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45678.39038194445</v>
+        <v>46042.6296412037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11916,14 +11901,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 6179-2025</t>
+          <t>A 61118-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45698.44835648148</v>
+        <v>46000.46293981482</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11936,7 +11921,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>4.9</v>
+        <v>1.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11973,14 +11958,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 55444-2023</t>
+          <t>A 29485-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45231</v>
+        <v>45106</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11993,7 +11978,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12030,14 +12015,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 2933-2022</t>
+          <t>A 4109-2026</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44581</v>
+        <v>46044.59418981482</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12050,7 +12035,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.8</v>
+        <v>5.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12087,14 +12072,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 17582-2024</t>
+          <t>A 60033-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45415</v>
+        <v>45642.46236111111</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12107,7 +12092,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12144,14 +12129,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 44295-2023</t>
+          <t>A 31132-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45188.64064814815</v>
+        <v>45103</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12164,7 +12149,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12201,14 +12186,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 59253-2024</t>
+          <t>A 35349-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45637.59724537037</v>
+        <v>45146</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12221,7 +12206,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.8</v>
+        <v>5.4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12258,14 +12243,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 30221-2023</t>
+          <t>A 4090-2026</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45099</v>
+        <v>46044.55434027778</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12278,7 +12263,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12315,14 +12300,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 59771-2023</t>
+          <t>A 4108-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45257</v>
+        <v>46044.59416666667</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12335,7 +12320,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12372,14 +12357,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 16471-2025</t>
+          <t>A 4081-2026</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45751.54825231482</v>
+        <v>46044</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12392,7 +12377,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.3</v>
+        <v>0.2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12429,14 +12414,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 47771-2022</t>
+          <t>A 4870-2026</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44854</v>
+        <v>46048.6465625</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12449,7 +12434,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12486,14 +12471,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 8993-2024</t>
+          <t>A 4676-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45357.55085648148</v>
+        <v>44953</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12506,7 +12491,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12543,14 +12528,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 19734-2025</t>
+          <t>A 13762-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45771.36695601852</v>
+        <v>45737.43103009259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12562,13 +12547,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12605,14 +12585,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 28367-2022</t>
+          <t>A 62787-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44747</v>
+        <v>46008.61939814815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12625,7 +12605,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.7</v>
+        <v>4.9</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12662,14 +12642,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 17073-2025</t>
+          <t>A 4685-2026</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45754</v>
+        <v>46048.43700231481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12682,7 +12662,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12719,14 +12699,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 28347-2022</t>
+          <t>A 21041-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44747.45532407407</v>
+        <v>45439.666875</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12739,7 +12719,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12776,14 +12756,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 60557-2023</t>
+          <t>A 16471-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45259</v>
+        <v>45751.54825231482</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12796,7 +12776,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12833,14 +12813,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 39220-2024</t>
+          <t>A 63574-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45549</v>
+        <v>46013.66307870371</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12853,7 +12833,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12890,14 +12870,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 35557-2021</t>
+          <t>A 63160-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44385</v>
+        <v>46010.37174768518</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12910,7 +12890,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12947,14 +12927,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 15409-2021</t>
+          <t>A 63289-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44285</v>
+        <v>46010.59076388889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12967,7 +12947,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13004,14 +12984,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 19100-2022</t>
+          <t>A 63447-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44691.52804398148</v>
+        <v>46013.4020949074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13023,8 +13003,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>1.2</v>
+        <v>21.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13061,14 +13046,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 22193-2023</t>
+          <t>A 6179-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45069</v>
+        <v>45698.44835648148</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13081,7 +13066,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.4</v>
+        <v>4.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13118,14 +13103,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 846-2022</t>
+          <t>A 62553-2021</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44571</v>
+        <v>44501</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13138,7 +13123,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.7</v>
+        <v>10.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13175,14 +13160,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 16782-2024</t>
+          <t>A 2942-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45411</v>
+        <v>45678.39038194445</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13195,7 +13180,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13232,14 +13217,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 32785-2024</t>
+          <t>A 56258-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45516.53230324074</v>
+        <v>45624.64472222222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13252,7 +13237,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>5.3</v>
+        <v>0.6</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13289,14 +13274,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 1006-2023</t>
+          <t>A 56262-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44935</v>
+        <v>45624.65004629629</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13309,7 +13294,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13346,14 +13331,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 31869-2023</t>
+          <t>A 52531-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45118.62401620371</v>
+        <v>45609.61578703704</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13366,7 +13351,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13403,14 +13388,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 31699-2024</t>
+          <t>A 52533-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45508.61318287037</v>
+        <v>45609.61697916667</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13422,13 +13407,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G217" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13465,14 +13445,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 12425-2025</t>
+          <t>A 29573-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45730</v>
+        <v>45098</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13485,7 +13465,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.9</v>
+        <v>5.3</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13522,14 +13502,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 56258-2024</t>
+          <t>A 46726-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45624.64472222222</v>
+        <v>45583.46103009259</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13542,7 +13522,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13579,14 +13559,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 56262-2024</t>
+          <t>A 64966-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45624.65004629629</v>
+        <v>45283</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13599,7 +13579,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13636,14 +13616,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 62553-2021</t>
+          <t>A 7426-2026</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44501</v>
+        <v>46059.4309375</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13656,7 +13636,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>10.2</v>
+        <v>4.1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13693,14 +13673,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 18377-2025</t>
+          <t>A 28347-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45762.57496527778</v>
+        <v>44747.45532407407</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13713,7 +13693,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13750,14 +13730,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 25453-2024</t>
+          <t>A 31839-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45463.42144675926</v>
+        <v>45509.65498842593</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13769,8 +13749,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G223" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13807,14 +13792,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 52255-2024</t>
+          <t>A 19734-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45608.64011574074</v>
+        <v>45771.36695601852</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13826,8 +13811,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13864,14 +13854,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 39185-2024</t>
+          <t>A 35123-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45548</v>
+        <v>45145.50380787037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13883,8 +13873,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G225" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13921,14 +13916,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 63817-2023</t>
+          <t>A 10533-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45275</v>
+        <v>44987.92349537037</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13941,7 +13936,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>6.7</v>
+        <v>3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13978,14 +13973,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 19786-2025</t>
+          <t>A 63980-2021</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45771.44086805556</v>
+        <v>44509</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13997,13 +13992,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14040,14 +14030,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 60646-2024</t>
+          <t>A 17582-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45644.4325462963</v>
+        <v>45415</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14059,13 +14049,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G228" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14102,14 +14087,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 8937-2025</t>
+          <t>A 55444-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45713.44841435185</v>
+        <v>45231</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14122,7 +14107,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14159,14 +14144,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 8938-2025</t>
+          <t>A 55173-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45713.44842592593</v>
+        <v>45237</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14179,7 +14164,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14216,14 +14201,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 35354-2023</t>
+          <t>A 31817-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45146</v>
+        <v>45509</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14236,7 +14221,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14273,14 +14258,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 10533-2023</t>
+          <t>A 31699-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44987.92349537037</v>
+        <v>45508.61318287037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14292,8 +14277,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G232" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14330,14 +14320,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 34760-2023</t>
+          <t>A 63981-2021</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45139</v>
+        <v>44509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14350,7 +14340,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14387,14 +14377,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 53783-2024</t>
+          <t>A 46195-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45615</v>
+        <v>45581.51873842593</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14407,7 +14397,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14444,14 +14434,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 10440-2023</t>
+          <t>A 46205-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44987</v>
+        <v>45581.54357638889</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14464,7 +14454,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14501,14 +14491,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 17409-2025</t>
+          <t>A 35006-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45757.36844907407</v>
+        <v>45527</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14521,7 +14511,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14558,14 +14548,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 17414-2025</t>
+          <t>A 29476-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45757</v>
+        <v>45106.57149305556</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14578,7 +14568,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14615,14 +14605,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 20432-2025</t>
+          <t>A 31867-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45775.47893518519</v>
+        <v>45118.61844907407</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14635,7 +14625,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14672,14 +14662,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 35737-2024</t>
+          <t>A 31869-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45532</v>
+        <v>45118.62401620371</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14729,14 +14719,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 35755-2024</t>
+          <t>A 9086-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45532</v>
+        <v>44979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14749,7 +14739,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14786,14 +14776,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 35771-2024</t>
+          <t>A 27110-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45532</v>
+        <v>45471.50009259259</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14806,7 +14796,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14843,14 +14833,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 27530-2024</t>
+          <t>A 22193-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45474.56820601852</v>
+        <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14862,13 +14852,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14905,14 +14890,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 9086-2023</t>
+          <t>A 35557-2021</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44979</v>
+        <v>44385</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14925,7 +14910,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14962,14 +14947,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 4676-2023</t>
+          <t>A 10440-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44953</v>
+        <v>44987</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14982,7 +14967,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15019,14 +15004,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 28337-2022</t>
+          <t>A 45899-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44747.42982638889</v>
+        <v>45580.43047453704</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15038,8 +15023,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G245" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15076,14 +15066,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 47472-2024</t>
+          <t>A 21135-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45587.5741087963</v>
+        <v>45440</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15095,8 +15085,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G246" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15133,14 +15128,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 15678-2025</t>
+          <t>A 13758-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45748.45042824074</v>
+        <v>45390.92747685185</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15153,7 +15148,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>7.1</v>
+        <v>3.4</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15190,14 +15185,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 60033-2024</t>
+          <t>A 8938-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45642.46236111111</v>
+        <v>45713.44842592593</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15210,7 +15205,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>5.3</v>
+        <v>0.6</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15247,14 +15242,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 2018-2025</t>
+          <t>A 32785-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45672</v>
+        <v>45516.53230324074</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15266,13 +15261,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G249" t="n">
-        <v>1.5</v>
+        <v>5.3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15309,14 +15299,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 2020-2025</t>
+          <t>A 32792-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45672</v>
+        <v>45516.55068287037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15328,13 +15318,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G250" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15371,14 +15356,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 52536-2024</t>
+          <t>A 46212-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45609.61851851852</v>
+        <v>45581.55569444445</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15391,7 +15376,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15428,14 +15413,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 20640-2025</t>
+          <t>A 39185-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45776.37438657408</v>
+        <v>45548</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15448,7 +15433,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>5.2</v>
+        <v>1.6</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15485,14 +15470,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 31865-2023</t>
+          <t>A 60640-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45118.61383101852</v>
+        <v>45644.42787037037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15504,8 +15489,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G253" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15542,14 +15532,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 21435-2025</t>
+          <t>A 60557-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45782.51766203704</v>
+        <v>45259</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15562,7 +15552,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15599,14 +15589,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 21437-2025</t>
+          <t>A 59716-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45782.52001157407</v>
+        <v>45639.45857638889</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15619,7 +15609,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.8</v>
+        <v>5.8</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15656,14 +15646,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 21361-2025</t>
+          <t>A 27530-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45782.43983796296</v>
+        <v>45474.56820601852</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15675,8 +15665,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G256" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15713,14 +15708,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 21615-2025</t>
+          <t>A 19786-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45783.40077546296</v>
+        <v>45771.44086805556</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15738,7 +15733,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15775,14 +15770,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 22900-2025</t>
+          <t>A 44295-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45790.41079861111</v>
+        <v>45188.64064814815</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15794,13 +15789,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G258" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15837,14 +15827,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 23205-2025</t>
+          <t>A 28367-2022</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45791.46658564815</v>
+        <v>44747</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15856,13 +15846,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G259" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15899,14 +15884,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 23101-2025</t>
+          <t>A 20432-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45791.35427083333</v>
+        <v>45775.47893518519</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15918,13 +15903,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G260" t="n">
-        <v>8.199999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15961,14 +15941,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 23462-2025</t>
+          <t>A 38956-2022</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45792.43016203704</v>
+        <v>44816</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15981,7 +15961,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16018,14 +15998,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 23567-2025</t>
+          <t>A 42317-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45792.60107638889</v>
+        <v>45175</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16038,7 +16018,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16075,14 +16055,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 45126-2023</t>
+          <t>A 42327-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45187</v>
+        <v>45175</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16095,7 +16075,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16132,14 +16112,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 23453-2025</t>
+          <t>A 8940-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45792.42302083333</v>
+        <v>45713.44855324074</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16151,13 +16131,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G264" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16194,14 +16169,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 23465-2025</t>
+          <t>A 9039-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45792.43493055556</v>
+        <v>45356</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16214,7 +16189,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16251,14 +16226,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 23776-2025</t>
+          <t>A 44319-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45793.50012731482</v>
+        <v>45183</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16271,7 +16246,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>8.1</v>
+        <v>2.6</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16308,14 +16283,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 24346-2025</t>
+          <t>A 8937-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45797.58045138889</v>
+        <v>45713.44841435185</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16328,7 +16303,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16365,14 +16340,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 24342-2025</t>
+          <t>A 31865-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45797.57418981481</v>
+        <v>45118.61383101852</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16385,7 +16360,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16422,14 +16397,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 25206-2025</t>
+          <t>A 20640-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45800.46908564815</v>
+        <v>45776.37438657408</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16442,7 +16417,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>2.2</v>
+        <v>5.2</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16479,14 +16454,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 24805-2025</t>
+          <t>A 21435-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45799.4409375</v>
+        <v>45782.51766203704</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16499,7 +16474,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16536,14 +16511,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 24756-2025</t>
+          <t>A 21437-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45799.37510416667</v>
+        <v>45782.52001157407</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16556,7 +16531,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16593,14 +16568,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 25205-2025</t>
+          <t>A 21361-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45800.46907407408</v>
+        <v>45782.43983796296</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16613,7 +16588,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16650,14 +16625,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 24868-2025</t>
+          <t>A 21615-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45799.48819444444</v>
+        <v>45783.40077546296</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16669,8 +16644,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G273" t="n">
-        <v>1.8</v>
+        <v>5.4</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16707,14 +16687,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 24812-2025</t>
+          <t>A 45126-2023</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45799.44790509259</v>
+        <v>45187</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16727,7 +16707,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16764,14 +16744,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 24856-2025</t>
+          <t>A 23101-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45799.47508101852</v>
+        <v>45791.35427083333</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16783,8 +16763,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G275" t="n">
-        <v>1.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16821,14 +16806,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 24846-2025</t>
+          <t>A 23205-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45799.46851851852</v>
+        <v>45791.46658564815</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16840,8 +16825,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G276" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16878,14 +16868,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 24792-2025</t>
+          <t>A 22900-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45799</v>
+        <v>45790.41079861111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16897,8 +16887,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G277" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16935,14 +16930,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 26665-2025</t>
+          <t>A 23567-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45810</v>
+        <v>45792.60107638889</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16955,7 +16950,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16992,14 +16987,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 26576-2025</t>
+          <t>A 23462-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45807.68725694445</v>
+        <v>45792.43016203704</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17012,7 +17007,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17049,14 +17044,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 28694-2025</t>
+          <t>A 23776-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45819.88594907407</v>
+        <v>45793.50012731482</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17069,7 +17064,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>2.3</v>
+        <v>8.1</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17106,14 +17101,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 29912-2025</t>
+          <t>A 23453-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45826.40885416666</v>
+        <v>45792.42302083333</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17125,8 +17120,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G281" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17163,14 +17163,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 30163-2025</t>
+          <t>A 23465-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45827.32722222222</v>
+        <v>45792.43493055556</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17183,7 +17183,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17217,17 +17217,17 @@
       </c>
       <c r="R282" s="2" t="inlineStr"/>
     </row>
-    <row r="283">
+    <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 31986-2025</t>
+          <t>A 24342-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45835.36210648148</v>
+        <v>45797.57418981481</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17240,7 +17240,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17273,6 +17273,63 @@
         <v>0</v>
       </c>
       <c r="R283" s="2" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>A 24346-2025</t>
+        </is>
+      </c>
+      <c r="B284" s="1" t="n">
+        <v>45797.58045138889</v>
+      </c>
+      <c r="C284" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G284" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0</v>
+      </c>
+      <c r="L284" t="n">
+        <v>0</v>
+      </c>
+      <c r="M284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N284" t="n">
+        <v>0</v>
+      </c>
+      <c r="O284" t="n">
+        <v>0</v>
+      </c>
+      <c r="P284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>0</v>
+      </c>
+      <c r="R284" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -575,7 +575,7 @@
         <v>45796</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>44503.35390046296</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45943.38998842592</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45771.42275462963</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>45783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>46031.65877314815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>46007.44545138889</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         <v>45447.89238425926</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>46013.66015046297</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>45698.44841435185</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45979.59435185185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>46000.62998842593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>46007.44689814815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>46010.37401620371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44452</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>44355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>44651</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>44565.92820601852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44265</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44524.54244212963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>44446</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>44854.92494212963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>44565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44610</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44524.5028587963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>45229</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>45632.6391087963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>44285</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>45068.92707175926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>45601.37128472222</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>45411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>45532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>45532</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>44571</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>45103</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>45127.88890046296</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>44747.42982638889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>45114.60027777778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>45055</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>45644.4325462963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>45532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45637.59724537037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45757.36844907407</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>45757</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44691.52804398148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44853</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>45503.96868055555</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45504.39555555556</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>45516.57067129629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45146</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>45659</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>45799.37510416667</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>45799.46851851852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>45799.4409375</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45799.44790509259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45799</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45799.48819444444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>45103.59210648148</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45799.47508101852</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>45800.46907407408</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>45800.46908564815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>45246</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>45884.45541666666</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45807.68725694445</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>45810</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>44565</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45824.69697916666</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45680.78527777778</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45673</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45099</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45819.88594907407</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>45905.62662037037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>45908.67744212963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>45825.85599537037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>45909.45178240741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44854</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>45909</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>45356</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>45177</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>45827.32722222222</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>45912.38184027778</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45826.40885416666</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>45257</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>45918.64300925926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>45918.406875</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>45918.49681712963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>45918.50277777778</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>44846</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>44376</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>45532</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>45517</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>45672</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>45672</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>45730</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>45835.36210648148</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>44929</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>45939.45946759259</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>45937</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>45937.46611111111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>45669.68052083333</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>45937.43040509259</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>45357.55085648148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>45939.39337962963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>45582.6006712963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>45938.63061342593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>45940.43907407407</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>45608.64011574074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44235</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>45950.87297453704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>45713.44832175926</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>45713.4485300926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>45951.58085648148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>45951.38592592593</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>45951.59630787037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>45587.5741087963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>44970</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>45957.47133101852</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>45957.48430555555</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>45957.47827546296</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>45873.66607638889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>45957.45483796296</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>45762.57496527778</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>45762.57891203704</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>45419</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>45463.42144675926</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>44935</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>45877.32516203704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>45965.67487268519</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>45462</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>45964.63417824074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>45965.66751157407</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>45965.48461805555</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45748.45042824074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>45761.87467592592</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>45615</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>45974.63405092592</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>45975.45373842592</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>45975.60040509259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>45975.48762731482</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>45974.64</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>45978.46716435185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>45979.58972222222</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>45978.47253472222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>45978.47366898148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>45978.67543981481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>45980.49452546296</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9509,7 +9509,7 @@
         <v>45980.35763888889</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>45980.46134259259</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>44581</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>45218</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>45146.52483796296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>45673.39678240741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>45986.49008101852</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>46029.60719907407</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>45986.39486111111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>45609.61851851852</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>46030.42516203703</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>45730.43505787037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>45992.87564814815</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>46034.49119212963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>46034.46947916667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>46037.40002314815</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>45139</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>46036.33851851852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>45754</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>45995.65939814815</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44235</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>45996.38447916666</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>46038.37417824074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>45275</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>46038.37543981482</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>45669.67790509259</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>45549</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>45748.44657407407</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>45527</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>46000.57684027778</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>46000</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>46042.63204861111</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>46000.62005787037</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>46001.48989583334</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>46000.51967592593</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>46000.54702546296</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>46000.55134259259</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44375</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>46000.58409722222</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>46000.61395833334</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>46000.48337962963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>46042.6296412037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>46000.46293981482</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>45106</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>46044.59418981482</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>45642.46236111111</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>45103</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>45146</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>46044.55434027778</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>46044.59416666667</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>46044</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>46048.6465625</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44953</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>45737.43103009259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>46008.61939814815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>46048.43700231481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>45439.666875</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>45751.54825231482</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>46013.66307870371</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12877,7 +12877,7 @@
         <v>46010.37174768518</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>46010.59076388889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12991,7 +12991,7 @@
         <v>46013.4020949074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>45698.44835648148</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>44501</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>45678.39038194445</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>45624.64472222222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>45624.65004629629</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13338,7 +13338,7 @@
         <v>45609.61578703704</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13395,7 +13395,7 @@
         <v>45609.61697916667</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13452,7 +13452,7 @@
         <v>45098</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>45583.46103009259</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         <v>45283</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>46059.4309375</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44747.45532407407</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>45509.65498842593</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>45771.36695601852</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13861,7 +13861,7 @@
         <v>45145.50380787037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44987.92349537037</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44509</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>45415</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>45231</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>45237</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>45509</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>45508.61318287037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>45581.51873842593</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>45581.54357638889</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>45527</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>45106.57149305556</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>45118.61844907407</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>45118.62401620371</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>44979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>45471.50009259259</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>44385</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44987</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>45580.43047453704</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>45440</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>45390.92747685185</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>45713.44842592593</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>45516.53230324074</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>45516.55068287037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>45581.55569444445</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>45548</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>45644.42787037037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>45259</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>45639.45857638889</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>45474.56820601852</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>45771.44086805556</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>45188.64064814815</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>44747</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>45775.47893518519</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44816</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>45175</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>45175</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>45713.44855324074</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>45356</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>45183</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>45713.44841435185</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>45118.61383101852</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>45776.37438657408</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>45782.51766203704</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>45782.52001157407</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>45782.43983796296</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>45783.40077546296</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>45187</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>45791.35427083333</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>45791.46658564815</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>45790.41079861111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>45792.60107638889</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
         <v>45792.43016203704</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>45793.50012731482</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17108,7 +17108,7 @@
         <v>45792.42302083333</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>45792.43493055556</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>45797.57418981481</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>45797.58045138889</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>

--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -575,7 +575,7 @@
         <v>45796</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>44503.35390046296</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45943.38998842592</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45771.42275462963</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>45783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>46031.65877314815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>46007.44545138889</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         <v>45447.89238425926</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>46013.66015046297</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>45698.44841435185</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45979.59435185185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>46000.62998842593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>46007.44689814815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>46010.37401620371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44452</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>44355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>44651</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>44565.92820601852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44265</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44524.54244212963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>44446</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>44854.92494212963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>44565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44610</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44524.5028587963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>45229</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>45632.6391087963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>44285</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>45068.92707175926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>45601.37128472222</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>45411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>45532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>45532</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>44571</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>45103</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>45127.88890046296</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>44747.42982638889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>45114.60027777778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>45055</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>45644.4325462963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>45532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45637.59724537037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45757.36844907407</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>45757</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44691.52804398148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44853</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>45503.96868055555</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45504.39555555556</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>45516.57067129629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45146</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>45659</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>45799.37510416667</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>45799.46851851852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>45799.4409375</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45799.44790509259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45799</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45799.48819444444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>45103.59210648148</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45799.47508101852</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>45800.46907407408</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>45800.46908564815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>45246</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>45884.45541666666</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45807.68725694445</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>45810</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>44565</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45824.69697916666</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45680.78527777778</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45673</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45099</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45819.88594907407</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>45905.62662037037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>45908.67744212963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>45825.85599537037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>45909.45178240741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44854</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>45909</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>45356</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>45177</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>45827.32722222222</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>45912.38184027778</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45826.40885416666</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>45257</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>45918.64300925926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>45918.406875</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>45918.49681712963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>45918.50277777778</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>44846</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>44376</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>45532</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>45517</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>45672</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>45672</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>45730</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>45835.36210648148</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>44929</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>45939.45946759259</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>45937</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>45937.46611111111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>45669.68052083333</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>45937.43040509259</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>45357.55085648148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>45939.39337962963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>45582.6006712963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>45938.63061342593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>45940.43907407407</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>45608.64011574074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44235</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>45950.87297453704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>45713.44832175926</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>45713.4485300926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>45951.58085648148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>45951.38592592593</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>45951.59630787037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>45587.5741087963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>44970</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>45957.47133101852</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>45957.48430555555</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>45957.47827546296</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>45873.66607638889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>45957.45483796296</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>45762.57496527778</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>45762.57891203704</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>45419</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>45463.42144675926</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>44935</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>45877.32516203704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>45965.67487268519</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>45462</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>45964.63417824074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>45965.66751157407</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>45965.48461805555</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45748.45042824074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>45761.87467592592</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>45615</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>45974.63405092592</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>45975.45373842592</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>45975.60040509259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>45975.48762731482</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>45974.64</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>45978.46716435185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>45979.58972222222</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>45978.47253472222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>45978.47366898148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>45978.67543981481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>45980.49452546296</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9509,7 +9509,7 @@
         <v>45980.35763888889</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>45980.46134259259</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>44581</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>45218</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>45146.52483796296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>45673.39678240741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>45986.49008101852</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>46029.60719907407</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>45986.39486111111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>45609.61851851852</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>46030.42516203703</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>45730.43505787037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>45992.87564814815</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>46034.49119212963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>46034.46947916667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>46037.40002314815</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>45139</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>46036.33851851852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>45754</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>45995.65939814815</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44235</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>45996.38447916666</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>46038.37417824074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>45275</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>46038.37543981482</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>45669.67790509259</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>45549</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>45748.44657407407</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>45527</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>46000.57684027778</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>46000</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>46042.63204861111</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>46000.62005787037</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>46001.48989583334</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>46000.51967592593</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>46000.54702546296</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>46000.55134259259</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44375</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>46000.58409722222</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>46000.61395833334</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>46000.48337962963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>46042.6296412037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>46000.46293981482</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>45106</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>46044.59418981482</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>45642.46236111111</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>45103</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>45146</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>46044.55434027778</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>46044.59416666667</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>46044</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>46048.6465625</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>44953</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>45737.43103009259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>46008.61939814815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>46048.43700231481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>45439.666875</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>45751.54825231482</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>46013.66307870371</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12877,7 +12877,7 @@
         <v>46010.37174768518</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>46010.59076388889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12991,7 +12991,7 @@
         <v>46013.4020949074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>45698.44835648148</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>44501</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>45678.39038194445</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>45624.64472222222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>45624.65004629629</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13338,7 +13338,7 @@
         <v>45609.61578703704</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13395,7 +13395,7 @@
         <v>45609.61697916667</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13452,7 +13452,7 @@
         <v>45098</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>45583.46103009259</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         <v>45283</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>46059.4309375</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44747.45532407407</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>45509.65498842593</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>45771.36695601852</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13861,7 +13861,7 @@
         <v>45145.50380787037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44987.92349537037</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44509</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>45415</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>45231</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>45237</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>45509</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>45508.61318287037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44509</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>45581.51873842593</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>45581.54357638889</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>45527</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>45106.57149305556</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>45118.61844907407</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>45118.62401620371</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>44979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>45471.50009259259</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>45069</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>44385</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44987</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>45580.43047453704</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>45440</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>45390.92747685185</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>45713.44842592593</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>45516.53230324074</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>45516.55068287037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>45581.55569444445</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>45548</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>45644.42787037037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>45259</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>45639.45857638889</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>45474.56820601852</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>45771.44086805556</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>45188.64064814815</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>44747</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>45775.47893518519</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44816</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>45175</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>45175</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>45713.44855324074</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>45356</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>45183</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>45713.44841435185</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>45118.61383101852</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>45776.37438657408</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>45782.51766203704</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>45782.52001157407</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>45782.43983796296</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>45783.40077546296</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>45187</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>45791.35427083333</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>45791.46658564815</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>45790.41079861111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>45792.60107638889</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
         <v>45792.43016203704</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>45793.50012731482</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17108,7 +17108,7 @@
         <v>45792.42302083333</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>45792.43493055556</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>45797.57418981481</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>45797.58045138889</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>

--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z284"/>
+  <dimension ref="A1:Z282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45796</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>44503.35390046296</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45943.38998842592</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45771.42275462963</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>45783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>46031.65877314815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>46007.44545138889</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,14 +1242,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 22648-2024</t>
+          <t>A 63573-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45447.89238425926</v>
+        <v>46013.66015046297</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1261,16 +1261,11 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1301,129 +1296,134 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Järpe
+Sotriska</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 63573-2025 artfynd.xlsx", "A 63573-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 63573-2025 karta.png", "A 63573-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 63573-2025 FSC-klagomål.docx", "A 63573-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 63573-2025 FSC-klagomål mail.docx", "A 63573-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 63573-2025 tillsynsbegäran.docx", "A 63573-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 63573-2025 tillsynsbegäran mail.docx", "A 63573-2025")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 63573-2025 prioriterade fågelarter.docx", "A 63573-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 22648-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45447.89238425926</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Spindelblomster</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 22648-2024 artfynd.xlsx", "A 22648-2024")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 22648-2024 karta.png", "A 22648-2024")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 22648-2024 FSC-klagomål.docx", "A 22648-2024")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 22648-2024 FSC-klagomål mail.docx", "A 22648-2024")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 22648-2024 tillsynsbegäran.docx", "A 22648-2024")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 22648-2024 tillsynsbegäran mail.docx", "A 22648-2024")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 22648-2024 prioriterade fågelarter.docx", "A 22648-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 63573-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>46013.66015046297</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Järpe
-Sotriska</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 63573-2025 artfynd.xlsx", "A 63573-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 63573-2025 karta.png", "A 63573-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 63573-2025 FSC-klagomål.docx", "A 63573-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 63573-2025 FSC-klagomål mail.docx", "A 63573-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 63573-2025 tillsynsbegäran.docx", "A 63573-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 63573-2025 tillsynsbegäran mail.docx", "A 63573-2025")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 63573-2025 prioriterade fågelarter.docx", "A 63573-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>45698.44841435185</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45979.59435185185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>46000.62998842593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>46007.44689814815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>46010.37401620371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44452</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>44355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>44651</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>44565.92820601852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44265</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44524.54244212963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>44446</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>44854.92494212963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>44565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44610</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44524.5028587963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2545,14 +2545,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 54793-2023</t>
+          <t>A 1437-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45229</v>
+        <v>45669.67790509259</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.8</v>
+        <v>11.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2602,14 +2602,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 58340-2024</t>
+          <t>A 52536-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45632.6391087963</v>
+        <v>45218</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2659,14 +2659,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 15409-2021</t>
+          <t>A 38956-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44285</v>
+        <v>44816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2716,14 +2716,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 22002-2023</t>
+          <t>A 46434-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45068.92707175926</v>
+        <v>44846</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2773,14 +2773,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 50413-2024</t>
+          <t>A 15674-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45601.37128472222</v>
+        <v>45748.44657407407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2792,13 +2792,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>23.4</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2835,14 +2830,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 16782-2024</t>
+          <t>A 13758-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45411</v>
+        <v>45390.92747685185</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2855,7 +2850,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2892,14 +2887,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 35737-2024</t>
+          <t>A 31264-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45532</v>
+        <v>45503.96868055555</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2911,8 +2906,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2949,14 +2949,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 35771-2024</t>
+          <t>A 31277-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45532</v>
+        <v>45504.39555555556</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2968,8 +2968,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3006,14 +3011,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 846-2022</t>
+          <t>A 1058-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44571</v>
+        <v>44929</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3026,7 +3031,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3063,14 +3068,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 31133-2023</t>
+          <t>A 63980-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45103</v>
+        <v>44509</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3083,7 +3088,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3120,14 +3125,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 33319-2023</t>
+          <t>A 32956-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45127.88890046296</v>
+        <v>45517</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3139,8 +3144,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3177,14 +3187,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 28337-2022</t>
+          <t>A 28694-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44747.42982638889</v>
+        <v>45819.88594907407</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3197,7 +3207,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3234,14 +3244,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 31421-2023</t>
+          <t>A 38566-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45114.60027777778</v>
+        <v>45884.45541666666</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3253,13 +3263,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3296,14 +3301,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 20228-2023</t>
+          <t>A 29912-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45055</v>
+        <v>45826.40885416666</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3316,7 +3321,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3353,14 +3358,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 60646-2024</t>
+          <t>A 58340-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45644.4325462963</v>
+        <v>45632.6391087963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3372,13 +3377,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3415,14 +3415,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 35734-2024</t>
+          <t>A 7871-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45532</v>
+        <v>44970</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3472,14 +3472,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 59253-2024</t>
+          <t>A 30163-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45637.59724537037</v>
+        <v>45827.32722222222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3529,14 +3529,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 17409-2025</t>
+          <t>A 46205-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45757.36844907407</v>
+        <v>45581.54357638889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3586,14 +3586,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 17414-2025</t>
+          <t>A 46195-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45757</v>
+        <v>45581.51873842593</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3643,14 +3643,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 19100-2022</t>
+          <t>A 426-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44691.52804398148</v>
+        <v>44565</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3700,14 +3700,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 47976-2022</t>
+          <t>A 31986-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44853</v>
+        <v>45835.36210648148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3757,14 +3757,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 31264-2024</t>
+          <t>A 29462-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45503.96868055555</v>
+        <v>45824.69697916666</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,13 +3776,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>11.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3819,14 +3814,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 31277-2024</t>
+          <t>A 9026-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45504.39555555556</v>
+        <v>45356</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3838,13 +3833,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>5.2</v>
+        <v>0.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3881,14 +3871,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 32809-2024</t>
+          <t>A 46212-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45516.57067129629</v>
+        <v>45581.55569444445</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3901,7 +3891,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3938,14 +3928,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 35354-2023</t>
+          <t>A 57777-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45146</v>
+        <v>45246</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3958,7 +3948,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.3</v>
+        <v>4.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3995,14 +3985,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 47-2025</t>
+          <t>A 12410-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45659</v>
+        <v>45730.43505787037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4015,7 +4005,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4052,14 +4042,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 24756-2025</t>
+          <t>A 42902-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45799.37510416667</v>
+        <v>45908.67744212963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4072,7 +4062,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4109,14 +4099,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 24846-2025</t>
+          <t>A 2201-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45799.46851851852</v>
+        <v>45673.39678240741</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4129,7 +4119,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4166,14 +4156,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 24805-2025</t>
+          <t>A 29823-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45799.4409375</v>
+        <v>45825.85599537037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4186,7 +4176,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.4</v>
+        <v>7.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4223,14 +4213,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 24812-2025</t>
+          <t>A 42584-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45799.44790509259</v>
+        <v>45905.62662037037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4243,7 +4233,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4280,14 +4270,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 24792-2025</t>
+          <t>A 32792-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45799</v>
+        <v>45516.55068287037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4300,7 +4290,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4337,14 +4327,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 24868-2025</t>
+          <t>A 32809-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45799.48819444444</v>
+        <v>45516.57067129629</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4357,7 +4347,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4394,14 +4384,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 28615-2023</t>
+          <t>A 42990-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45103.59210648148</v>
+        <v>45909.45178240741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4414,7 +4404,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4451,14 +4441,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 24856-2025</t>
+          <t>A 28615-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45799.47508101852</v>
+        <v>45103.59210648148</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4471,7 +4461,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>5.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4508,14 +4498,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 25205-2025</t>
+          <t>A 43030-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45800.46907407408</v>
+        <v>45909</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4527,8 +4517,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4565,14 +4560,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 25206-2025</t>
+          <t>A 42141-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45800.46908564815</v>
+        <v>45177</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4585,7 +4580,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4622,14 +4617,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 57777-2023</t>
+          <t>A 43685-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45246</v>
+        <v>45912.38184027778</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4642,7 +4637,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4679,14 +4674,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 38566-2025</t>
+          <t>A 31133-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45884.45541666666</v>
+        <v>45103</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4699,7 +4694,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4736,14 +4731,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 26576-2025</t>
+          <t>A 36801-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45807.68725694445</v>
+        <v>45873.66607638889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4756,7 +4751,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4793,14 +4788,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 26665-2025</t>
+          <t>A 1438-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45810</v>
+        <v>45669.68052083333</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4813,7 +4808,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4850,14 +4845,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 426-2022</t>
+          <t>A 2286-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44565</v>
+        <v>45673</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4870,7 +4865,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4907,14 +4902,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 29462-2025</t>
+          <t>A 44889-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45824.69697916666</v>
+        <v>45918.49681712963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4927,7 +4922,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>11.1</v>
+        <v>4.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4964,14 +4959,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 3584-2025</t>
+          <t>A 44832-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45680.78527777778</v>
+        <v>45918.406875</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4984,7 +4979,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5021,14 +5016,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 2286-2025</t>
+          <t>A 37364-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45673</v>
+        <v>45877.32516203704</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5041,7 +5036,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5078,14 +5073,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 30221-2023</t>
+          <t>A 44975-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45099</v>
+        <v>45918.64300925926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5098,7 +5093,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5135,14 +5130,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 28694-2025</t>
+          <t>A 44895-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45819.88594907407</v>
+        <v>45918.50277777778</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5155,7 +5150,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5192,14 +5187,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 42584-2025</t>
+          <t>A 8935-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45905.62662037037</v>
+        <v>45713.44832175926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5212,7 +5207,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5249,14 +5244,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 42902-2025</t>
+          <t>A 25347-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45908.67744212963</v>
+        <v>45462</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5269,7 +5264,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5306,14 +5301,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 29823-2025</t>
+          <t>A 31421-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45825.85599537037</v>
+        <v>45114.60027777778</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5325,8 +5320,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5363,14 +5363,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 42990-2025</t>
+          <t>A 32739-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45909.45178240741</v>
+        <v>44375</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5420,14 +5420,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 47771-2022</t>
+          <t>A 60640-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44854</v>
+        <v>45644.42787037037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5439,8 +5439,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5477,14 +5482,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 43030-2025</t>
+          <t>A 47976-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45909</v>
+        <v>44853</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5496,13 +5501,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5539,14 +5539,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 9026-2024</t>
+          <t>A 63981-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45356</v>
+        <v>44509</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5596,14 +5596,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 42141-2023</t>
+          <t>A 44319-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45177</v>
+        <v>45183</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5653,14 +5653,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 30163-2025</t>
+          <t>A 3584-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45827.32722222222</v>
+        <v>45680.78527777778</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5710,14 +5710,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 43685-2025</t>
+          <t>A 33226-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45912.38184027778</v>
+        <v>44376</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5767,14 +5767,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 29912-2025</t>
+          <t>A 18380-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45826.40885416666</v>
+        <v>45762.57891203704</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5824,14 +5824,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 59771-2023</t>
+          <t>A 18231-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45257</v>
+        <v>45761.87467592592</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5881,14 +5881,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 44975-2025</t>
+          <t>A 20228-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45918.64300925926</v>
+        <v>45055</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5938,14 +5938,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 44832-2025</t>
+          <t>A 31839-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45918.406875</v>
+        <v>45509.65498842593</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5957,8 +5957,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5995,14 +6000,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 44889-2025</t>
+          <t>A 22002-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45918.49681712963</v>
+        <v>45068.92707175926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6015,7 +6020,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6052,14 +6057,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 44895-2025</t>
+          <t>A 48859-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45918.50277777778</v>
+        <v>45937</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6072,7 +6077,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6109,14 +6114,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 46434-2022</t>
+          <t>A 49371-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44846</v>
+        <v>45938.63061342593</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6129,7 +6134,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6166,14 +6171,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 33226-2021</t>
+          <t>A 48886-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44376</v>
+        <v>45937.46611111111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6186,7 +6191,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6223,14 +6228,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 35755-2024</t>
+          <t>A 29476-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45532</v>
+        <v>45106.57149305556</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6243,7 +6248,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6280,14 +6285,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 32956-2024</t>
+          <t>A 29485-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45517</v>
+        <v>45106</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6299,13 +6304,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6342,14 +6342,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 2018-2025</t>
+          <t>A 48852-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45672</v>
+        <v>45937.43040509259</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6361,13 +6361,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6404,14 +6399,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 2020-2025</t>
+          <t>A 49820-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45672</v>
+        <v>45940.43907407407</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6425,11 +6420,11 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6466,14 +6461,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 12425-2025</t>
+          <t>A 49520-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45730</v>
+        <v>45939.39337962963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6486,7 +6481,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6523,14 +6518,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 31986-2025</t>
+          <t>A 49559-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45835.36210648148</v>
+        <v>45939.45946759259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6543,7 +6538,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.8</v>
+        <v>7.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6580,14 +6575,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 1058-2023</t>
+          <t>A 42317-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44929</v>
+        <v>45175</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6600,7 +6595,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6637,14 +6632,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 49559-2025</t>
+          <t>A 42327-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45939.45946759259</v>
+        <v>45175</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6657,7 +6652,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>7.2</v>
+        <v>3.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6694,14 +6689,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 48859-2025</t>
+          <t>A 9039-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45937</v>
+        <v>45356</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6714,7 +6709,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6751,14 +6746,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 48886-2025</t>
+          <t>A 51605-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45937.46611111111</v>
+        <v>45951.38592592593</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6771,7 +6766,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.8</v>
+        <v>4.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6808,14 +6803,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 1438-2025</t>
+          <t>A 55173-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45669.68052083333</v>
+        <v>45237</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6828,7 +6823,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6865,14 +6860,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 48852-2025</t>
+          <t>A 51737-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45937.43040509259</v>
+        <v>45951.59630787037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6885,7 +6880,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6922,14 +6917,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 8993-2024</t>
+          <t>A 51722-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45357.55085648148</v>
+        <v>45951.58085648148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6942,7 +6937,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6979,14 +6974,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 49520-2025</t>
+          <t>A 51553-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45939.39337962963</v>
+        <v>45950.87297453704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6999,7 +6994,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7036,14 +7031,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 46501-2024</t>
+          <t>A 54793-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45582.6006712963</v>
+        <v>45229</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7056,7 +7051,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7093,14 +7088,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 49371-2025</t>
+          <t>A 35734-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45938.63061342593</v>
+        <v>45532</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7113,7 +7108,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7150,14 +7145,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 49820-2025</t>
+          <t>A 52842-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45940.43907407407</v>
+        <v>45957.47827546296</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7169,13 +7164,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7212,14 +7202,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 52255-2024</t>
+          <t>A 52820-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45608.64011574074</v>
+        <v>45957.45483796296</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7232,7 +7222,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7269,14 +7259,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 6288-2021</t>
+          <t>A 52845-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44235</v>
+        <v>45957.48430555555</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7289,7 +7279,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7326,14 +7316,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 51553-2025</t>
+          <t>A 52835-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45950.87297453704</v>
+        <v>45957.47133101852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7346,7 +7336,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7383,14 +7373,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 8935-2025</t>
+          <t>A 64966-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45713.44832175926</v>
+        <v>45283</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7403,7 +7393,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7440,14 +7430,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 8939-2025</t>
+          <t>A 35006-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45713.4485300926</v>
+        <v>45527</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7460,7 +7450,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7497,14 +7487,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 51722-2025</t>
+          <t>A 54243-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45951.58085648148</v>
+        <v>45964.63417824074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7517,7 +7507,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.7</v>
+        <v>6.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7554,14 +7544,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 51605-2025</t>
+          <t>A 54562-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45951.38592592593</v>
+        <v>45965.66751157407</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7574,7 +7564,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7611,14 +7601,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 51737-2025</t>
+          <t>A 54421-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45951.59630787037</v>
+        <v>45965.48461805555</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7631,7 +7621,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.6</v>
+        <v>10.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7668,14 +7658,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 47472-2024</t>
+          <t>A 54570-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45587.5741087963</v>
+        <v>45965.67487268519</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7688,7 +7678,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7725,14 +7715,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 7871-2023</t>
+          <t>A 56320-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44970</v>
+        <v>45974.63405092592</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7745,7 +7735,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7782,14 +7772,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 52835-2025</t>
+          <t>A 35011-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45957.47133101852</v>
+        <v>45527</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7802,7 +7792,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7839,14 +7829,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 52845-2025</t>
+          <t>A 56329-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45957.48430555555</v>
+        <v>45974.64</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7859,7 +7849,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7896,14 +7886,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 52842-2025</t>
+          <t>A 27110-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45957.47827546296</v>
+        <v>45471.50009259259</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7916,7 +7906,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7953,14 +7943,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 36801-2025</t>
+          <t>A 8939-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45873.66607638889</v>
+        <v>45713.4485300926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7973,7 +7963,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8010,14 +8000,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 52820-2025</t>
+          <t>A 56553-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45957.45483796296</v>
+        <v>45975.48762731482</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8030,7 +8020,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8067,14 +8057,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 18377-2025</t>
+          <t>A 56513-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45762.57496527778</v>
+        <v>45975.45373842592</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8087,7 +8077,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.6</v>
+        <v>8.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8124,14 +8114,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 18380-2025</t>
+          <t>A 35360-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45762.57891203704</v>
+        <v>45146.52483796296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8144,7 +8134,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8181,14 +8171,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 17981-2024</t>
+          <t>A 56835-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45419</v>
+        <v>45978.47366898148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8201,7 +8191,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8238,14 +8228,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 25453-2024</t>
+          <t>A 56966-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45463.42144675926</v>
+        <v>45978.67543981481</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8258,7 +8248,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8295,14 +8285,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 1006-2023</t>
+          <t>A 56831-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44935</v>
+        <v>45978.46716435185</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8315,7 +8305,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8352,14 +8342,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 37364-2025</t>
+          <t>A 56622-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45877.32516203704</v>
+        <v>45975.60040509259</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8372,7 +8362,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8409,14 +8399,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 54570-2025</t>
+          <t>A 56833-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45965.67487268519</v>
+        <v>45978.47253472222</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8429,7 +8419,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8466,14 +8456,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 25347-2024</t>
+          <t>A 35123-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45462</v>
+        <v>45145.50380787037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8485,8 +8475,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8523,14 +8518,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 54243-2025</t>
+          <t>A 57347-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45964.63417824074</v>
+        <v>45980.35763888889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8543,7 +8538,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8580,14 +8575,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 54562-2025</t>
+          <t>A 46726-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45965.66751157407</v>
+        <v>45583.46103009259</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8600,7 +8595,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8637,14 +8632,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 54421-2025</t>
+          <t>A 57448-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45965.48461805555</v>
+        <v>45980.49452546296</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8656,8 +8651,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>10.4</v>
+        <v>2.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8694,14 +8694,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 15678-2025</t>
+          <t>A 57203-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45748.45042824074</v>
+        <v>45979.58972222222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8713,8 +8713,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>7.1</v>
+        <v>20.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8751,14 +8756,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 18231-2025</t>
+          <t>A 57424-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45761.87467592592</v>
+        <v>45980.46134259259</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8770,8 +8775,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8808,14 +8818,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 53783-2024</t>
+          <t>A 46501-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45615</v>
+        <v>45582.6006712963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8828,7 +8838,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8865,14 +8875,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 56320-2025</t>
+          <t>A 31867-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45974.63405092592</v>
+        <v>45118.61844907407</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8885,7 +8895,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8922,14 +8932,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 56513-2025</t>
+          <t>A 33319-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45975.45373842592</v>
+        <v>45127.88890046296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8942,7 +8952,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8979,14 +8989,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 56622-2025</t>
+          <t>A 17981-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45975.60040509259</v>
+        <v>45419</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8999,7 +9009,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9036,14 +9046,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 56553-2025</t>
+          <t>A 45899-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45975.48762731482</v>
+        <v>45580.43047453704</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9055,8 +9065,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9093,14 +9108,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 56329-2025</t>
+          <t>A 31817-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45974.64</v>
+        <v>45509</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9113,7 +9128,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9150,14 +9165,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 56831-2025</t>
+          <t>A 58637-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45978.46716435185</v>
+        <v>45986.49008101852</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9170,7 +9185,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9207,14 +9222,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 57203-2025</t>
+          <t>A 58584-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45979.58972222222</v>
+        <v>45986.39486111111</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9226,13 +9241,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>20.1</v>
+        <v>0.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9269,14 +9279,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 56833-2025</t>
+          <t>A 52531-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45978.47253472222</v>
+        <v>45609.61578703704</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9289,7 +9299,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9326,14 +9336,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 56835-2025</t>
+          <t>A 52533-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45978.47366898148</v>
+        <v>45609.61697916667</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9346,7 +9356,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9383,14 +9393,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 56966-2025</t>
+          <t>A 862-2026</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45978.67543981481</v>
+        <v>46030.42516203703</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9403,7 +9413,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9440,14 +9450,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 57448-2025</t>
+          <t>A 686-2026</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45980.49452546296</v>
+        <v>46029.60719907407</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9459,13 +9469,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9502,14 +9507,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 57347-2025</t>
+          <t>A 8940-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45980.35763888889</v>
+        <v>45713.44855324074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9522,7 +9527,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>6.9</v>
+        <v>0.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9559,14 +9564,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 57424-2025</t>
+          <t>A 21041-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45980.46134259259</v>
+        <v>45439.666875</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9578,13 +9583,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9621,14 +9621,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 2933-2022</t>
+          <t>A 59716-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44581</v>
+        <v>45639.45857638889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.8</v>
+        <v>5.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9678,14 +9678,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 52536-2023</t>
+          <t>A 1614-2026</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45218</v>
+        <v>46034.46947916667</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3.8</v>
+        <v>9.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9735,14 +9735,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 35360-2023</t>
+          <t>A 1633-2026</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45146.52483796296</v>
+        <v>46034.49119212963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9792,14 +9792,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 2201-2025</t>
+          <t>A 50413-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45673.39678240741</v>
+        <v>45601.37128472222</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9811,8 +9811,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>3.8</v>
+        <v>23.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9849,14 +9854,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 58637-2025</t>
+          <t>A 47-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45986.49008101852</v>
+        <v>45659</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9869,7 +9874,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4.4</v>
+        <v>1.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9906,14 +9911,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 686-2026</t>
+          <t>A 59867-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46029.60719907407</v>
+        <v>45992.87564814815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9926,7 +9931,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9963,14 +9968,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 58584-2025</t>
+          <t>A 2072-2026</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45986.39486111111</v>
+        <v>46036.33851851852</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9983,7 +9988,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10020,14 +10025,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 52536-2024</t>
+          <t>A 13762-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45609.61851851852</v>
+        <v>45737.43103009259</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10040,7 +10045,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10077,14 +10082,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 862-2026</t>
+          <t>A 29573-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>46030.42516203703</v>
+        <v>45098</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10097,7 +10102,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10134,14 +10139,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 12410-2025</t>
+          <t>A 2774-2026</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45730.43505787037</v>
+        <v>46038.37543981482</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10154,7 +10159,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10191,14 +10196,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 59867-2025</t>
+          <t>A 60533-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45992.87564814815</v>
+        <v>45995.65939814815</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10211,7 +10216,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10248,14 +10253,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 1633-2026</t>
+          <t>A 60619-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46034.49119212963</v>
+        <v>45996.38447916666</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10268,7 +10273,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10305,14 +10310,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 1614-2026</t>
+          <t>A 2772-2026</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>46034.46947916667</v>
+        <v>46038.37417824074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10325,7 +10330,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>9.1</v>
+        <v>7.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10369,7 +10374,7 @@
         <v>46037.40002314815</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10419,14 +10424,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 34760-2023</t>
+          <t>A 61176-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45139</v>
+        <v>46000.57684027778</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10439,7 +10444,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10476,14 +10481,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 2072-2026</t>
+          <t>A 61182-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46036.33851851852</v>
+        <v>46000.58409722222</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10496,7 +10501,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10533,14 +10538,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 17073-2025</t>
+          <t>A 61204-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45754</v>
+        <v>46000.61395833334</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10553,7 +10558,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10590,14 +10595,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 60533-2025</t>
+          <t>A 61118-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45995.65939814815</v>
+        <v>46000.46293981482</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10610,7 +10615,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10647,14 +10652,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 6292-2021</t>
+          <t>A 21135-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44235</v>
+        <v>45440</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10666,8 +10671,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10704,14 +10714,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 60619-2025</t>
+          <t>A 2942-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45996.38447916666</v>
+        <v>45678.39038194445</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10724,7 +10734,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10761,14 +10771,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 2772-2026</t>
+          <t>A 6179-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46038.37417824074</v>
+        <v>45698.44835648148</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10781,7 +10791,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>7.7</v>
+        <v>4.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10818,14 +10828,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 63817-2023</t>
+          <t>A 3538-2026</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45275</v>
+        <v>46042.6296412037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10838,7 +10848,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>6.7</v>
+        <v>2.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10875,14 +10885,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 2774-2026</t>
+          <t>A 55444-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46038.37543981482</v>
+        <v>45231</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10895,7 +10905,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10932,14 +10942,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 1437-2025</t>
+          <t>A 61127-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45669.67790509259</v>
+        <v>46000.48337962963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10952,7 +10962,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>11.7</v>
+        <v>0.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10989,14 +10999,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 39220-2024</t>
+          <t>A 61216-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45549</v>
+        <v>46000.62005787037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11009,7 +11019,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.4</v>
+        <v>4.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11046,14 +11056,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 15674-2025</t>
+          <t>A 61221-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45748.44657407407</v>
+        <v>46000</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11066,7 +11076,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11103,14 +11113,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 35011-2024</t>
+          <t>A 61142-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45527</v>
+        <v>46000.51967592593</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11123,7 +11133,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11160,14 +11170,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 61176-2025</t>
+          <t>A 61155-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>46000.57684027778</v>
+        <v>46000.54702546296</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11180,7 +11190,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>8.300000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11217,14 +11227,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 61221-2025</t>
+          <t>A 3540-2026</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46000</v>
+        <v>46042.63204861111</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11237,7 +11247,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11274,14 +11284,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 3540-2026</t>
+          <t>A 4090-2026</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46042.63204861111</v>
+        <v>46044.55434027778</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11294,7 +11304,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11331,14 +11341,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 61216-2025</t>
+          <t>A 61403-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46000.62005787037</v>
+        <v>46001.48989583334</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11351,7 +11361,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>4.2</v>
+        <v>12.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11388,14 +11398,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 61403-2025</t>
+          <t>A 2933-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46001.48989583334</v>
+        <v>44581</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11408,7 +11418,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>12.8</v>
+        <v>1.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11445,14 +11455,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 61142-2025</t>
+          <t>A 31132-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>46000.51967592593</v>
+        <v>45103</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11465,7 +11475,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11502,14 +11512,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 61155-2025</t>
+          <t>A 61158-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>46000.54702546296</v>
+        <v>46000.55134259259</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11522,7 +11532,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11559,14 +11569,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 61158-2025</t>
+          <t>A 17582-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>46000.55134259259</v>
+        <v>45415</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11579,7 +11589,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11616,14 +11626,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 32739-2021</t>
+          <t>A 4108-2026</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44375</v>
+        <v>46044.59416666667</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11636,7 +11646,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11673,14 +11683,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 61182-2025</t>
+          <t>A 35349-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>46000.58409722222</v>
+        <v>45146</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11693,7 +11703,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.8</v>
+        <v>5.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11730,14 +11740,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 61204-2025</t>
+          <t>A 4109-2026</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>46000.61395833334</v>
+        <v>46044.59418981482</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11750,7 +11760,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2</v>
+        <v>5.3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11787,14 +11797,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 61127-2025</t>
+          <t>A 4870-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46000.48337962963</v>
+        <v>46048.6465625</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11807,7 +11817,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11844,14 +11854,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 3538-2026</t>
+          <t>A 4081-2026</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46042.6296412037</v>
+        <v>46044</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11864,7 +11874,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11901,14 +11911,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 61118-2025</t>
+          <t>A 44295-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46000.46293981482</v>
+        <v>45188.64064814815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11921,7 +11931,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11958,14 +11968,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 29485-2023</t>
+          <t>A 59253-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45106</v>
+        <v>45637.59724537037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11978,7 +11988,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>5.5</v>
+        <v>0.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12015,14 +12025,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 4109-2026</t>
+          <t>A 30221-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46044.59418981482</v>
+        <v>45099</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12035,7 +12045,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>5.3</v>
+        <v>0.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12072,14 +12082,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 60033-2024</t>
+          <t>A 4685-2026</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45642.46236111111</v>
+        <v>46048.43700231481</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12092,7 +12102,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>5.3</v>
+        <v>0.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12129,14 +12139,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 31132-2023</t>
+          <t>A 62787-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45103</v>
+        <v>46008.61939814815</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12149,7 +12159,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12186,14 +12196,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 35349-2023</t>
+          <t>A 59771-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45146</v>
+        <v>45257</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12206,7 +12216,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>5.4</v>
+        <v>0.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12243,14 +12253,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 4090-2026</t>
+          <t>A 16471-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46044.55434027778</v>
+        <v>45751.54825231482</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12263,7 +12273,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.2</v>
+        <v>2.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12300,14 +12310,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 4108-2026</t>
+          <t>A 47771-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46044.59416666667</v>
+        <v>44854</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12320,7 +12330,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12357,14 +12367,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 4081-2026</t>
+          <t>A 63289-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46044</v>
+        <v>46010.59076388889</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12377,7 +12387,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12414,14 +12424,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 4870-2026</t>
+          <t>A 63160-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46048.6465625</v>
+        <v>46010.37174768518</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12434,7 +12444,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12471,14 +12481,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 4676-2023</t>
+          <t>A 8993-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44953</v>
+        <v>45357.55085648148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12491,7 +12501,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12528,14 +12538,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 13762-2025</t>
+          <t>A 19734-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45737.43103009259</v>
+        <v>45771.36695601852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12547,8 +12557,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12585,14 +12600,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 62787-2025</t>
+          <t>A 28367-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46008.61939814815</v>
+        <v>44747</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12605,7 +12620,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>4.9</v>
+        <v>2.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12642,14 +12657,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 4685-2026</t>
+          <t>A 17073-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46048.43700231481</v>
+        <v>45754</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12662,7 +12677,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12699,14 +12714,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 21041-2024</t>
+          <t>A 28347-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45439.666875</v>
+        <v>44747.45532407407</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12719,7 +12734,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12756,14 +12771,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 16471-2025</t>
+          <t>A 63447-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45751.54825231482</v>
+        <v>46013.4020949074</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12775,8 +12790,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>2.3</v>
+        <v>21.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12820,7 +12840,7 @@
         <v>46013.66307870371</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12870,14 +12890,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 63160-2025</t>
+          <t>A 60557-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>46010.37174768518</v>
+        <v>45259</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12890,7 +12910,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12927,14 +12947,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 63289-2025</t>
+          <t>A 39220-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46010.59076388889</v>
+        <v>45549</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12947,7 +12967,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12984,14 +13004,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 63447-2025</t>
+          <t>A 7426-2026</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46013.4020949074</v>
+        <v>46059.4309375</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13003,13 +13023,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>21.4</v>
+        <v>4.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13046,14 +13061,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 6179-2025</t>
+          <t>A 35557-2021</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45698.44835648148</v>
+        <v>44385</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13066,7 +13081,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>4.9</v>
+        <v>2.2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13103,14 +13118,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 62553-2021</t>
+          <t>A 15409-2021</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44501</v>
+        <v>44285</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13123,7 +13138,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>10.2</v>
+        <v>1.1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13160,14 +13175,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 2942-2025</t>
+          <t>A 19100-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45678.39038194445</v>
+        <v>44691.52804398148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13180,7 +13195,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13217,14 +13232,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 56258-2024</t>
+          <t>A 22193-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45624.64472222222</v>
+        <v>45069</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13237,7 +13252,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13274,14 +13289,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 56262-2024</t>
+          <t>A 846-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45624.65004629629</v>
+        <v>44571</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13294,7 +13309,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13331,14 +13346,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 52531-2024</t>
+          <t>A 16782-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45609.61578703704</v>
+        <v>45411</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13351,7 +13366,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13388,14 +13403,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 52533-2024</t>
+          <t>A 32785-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45609.61697916667</v>
+        <v>45516.53230324074</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13408,7 +13423,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.9</v>
+        <v>5.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13445,14 +13460,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 29573-2023</t>
+          <t>A 1006-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45098</v>
+        <v>44935</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13465,7 +13480,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13502,14 +13517,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 46726-2024</t>
+          <t>A 31869-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45583.46103009259</v>
+        <v>45118.62401620371</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13522,7 +13537,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13559,14 +13574,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 64966-2023</t>
+          <t>A 31699-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45283</v>
+        <v>45508.61318287037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13578,8 +13593,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13616,14 +13636,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 7426-2026</t>
+          <t>A 12425-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>46059.4309375</v>
+        <v>45730</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13636,7 +13656,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13673,14 +13693,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 28347-2022</t>
+          <t>A 56258-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44747.45532407407</v>
+        <v>45624.64472222222</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13693,7 +13713,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13730,14 +13750,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 31839-2024</t>
+          <t>A 56262-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45509.65498842593</v>
+        <v>45624.65004629629</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13747,11 +13767,6 @@
       <c r="E223" t="inlineStr">
         <is>
           <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G223" t="n">
@@ -13792,14 +13807,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 19734-2025</t>
+          <t>A 62553-2021</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45771.36695601852</v>
+        <v>44501</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13811,13 +13826,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>0.8</v>
+        <v>10.2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13854,14 +13864,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 35123-2023</t>
+          <t>A 18377-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45145.50380787037</v>
+        <v>45762.57496527778</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13873,13 +13883,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13916,14 +13921,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 10533-2023</t>
+          <t>A 25453-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44987.92349537037</v>
+        <v>45463.42144675926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13936,7 +13941,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13973,14 +13978,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 63980-2021</t>
+          <t>A 52255-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44509</v>
+        <v>45608.64011574074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13993,7 +13998,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14030,14 +14035,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 17582-2024</t>
+          <t>A 39185-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45415</v>
+        <v>45548</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14050,7 +14055,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14087,14 +14092,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 55444-2023</t>
+          <t>A 63817-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45231</v>
+        <v>45275</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14107,7 +14112,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>3.4</v>
+        <v>6.7</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14144,14 +14149,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 55173-2023</t>
+          <t>A 19786-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45237</v>
+        <v>45771.44086805556</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14163,8 +14168,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G230" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14201,14 +14211,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 31817-2024</t>
+          <t>A 60646-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45509</v>
+        <v>45644.4325462963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14220,8 +14230,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14258,14 +14273,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 31699-2024</t>
+          <t>A 8937-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45508.61318287037</v>
+        <v>45713.44841435185</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14277,13 +14292,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14320,14 +14330,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 63981-2021</t>
+          <t>A 8938-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44509</v>
+        <v>45713.44842592593</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14340,7 +14350,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14377,14 +14387,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 46195-2024</t>
+          <t>A 35354-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45581.51873842593</v>
+        <v>45146</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14397,7 +14407,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14434,14 +14444,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 46205-2024</t>
+          <t>A 10533-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45581.54357638889</v>
+        <v>44987.92349537037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14454,7 +14464,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14491,14 +14501,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 35006-2024</t>
+          <t>A 34760-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45527</v>
+        <v>45139</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14511,7 +14521,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14548,14 +14558,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 29476-2023</t>
+          <t>A 53783-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45106.57149305556</v>
+        <v>45615</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14605,14 +14615,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 31867-2023</t>
+          <t>A 10440-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45118.61844907407</v>
+        <v>44987</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14625,7 +14635,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14662,14 +14672,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 31869-2023</t>
+          <t>A 17409-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45118.62401620371</v>
+        <v>45757.36844907407</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14682,7 +14692,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14719,14 +14729,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 9086-2023</t>
+          <t>A 17414-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44979</v>
+        <v>45757</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14739,7 +14749,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14776,14 +14786,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 27110-2024</t>
+          <t>A 20432-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45471.50009259259</v>
+        <v>45775.47893518519</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14796,7 +14806,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14833,14 +14843,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 22193-2023</t>
+          <t>A 35737-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45069</v>
+        <v>45532</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14853,7 +14863,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14890,14 +14900,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 35557-2021</t>
+          <t>A 35755-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44385</v>
+        <v>45532</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14910,7 +14920,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14947,14 +14957,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 10440-2023</t>
+          <t>A 35771-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44987</v>
+        <v>45532</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14967,7 +14977,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15004,14 +15014,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 45899-2024</t>
+          <t>A 27530-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45580.43047453704</v>
+        <v>45474.56820601852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15029,7 +15039,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15066,14 +15076,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 21135-2024</t>
+          <t>A 9086-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45440</v>
+        <v>44979</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15085,13 +15095,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G246" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15128,14 +15133,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 13758-2024</t>
+          <t>A 4676-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45390.92747685185</v>
+        <v>44953</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15148,7 +15153,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15185,14 +15190,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 8938-2025</t>
+          <t>A 28337-2022</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45713.44842592593</v>
+        <v>44747.42982638889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15205,7 +15210,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15242,14 +15247,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 32785-2024</t>
+          <t>A 47472-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45516.53230324074</v>
+        <v>45587.5741087963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15262,7 +15267,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>5.3</v>
+        <v>1.5</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15299,14 +15304,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 32792-2024</t>
+          <t>A 15678-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45516.55068287037</v>
+        <v>45748.45042824074</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15319,7 +15324,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.5</v>
+        <v>7.1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15356,14 +15361,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 46212-2024</t>
+          <t>A 60033-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45581.55569444445</v>
+        <v>45642.46236111111</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15376,7 +15381,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.8</v>
+        <v>5.3</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15413,14 +15418,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 39185-2024</t>
+          <t>A 2018-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45548</v>
+        <v>45672</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15432,8 +15437,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G252" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15470,14 +15480,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 60640-2024</t>
+          <t>A 2020-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45644.42787037037</v>
+        <v>45672</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15491,11 +15501,11 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G253" t="n">
-        <v>0.3</v>
+        <v>3.6</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15532,14 +15542,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 60557-2023</t>
+          <t>A 52536-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45259</v>
+        <v>45609.61851851852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15552,7 +15562,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15589,14 +15599,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 59716-2024</t>
+          <t>A 20640-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45639.45857638889</v>
+        <v>45776.37438657408</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15609,7 +15619,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15646,14 +15656,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 27530-2024</t>
+          <t>A 31865-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45474.56820601852</v>
+        <v>45118.61383101852</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15665,13 +15675,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G256" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15708,14 +15713,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 19786-2025</t>
+          <t>A 21435-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45771.44086805556</v>
+        <v>45782.51766203704</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15727,13 +15732,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G257" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15770,14 +15770,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 44295-2023</t>
+          <t>A 21437-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45188.64064814815</v>
+        <v>45782.52001157407</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15827,14 +15827,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 28367-2022</t>
+          <t>A 21361-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44747</v>
+        <v>45782.43983796296</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15884,14 +15884,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 20432-2025</t>
+          <t>A 21615-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45775.47893518519</v>
+        <v>45783.40077546296</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15903,8 +15903,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G260" t="n">
-        <v>2.8</v>
+        <v>5.4</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15941,14 +15946,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 38956-2022</t>
+          <t>A 22900-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44816</v>
+        <v>45790.41079861111</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15960,8 +15965,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G261" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15998,14 +16008,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 42317-2023</t>
+          <t>A 23205-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45175</v>
+        <v>45791.46658564815</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16017,8 +16027,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G262" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16055,14 +16070,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 42327-2023</t>
+          <t>A 23101-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45175</v>
+        <v>45791.35427083333</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16074,8 +16089,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G263" t="n">
-        <v>3.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16112,14 +16132,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 8940-2025</t>
+          <t>A 23462-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45713.44855324074</v>
+        <v>45792.43016203704</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16132,7 +16152,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16169,14 +16189,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 9039-2024</t>
+          <t>A 23567-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45356</v>
+        <v>45792.60107638889</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16189,7 +16209,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16226,14 +16246,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 44319-2023</t>
+          <t>A 45126-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45183</v>
+        <v>45187</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16246,7 +16266,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16283,14 +16303,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 8937-2025</t>
+          <t>A 23453-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45713.44841435185</v>
+        <v>45792.42302083333</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16302,8 +16322,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G267" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16340,14 +16365,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 31865-2023</t>
+          <t>A 23465-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45118.61383101852</v>
+        <v>45792.43493055556</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16360,7 +16385,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16397,14 +16422,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 20640-2025</t>
+          <t>A 23776-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45776.37438657408</v>
+        <v>45793.50012731482</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16417,7 +16442,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>5.2</v>
+        <v>8.1</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16454,14 +16479,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 21435-2025</t>
+          <t>A 24346-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45782.51766203704</v>
+        <v>45797.58045138889</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16474,7 +16499,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16511,14 +16536,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 21437-2025</t>
+          <t>A 24342-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45782.52001157407</v>
+        <v>45797.57418981481</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16531,7 +16556,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16568,14 +16593,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 21361-2025</t>
+          <t>A 25206-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45782.43983796296</v>
+        <v>45800.46908564815</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16588,7 +16613,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16625,14 +16650,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 21615-2025</t>
+          <t>A 24805-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45783.40077546296</v>
+        <v>45799.4409375</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16644,13 +16669,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G273" t="n">
-        <v>5.4</v>
+        <v>1.4</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16687,14 +16707,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 45126-2023</t>
+          <t>A 24756-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45187</v>
+        <v>45799.37510416667</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16707,7 +16727,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16744,14 +16764,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 23101-2025</t>
+          <t>A 25205-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45791.35427083333</v>
+        <v>45800.46907407408</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16763,13 +16783,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G275" t="n">
-        <v>8.199999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16806,14 +16821,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 23205-2025</t>
+          <t>A 24868-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45791.46658564815</v>
+        <v>45799.48819444444</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16825,13 +16840,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G276" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16868,14 +16878,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 22900-2025</t>
+          <t>A 24812-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45790.41079861111</v>
+        <v>45799.44790509259</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16887,13 +16897,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G277" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16930,14 +16935,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 23567-2025</t>
+          <t>A 24856-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45792.60107638889</v>
+        <v>45799.47508101852</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16950,7 +16955,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16987,14 +16992,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 23462-2025</t>
+          <t>A 24846-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45792.43016203704</v>
+        <v>45799.46851851852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17007,7 +17012,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17044,14 +17049,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 23776-2025</t>
+          <t>A 24792-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45793.50012731482</v>
+        <v>45799</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17064,7 +17069,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>8.1</v>
+        <v>1.9</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17101,14 +17106,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 23453-2025</t>
+          <t>A 26665-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45792.42302083333</v>
+        <v>45810</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17120,13 +17125,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G281" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17160,17 +17160,17 @@
       </c>
       <c r="R281" s="2" t="inlineStr"/>
     </row>
-    <row r="282" ht="15" customHeight="1">
+    <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 23465-2025</t>
+          <t>A 26576-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45792.43493055556</v>
+        <v>45807.68725694445</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17183,7 +17183,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17216,120 +17216,6 @@
         <v>0</v>
       </c>
       <c r="R282" s="2" t="inlineStr"/>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>A 24342-2025</t>
-        </is>
-      </c>
-      <c r="B283" s="1" t="n">
-        <v>45797.57418981481</v>
-      </c>
-      <c r="C283" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="G283" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
-      <c r="J283" t="n">
-        <v>0</v>
-      </c>
-      <c r="K283" t="n">
-        <v>0</v>
-      </c>
-      <c r="L283" t="n">
-        <v>0</v>
-      </c>
-      <c r="M283" t="n">
-        <v>0</v>
-      </c>
-      <c r="N283" t="n">
-        <v>0</v>
-      </c>
-      <c r="O283" t="n">
-        <v>0</v>
-      </c>
-      <c r="P283" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q283" t="n">
-        <v>0</v>
-      </c>
-      <c r="R283" s="2" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>A 24346-2025</t>
-        </is>
-      </c>
-      <c r="B284" s="1" t="n">
-        <v>45797.58045138889</v>
-      </c>
-      <c r="C284" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="G284" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
-      <c r="J284" t="n">
-        <v>0</v>
-      </c>
-      <c r="K284" t="n">
-        <v>0</v>
-      </c>
-      <c r="L284" t="n">
-        <v>0</v>
-      </c>
-      <c r="M284" t="n">
-        <v>0</v>
-      </c>
-      <c r="N284" t="n">
-        <v>0</v>
-      </c>
-      <c r="O284" t="n">
-        <v>0</v>
-      </c>
-      <c r="P284" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q284" t="n">
-        <v>0</v>
-      </c>
-      <c r="R284" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z282"/>
+  <dimension ref="A1:Z284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45796</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>44503.35390046296</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45943.38998842592</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -870,14 +870,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 19776-2025</t>
+          <t>A 21711-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45771.42275462963</v>
+        <v>45783</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -928,6 +928,103 @@
         <v>4</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Spillkråka
+Ullticka
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 21711-2025 artfynd.xlsx", "A 21711-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 21711-2025 karta.png", "A 21711-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 21711-2025 FSC-klagomål.docx", "A 21711-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 21711-2025 FSC-klagomål mail.docx", "A 21711-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 21711-2025 tillsynsbegäran.docx", "A 21711-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 21711-2025 tillsynsbegäran mail.docx", "A 21711-2025")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 21711-2025 prioriterade fågelarter.docx", "A 21711-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 19776-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45771.42275462963</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Spillkråka
@@ -935,132 +1032,35 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 19776-2025 artfynd.xlsx", "A 19776-2025")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 19776-2025 karta.png", "A 19776-2025")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 19776-2025 FSC-klagomål.docx", "A 19776-2025")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 19776-2025 FSC-klagomål mail.docx", "A 19776-2025")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 19776-2025 tillsynsbegäran.docx", "A 19776-2025")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 19776-2025 tillsynsbegäran mail.docx", "A 19776-2025")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 19776-2025 prioriterade fågelarter.docx", "A 19776-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 21711-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45783</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Spillkråka
-Ullticka
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 21711-2025 artfynd.xlsx", "A 21711-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 21711-2025 karta.png", "A 21711-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 21711-2025 FSC-klagomål.docx", "A 21711-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 21711-2025 FSC-klagomål mail.docx", "A 21711-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 21711-2025 tillsynsbegäran.docx", "A 21711-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 21711-2025 tillsynsbegäran mail.docx", "A 21711-2025")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 21711-2025 prioriterade fågelarter.docx", "A 21711-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>46031.65877314815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>46007.44545138889</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,14 +1242,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 63573-2025</t>
+          <t>A 22648-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>46013.66015046297</v>
+        <v>45447.89238425926</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1261,11 +1261,16 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1296,134 +1301,129 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Spindelblomster</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 22648-2024 artfynd.xlsx", "A 22648-2024")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 22648-2024 karta.png", "A 22648-2024")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 22648-2024 FSC-klagomål.docx", "A 22648-2024")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 22648-2024 FSC-klagomål mail.docx", "A 22648-2024")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 22648-2024 tillsynsbegäran.docx", "A 22648-2024")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 22648-2024 tillsynsbegäran mail.docx", "A 22648-2024")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 22648-2024 prioriterade fågelarter.docx", "A 22648-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 63573-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>46013.66015046297</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Järpe
 Sotriska</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 63573-2025 artfynd.xlsx", "A 63573-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 63573-2025 karta.png", "A 63573-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 63573-2025 FSC-klagomål.docx", "A 63573-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 63573-2025 FSC-klagomål mail.docx", "A 63573-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 63573-2025 tillsynsbegäran.docx", "A 63573-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 63573-2025 tillsynsbegäran mail.docx", "A 63573-2025")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 63573-2025 prioriterade fågelarter.docx", "A 63573-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 22648-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45447.89238425926</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Spindelblomster</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 22648-2024 artfynd.xlsx", "A 22648-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 22648-2024 karta.png", "A 22648-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 22648-2024 FSC-klagomål.docx", "A 22648-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 22648-2024 FSC-klagomål mail.docx", "A 22648-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 22648-2024 tillsynsbegäran.docx", "A 22648-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 22648-2024 tillsynsbegäran mail.docx", "A 22648-2024")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 22648-2024 prioriterade fågelarter.docx", "A 22648-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>45698.44841435185</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45979.59435185185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>46000.62998842593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>46007.44689814815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>46010.37401620371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44452</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>44355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>44651</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>44565.92820601852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44265</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44524.54244212963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>44446</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>44854.92494212963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>44565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44610</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44524.5028587963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2545,14 +2545,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 1437-2025</t>
+          <t>A 58340-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45669.67790509259</v>
+        <v>45632.6391087963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>11.7</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2602,14 +2602,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 52536-2023</t>
+          <t>A 29462-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45218</v>
+        <v>45824.69697916666</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.8</v>
+        <v>11.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2659,14 +2659,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 38956-2022</t>
+          <t>A 46212-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44816</v>
+        <v>45581.55569444445</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2716,14 +2716,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 46434-2022</t>
+          <t>A 39185-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44846</v>
+        <v>45548</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2773,14 +2773,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 15674-2025</t>
+          <t>A 60640-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45748.44657407407</v>
+        <v>45644.42787037037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2792,8 +2792,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2830,14 +2835,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 13758-2024</t>
+          <t>A 60557-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45390.92747685185</v>
+        <v>45259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2850,7 +2855,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2887,14 +2892,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 31264-2024</t>
+          <t>A 54793-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45503.96868055555</v>
+        <v>45229</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2906,13 +2911,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2949,14 +2949,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 31277-2024</t>
+          <t>A 59716-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45504.39555555556</v>
+        <v>45639.45857638889</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2968,13 +2968,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3011,14 +3006,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 1058-2023</t>
+          <t>A 27530-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44929</v>
+        <v>45474.56820601852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3030,8 +3025,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3068,14 +3068,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 63980-2021</t>
+          <t>A 19786-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44509</v>
+        <v>45771.44086805556</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3087,8 +3087,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3125,14 +3130,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 32956-2024</t>
+          <t>A 15409-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45517</v>
+        <v>44285</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3144,13 +3149,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3187,14 +3187,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 28694-2025</t>
+          <t>A 16782-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45819.88594907407</v>
+        <v>45411</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3244,14 +3244,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 38566-2025</t>
+          <t>A 22002-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45884.45541666666</v>
+        <v>45068.92707175926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5.5</v>
+        <v>0.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3301,14 +3301,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 29912-2025</t>
+          <t>A 35737-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45826.40885416666</v>
+        <v>45532</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3358,14 +3358,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 58340-2024</t>
+          <t>A 35771-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45632.6391087963</v>
+        <v>45532</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3415,14 +3415,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 7871-2023</t>
+          <t>A 44295-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44970</v>
+        <v>45188.64064814815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3472,14 +3472,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 30163-2025</t>
+          <t>A 28367-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45827.32722222222</v>
+        <v>44747</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3529,14 +3529,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 46205-2024</t>
+          <t>A 50413-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45581.54357638889</v>
+        <v>45601.37128472222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,8 +3548,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>0.6</v>
+        <v>23.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3586,14 +3591,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 46195-2024</t>
+          <t>A 20432-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45581.51873842593</v>
+        <v>45775.47893518519</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3606,7 +3611,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3643,14 +3648,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 426-2022</t>
+          <t>A 38956-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44565</v>
+        <v>44816</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3663,7 +3668,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3700,14 +3705,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 31986-2025</t>
+          <t>A 38566-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45835.36210648148</v>
+        <v>45884.45541666666</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3720,7 +3725,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3757,14 +3762,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 29462-2025</t>
+          <t>A 846-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45824.69697916666</v>
+        <v>44571</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3777,7 +3782,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>11.1</v>
+        <v>0.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3814,14 +3819,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 9026-2024</t>
+          <t>A 31133-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45356</v>
+        <v>45103</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3834,7 +3839,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3871,14 +3876,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 46212-2024</t>
+          <t>A 33319-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45581.55569444445</v>
+        <v>45127.88890046296</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3891,7 +3896,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3928,14 +3933,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 57777-2023</t>
+          <t>A 42317-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45246</v>
+        <v>45175</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3948,7 +3953,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.9</v>
+        <v>1.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3985,14 +3990,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 12410-2025</t>
+          <t>A 42327-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45730.43505787037</v>
+        <v>45175</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4042,14 +4047,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 42902-2025</t>
+          <t>A 426-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45908.67744212963</v>
+        <v>44565</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4062,7 +4067,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4099,14 +4104,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 2201-2025</t>
+          <t>A 8940-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45673.39678240741</v>
+        <v>45713.44855324074</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4119,7 +4124,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4156,14 +4161,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 29823-2025</t>
+          <t>A 28337-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45825.85599537037</v>
+        <v>44747.42982638889</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4176,7 +4181,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4213,14 +4218,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 42584-2025</t>
+          <t>A 9039-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45905.62662037037</v>
+        <v>45356</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4233,7 +4238,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4270,14 +4275,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 32792-2024</t>
+          <t>A 44319-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45516.55068287037</v>
+        <v>45183</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4290,7 +4295,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4327,14 +4332,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 32809-2024</t>
+          <t>A 31421-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45516.57067129629</v>
+        <v>45114.60027777778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,8 +4351,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>1.7</v>
+        <v>5.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4384,14 +4394,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 42990-2025</t>
+          <t>A 8937-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45909.45178240741</v>
+        <v>45713.44841435185</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4404,7 +4414,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4441,14 +4451,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 28615-2023</t>
+          <t>A 20228-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45103.59210648148</v>
+        <v>45055</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4461,7 +4471,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5.2</v>
+        <v>0.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4498,14 +4508,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 43030-2025</t>
+          <t>A 60646-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45909</v>
+        <v>45644.4325462963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4523,7 +4533,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4560,14 +4570,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 42141-2023</t>
+          <t>A 42584-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45177</v>
+        <v>45905.62662037037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4580,7 +4590,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4617,14 +4627,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 43685-2025</t>
+          <t>A 35734-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45912.38184027778</v>
+        <v>45532</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4637,7 +4647,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4674,14 +4684,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 31133-2023</t>
+          <t>A 59253-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45103</v>
+        <v>45637.59724537037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4694,7 +4704,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4731,14 +4741,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 36801-2025</t>
+          <t>A 42902-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45873.66607638889</v>
+        <v>45908.67744212963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4751,7 +4761,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4788,14 +4798,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 1438-2025</t>
+          <t>A 29823-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45669.68052083333</v>
+        <v>45825.85599537037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4808,7 +4818,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.3</v>
+        <v>7.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4845,14 +4855,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 2286-2025</t>
+          <t>A 31865-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45673</v>
+        <v>45118.61383101852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4865,7 +4875,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4902,14 +4912,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 44889-2025</t>
+          <t>A 20640-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45918.49681712963</v>
+        <v>45776.37438657408</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4922,7 +4932,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4959,14 +4969,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 44832-2025</t>
+          <t>A 42990-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45918.406875</v>
+        <v>45909.45178240741</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4979,7 +4989,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5016,14 +5026,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 37364-2025</t>
+          <t>A 17409-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45877.32516203704</v>
+        <v>45757.36844907407</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5036,7 +5046,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5073,14 +5083,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 44975-2025</t>
+          <t>A 17414-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45918.64300925926</v>
+        <v>45757</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5093,7 +5103,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5130,14 +5140,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 44895-2025</t>
+          <t>A 21435-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45918.50277777778</v>
+        <v>45782.51766203704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5150,7 +5160,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5187,14 +5197,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 8935-2025</t>
+          <t>A 21437-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45713.44832175926</v>
+        <v>45782.52001157407</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5207,7 +5217,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5244,14 +5254,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 25347-2024</t>
+          <t>A 43030-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45462</v>
+        <v>45909</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5263,8 +5273,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5301,14 +5316,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 31421-2023</t>
+          <t>A 21361-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45114.60027777778</v>
+        <v>45782.43983796296</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5320,13 +5335,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5363,14 +5373,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 32739-2021</t>
+          <t>A 21615-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44375</v>
+        <v>45783.40077546296</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5382,8 +5392,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>2.7</v>
+        <v>5.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5420,14 +5435,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 60640-2024</t>
+          <t>A 47976-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45644.42787037037</v>
+        <v>44853</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5439,13 +5454,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5482,14 +5492,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 47976-2022</t>
+          <t>A 31264-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44853</v>
+        <v>45503.96868055555</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5499,6 +5509,11 @@
       <c r="E79" t="inlineStr">
         <is>
           <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -5539,14 +5554,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 63981-2021</t>
+          <t>A 31277-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44509</v>
+        <v>45504.39555555556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5558,8 +5573,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>2.7</v>
+        <v>5.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5596,14 +5616,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 44319-2023</t>
+          <t>A 19100-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45183</v>
+        <v>44691.52804398148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5616,7 +5636,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5653,14 +5673,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 3584-2025</t>
+          <t>A 32809-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45680.78527777778</v>
+        <v>45516.57067129629</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5693,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5710,14 +5730,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 33226-2021</t>
+          <t>A 45126-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44376</v>
+        <v>45187</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5730,7 +5750,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5767,14 +5787,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 18380-2025</t>
+          <t>A 23101-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45762.57891203704</v>
+        <v>45791.35427083333</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5786,8 +5806,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>0.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5824,14 +5849,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 18231-2025</t>
+          <t>A 23205-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45761.87467592592</v>
+        <v>45791.46658564815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5843,8 +5868,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5881,14 +5911,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 20228-2023</t>
+          <t>A 35354-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45055</v>
+        <v>45146</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5901,7 +5931,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5938,14 +5968,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 31839-2024</t>
+          <t>A 22900-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45509.65498842593</v>
+        <v>45790.41079861111</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5963,7 +5993,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6000,14 +6030,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 22002-2023</t>
+          <t>A 47-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45068.92707175926</v>
+        <v>45659</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6020,7 +6050,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6057,14 +6087,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 48859-2025</t>
+          <t>A 28615-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45937</v>
+        <v>45103.59210648148</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6077,7 +6107,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.2</v>
+        <v>5.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6114,14 +6144,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 49371-2025</t>
+          <t>A 43685-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45938.63061342593</v>
+        <v>45912.38184027778</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6134,7 +6164,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6171,14 +6201,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 48886-2025</t>
+          <t>A 23567-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45937.46611111111</v>
+        <v>45792.60107638889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6191,7 +6221,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6228,14 +6258,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 29476-2023</t>
+          <t>A 23462-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45106.57149305556</v>
+        <v>45792.43016203704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6248,7 +6278,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6285,14 +6315,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 29485-2023</t>
+          <t>A 23776-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45106</v>
+        <v>45793.50012731482</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6305,7 +6335,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>5.5</v>
+        <v>8.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6342,14 +6372,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 48852-2025</t>
+          <t>A 23453-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45937.43040509259</v>
+        <v>45792.42302083333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6361,8 +6391,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6399,14 +6434,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 49820-2025</t>
+          <t>A 23465-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45940.43907407407</v>
+        <v>45792.43493055556</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6418,13 +6453,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6461,14 +6491,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 49520-2025</t>
+          <t>A 24342-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45939.39337962963</v>
+        <v>45797.57418981481</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6481,7 +6511,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6518,14 +6548,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 49559-2025</t>
+          <t>A 24346-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45939.45946759259</v>
+        <v>45797.58045138889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6538,7 +6568,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>7.2</v>
+        <v>2.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6575,14 +6605,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 42317-2023</t>
+          <t>A 57777-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45175</v>
+        <v>45246</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6595,7 +6625,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.3</v>
+        <v>4.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6632,14 +6662,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 42327-2023</t>
+          <t>A 44975-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45175</v>
+        <v>45918.64300925926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6652,7 +6682,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6689,14 +6719,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 9039-2024</t>
+          <t>A 44832-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45356</v>
+        <v>45918.406875</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6709,7 +6739,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6746,14 +6776,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 51605-2025</t>
+          <t>A 44889-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45951.38592592593</v>
+        <v>45918.49681712963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6766,7 +6796,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6803,14 +6833,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 55173-2023</t>
+          <t>A 44895-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45237</v>
+        <v>45918.50277777778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6823,7 +6853,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6860,14 +6890,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 51737-2025</t>
+          <t>A 24756-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45951.59630787037</v>
+        <v>45799.37510416667</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6880,7 +6910,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6917,14 +6947,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 51722-2025</t>
+          <t>A 24846-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45951.58085648148</v>
+        <v>45799.46851851852</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6937,7 +6967,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6974,14 +7004,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 51553-2025</t>
+          <t>A 24805-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45950.87297453704</v>
+        <v>45799.4409375</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6994,7 +7024,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7031,14 +7061,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 54793-2023</t>
+          <t>A 24812-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45229</v>
+        <v>45799.44790509259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7051,7 +7081,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7088,14 +7118,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 35734-2024</t>
+          <t>A 24792-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45532</v>
+        <v>45799</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7108,7 +7138,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7145,14 +7175,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 52842-2025</t>
+          <t>A 24868-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45957.47827546296</v>
+        <v>45799.48819444444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7165,7 +7195,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7202,14 +7232,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 52820-2025</t>
+          <t>A 24856-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45957.45483796296</v>
+        <v>45799.47508101852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7222,7 +7252,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7259,14 +7289,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 52845-2025</t>
+          <t>A 25205-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45957.48430555555</v>
+        <v>45800.46907407408</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7279,7 +7309,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7316,14 +7346,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 52835-2025</t>
+          <t>A 25206-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45957.47133101852</v>
+        <v>45800.46908564815</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7336,7 +7366,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7373,14 +7403,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 64966-2023</t>
+          <t>A 26576-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45283</v>
+        <v>45807.68725694445</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7393,7 +7423,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7430,14 +7460,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 35006-2024</t>
+          <t>A 3584-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45527</v>
+        <v>45680.78527777778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7450,7 +7480,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7487,14 +7517,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 54243-2025</t>
+          <t>A 26665-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45964.63417824074</v>
+        <v>45810</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7507,7 +7537,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>6.7</v>
+        <v>1.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7544,14 +7574,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 54562-2025</t>
+          <t>A 2286-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45965.66751157407</v>
+        <v>45673</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7564,7 +7594,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7601,14 +7631,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 54421-2025</t>
+          <t>A 30221-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45965.48461805555</v>
+        <v>45099</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7621,7 +7651,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>10.4</v>
+        <v>0.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7658,14 +7688,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 54570-2025</t>
+          <t>A 47771-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45965.67487268519</v>
+        <v>44854</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7678,7 +7708,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7715,14 +7745,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 56320-2025</t>
+          <t>A 9026-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45974.63405092592</v>
+        <v>45356</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7735,7 +7765,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7772,14 +7802,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 35011-2024</t>
+          <t>A 28694-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45527</v>
+        <v>45819.88594907407</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7792,7 +7822,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7829,14 +7859,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 56329-2025</t>
+          <t>A 42141-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45974.64</v>
+        <v>45177</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7849,7 +7879,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7886,14 +7916,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 27110-2024</t>
+          <t>A 59771-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45471.50009259259</v>
+        <v>45257</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7906,7 +7936,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7943,14 +7973,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 8939-2025</t>
+          <t>A 46434-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45713.4485300926</v>
+        <v>44846</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7963,7 +7993,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8000,14 +8030,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 56553-2025</t>
+          <t>A 30163-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45975.48762731482</v>
+        <v>45827.32722222222</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8020,7 +8050,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8057,14 +8087,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 56513-2025</t>
+          <t>A 33226-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45975.45373842592</v>
+        <v>44376</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8077,7 +8107,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>8.5</v>
+        <v>1.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8114,14 +8144,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 35360-2023</t>
+          <t>A 29912-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45146.52483796296</v>
+        <v>45826.40885416666</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8134,7 +8164,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8171,14 +8201,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 56835-2025</t>
+          <t>A 35755-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45978.47366898148</v>
+        <v>45532</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8191,7 +8221,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8228,14 +8258,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 56966-2025</t>
+          <t>A 32956-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45978.67543981481</v>
+        <v>45517</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8247,8 +8277,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8285,14 +8320,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 56831-2025</t>
+          <t>A 31986-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45978.46716435185</v>
+        <v>45835.36210648148</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8305,7 +8340,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8342,14 +8377,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 56622-2025</t>
+          <t>A 2018-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45975.60040509259</v>
+        <v>45672</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8361,8 +8396,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8399,14 +8439,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 56833-2025</t>
+          <t>A 2020-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45978.47253472222</v>
+        <v>45672</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8418,8 +8458,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8456,14 +8501,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 35123-2023</t>
+          <t>A 12425-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45145.50380787037</v>
+        <v>45730</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8475,13 +8520,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8518,14 +8558,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 57347-2025</t>
+          <t>A 49559-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45980.35763888889</v>
+        <v>45939.45946759259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8538,7 +8578,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8575,14 +8615,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 46726-2024</t>
+          <t>A 48859-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45583.46103009259</v>
+        <v>45937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8595,7 +8635,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8632,14 +8672,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 57448-2025</t>
+          <t>A 48886-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45980.49452546296</v>
+        <v>45937.46611111111</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8651,13 +8691,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8694,14 +8729,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 57203-2025</t>
+          <t>A 48852-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45979.58972222222</v>
+        <v>45937.43040509259</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8713,13 +8748,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>20.1</v>
+        <v>1.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8756,14 +8786,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 57424-2025</t>
+          <t>A 1058-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45980.46134259259</v>
+        <v>44929</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8775,13 +8805,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8818,14 +8843,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 46501-2024</t>
+          <t>A 49520-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45582.6006712963</v>
+        <v>45939.39337962963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8838,7 +8863,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8875,14 +8900,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 31867-2023</t>
+          <t>A 1438-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45118.61844907407</v>
+        <v>45669.68052083333</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8895,7 +8920,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8932,14 +8957,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 33319-2023</t>
+          <t>A 8993-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45127.88890046296</v>
+        <v>45357.55085648148</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8952,7 +8977,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.6</v>
+        <v>0.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8989,14 +9014,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 17981-2024</t>
+          <t>A 46501-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45419</v>
+        <v>45582.6006712963</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9009,7 +9034,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9046,14 +9071,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 45899-2024</t>
+          <t>A 49371-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45580.43047453704</v>
+        <v>45938.63061342593</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9065,13 +9090,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9108,14 +9128,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 31817-2024</t>
+          <t>A 49820-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45509</v>
+        <v>45940.43907407407</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9127,8 +9147,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9165,14 +9190,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 58637-2025</t>
+          <t>A 52255-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45986.49008101852</v>
+        <v>45608.64011574074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9185,7 +9210,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9222,14 +9247,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 58584-2025</t>
+          <t>A 8935-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45986.39486111111</v>
+        <v>45713.44832175926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9242,7 +9267,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9279,14 +9304,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 52531-2024</t>
+          <t>A 8939-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45609.61578703704</v>
+        <v>45713.4485300926</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9299,7 +9324,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9336,14 +9361,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 52533-2024</t>
+          <t>A 36801-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45609.61697916667</v>
+        <v>45873.66607638889</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9356,7 +9381,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9393,14 +9418,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 862-2026</t>
+          <t>A 47472-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46030.42516203703</v>
+        <v>45587.5741087963</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9413,7 +9438,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9450,14 +9475,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 686-2026</t>
+          <t>A 7871-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>46029.60719907407</v>
+        <v>44970</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9470,7 +9495,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9507,14 +9532,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 8940-2025</t>
+          <t>A 37364-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45713.44855324074</v>
+        <v>45877.32516203704</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9527,7 +9552,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9564,14 +9589,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 21041-2024</t>
+          <t>A 25347-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45439.666875</v>
+        <v>45462</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9584,7 +9609,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9621,14 +9646,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 59716-2024</t>
+          <t>A 51553-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45639.45857638889</v>
+        <v>45950.87297453704</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9641,7 +9666,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>5.8</v>
+        <v>0.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9678,14 +9703,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 1614-2026</t>
+          <t>A 51722-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>46034.46947916667</v>
+        <v>45951.58085648148</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9698,7 +9723,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>9.1</v>
+        <v>2.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9735,14 +9760,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 1633-2026</t>
+          <t>A 51605-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>46034.49119212963</v>
+        <v>45951.38592592593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9755,7 +9780,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.9</v>
+        <v>4.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9792,14 +9817,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 50413-2024</t>
+          <t>A 18377-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45601.37128472222</v>
+        <v>45762.57496527778</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9811,13 +9836,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>23.4</v>
+        <v>0.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9854,14 +9874,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 47-2025</t>
+          <t>A 18380-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45659</v>
+        <v>45762.57891203704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9874,7 +9894,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9911,14 +9931,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 59867-2025</t>
+          <t>A 17981-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45992.87564814815</v>
+        <v>45419</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9931,7 +9951,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9968,14 +9988,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 2072-2026</t>
+          <t>A 51737-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>46036.33851851852</v>
+        <v>45951.59630787037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9988,7 +10008,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10025,14 +10045,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 13762-2025</t>
+          <t>A 25453-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45737.43103009259</v>
+        <v>45463.42144675926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10045,7 +10065,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10082,14 +10102,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 29573-2023</t>
+          <t>A 1006-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45098</v>
+        <v>44935</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10102,7 +10122,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10139,14 +10159,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 2774-2026</t>
+          <t>A 52835-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46038.37543981482</v>
+        <v>45957.47133101852</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10159,7 +10179,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10196,14 +10216,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 60533-2025</t>
+          <t>A 52845-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45995.65939814815</v>
+        <v>45957.48430555555</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10216,7 +10236,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10253,14 +10273,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 60619-2025</t>
+          <t>A 15678-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45996.38447916666</v>
+        <v>45748.45042824074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10273,7 +10293,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.5</v>
+        <v>7.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10310,14 +10330,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 2772-2026</t>
+          <t>A 18231-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>46038.37417824074</v>
+        <v>45761.87467592592</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10330,7 +10350,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>7.7</v>
+        <v>0.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10367,14 +10387,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 2496-2026</t>
+          <t>A 52842-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46037.40002314815</v>
+        <v>45957.47827546296</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10387,7 +10407,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10424,14 +10444,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 61176-2025</t>
+          <t>A 52820-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46000.57684027778</v>
+        <v>45957.45483796296</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10444,7 +10464,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>8.300000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10481,14 +10501,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 61182-2025</t>
+          <t>A 53783-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46000.58409722222</v>
+        <v>45615</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10501,7 +10521,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10538,14 +10558,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 61204-2025</t>
+          <t>A 54570-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46000.61395833334</v>
+        <v>45965.67487268519</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10558,7 +10578,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10595,14 +10615,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 61118-2025</t>
+          <t>A 54243-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46000.46293981482</v>
+        <v>45964.63417824074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10615,7 +10635,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.2</v>
+        <v>6.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10652,14 +10672,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 21135-2024</t>
+          <t>A 54562-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45440</v>
+        <v>45965.66751157407</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10671,13 +10691,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10714,14 +10729,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 2942-2025</t>
+          <t>A 54421-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45678.39038194445</v>
+        <v>45965.48461805555</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10734,7 +10749,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.4</v>
+        <v>10.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10771,14 +10786,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 6179-2025</t>
+          <t>A 2933-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45698.44835648148</v>
+        <v>44581</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10791,7 +10806,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>4.9</v>
+        <v>1.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10828,14 +10843,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 3538-2026</t>
+          <t>A 52536-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46042.6296412037</v>
+        <v>45218</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10848,7 +10863,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10885,14 +10900,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 55444-2023</t>
+          <t>A 56320-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45231</v>
+        <v>45974.63405092592</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10905,7 +10920,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10942,14 +10957,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 61127-2025</t>
+          <t>A 35360-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46000.48337962963</v>
+        <v>45146.52483796296</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10962,7 +10977,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10999,14 +11014,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 61216-2025</t>
+          <t>A 56513-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46000.62005787037</v>
+        <v>45975.45373842592</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11019,7 +11034,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>4.2</v>
+        <v>8.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11056,14 +11071,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 61221-2025</t>
+          <t>A 56622-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46000</v>
+        <v>45975.60040509259</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11076,7 +11091,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11113,14 +11128,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 61142-2025</t>
+          <t>A 56553-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46000.51967592593</v>
+        <v>45975.48762731482</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11133,7 +11148,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11170,14 +11185,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 61155-2025</t>
+          <t>A 56329-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>46000.54702546296</v>
+        <v>45974.64</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11190,7 +11205,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11227,14 +11242,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 3540-2026</t>
+          <t>A 56831-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46042.63204861111</v>
+        <v>45978.46716435185</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11247,7 +11262,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11284,14 +11299,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 4090-2026</t>
+          <t>A 57203-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46044.55434027778</v>
+        <v>45979.58972222222</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11303,8 +11318,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>0.2</v>
+        <v>20.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11341,14 +11361,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 61403-2025</t>
+          <t>A 2201-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46001.48989583334</v>
+        <v>45673.39678240741</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11361,7 +11381,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>12.8</v>
+        <v>3.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11398,14 +11418,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 2933-2022</t>
+          <t>A 56833-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44581</v>
+        <v>45978.47253472222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11418,7 +11438,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11455,14 +11475,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 31132-2023</t>
+          <t>A 56835-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45103</v>
+        <v>45978.47366898148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11475,7 +11495,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11512,14 +11532,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 61158-2025</t>
+          <t>A 56966-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>46000.55134259259</v>
+        <v>45978.67543981481</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11532,7 +11552,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11569,14 +11589,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 17582-2024</t>
+          <t>A 57448-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45415</v>
+        <v>45980.49452546296</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11588,8 +11608,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11626,14 +11651,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 4108-2026</t>
+          <t>A 57347-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46044.59416666667</v>
+        <v>45980.35763888889</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11646,7 +11671,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.5</v>
+        <v>6.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11683,14 +11708,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 35349-2023</t>
+          <t>A 57424-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45146</v>
+        <v>45980.46134259259</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11702,8 +11727,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11740,14 +11770,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 4109-2026</t>
+          <t>A 52536-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>46044.59418981482</v>
+        <v>45609.61851851852</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11760,7 +11790,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>5.3</v>
+        <v>1.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11797,14 +11827,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 4870-2026</t>
+          <t>A 58637-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46048.6465625</v>
+        <v>45986.49008101852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11817,7 +11847,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.4</v>
+        <v>4.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11854,14 +11884,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 4081-2026</t>
+          <t>A 686-2026</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46044</v>
+        <v>46029.60719907407</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11874,7 +11904,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11911,14 +11941,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 44295-2023</t>
+          <t>A 12410-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45188.64064814815</v>
+        <v>45730.43505787037</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11931,7 +11961,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11968,14 +11998,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 59253-2024</t>
+          <t>A 58584-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45637.59724537037</v>
+        <v>45986.39486111111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12025,14 +12055,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 30221-2023</t>
+          <t>A 862-2026</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45099</v>
+        <v>46030.42516203703</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12082,14 +12112,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 4685-2026</t>
+          <t>A 59867-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46048.43700231481</v>
+        <v>45992.87564814815</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12102,7 +12132,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12139,14 +12169,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 62787-2025</t>
+          <t>A 1633-2026</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>46008.61939814815</v>
+        <v>46034.49119212963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12159,7 +12189,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>4.9</v>
+        <v>1.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12196,14 +12226,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 59771-2023</t>
+          <t>A 34760-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45257</v>
+        <v>45139</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12216,7 +12246,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12253,14 +12283,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 16471-2025</t>
+          <t>A 17073-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45751.54825231482</v>
+        <v>45754</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12310,14 +12340,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 47771-2022</t>
+          <t>A 1614-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44854</v>
+        <v>46034.46947916667</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12330,7 +12360,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.2</v>
+        <v>9.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12367,14 +12397,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 63289-2025</t>
+          <t>A 2496-2026</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46010.59076388889</v>
+        <v>46037.40002314815</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12387,7 +12417,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12424,14 +12454,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 63160-2025</t>
+          <t>A 2072-2026</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46010.37174768518</v>
+        <v>46036.33851851852</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12444,7 +12474,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12481,14 +12511,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 8993-2024</t>
+          <t>A 60533-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45357.55085648148</v>
+        <v>45995.65939814815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12501,7 +12531,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12538,14 +12568,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 19734-2025</t>
+          <t>A 63817-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45771.36695601852</v>
+        <v>45275</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12557,13 +12587,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>0.8</v>
+        <v>6.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12600,14 +12625,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 28367-2022</t>
+          <t>A 60619-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44747</v>
+        <v>45996.38447916666</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12620,7 +12645,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12657,14 +12682,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 17073-2025</t>
+          <t>A 2772-2026</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45754</v>
+        <v>46038.37417824074</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12677,7 +12702,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.3</v>
+        <v>7.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12714,14 +12739,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 28347-2022</t>
+          <t>A 1437-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44747.45532407407</v>
+        <v>45669.67790509259</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12734,7 +12759,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.8</v>
+        <v>11.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12771,14 +12796,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 63447-2025</t>
+          <t>A 39220-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46013.4020949074</v>
+        <v>45549</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12790,13 +12815,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>21.4</v>
+        <v>0.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12833,14 +12853,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 63574-2025</t>
+          <t>A 2774-2026</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>46013.66307870371</v>
+        <v>46038.37543981482</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12853,7 +12873,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12890,14 +12910,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 60557-2023</t>
+          <t>A 15674-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45259</v>
+        <v>45748.44657407407</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12910,7 +12930,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12947,14 +12967,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 39220-2024</t>
+          <t>A 35011-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45549</v>
+        <v>45527</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12967,7 +12987,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13004,14 +13024,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 7426-2026</t>
+          <t>A 32739-2021</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46059.4309375</v>
+        <v>44375</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13024,7 +13044,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13061,14 +13081,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 35557-2021</t>
+          <t>A 61176-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44385</v>
+        <v>46000.57684027778</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13081,7 +13101,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13118,14 +13138,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 15409-2021</t>
+          <t>A 61221-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44285</v>
+        <v>46000</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13138,7 +13158,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13175,14 +13195,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 19100-2022</t>
+          <t>A 3540-2026</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44691.52804398148</v>
+        <v>46042.63204861111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13195,7 +13215,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13232,14 +13252,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 22193-2023</t>
+          <t>A 61216-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45069</v>
+        <v>46000.62005787037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13252,7 +13272,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.4</v>
+        <v>4.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13289,14 +13309,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 846-2022</t>
+          <t>A 29485-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44571</v>
+        <v>45106</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13309,7 +13329,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.7</v>
+        <v>5.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13346,14 +13366,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 16782-2024</t>
+          <t>A 61403-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45411</v>
+        <v>46001.48989583334</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13366,7 +13386,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.8</v>
+        <v>12.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13403,14 +13423,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 32785-2024</t>
+          <t>A 61142-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45516.53230324074</v>
+        <v>46000.51967592593</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13423,7 +13443,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>5.3</v>
+        <v>1.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13460,14 +13480,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 1006-2023</t>
+          <t>A 61155-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44935</v>
+        <v>46000.54702546296</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13480,7 +13500,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13517,14 +13537,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 31869-2023</t>
+          <t>A 61158-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45118.62401620371</v>
+        <v>46000.55134259259</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13537,7 +13557,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13574,14 +13594,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 31699-2024</t>
+          <t>A 61182-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45508.61318287037</v>
+        <v>46000.58409722222</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13593,13 +13613,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13636,14 +13651,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 12425-2025</t>
+          <t>A 61204-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45730</v>
+        <v>46000.61395833334</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13656,7 +13671,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13693,14 +13708,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 56258-2024</t>
+          <t>A 60033-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45624.64472222222</v>
+        <v>45642.46236111111</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13713,7 +13728,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.6</v>
+        <v>5.3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13750,14 +13765,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 56262-2024</t>
+          <t>A 61127-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45624.65004629629</v>
+        <v>46000.48337962963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13770,7 +13785,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13807,14 +13822,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 62553-2021</t>
+          <t>A 3538-2026</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44501</v>
+        <v>46042.6296412037</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13827,7 +13842,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>10.2</v>
+        <v>2.4</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13864,14 +13879,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 18377-2025</t>
+          <t>A 61118-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45762.57496527778</v>
+        <v>46000.46293981482</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13884,7 +13899,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13921,14 +13936,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 25453-2024</t>
+          <t>A 4109-2026</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45463.42144675926</v>
+        <v>46044.59418981482</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13941,7 +13956,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.3</v>
+        <v>5.3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13978,14 +13993,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 52255-2024</t>
+          <t>A 31132-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45608.64011574074</v>
+        <v>45103</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13998,7 +14013,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14035,14 +14050,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 39185-2024</t>
+          <t>A 35349-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45548</v>
+        <v>45146</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14055,7 +14070,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.6</v>
+        <v>5.4</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14092,14 +14107,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 63817-2023</t>
+          <t>A 4090-2026</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45275</v>
+        <v>46044.55434027778</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14112,7 +14127,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>6.7</v>
+        <v>0.2</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14149,14 +14164,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 19786-2025</t>
+          <t>A 4676-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45771.44086805556</v>
+        <v>44953</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14168,13 +14183,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14211,14 +14221,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 60646-2024</t>
+          <t>A 13762-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45644.4325462963</v>
+        <v>45737.43103009259</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14230,13 +14240,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14273,14 +14278,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 8937-2025</t>
+          <t>A 4108-2026</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45713.44841435185</v>
+        <v>46044.59416666667</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14293,7 +14298,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14330,14 +14335,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 8938-2025</t>
+          <t>A 4081-2026</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45713.44842592593</v>
+        <v>46044</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14350,7 +14355,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14387,14 +14392,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 35354-2023</t>
+          <t>A 4870-2026</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45146</v>
+        <v>46048.6465625</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14407,7 +14412,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14444,14 +14449,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 10533-2023</t>
+          <t>A 21041-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44987.92349537037</v>
+        <v>45439.666875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14464,7 +14469,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14501,14 +14506,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 34760-2023</t>
+          <t>A 16471-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45139</v>
+        <v>45751.54825231482</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14521,7 +14526,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14558,14 +14563,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 53783-2024</t>
+          <t>A 62787-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45615</v>
+        <v>46008.61939814815</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14578,7 +14583,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>3.8</v>
+        <v>4.9</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14615,14 +14620,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 10440-2023</t>
+          <t>A 6179-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44987</v>
+        <v>45698.44835648148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14635,7 +14640,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14672,14 +14677,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 17409-2025</t>
+          <t>A 62553-2021</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45757.36844907407</v>
+        <v>44501</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14692,7 +14697,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.9</v>
+        <v>10.2</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14729,14 +14734,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 17414-2025</t>
+          <t>A 4685-2026</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45757</v>
+        <v>46048.43700231481</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14786,14 +14791,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 20432-2025</t>
+          <t>A 2942-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45775.47893518519</v>
+        <v>45678.39038194445</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14806,7 +14811,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14843,14 +14848,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 35737-2024</t>
+          <t>A 56258-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45532</v>
+        <v>45624.64472222222</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14863,7 +14868,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14900,14 +14905,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 35755-2024</t>
+          <t>A 56262-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45532</v>
+        <v>45624.65004629629</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14920,7 +14925,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14957,14 +14962,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 35771-2024</t>
+          <t>A 52531-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45532</v>
+        <v>45609.61578703704</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14977,7 +14982,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15014,14 +15019,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 27530-2024</t>
+          <t>A 52533-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45474.56820601852</v>
+        <v>45609.61697916667</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15033,13 +15038,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G245" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15076,14 +15076,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 9086-2023</t>
+          <t>A 63574-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44979</v>
+        <v>46013.66307870371</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15133,14 +15133,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 4676-2023</t>
+          <t>A 29573-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44953</v>
+        <v>45098</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2.3</v>
+        <v>5.3</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15190,14 +15190,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 28337-2022</t>
+          <t>A 46726-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44747.42982638889</v>
+        <v>45583.46103009259</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15247,14 +15247,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 47472-2024</t>
+          <t>A 64966-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45587.5741087963</v>
+        <v>45283</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15304,14 +15304,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 15678-2025</t>
+          <t>A 63160-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45748.45042824074</v>
+        <v>46010.37174768518</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>7.1</v>
+        <v>1.6</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15361,14 +15361,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 60033-2024</t>
+          <t>A 28347-2022</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45642.46236111111</v>
+        <v>44747.45532407407</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>5.3</v>
+        <v>0.8</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15418,14 +15418,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 2018-2025</t>
+          <t>A 63289-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45672</v>
+        <v>46010.59076388889</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15437,13 +15437,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G252" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15480,14 +15475,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 2020-2025</t>
+          <t>A 63447-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45672</v>
+        <v>46013.4020949074</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15501,11 +15496,11 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G253" t="n">
-        <v>3.6</v>
+        <v>21.4</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15542,14 +15537,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 52536-2024</t>
+          <t>A 31839-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45609.61851851852</v>
+        <v>45509.65498842593</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15561,8 +15556,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G254" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15599,14 +15599,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 20640-2025</t>
+          <t>A 19734-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45776.37438657408</v>
+        <v>45771.36695601852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15618,8 +15618,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G255" t="n">
-        <v>5.2</v>
+        <v>0.8</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15656,14 +15661,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 31865-2023</t>
+          <t>A 35123-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45118.61383101852</v>
+        <v>45145.50380787037</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15675,8 +15680,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G256" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15713,14 +15723,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 21435-2025</t>
+          <t>A 7426-2026</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45782.51766203704</v>
+        <v>46059.4309375</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15733,7 +15743,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15770,14 +15780,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 21437-2025</t>
+          <t>A 7874-2026</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45782.52001157407</v>
+        <v>46063.11611111111</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15790,7 +15800,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15827,14 +15837,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 21361-2025</t>
+          <t>A 7875-2026</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45782.43983796296</v>
+        <v>46063.11847222222</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15847,7 +15857,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15884,14 +15894,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 21615-2025</t>
+          <t>A 10533-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45783.40077546296</v>
+        <v>44987.92349537037</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15903,13 +15913,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G260" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15946,14 +15951,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 22900-2025</t>
+          <t>A 63980-2021</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45790.41079861111</v>
+        <v>44509</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15965,13 +15970,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G261" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16008,14 +16008,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 23205-2025</t>
+          <t>A 17582-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45791.46658564815</v>
+        <v>45415</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16027,13 +16027,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G262" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16070,14 +16065,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 23101-2025</t>
+          <t>A 55444-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45791.35427083333</v>
+        <v>45231</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16089,13 +16084,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G263" t="n">
-        <v>8.199999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16132,14 +16122,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 23462-2025</t>
+          <t>A 55173-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45792.43016203704</v>
+        <v>45237</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16152,7 +16142,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16189,14 +16179,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 23567-2025</t>
+          <t>A 31817-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45792.60107638889</v>
+        <v>45509</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16209,7 +16199,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16246,14 +16236,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 45126-2023</t>
+          <t>A 31699-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45187</v>
+        <v>45508.61318287037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16265,8 +16255,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16303,14 +16298,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 23453-2025</t>
+          <t>A 63981-2021</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45792.42302083333</v>
+        <v>44509</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16322,13 +16317,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G267" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16365,14 +16355,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 23465-2025</t>
+          <t>A 46195-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45792.43493055556</v>
+        <v>45581.51873842593</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16385,7 +16375,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16422,14 +16412,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 23776-2025</t>
+          <t>A 46205-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45793.50012731482</v>
+        <v>45581.54357638889</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16442,7 +16432,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>8.1</v>
+        <v>0.6</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16479,14 +16469,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 24346-2025</t>
+          <t>A 35006-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45797.58045138889</v>
+        <v>45527</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16499,7 +16489,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16536,14 +16526,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 24342-2025</t>
+          <t>A 29476-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45797.57418981481</v>
+        <v>45106.57149305556</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16556,7 +16546,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16593,14 +16583,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 25206-2025</t>
+          <t>A 31867-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45800.46908564815</v>
+        <v>45118.61844907407</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16613,7 +16603,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16650,14 +16640,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 24805-2025</t>
+          <t>A 31869-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45799.4409375</v>
+        <v>45118.62401620371</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16670,7 +16660,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16707,14 +16697,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 24756-2025</t>
+          <t>A 9086-2023</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45799.37510416667</v>
+        <v>44979</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16727,7 +16717,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16764,14 +16754,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 25205-2025</t>
+          <t>A 27110-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45800.46907407408</v>
+        <v>45471.50009259259</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16784,7 +16774,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16821,14 +16811,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 24868-2025</t>
+          <t>A 22193-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45799.48819444444</v>
+        <v>45069</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16841,7 +16831,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16878,14 +16868,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 24812-2025</t>
+          <t>A 35557-2021</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45799.44790509259</v>
+        <v>44385</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16898,7 +16888,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16935,14 +16925,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 24856-2025</t>
+          <t>A 10440-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45799.47508101852</v>
+        <v>44987</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16955,7 +16945,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16992,14 +16982,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 24846-2025</t>
+          <t>A 45899-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45799.46851851852</v>
+        <v>45580.43047453704</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17011,8 +17001,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G279" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17049,14 +17044,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 24792-2025</t>
+          <t>A 21135-2024</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45799</v>
+        <v>45440</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17068,8 +17063,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G280" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17106,14 +17106,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 26665-2025</t>
+          <t>A 13758-2024</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45810</v>
+        <v>45390.92747685185</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17126,7 +17126,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17160,17 +17160,17 @@
       </c>
       <c r="R281" s="2" t="inlineStr"/>
     </row>
-    <row r="282">
+    <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 26576-2025</t>
+          <t>A 8938-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45807.68725694445</v>
+        <v>45713.44842592593</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17183,7 +17183,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17216,6 +17216,120 @@
         <v>0</v>
       </c>
       <c r="R282" s="2" t="inlineStr"/>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>A 32785-2024</t>
+        </is>
+      </c>
+      <c r="B283" s="1" t="n">
+        <v>45516.53230324074</v>
+      </c>
+      <c r="C283" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G283" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0</v>
+      </c>
+      <c r="L283" t="n">
+        <v>0</v>
+      </c>
+      <c r="M283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N283" t="n">
+        <v>0</v>
+      </c>
+      <c r="O283" t="n">
+        <v>0</v>
+      </c>
+      <c r="P283" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>0</v>
+      </c>
+      <c r="R283" s="2" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>A 32792-2024</t>
+        </is>
+      </c>
+      <c r="B284" s="1" t="n">
+        <v>45516.55068287037</v>
+      </c>
+      <c r="C284" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G284" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0</v>
+      </c>
+      <c r="L284" t="n">
+        <v>0</v>
+      </c>
+      <c r="M284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N284" t="n">
+        <v>0</v>
+      </c>
+      <c r="O284" t="n">
+        <v>0</v>
+      </c>
+      <c r="P284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>0</v>
+      </c>
+      <c r="R284" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -575,7 +575,7 @@
         <v>45796</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>44503.35390046296</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45943.38998842592</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -870,14 +870,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 21711-2025</t>
+          <t>A 19776-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45783</v>
+        <v>45771.42275462963</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -928,6 +928,103 @@
         <v>4</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Spillkråka
+Gullgröppa
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 19776-2025 artfynd.xlsx", "A 19776-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 19776-2025 karta.png", "A 19776-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 19776-2025 FSC-klagomål.docx", "A 19776-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 19776-2025 FSC-klagomål mail.docx", "A 19776-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 19776-2025 tillsynsbegäran.docx", "A 19776-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 19776-2025 tillsynsbegäran mail.docx", "A 19776-2025")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 19776-2025 prioriterade fågelarter.docx", "A 19776-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 21711-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45783</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Spillkråka
@@ -935,132 +1032,35 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 21711-2025 artfynd.xlsx", "A 21711-2025")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 21711-2025 karta.png", "A 21711-2025")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 21711-2025 FSC-klagomål.docx", "A 21711-2025")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 21711-2025 FSC-klagomål mail.docx", "A 21711-2025")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 21711-2025 tillsynsbegäran.docx", "A 21711-2025")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 21711-2025 tillsynsbegäran mail.docx", "A 21711-2025")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 21711-2025 prioriterade fågelarter.docx", "A 21711-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 19776-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45771.42275462963</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Spillkråka
-Gullgröppa
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 19776-2025 artfynd.xlsx", "A 19776-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 19776-2025 karta.png", "A 19776-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 19776-2025 FSC-klagomål.docx", "A 19776-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 19776-2025 FSC-klagomål mail.docx", "A 19776-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 19776-2025 tillsynsbegäran.docx", "A 19776-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 19776-2025 tillsynsbegäran mail.docx", "A 19776-2025")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 19776-2025 prioriterade fågelarter.docx", "A 19776-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>46031.65877314815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>46007.44545138889</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         <v>45447.89238425926</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>46013.66015046297</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>45698.44841435185</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45979.59435185185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>46000.62998842593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>46007.44689814815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>46010.37401620371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44452</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>44355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>44651</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2089,14 +2089,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 427-2022</t>
+          <t>A 11989-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44565.92820601852</v>
+        <v>44265</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2146,14 +2146,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 11989-2021</t>
+          <t>A 427-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44265</v>
+        <v>44565.92820601852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>9.800000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>44524.54244212963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2260,14 +2260,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 46950-2021</t>
+          <t>A 47772-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44446</v>
+        <v>44854.92494212963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2317,14 +2317,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 47772-2022</t>
+          <t>A 46950-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44854.92494212963</v>
+        <v>44446</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>44565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44610</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2488,14 +2488,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 67514-2021</t>
+          <t>A 31264-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44524.5028587963</v>
+        <v>45503.96868055555</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2507,8 +2507,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2545,14 +2550,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 58340-2024</t>
+          <t>A 31277-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45632.6391087963</v>
+        <v>45504.39555555556</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2564,8 +2569,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2602,14 +2612,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 29462-2025</t>
+          <t>A 67514-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45824.69697916666</v>
+        <v>44524.5028587963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2622,7 +2632,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>11.1</v>
+        <v>2.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2659,14 +2669,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 46212-2024</t>
+          <t>A 42317-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45581.55569444445</v>
+        <v>45175</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2679,7 +2689,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2716,14 +2726,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 39185-2024</t>
+          <t>A 42327-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45548</v>
+        <v>45175</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2736,7 +2746,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2773,14 +2783,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 60640-2024</t>
+          <t>A 1058-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45644.42787037037</v>
+        <v>44929</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2792,13 +2802,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2835,14 +2840,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 60557-2023</t>
+          <t>A 1437-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45259</v>
+        <v>45669.67790509259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2855,7 +2860,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.9</v>
+        <v>11.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2892,14 +2897,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 54793-2023</t>
+          <t>A 9039-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45229</v>
+        <v>45356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2912,7 +2917,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2949,14 +2954,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 59716-2024</t>
+          <t>A 63980-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45639.45857638889</v>
+        <v>44509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2969,7 +2974,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5.8</v>
+        <v>2.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3006,14 +3011,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 27530-2024</t>
+          <t>A 52536-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45474.56820601852</v>
+        <v>45218</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3025,13 +3030,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3068,14 +3068,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 19786-2025</t>
+          <t>A 55173-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45771.44086805556</v>
+        <v>45237</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3087,13 +3087,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3130,14 +3125,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 15409-2021</t>
+          <t>A 54793-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44285</v>
+        <v>45229</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3150,7 +3145,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3187,14 +3182,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 16782-2024</t>
+          <t>A 38956-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45411</v>
+        <v>44816</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3207,7 +3202,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3244,14 +3239,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 22002-2023</t>
+          <t>A 35734-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45068.92707175926</v>
+        <v>45532</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3264,7 +3259,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3301,14 +3296,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 35737-2024</t>
+          <t>A 64966-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45532</v>
+        <v>45283</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3321,7 +3316,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3358,14 +3353,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 35771-2024</t>
+          <t>A 35006-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45532</v>
+        <v>45527</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3378,7 +3373,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3415,14 +3410,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 44295-2023</t>
+          <t>A 32956-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45188.64064814815</v>
+        <v>45517</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,8 +3429,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3472,14 +3472,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 28367-2022</t>
+          <t>A 46434-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44747</v>
+        <v>44846</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3529,14 +3529,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 50413-2024</t>
+          <t>A 15674-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45601.37128472222</v>
+        <v>45748.44657407407</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,13 +3548,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>23.4</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3591,14 +3586,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 20432-2025</t>
+          <t>A 846-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45775.47893518519</v>
+        <v>44571</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3611,7 +3606,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3648,14 +3643,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 38956-2022</t>
+          <t>A 13758-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44816</v>
+        <v>45390.92747685185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3668,7 +3663,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3705,14 +3700,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 38566-2025</t>
+          <t>A 35011-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45884.45541666666</v>
+        <v>45527</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3725,7 +3720,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5.5</v>
+        <v>0.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3762,14 +3757,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 846-2022</t>
+          <t>A 27110-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44571</v>
+        <v>45471.50009259259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3782,7 +3777,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3819,14 +3814,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 31133-2023</t>
+          <t>A 8939-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45103</v>
+        <v>45713.4485300926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3839,7 +3834,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3876,14 +3871,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 33319-2023</t>
+          <t>A 58340-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45127.88890046296</v>
+        <v>45632.6391087963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3896,7 +3891,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3933,14 +3928,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 42317-2023</t>
+          <t>A 7871-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45175</v>
+        <v>44970</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3953,7 +3948,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3990,14 +3985,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 42327-2023</t>
+          <t>A 26665-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45175</v>
+        <v>45810</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4010,7 +4005,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4047,14 +4042,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 426-2022</t>
+          <t>A 26576-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44565</v>
+        <v>45807.68725694445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4067,7 +4062,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4104,14 +4099,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 8940-2025</t>
+          <t>A 35360-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45713.44855324074</v>
+        <v>45146.52483796296</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4124,7 +4119,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4161,14 +4156,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 28337-2022</t>
+          <t>A 35123-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44747.42982638889</v>
+        <v>45145.50380787037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4178,6 +4173,11 @@
       <c r="E56" t="inlineStr">
         <is>
           <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -4218,14 +4218,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 9039-2024</t>
+          <t>A 46726-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45356</v>
+        <v>45583.46103009259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4275,14 +4275,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 44319-2023</t>
+          <t>A 46205-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45183</v>
+        <v>45581.54357638889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4332,14 +4332,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 31421-2023</t>
+          <t>A 46501-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45114.60027777778</v>
+        <v>45582.6006712963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4351,13 +4351,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>5.8</v>
+        <v>1.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4394,14 +4389,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 8937-2025</t>
+          <t>A 46195-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45713.44841435185</v>
+        <v>45581.51873842593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4414,7 +4409,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4451,14 +4446,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 20228-2023</t>
+          <t>A 31867-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45055</v>
+        <v>45118.61844907407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4471,7 +4466,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4508,14 +4503,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 60646-2024</t>
+          <t>A 33319-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45644.4325462963</v>
+        <v>45127.88890046296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4527,13 +4522,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4570,14 +4560,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 42584-2025</t>
+          <t>A 17981-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45905.62662037037</v>
+        <v>45419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4590,7 +4580,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4627,14 +4617,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 35734-2024</t>
+          <t>A 45899-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45532</v>
+        <v>45580.43047453704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4646,8 +4636,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4684,14 +4679,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 59253-2024</t>
+          <t>A 28694-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45637.59724537037</v>
+        <v>45819.88594907407</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4704,7 +4699,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4741,14 +4736,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 42902-2025</t>
+          <t>A 31817-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45908.67744212963</v>
+        <v>45509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4761,7 +4756,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4798,14 +4793,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 29823-2025</t>
+          <t>A 52531-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45825.85599537037</v>
+        <v>45609.61578703704</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4818,7 +4813,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>7.2</v>
+        <v>1.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4855,14 +4850,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 31865-2023</t>
+          <t>A 52533-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45118.61383101852</v>
+        <v>45609.61697916667</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4875,7 +4870,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4912,14 +4907,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 20640-2025</t>
+          <t>A 9026-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45776.37438657408</v>
+        <v>45356</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4932,7 +4927,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>5.2</v>
+        <v>0.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4969,14 +4964,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 42990-2025</t>
+          <t>A 29912-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45909.45178240741</v>
+        <v>45826.40885416666</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4989,7 +4984,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5026,14 +5021,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 17409-2025</t>
+          <t>A 46212-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45757.36844907407</v>
+        <v>45581.55569444445</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5046,7 +5041,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5083,14 +5078,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 17414-2025</t>
+          <t>A 57777-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45757</v>
+        <v>45246</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5103,7 +5098,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.8</v>
+        <v>4.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5140,14 +5135,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 21435-2025</t>
+          <t>A 12410-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45782.51766203704</v>
+        <v>45730.43505787037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5160,7 +5155,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5197,14 +5192,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 21437-2025</t>
+          <t>A 8940-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45782.52001157407</v>
+        <v>45713.44855324074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5217,7 +5212,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5254,14 +5249,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 43030-2025</t>
+          <t>A 21041-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45909</v>
+        <v>45439.666875</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5273,13 +5268,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5316,14 +5306,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 21361-2025</t>
+          <t>A 30163-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45782.43983796296</v>
+        <v>45827.32722222222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5336,7 +5326,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5373,14 +5363,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 21615-2025</t>
+          <t>A 59716-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45783.40077546296</v>
+        <v>45639.45857638889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5392,13 +5382,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5435,14 +5420,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 47976-2022</t>
+          <t>A 16782-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44853</v>
+        <v>45411</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5455,7 +5440,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5492,14 +5477,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 31264-2024</t>
+          <t>A 32785-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45503.96868055555</v>
+        <v>45516.53230324074</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5511,13 +5496,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>5.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5554,14 +5534,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 31277-2024</t>
+          <t>A 50413-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45504.39555555556</v>
+        <v>45601.37128472222</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5579,7 +5559,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>5.2</v>
+        <v>23.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5616,14 +5596,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 19100-2022</t>
+          <t>A 47-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44691.52804398148</v>
+        <v>45659</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5636,7 +5616,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5673,14 +5653,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 32809-2024</t>
+          <t>A 2201-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45516.57067129629</v>
+        <v>45673.39678240741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5693,7 +5673,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5730,14 +5710,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 45126-2023</t>
+          <t>A 31986-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45187</v>
+        <v>45835.36210648148</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5750,7 +5730,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5787,14 +5767,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 23101-2025</t>
+          <t>A 13762-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45791.35427083333</v>
+        <v>45737.43103009259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5806,13 +5786,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>8.199999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5849,14 +5824,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 23205-2025</t>
+          <t>A 29573-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45791.46658564815</v>
+        <v>45098</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5868,13 +5843,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>0.5</v>
+        <v>5.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5911,14 +5881,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 35354-2023</t>
+          <t>A 32792-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45146</v>
+        <v>45516.55068287037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5931,7 +5901,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5968,14 +5938,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 22900-2025</t>
+          <t>A 32809-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45790.41079861111</v>
+        <v>45516.57067129629</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5987,13 +5957,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6030,14 +5995,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 47-2025</t>
+          <t>A 28615-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45659</v>
+        <v>45103.59210648148</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6050,7 +6015,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.8</v>
+        <v>5.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6087,14 +6052,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 28615-2023</t>
+          <t>A 1006-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45103.59210648148</v>
+        <v>44935</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6107,7 +6072,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5.2</v>
+        <v>0.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6144,14 +6109,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 43685-2025</t>
+          <t>A 31869-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45912.38184027778</v>
+        <v>45118.62401620371</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6164,7 +6129,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6201,14 +6166,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 23567-2025</t>
+          <t>A 21135-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45792.60107638889</v>
+        <v>45440</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6218,6 +6183,11 @@
       <c r="E91" t="inlineStr">
         <is>
           <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -6258,14 +6228,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 23462-2025</t>
+          <t>A 2942-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45792.43016203704</v>
+        <v>45678.39038194445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6278,7 +6248,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6315,14 +6285,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 23776-2025</t>
+          <t>A 6179-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45793.50012731482</v>
+        <v>45698.44835648148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6335,7 +6305,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>8.1</v>
+        <v>4.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6372,14 +6342,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 23453-2025</t>
+          <t>A 55444-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45792.42302083333</v>
+        <v>45231</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6391,13 +6361,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6434,14 +6399,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 23465-2025</t>
+          <t>A 31699-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45792.43493055556</v>
+        <v>45508.61318287037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6453,8 +6418,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6491,14 +6461,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 24342-2025</t>
+          <t>A 42141-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45797.57418981481</v>
+        <v>45177</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6511,7 +6481,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6548,14 +6518,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 24346-2025</t>
+          <t>A 12425-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45797.58045138889</v>
+        <v>45730</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6568,7 +6538,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6605,14 +6575,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 57777-2023</t>
+          <t>A 31133-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45246</v>
+        <v>45103</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6625,7 +6595,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6662,14 +6632,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 44975-2025</t>
+          <t>A 2933-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45918.64300925926</v>
+        <v>44581</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6682,7 +6652,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6719,14 +6689,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 44832-2025</t>
+          <t>A 1438-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45918.406875</v>
+        <v>45669.68052083333</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6739,7 +6709,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6776,14 +6746,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 44889-2025</t>
+          <t>A 17582-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45918.49681712963</v>
+        <v>45415</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6796,7 +6766,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.4</v>
+        <v>1.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6833,14 +6803,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 44895-2025</t>
+          <t>A 2286-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45918.50277777778</v>
+        <v>45673</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6853,7 +6823,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6890,14 +6860,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 24756-2025</t>
+          <t>A 44295-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45799.37510416667</v>
+        <v>45188.64064814815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6910,7 +6880,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6947,14 +6917,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 24846-2025</t>
+          <t>A 8935-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45799.46851851852</v>
+        <v>45713.44832175926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6967,7 +6937,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.8</v>
+        <v>0.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7004,14 +6974,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 24805-2025</t>
+          <t>A 59253-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45799.4409375</v>
+        <v>45637.59724537037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7024,7 +6994,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7061,14 +7031,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 24812-2025</t>
+          <t>A 31421-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45799.44790509259</v>
+        <v>45114.60027777778</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7080,8 +7050,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>2.6</v>
+        <v>5.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7118,14 +7093,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 24792-2025</t>
+          <t>A 30221-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45799</v>
+        <v>45099</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7138,7 +7113,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7175,14 +7150,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 24868-2025</t>
+          <t>A 32739-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45799.48819444444</v>
+        <v>44375</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7195,7 +7170,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7232,14 +7207,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 24856-2025</t>
+          <t>A 59771-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45799.47508101852</v>
+        <v>45257</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7252,7 +7227,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7289,14 +7264,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 25205-2025</t>
+          <t>A 36801-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45800.46907407408</v>
+        <v>45873.66607638889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7309,7 +7284,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7346,14 +7321,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 25206-2025</t>
+          <t>A 16471-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45800.46908564815</v>
+        <v>45751.54825231482</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7366,7 +7341,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7403,14 +7378,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 26576-2025</t>
+          <t>A 60640-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45807.68725694445</v>
+        <v>45644.42787037037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7422,8 +7397,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7460,14 +7440,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 3584-2025</t>
+          <t>A 47976-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45680.78527777778</v>
+        <v>44853</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7480,7 +7460,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7517,14 +7497,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 26665-2025</t>
+          <t>A 63981-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45810</v>
+        <v>44509</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7537,7 +7517,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7574,14 +7554,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 2286-2025</t>
+          <t>A 47771-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45673</v>
+        <v>44854</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7594,7 +7574,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7631,14 +7611,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 30221-2023</t>
+          <t>A 44319-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45099</v>
+        <v>45183</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7651,7 +7631,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7688,14 +7668,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 47771-2022</t>
+          <t>A 3584-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44854</v>
+        <v>45680.78527777778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7708,7 +7688,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7745,14 +7725,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 9026-2024</t>
+          <t>A 56258-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45356</v>
+        <v>45624.64472222222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7765,7 +7745,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7802,14 +7782,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 28694-2025</t>
+          <t>A 56262-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45819.88594907407</v>
+        <v>45624.65004629629</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7822,7 +7802,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7859,14 +7839,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 42141-2023</t>
+          <t>A 37364-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45177</v>
+        <v>45877.32516203704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7879,7 +7859,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7916,14 +7896,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 59771-2023</t>
+          <t>A 8993-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45257</v>
+        <v>45357.55085648148</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7936,7 +7916,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7973,14 +7953,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 46434-2022</t>
+          <t>A 19734-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44846</v>
+        <v>45771.36695601852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7990,6 +7970,11 @@
       <c r="E122" t="inlineStr">
         <is>
           <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -8030,14 +8015,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 30163-2025</t>
+          <t>A 33226-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45827.32722222222</v>
+        <v>44376</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8050,7 +8035,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8087,14 +8072,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 33226-2021</t>
+          <t>A 62553-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44376</v>
+        <v>44501</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8107,7 +8092,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.9</v>
+        <v>10.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8144,14 +8129,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 29912-2025</t>
+          <t>A 25347-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45826.40885416666</v>
+        <v>45462</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8201,14 +8186,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 35755-2024</t>
+          <t>A 18380-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45532</v>
+        <v>45762.57891203704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8221,7 +8206,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8258,14 +8243,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 32956-2024</t>
+          <t>A 28367-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45517</v>
+        <v>44747</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8277,13 +8262,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8320,14 +8300,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 31986-2025</t>
+          <t>A 17073-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45835.36210648148</v>
+        <v>45754</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8340,7 +8320,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8377,14 +8357,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 2018-2025</t>
+          <t>A 28347-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45672</v>
+        <v>44747.45532407407</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8396,13 +8376,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8439,14 +8414,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 2020-2025</t>
+          <t>A 18231-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45672</v>
+        <v>45761.87467592592</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8458,13 +8433,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8501,14 +8471,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 12425-2025</t>
+          <t>A 18377-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45730</v>
+        <v>45762.57496527778</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8521,7 +8491,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8558,14 +8528,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 49559-2025</t>
+          <t>A 20228-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45939.45946759259</v>
+        <v>45055</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8578,7 +8548,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>7.2</v>
+        <v>0.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8615,14 +8585,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 48859-2025</t>
+          <t>A 31839-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45937</v>
+        <v>45509.65498842593</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8634,8 +8604,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8672,14 +8647,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 48886-2025</t>
+          <t>A 22002-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45937.46611111111</v>
+        <v>45068.92707175926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8692,7 +8667,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8729,14 +8704,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 48852-2025</t>
+          <t>A 60557-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45937.43040509259</v>
+        <v>45259</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8749,7 +8724,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8786,14 +8761,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 1058-2023</t>
+          <t>A 25453-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44929</v>
+        <v>45463.42144675926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8806,7 +8781,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8843,14 +8818,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 49520-2025</t>
+          <t>A 39220-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45939.39337962963</v>
+        <v>45549</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8863,7 +8838,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8900,14 +8875,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 1438-2025</t>
+          <t>A 29476-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45669.68052083333</v>
+        <v>45106.57149305556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8920,7 +8895,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8957,14 +8932,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 8993-2024</t>
+          <t>A 29485-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45357.55085648148</v>
+        <v>45106</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8977,7 +8952,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.4</v>
+        <v>5.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9014,14 +8989,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 46501-2024</t>
+          <t>A 52255-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45582.6006712963</v>
+        <v>45608.64011574074</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9034,7 +9009,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9071,14 +9046,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 49371-2025</t>
+          <t>A 39185-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45938.63061342593</v>
+        <v>45548</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9091,7 +9066,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9128,14 +9103,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 49820-2025</t>
+          <t>A 38566-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45940.43907407407</v>
+        <v>45884.45541666666</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9147,13 +9122,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9190,14 +9160,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 52255-2024</t>
+          <t>A 63817-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45608.64011574074</v>
+        <v>45275</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9210,7 +9180,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.2</v>
+        <v>6.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9247,14 +9217,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 8935-2025</t>
+          <t>A 35557-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45713.44832175926</v>
+        <v>44385</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9267,7 +9237,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9304,14 +9274,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 8939-2025</t>
+          <t>A 19786-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45713.4485300926</v>
+        <v>45771.44086805556</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9323,8 +9293,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9361,14 +9336,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 36801-2025</t>
+          <t>A 60646-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45873.66607638889</v>
+        <v>45644.4325462963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9380,8 +9355,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9418,14 +9398,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 47472-2024</t>
+          <t>A 8937-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45587.5741087963</v>
+        <v>45713.44841435185</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9475,14 +9455,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 7871-2023</t>
+          <t>A 8938-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44970</v>
+        <v>45713.44842592593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9495,7 +9475,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9532,14 +9512,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 37364-2025</t>
+          <t>A 35354-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45877.32516203704</v>
+        <v>45146</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9552,7 +9532,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9589,14 +9569,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 25347-2024</t>
+          <t>A 426-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45462</v>
+        <v>44565</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9609,7 +9589,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9646,14 +9626,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 51553-2025</t>
+          <t>A 15409-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45950.87297453704</v>
+        <v>44285</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9666,7 +9646,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9703,14 +9683,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 51722-2025</t>
+          <t>A 10533-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45951.58085648148</v>
+        <v>44987.92349537037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9723,7 +9703,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9760,14 +9740,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 51605-2025</t>
+          <t>A 34760-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45951.38592592593</v>
+        <v>45139</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9780,7 +9760,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>4.7</v>
+        <v>0.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9817,14 +9797,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 18377-2025</t>
+          <t>A 53783-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45762.57496527778</v>
+        <v>45615</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9837,7 +9817,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9874,14 +9854,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 18380-2025</t>
+          <t>A 19100-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45762.57891203704</v>
+        <v>44691.52804398148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9894,7 +9874,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9931,14 +9911,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 17981-2024</t>
+          <t>A 22193-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45419</v>
+        <v>45069</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9951,7 +9931,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9988,14 +9968,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 51737-2025</t>
+          <t>A 29462-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45951.59630787037</v>
+        <v>45824.69697916666</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10008,7 +9988,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.6</v>
+        <v>11.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10045,14 +10025,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 25453-2024</t>
+          <t>A 10440-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45463.42144675926</v>
+        <v>44987</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10065,7 +10045,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.3</v>
+        <v>3.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10102,14 +10082,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 1006-2023</t>
+          <t>A 17409-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44935</v>
+        <v>45757.36844907407</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10122,7 +10102,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10159,14 +10139,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 52835-2025</t>
+          <t>A 17414-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45957.47133101852</v>
+        <v>45757</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10179,7 +10159,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10216,14 +10196,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 52845-2025</t>
+          <t>A 20432-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45957.48430555555</v>
+        <v>45775.47893518519</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10236,7 +10216,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10273,14 +10253,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 15678-2025</t>
+          <t>A 35737-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45748.45042824074</v>
+        <v>45532</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10293,7 +10273,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>7.1</v>
+        <v>2.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10330,14 +10310,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 18231-2025</t>
+          <t>A 35755-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45761.87467592592</v>
+        <v>45532</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10350,7 +10330,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10387,14 +10367,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 52842-2025</t>
+          <t>A 35771-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45957.47827546296</v>
+        <v>45532</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10407,7 +10387,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10444,14 +10424,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 52820-2025</t>
+          <t>A 27530-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45957.45483796296</v>
+        <v>45474.56820601852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10463,8 +10443,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10501,14 +10486,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 53783-2024</t>
+          <t>A 9086-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45615</v>
+        <v>44979</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10521,7 +10506,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10558,14 +10543,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 54570-2025</t>
+          <t>A 42902-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45965.67487268519</v>
+        <v>45908.67744212963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10578,7 +10563,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10615,14 +10600,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 54243-2025</t>
+          <t>A 29823-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45964.63417824074</v>
+        <v>45825.85599537037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10635,7 +10620,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10672,14 +10657,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 54562-2025</t>
+          <t>A 42584-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45965.66751157407</v>
+        <v>45905.62662037037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10692,7 +10677,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10729,14 +10714,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 54421-2025</t>
+          <t>A 42990-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45965.48461805555</v>
+        <v>45909.45178240741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10749,7 +10734,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>10.4</v>
+        <v>2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10786,14 +10771,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 2933-2022</t>
+          <t>A 4676-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44581</v>
+        <v>44953</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10806,7 +10791,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10843,14 +10828,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 52536-2023</t>
+          <t>A 43030-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45218</v>
+        <v>45909</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10862,8 +10847,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10900,14 +10890,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 56320-2025</t>
+          <t>A 28337-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45974.63405092592</v>
+        <v>44747.42982638889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10920,7 +10910,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10957,14 +10947,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 35360-2023</t>
+          <t>A 43685-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45146.52483796296</v>
+        <v>45912.38184027778</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10977,7 +10967,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11014,14 +11004,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 56513-2025</t>
+          <t>A 47472-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45975.45373842592</v>
+        <v>45587.5741087963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11034,7 +11024,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11071,14 +11061,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 56622-2025</t>
+          <t>A 15678-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45975.60040509259</v>
+        <v>45748.45042824074</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11091,7 +11081,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.6</v>
+        <v>7.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11128,14 +11118,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 56553-2025</t>
+          <t>A 44889-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45975.48762731482</v>
+        <v>45918.49681712963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11148,7 +11138,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11185,14 +11175,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 56329-2025</t>
+          <t>A 44832-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45974.64</v>
+        <v>45918.406875</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11205,7 +11195,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11242,14 +11232,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 56831-2025</t>
+          <t>A 44975-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45978.46716435185</v>
+        <v>45918.64300925926</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11262,7 +11252,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11299,14 +11289,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 57203-2025</t>
+          <t>A 44895-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45979.58972222222</v>
+        <v>45918.50277777778</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11318,13 +11308,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>20.1</v>
+        <v>2.8</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11361,14 +11346,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 2201-2025</t>
+          <t>A 60033-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45673.39678240741</v>
+        <v>45642.46236111111</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11381,7 +11366,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11418,14 +11403,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 56833-2025</t>
+          <t>A 2018-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45978.47253472222</v>
+        <v>45672</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11437,8 +11422,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11475,14 +11465,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 56835-2025</t>
+          <t>A 2020-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45978.47366898148</v>
+        <v>45672</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11494,8 +11484,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11532,14 +11527,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 56966-2025</t>
+          <t>A 52536-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45978.67543981481</v>
+        <v>45609.61851851852</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11552,7 +11547,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11589,14 +11584,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 57448-2025</t>
+          <t>A 20640-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45980.49452546296</v>
+        <v>45776.37438657408</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11608,13 +11603,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>2.9</v>
+        <v>5.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11651,14 +11641,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 57347-2025</t>
+          <t>A 31865-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45980.35763888889</v>
+        <v>45118.61383101852</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11671,7 +11661,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>6.9</v>
+        <v>0.8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11708,14 +11698,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 57424-2025</t>
+          <t>A 21435-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45980.46134259259</v>
+        <v>45782.51766203704</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11727,13 +11717,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11770,14 +11755,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 52536-2024</t>
+          <t>A 21437-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45609.61851851852</v>
+        <v>45782.52001157407</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11790,7 +11775,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11827,14 +11812,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 58637-2025</t>
+          <t>A 21361-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45986.49008101852</v>
+        <v>45782.43983796296</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11847,7 +11832,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>4.4</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11884,14 +11869,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 686-2026</t>
+          <t>A 21615-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46029.60719907407</v>
+        <v>45783.40077546296</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11903,8 +11888,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11941,14 +11931,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 12410-2025</t>
+          <t>A 48859-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45730.43505787037</v>
+        <v>45937</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11961,7 +11951,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11998,14 +11988,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 58584-2025</t>
+          <t>A 49371-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45986.39486111111</v>
+        <v>45938.63061342593</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12018,7 +12008,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12055,14 +12045,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 862-2026</t>
+          <t>A 48886-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46030.42516203703</v>
+        <v>45937.46611111111</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12075,7 +12065,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12112,14 +12102,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 59867-2025</t>
+          <t>A 48852-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45992.87564814815</v>
+        <v>45937.43040509259</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12132,7 +12122,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12169,14 +12159,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 1633-2026</t>
+          <t>A 49820-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>46034.49119212963</v>
+        <v>45940.43907407407</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12188,8 +12178,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12226,14 +12221,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 34760-2023</t>
+          <t>A 49520-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45139</v>
+        <v>45939.39337962963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12246,7 +12241,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12283,14 +12278,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 17073-2025</t>
+          <t>A 49559-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45754</v>
+        <v>45939.45946759259</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12303,7 +12298,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.3</v>
+        <v>7.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12340,14 +12335,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 1614-2026</t>
+          <t>A 22900-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46034.46947916667</v>
+        <v>45790.41079861111</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12359,8 +12354,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>9.1</v>
+        <v>1.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12397,14 +12397,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 2496-2026</t>
+          <t>A 23205-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46037.40002314815</v>
+        <v>45791.46658564815</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12416,8 +12416,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12454,14 +12459,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 2072-2026</t>
+          <t>A 23101-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46036.33851851852</v>
+        <v>45791.35427083333</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12473,8 +12478,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>0.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12511,14 +12521,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 60533-2025</t>
+          <t>A 23462-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45995.65939814815</v>
+        <v>45792.43016203704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12531,7 +12541,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12568,14 +12578,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 63817-2023</t>
+          <t>A 23567-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45275</v>
+        <v>45792.60107638889</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12588,7 +12598,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>6.7</v>
+        <v>3.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12625,14 +12635,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 60619-2025</t>
+          <t>A 45126-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45996.38447916666</v>
+        <v>45187</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12645,7 +12655,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12682,14 +12692,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 2772-2026</t>
+          <t>A 23453-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46038.37417824074</v>
+        <v>45792.42302083333</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12701,8 +12711,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>7.7</v>
+        <v>1.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12739,14 +12754,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 1437-2025</t>
+          <t>A 23465-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45669.67790509259</v>
+        <v>45792.43493055556</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12759,7 +12774,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>11.7</v>
+        <v>0.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12796,14 +12811,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 39220-2024</t>
+          <t>A 51605-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45549</v>
+        <v>45951.38592592593</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12816,7 +12831,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.4</v>
+        <v>4.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12853,14 +12868,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 2774-2026</t>
+          <t>A 51737-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>46038.37543981482</v>
+        <v>45951.59630787037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12873,7 +12888,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12910,14 +12925,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 15674-2025</t>
+          <t>A 51722-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45748.44657407407</v>
+        <v>45951.58085648148</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12930,7 +12945,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12967,14 +12982,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 35011-2024</t>
+          <t>A 51553-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45527</v>
+        <v>45950.87297453704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13024,14 +13039,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 32739-2021</t>
+          <t>A 52842-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44375</v>
+        <v>45957.47827546296</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13044,7 +13059,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13081,14 +13096,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 61176-2025</t>
+          <t>A 52820-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46000.57684027778</v>
+        <v>45957.45483796296</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13101,7 +13116,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>8.300000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13138,14 +13153,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 61221-2025</t>
+          <t>A 23776-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>46000</v>
+        <v>45793.50012731482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13158,7 +13173,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.6</v>
+        <v>8.1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13195,14 +13210,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 3540-2026</t>
+          <t>A 52845-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46042.63204861111</v>
+        <v>45957.48430555555</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13215,7 +13230,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13252,14 +13267,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 61216-2025</t>
+          <t>A 52835-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>46000.62005787037</v>
+        <v>45957.47133101852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13272,7 +13287,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13309,14 +13324,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 29485-2023</t>
+          <t>A 24346-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45106</v>
+        <v>45797.58045138889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13329,7 +13344,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13366,14 +13381,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 61403-2025</t>
+          <t>A 24342-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>46001.48989583334</v>
+        <v>45797.57418981481</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13386,7 +13401,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>12.8</v>
+        <v>1.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13423,14 +13438,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 61142-2025</t>
+          <t>A 25206-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>46000.51967592593</v>
+        <v>45800.46908564815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13443,7 +13458,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13480,14 +13495,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 61155-2025</t>
+          <t>A 24805-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>46000.54702546296</v>
+        <v>45799.4409375</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13500,7 +13515,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13537,14 +13552,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 61158-2025</t>
+          <t>A 24756-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46000.55134259259</v>
+        <v>45799.37510416667</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13557,7 +13572,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13594,14 +13609,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 61182-2025</t>
+          <t>A 54243-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>46000.58409722222</v>
+        <v>45964.63417824074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13614,7 +13629,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.8</v>
+        <v>6.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13651,14 +13666,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 61204-2025</t>
+          <t>A 54562-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>46000.61395833334</v>
+        <v>45965.66751157407</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13671,7 +13686,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13708,14 +13723,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 60033-2024</t>
+          <t>A 25205-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45642.46236111111</v>
+        <v>45800.46907407408</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13728,7 +13743,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>5.3</v>
+        <v>1.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13765,14 +13780,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 61127-2025</t>
+          <t>A 54421-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>46000.48337962963</v>
+        <v>45965.48461805555</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13785,7 +13800,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.7</v>
+        <v>10.4</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13822,14 +13837,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 3538-2026</t>
+          <t>A 24868-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>46042.6296412037</v>
+        <v>45799.48819444444</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13842,7 +13857,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13879,14 +13894,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 61118-2025</t>
+          <t>A 24812-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>46000.46293981482</v>
+        <v>45799.44790509259</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13899,7 +13914,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13936,14 +13951,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 4109-2026</t>
+          <t>A 24856-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>46044.59418981482</v>
+        <v>45799.47508101852</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13956,7 +13971,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>5.3</v>
+        <v>1.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13993,14 +14008,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 31132-2023</t>
+          <t>A 24846-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45103</v>
+        <v>45799.46851851852</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14013,7 +14028,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14050,14 +14065,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 35349-2023</t>
+          <t>A 54570-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45146</v>
+        <v>45965.67487268519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14070,7 +14085,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>5.4</v>
+        <v>1.2</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14107,14 +14122,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 4090-2026</t>
+          <t>A 24792-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>46044.55434027778</v>
+        <v>45799</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14127,7 +14142,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14164,14 +14179,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 4676-2023</t>
+          <t>A 56320-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44953</v>
+        <v>45974.63405092592</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14184,7 +14199,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14221,14 +14236,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 13762-2025</t>
+          <t>A 56329-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45737.43103009259</v>
+        <v>45974.64</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14241,7 +14256,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14278,14 +14293,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 4108-2026</t>
+          <t>A 56553-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>46044.59416666667</v>
+        <v>45975.48762731482</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14298,7 +14313,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14335,14 +14350,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 4081-2026</t>
+          <t>A 56513-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>46044</v>
+        <v>45975.45373842592</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14355,7 +14370,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.2</v>
+        <v>8.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14392,14 +14407,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 4870-2026</t>
+          <t>A 56835-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>46048.6465625</v>
+        <v>45978.47366898148</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14412,7 +14427,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14449,14 +14464,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 21041-2024</t>
+          <t>A 56966-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45439.666875</v>
+        <v>45978.67543981481</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14469,7 +14484,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14506,14 +14521,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 16471-2025</t>
+          <t>A 56831-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45751.54825231482</v>
+        <v>45978.46716435185</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14526,7 +14541,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14563,14 +14578,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 62787-2025</t>
+          <t>A 56622-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>46008.61939814815</v>
+        <v>45975.60040509259</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14583,7 +14598,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>4.9</v>
+        <v>1.6</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14620,14 +14635,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 6179-2025</t>
+          <t>A 56833-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45698.44835648148</v>
+        <v>45978.47253472222</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14640,7 +14655,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>4.9</v>
+        <v>2.7</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14677,14 +14692,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 62553-2021</t>
+          <t>A 57347-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44501</v>
+        <v>45980.35763888889</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14697,7 +14712,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>10.2</v>
+        <v>6.9</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14734,14 +14749,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 4685-2026</t>
+          <t>A 57448-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>46048.43700231481</v>
+        <v>45980.49452546296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14753,8 +14768,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G240" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14791,14 +14811,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 2942-2025</t>
+          <t>A 57203-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45678.39038194445</v>
+        <v>45979.58972222222</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14810,8 +14830,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G241" t="n">
-        <v>2.4</v>
+        <v>20.1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14848,14 +14873,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 56258-2024</t>
+          <t>A 57424-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45624.64472222222</v>
+        <v>45980.46134259259</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14867,8 +14892,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14905,14 +14935,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 56262-2024</t>
+          <t>A 58637-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45624.65004629629</v>
+        <v>45986.49008101852</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14925,7 +14955,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14962,14 +14992,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 52531-2024</t>
+          <t>A 58584-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45609.61578703704</v>
+        <v>45986.39486111111</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14982,7 +15012,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15019,14 +15049,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 52533-2024</t>
+          <t>A 862-2026</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45609.61697916667</v>
+        <v>46030.42516203703</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15039,7 +15069,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15076,14 +15106,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 63574-2025</t>
+          <t>A 686-2026</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>46013.66307870371</v>
+        <v>46029.60719907407</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15096,7 +15126,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15133,14 +15163,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 29573-2023</t>
+          <t>A 1614-2026</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45098</v>
+        <v>46034.46947916667</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15153,7 +15183,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>5.3</v>
+        <v>9.1</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15190,14 +15220,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 46726-2024</t>
+          <t>A 1633-2026</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45583.46103009259</v>
+        <v>46034.49119212963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15210,7 +15240,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15247,14 +15277,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 64966-2023</t>
+          <t>A 59867-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45283</v>
+        <v>45992.87564814815</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15267,7 +15297,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15304,14 +15334,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 63160-2025</t>
+          <t>A 2072-2026</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>46010.37174768518</v>
+        <v>46036.33851851852</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15324,7 +15354,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15361,14 +15391,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 28347-2022</t>
+          <t>A 2774-2026</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44747.45532407407</v>
+        <v>46038.37543981482</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15381,7 +15411,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15418,14 +15448,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 63289-2025</t>
+          <t>A 60533-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>46010.59076388889</v>
+        <v>45995.65939814815</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15438,7 +15468,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15475,14 +15505,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 63447-2025</t>
+          <t>A 60619-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>46013.4020949074</v>
+        <v>45996.38447916666</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15494,13 +15524,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G253" t="n">
-        <v>21.4</v>
+        <v>2.5</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15537,14 +15562,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 31839-2024</t>
+          <t>A 2772-2026</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45509.65498842593</v>
+        <v>46038.37417824074</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15556,13 +15581,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G254" t="n">
-        <v>1.4</v>
+        <v>7.7</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15599,14 +15619,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 19734-2025</t>
+          <t>A 2496-2026</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45771.36695601852</v>
+        <v>46037.40002314815</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15618,13 +15638,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G255" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15661,14 +15676,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 35123-2023</t>
+          <t>A 61176-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45145.50380787037</v>
+        <v>46000.57684027778</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15680,13 +15695,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G256" t="n">
-        <v>1.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15723,14 +15733,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 7426-2026</t>
+          <t>A 61182-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>46059.4309375</v>
+        <v>46000.58409722222</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15743,7 +15753,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15780,14 +15790,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 7874-2026</t>
+          <t>A 61204-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>46063.11611111111</v>
+        <v>46000.61395833334</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15800,7 +15810,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15837,14 +15847,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 7875-2026</t>
+          <t>A 61118-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>46063.11847222222</v>
+        <v>46000.46293981482</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15857,7 +15867,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15894,14 +15904,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 10533-2023</t>
+          <t>A 3538-2026</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44987.92349537037</v>
+        <v>46042.6296412037</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15914,7 +15924,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15951,14 +15961,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 63980-2021</t>
+          <t>A 61127-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44509</v>
+        <v>46000.48337962963</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15971,7 +15981,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16008,14 +16018,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 17582-2024</t>
+          <t>A 61216-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45415</v>
+        <v>46000.62005787037</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16028,7 +16038,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16065,14 +16075,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 55444-2023</t>
+          <t>A 61221-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45231</v>
+        <v>46000</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16085,7 +16095,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16122,14 +16132,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 55173-2023</t>
+          <t>A 61142-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45237</v>
+        <v>46000.51967592593</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16142,7 +16152,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16179,14 +16189,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 31817-2024</t>
+          <t>A 61155-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45509</v>
+        <v>46000.54702546296</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16199,7 +16209,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16236,14 +16246,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 31699-2024</t>
+          <t>A 3540-2026</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45508.61318287037</v>
+        <v>46042.63204861111</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16255,13 +16265,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G266" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16298,14 +16303,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 63981-2021</t>
+          <t>A 4090-2026</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44509</v>
+        <v>46044.55434027778</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16318,7 +16323,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2.7</v>
+        <v>0.2</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16355,14 +16360,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 46195-2024</t>
+          <t>A 61403-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45581.51873842593</v>
+        <v>46001.48989583334</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16375,7 +16380,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.2</v>
+        <v>12.8</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16412,14 +16417,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 46205-2024</t>
+          <t>A 31132-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45581.54357638889</v>
+        <v>45103</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16432,7 +16437,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16469,14 +16474,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 35006-2024</t>
+          <t>A 61158-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45527</v>
+        <v>46000.55134259259</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16489,7 +16494,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16526,14 +16531,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 29476-2023</t>
+          <t>A 4108-2026</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45106.57149305556</v>
+        <v>46044.59416666667</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16546,7 +16551,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16583,14 +16588,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 31867-2023</t>
+          <t>A 35349-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45118.61844907407</v>
+        <v>45146</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16603,7 +16608,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.2</v>
+        <v>5.4</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16640,14 +16645,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 31869-2023</t>
+          <t>A 4109-2026</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45118.62401620371</v>
+        <v>46044.59418981482</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16660,7 +16665,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2.6</v>
+        <v>5.3</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16697,14 +16702,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 9086-2023</t>
+          <t>A 4870-2026</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44979</v>
+        <v>46048.6465625</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16717,7 +16722,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16754,14 +16759,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 27110-2024</t>
+          <t>A 4081-2026</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45471.50009259259</v>
+        <v>46044</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16774,7 +16779,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16811,14 +16816,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 22193-2023</t>
+          <t>A 4685-2026</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45069</v>
+        <v>46048.43700231481</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16831,7 +16836,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16868,14 +16873,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 35557-2021</t>
+          <t>A 62787-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>44385</v>
+        <v>46008.61939814815</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16888,7 +16893,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>2.2</v>
+        <v>4.9</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16925,14 +16930,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 10440-2023</t>
+          <t>A 63289-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44987</v>
+        <v>46010.59076388889</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16945,7 +16950,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16982,14 +16987,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 45899-2024</t>
+          <t>A 63160-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45580.43047453704</v>
+        <v>46010.37174768518</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17001,13 +17006,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G279" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17044,14 +17044,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 21135-2024</t>
+          <t>A 63447-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45440</v>
+        <v>46013.4020949074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17065,11 +17065,11 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Holmen skog AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G280" t="n">
-        <v>3.7</v>
+        <v>21.4</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17106,14 +17106,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 13758-2024</t>
+          <t>A 63574-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45390.92747685185</v>
+        <v>46013.66307870371</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17126,7 +17126,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17163,14 +17163,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 8938-2025</t>
+          <t>A 7426-2026</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45713.44842592593</v>
+        <v>46059.4309375</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17183,7 +17183,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17220,14 +17220,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 32785-2024</t>
+          <t>A 7874-2026</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45516.53230324074</v>
+        <v>46063.11611111111</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17240,7 +17240,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17277,14 +17277,14 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 32792-2024</t>
+          <t>A 7875-2026</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45516.55068287037</v>
+        <v>46063.11847222222</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17297,7 +17297,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>

--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z284"/>
+  <dimension ref="A1:Z285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45796</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>44503.35390046296</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45943.38998842592</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45771.42275462963</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>45783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>46031.65877314815</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         <v>46007.44545138889</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         <v>45447.89238425926</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>46013.66015046297</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>45698.44841435185</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45979.59435185185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>46000.62998842593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>46007.44689814815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>46010.37401620371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44452</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>44355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>44651</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>44265</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44565.92820601852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44524.54244212963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2260,14 +2260,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 47772-2022</t>
+          <t>A 46950-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44854.92494212963</v>
+        <v>44446</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2317,14 +2317,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 46950-2021</t>
+          <t>A 47772-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44446</v>
+        <v>44854.92494212963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>44565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44610</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2488,14 +2488,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 31264-2024</t>
+          <t>A 67514-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45503.96868055555</v>
+        <v>44524.5028587963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2507,13 +2507,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2550,14 +2545,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 31277-2024</t>
+          <t>A 54793-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45504.39555555556</v>
+        <v>45229</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2569,13 +2564,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>5.2</v>
+        <v>0.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2612,14 +2602,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 67514-2021</t>
+          <t>A 58340-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44524.5028587963</v>
+        <v>45632.6391087963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2632,7 +2622,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2669,14 +2659,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 42317-2023</t>
+          <t>A 15409-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45175</v>
+        <v>44285</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2689,7 +2679,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2726,14 +2716,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 42327-2023</t>
+          <t>A 22002-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45175</v>
+        <v>45068.92707175926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2746,7 +2736,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2783,14 +2773,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 1058-2023</t>
+          <t>A 16782-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44929</v>
+        <v>45411</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2803,7 +2793,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2840,14 +2830,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 1437-2025</t>
+          <t>A 35737-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45669.67790509259</v>
+        <v>45532</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2860,7 +2850,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>11.7</v>
+        <v>2.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2897,14 +2887,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 9039-2024</t>
+          <t>A 35771-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45356</v>
+        <v>45532</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2917,7 +2907,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2954,14 +2944,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 63980-2021</t>
+          <t>A 50413-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44509</v>
+        <v>45601.37128472222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2973,8 +2963,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>2.4</v>
+        <v>23.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3011,14 +3006,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 52536-2023</t>
+          <t>A 846-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45218</v>
+        <v>44571</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3031,7 +3026,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3068,14 +3063,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 55173-2023</t>
+          <t>A 31133-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45237</v>
+        <v>45103</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3088,7 +3083,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3125,14 +3120,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 54793-2023</t>
+          <t>A 33319-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45229</v>
+        <v>45127.88890046296</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3145,7 +3140,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3182,14 +3177,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 38956-2022</t>
+          <t>A 31421-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44816</v>
+        <v>45114.60027777778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3201,8 +3196,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>2.3</v>
+        <v>5.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3239,14 +3239,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 35734-2024</t>
+          <t>A 28337-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45532</v>
+        <v>44747.42982638889</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3296,14 +3296,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 64966-2023</t>
+          <t>A 20228-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45283</v>
+        <v>45055</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3353,14 +3353,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 35006-2024</t>
+          <t>A 60646-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45527</v>
+        <v>45644.4325462963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3370,6 +3370,11 @@
       <c r="E42" t="inlineStr">
         <is>
           <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -3410,14 +3415,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 32956-2024</t>
+          <t>A 35734-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45517</v>
+        <v>45532</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3429,13 +3434,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3472,14 +3472,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 46434-2022</t>
+          <t>A 59253-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44846</v>
+        <v>45637.59724537037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3529,14 +3529,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 15674-2025</t>
+          <t>A 17409-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45748.44657407407</v>
+        <v>45757.36844907407</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3586,14 +3586,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 846-2022</t>
+          <t>A 17414-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44571</v>
+        <v>45757</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3643,14 +3643,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 13758-2024</t>
+          <t>A 23462-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45390.92747685185</v>
+        <v>45792.43016203704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3700,14 +3700,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 35011-2024</t>
+          <t>A 47976-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45527</v>
+        <v>44853</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3757,14 +3757,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 27110-2024</t>
+          <t>A 23776-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45471.50009259259</v>
+        <v>45793.50012731482</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.6</v>
+        <v>8.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3814,14 +3814,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 8939-2025</t>
+          <t>A 23453-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45713.4485300926</v>
+        <v>45792.42302083333</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3831,6 +3831,11 @@
       <c r="E50" t="inlineStr">
         <is>
           <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -3871,14 +3876,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 58340-2024</t>
+          <t>A 31264-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45632.6391087963</v>
+        <v>45503.96868055555</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3888,6 +3893,11 @@
       <c r="E51" t="inlineStr">
         <is>
           <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -3928,14 +3938,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 7871-2023</t>
+          <t>A 31277-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44970</v>
+        <v>45504.39555555556</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,8 +3957,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>1.2</v>
+        <v>5.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3985,14 +4000,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 26665-2025</t>
+          <t>A 23465-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45810</v>
+        <v>45792.43493055556</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4005,7 +4020,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4042,14 +4057,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 26576-2025</t>
+          <t>A 19100-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45807.68725694445</v>
+        <v>44691.52804398148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4062,7 +4077,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4099,14 +4114,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 35360-2023</t>
+          <t>A 7426-2026</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45146.52483796296</v>
+        <v>46059.4309375</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4119,7 +4134,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4156,14 +4171,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 35123-2023</t>
+          <t>A 32809-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45145.50380787037</v>
+        <v>45516.57067129629</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,13 +4190,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4218,14 +4228,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 46726-2024</t>
+          <t>A 24342-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45583.46103009259</v>
+        <v>45797.57418981481</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4238,7 +4248,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4275,14 +4285,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 46205-2024</t>
+          <t>A 24346-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45581.54357638889</v>
+        <v>45797.58045138889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4295,7 +4305,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4332,14 +4342,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 46501-2024</t>
+          <t>A 24756-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45582.6006712963</v>
+        <v>45799.37510416667</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4352,7 +4362,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4389,14 +4399,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 46195-2024</t>
+          <t>A 24846-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45581.51873842593</v>
+        <v>45799.46851851852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4409,7 +4419,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4446,14 +4456,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 31867-2023</t>
+          <t>A 24805-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45118.61844907407</v>
+        <v>45799.4409375</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4466,7 +4476,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4503,14 +4513,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 33319-2023</t>
+          <t>A 24812-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45127.88890046296</v>
+        <v>45799.44790509259</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4523,7 +4533,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4560,14 +4570,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 17981-2024</t>
+          <t>A 24792-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45419</v>
+        <v>45799</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4580,7 +4590,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4617,14 +4627,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 45899-2024</t>
+          <t>A 24868-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45580.43047453704</v>
+        <v>45799.48819444444</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4636,13 +4646,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4679,14 +4684,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 28694-2025</t>
+          <t>A 24856-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45819.88594907407</v>
+        <v>45799.47508101852</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4699,7 +4704,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4736,14 +4741,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 31817-2024</t>
+          <t>A 35354-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45509</v>
+        <v>45146</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4756,7 +4761,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4793,14 +4798,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 52531-2024</t>
+          <t>A 7874-2026</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45609.61578703704</v>
+        <v>46063.11611111111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4813,7 +4818,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4850,14 +4855,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 52533-2024</t>
+          <t>A 7875-2026</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45609.61697916667</v>
+        <v>46063.11847222222</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4870,7 +4875,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4907,14 +4912,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 9026-2024</t>
+          <t>A 47-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45356</v>
+        <v>45659</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4927,7 +4932,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4964,14 +4969,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 29912-2025</t>
+          <t>A 25205-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45826.40885416666</v>
+        <v>45800.46907407408</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5021,14 +5026,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 46212-2024</t>
+          <t>A 28615-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45581.55569444445</v>
+        <v>45103.59210648148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5041,7 +5046,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.8</v>
+        <v>5.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5078,14 +5083,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 57777-2023</t>
+          <t>A 25206-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45246</v>
+        <v>45800.46908564815</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5098,7 +5103,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.9</v>
+        <v>2.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5135,14 +5140,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 12410-2025</t>
+          <t>A 38566-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45730.43505787037</v>
+        <v>45884.45541666666</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5155,7 +5160,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5192,14 +5197,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 8940-2025</t>
+          <t>A 26576-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45713.44855324074</v>
+        <v>45807.68725694445</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5212,7 +5217,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5249,14 +5254,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 21041-2024</t>
+          <t>A 57777-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45439.666875</v>
+        <v>45246</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5269,7 +5274,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.3</v>
+        <v>4.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5306,14 +5311,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 30163-2025</t>
+          <t>A 26665-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45827.32722222222</v>
+        <v>45810</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5326,7 +5331,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5363,14 +5368,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 59716-2024</t>
+          <t>A 8516-2026</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45639.45857638889</v>
+        <v>46065.57530092593</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5383,7 +5388,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5.8</v>
+        <v>0.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5420,14 +5425,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 16782-2024</t>
+          <t>A 28694-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45411</v>
+        <v>45819.88594907407</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5440,7 +5445,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5477,14 +5482,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 32785-2024</t>
+          <t>A 426-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45516.53230324074</v>
+        <v>44565</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5497,7 +5502,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>5.3</v>
+        <v>0.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5534,14 +5539,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 50413-2024</t>
+          <t>A 3584-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45601.37128472222</v>
+        <v>45680.78527777778</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5553,13 +5558,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>23.4</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5596,14 +5596,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 47-2025</t>
+          <t>A 30163-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45659</v>
+        <v>45827.32722222222</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5653,14 +5653,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 2201-2025</t>
+          <t>A 29912-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45673.39678240741</v>
+        <v>45826.40885416666</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5710,14 +5710,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 31986-2025</t>
+          <t>A 2286-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45835.36210648148</v>
+        <v>45673</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5767,14 +5767,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 13762-2025</t>
+          <t>A 30221-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45737.43103009259</v>
+        <v>45099</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5824,14 +5824,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 29573-2023</t>
+          <t>A 29462-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45098</v>
+        <v>45824.69697916666</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>5.3</v>
+        <v>11.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5881,14 +5881,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 32792-2024</t>
+          <t>A 47771-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45516.55068287037</v>
+        <v>44854</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5938,14 +5938,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 32809-2024</t>
+          <t>A 31986-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45516.57067129629</v>
+        <v>45835.36210648148</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5995,14 +5995,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 28615-2023</t>
+          <t>A 9026-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45103.59210648148</v>
+        <v>45356</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>5.2</v>
+        <v>0.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6052,14 +6052,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 1006-2023</t>
+          <t>A 42141-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44935</v>
+        <v>45177</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6109,14 +6109,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 31869-2023</t>
+          <t>A 59771-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45118.62401620371</v>
+        <v>45257</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6166,14 +6166,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 21135-2024</t>
+          <t>A 46434-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45440</v>
+        <v>44846</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6185,13 +6185,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6228,14 +6223,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 2942-2025</t>
+          <t>A 33226-2021</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45678.39038194445</v>
+        <v>44376</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6248,7 +6243,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6285,14 +6280,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 6179-2025</t>
+          <t>A 35755-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45698.44835648148</v>
+        <v>45532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6305,7 +6300,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.9</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6342,14 +6337,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 55444-2023</t>
+          <t>A 32956-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45231</v>
+        <v>45517</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6361,8 +6356,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6399,14 +6399,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 31699-2024</t>
+          <t>A 42584-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45508.61318287037</v>
+        <v>45905.62662037037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6418,13 +6418,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6461,14 +6456,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 42141-2023</t>
+          <t>A 2018-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45177</v>
+        <v>45672</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6480,8 +6475,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6518,14 +6518,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 12425-2025</t>
+          <t>A 2020-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45730</v>
+        <v>45672</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6537,8 +6537,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6575,14 +6580,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 31133-2023</t>
+          <t>A 12425-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45103</v>
+        <v>45730</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6595,7 +6600,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6632,14 +6637,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 2933-2022</t>
+          <t>A 42902-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44581</v>
+        <v>45908.67744212963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6652,7 +6657,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6689,14 +6694,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 1438-2025</t>
+          <t>A 29823-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45669.68052083333</v>
+        <v>45825.85599537037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6709,7 +6714,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.3</v>
+        <v>7.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6746,14 +6751,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 17582-2024</t>
+          <t>A 36801-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45415</v>
+        <v>45873.66607638889</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6803,14 +6808,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 2286-2025</t>
+          <t>A 1058-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45673</v>
+        <v>44929</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6823,7 +6828,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6860,14 +6865,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 44295-2023</t>
+          <t>A 42990-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45188.64064814815</v>
+        <v>45909.45178240741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6880,7 +6885,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6917,14 +6922,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 8935-2025</t>
+          <t>A 43030-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45713.44832175926</v>
+        <v>45909</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6936,8 +6941,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>0.3</v>
+        <v>4.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6974,14 +6984,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 59253-2024</t>
+          <t>A 1438-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45637.59724537037</v>
+        <v>45669.68052083333</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6994,7 +7004,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.8</v>
+        <v>4.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7031,14 +7041,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 31421-2023</t>
+          <t>A 8993-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45114.60027777778</v>
+        <v>45357.55085648148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7050,13 +7060,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>5.8</v>
+        <v>0.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7093,14 +7098,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 30221-2023</t>
+          <t>A 46501-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45099</v>
+        <v>45582.6006712963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7113,7 +7118,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7150,14 +7155,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 32739-2021</t>
+          <t>A 37364-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44375</v>
+        <v>45877.32516203704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7170,7 +7175,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7207,14 +7212,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 59771-2023</t>
+          <t>A 25347-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45257</v>
+        <v>45462</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7227,7 +7232,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7264,14 +7269,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 36801-2025</t>
+          <t>A 52255-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45873.66607638889</v>
+        <v>45608.64011574074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7284,7 +7289,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7321,14 +7326,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 16471-2025</t>
+          <t>A 43685-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45751.54825231482</v>
+        <v>45912.38184027778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7341,7 +7346,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7378,14 +7383,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 60640-2024</t>
+          <t>A 8935-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45644.42787037037</v>
+        <v>45713.44832175926</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7395,11 +7400,6 @@
       <c r="E112" t="inlineStr">
         <is>
           <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -7440,14 +7440,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 47976-2022</t>
+          <t>A 8939-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44853</v>
+        <v>45713.4485300926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7497,14 +7497,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 63981-2021</t>
+          <t>A 44975-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44509</v>
+        <v>45918.64300925926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7554,14 +7554,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 47771-2022</t>
+          <t>A 44832-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44854</v>
+        <v>45918.406875</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7611,14 +7611,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 44319-2023</t>
+          <t>A 44889-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45183</v>
+        <v>45918.49681712963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7668,14 +7668,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 3584-2025</t>
+          <t>A 44895-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45680.78527777778</v>
+        <v>45918.50277777778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7725,14 +7725,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 56258-2024</t>
+          <t>A 47472-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45624.64472222222</v>
+        <v>45587.5741087963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7782,14 +7782,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 56262-2024</t>
+          <t>A 7871-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45624.65004629629</v>
+        <v>44970</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7839,14 +7839,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 37364-2025</t>
+          <t>A 18377-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45877.32516203704</v>
+        <v>45762.57496527778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7896,14 +7896,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 8993-2024</t>
+          <t>A 18380-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45357.55085648148</v>
+        <v>45762.57891203704</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7953,14 +7953,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 19734-2025</t>
+          <t>A 17981-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45771.36695601852</v>
+        <v>45419</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7972,13 +7972,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8015,14 +8010,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 33226-2021</t>
+          <t>A 25453-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44376</v>
+        <v>45463.42144675926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8035,7 +8030,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8072,14 +8067,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 62553-2021</t>
+          <t>A 1006-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44501</v>
+        <v>44935</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8092,7 +8087,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>10.2</v>
+        <v>0.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8129,14 +8124,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 25347-2024</t>
+          <t>A 15678-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45462</v>
+        <v>45748.45042824074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8149,7 +8144,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.4</v>
+        <v>7.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8186,14 +8181,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 18380-2025</t>
+          <t>A 18231-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45762.57891203704</v>
+        <v>45761.87467592592</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8206,7 +8201,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8243,14 +8238,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 28367-2022</t>
+          <t>A 49559-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44747</v>
+        <v>45939.45946759259</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8263,7 +8258,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.7</v>
+        <v>7.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8300,14 +8295,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 17073-2025</t>
+          <t>A 48859-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45754</v>
+        <v>45937</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8320,7 +8315,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8357,14 +8352,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 28347-2022</t>
+          <t>A 48886-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44747.45532407407</v>
+        <v>45937.46611111111</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8377,7 +8372,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8414,14 +8409,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 18231-2025</t>
+          <t>A 48852-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45761.87467592592</v>
+        <v>45937.43040509259</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8434,7 +8429,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8471,14 +8466,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 18377-2025</t>
+          <t>A 49520-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45762.57496527778</v>
+        <v>45939.39337962963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8491,7 +8486,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8528,14 +8523,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 20228-2023</t>
+          <t>A 49371-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45055</v>
+        <v>45938.63061342593</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8548,7 +8543,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8585,14 +8580,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 31839-2024</t>
+          <t>A 53783-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45509.65498842593</v>
+        <v>45615</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8604,13 +8599,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8647,14 +8637,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 22002-2023</t>
+          <t>A 49820-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45068.92707175926</v>
+        <v>45940.43907407407</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8666,8 +8656,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8704,14 +8699,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 60557-2023</t>
+          <t>A 2933-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45259</v>
+        <v>44581</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8724,7 +8719,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8761,14 +8756,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 25453-2024</t>
+          <t>A 52536-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45463.42144675926</v>
+        <v>45218</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8781,7 +8776,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.3</v>
+        <v>3.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8818,14 +8813,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 39220-2024</t>
+          <t>A 35360-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45549</v>
+        <v>45146.52483796296</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8838,7 +8833,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8875,14 +8870,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 29476-2023</t>
+          <t>A 51553-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45106.57149305556</v>
+        <v>45950.87297453704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8895,7 +8890,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8932,14 +8927,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 29485-2023</t>
+          <t>A 2201-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45106</v>
+        <v>45673.39678240741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8952,7 +8947,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8989,14 +8984,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 52255-2024</t>
+          <t>A 51722-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45608.64011574074</v>
+        <v>45951.58085648148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9009,7 +9004,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9046,14 +9041,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 39185-2024</t>
+          <t>A 51605-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45548</v>
+        <v>45951.38592592593</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9066,7 +9061,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9103,14 +9098,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 38566-2025</t>
+          <t>A 51737-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45884.45541666666</v>
+        <v>45951.59630787037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9123,7 +9118,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9160,14 +9155,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 63817-2023</t>
+          <t>A 52835-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45275</v>
+        <v>45957.47133101852</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9180,7 +9175,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>6.7</v>
+        <v>1.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9217,14 +9212,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 35557-2021</t>
+          <t>A 52845-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44385</v>
+        <v>45957.48430555555</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9237,7 +9232,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9274,14 +9269,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 19786-2025</t>
+          <t>A 52536-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45771.44086805556</v>
+        <v>45609.61851851852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9293,13 +9288,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9336,14 +9326,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 60646-2024</t>
+          <t>A 52842-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45644.4325462963</v>
+        <v>45957.47827546296</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9355,13 +9345,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9398,14 +9383,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 8937-2025</t>
+          <t>A 12410-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45713.44841435185</v>
+        <v>45730.43505787037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9418,7 +9403,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9455,14 +9440,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 8938-2025</t>
+          <t>A 52820-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45713.44842592593</v>
+        <v>45957.45483796296</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9475,7 +9460,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9512,14 +9497,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 35354-2023</t>
+          <t>A 54570-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45146</v>
+        <v>45965.67487268519</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9532,7 +9517,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9569,14 +9554,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 426-2022</t>
+          <t>A 54243-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44565</v>
+        <v>45964.63417824074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9589,7 +9574,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.9</v>
+        <v>6.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9626,14 +9611,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 15409-2021</t>
+          <t>A 34760-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44285</v>
+        <v>45139</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9646,7 +9631,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9683,14 +9668,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 10533-2023</t>
+          <t>A 54562-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44987.92349537037</v>
+        <v>45965.66751157407</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9703,7 +9688,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9740,14 +9725,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 34760-2023</t>
+          <t>A 17073-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45139</v>
+        <v>45754</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9760,7 +9745,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9797,14 +9782,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 53783-2024</t>
+          <t>A 54421-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45615</v>
+        <v>45965.48461805555</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9817,7 +9802,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.8</v>
+        <v>10.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9854,14 +9839,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 19100-2022</t>
+          <t>A 63817-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44691.52804398148</v>
+        <v>45275</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9874,7 +9859,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.2</v>
+        <v>6.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9911,14 +9896,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 22193-2023</t>
+          <t>A 1437-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45069</v>
+        <v>45669.67790509259</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9931,7 +9916,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.4</v>
+        <v>11.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9968,14 +9953,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 29462-2025</t>
+          <t>A 39220-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45824.69697916666</v>
+        <v>45549</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9988,7 +9973,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>11.1</v>
+        <v>0.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10025,14 +10010,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 10440-2023</t>
+          <t>A 15674-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44987</v>
+        <v>45748.44657407407</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10045,7 +10030,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10082,14 +10067,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 17409-2025</t>
+          <t>A 35011-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45757.36844907407</v>
+        <v>45527</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10102,7 +10087,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10139,14 +10124,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 17414-2025</t>
+          <t>A 32739-2021</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45757</v>
+        <v>44375</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10159,7 +10144,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10196,14 +10181,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 20432-2025</t>
+          <t>A 56320-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45775.47893518519</v>
+        <v>45974.63405092592</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10216,7 +10201,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10253,14 +10238,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 35737-2024</t>
+          <t>A 56513-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45532</v>
+        <v>45975.45373842592</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10273,7 +10258,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.6</v>
+        <v>8.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10310,14 +10295,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 35755-2024</t>
+          <t>A 56622-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45532</v>
+        <v>45975.60040509259</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10330,7 +10315,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10367,14 +10352,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 35771-2024</t>
+          <t>A 56553-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45532</v>
+        <v>45975.48762731482</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10387,7 +10372,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10424,14 +10409,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 27530-2024</t>
+          <t>A 56329-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45474.56820601852</v>
+        <v>45974.64</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10443,13 +10428,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10486,14 +10466,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 9086-2023</t>
+          <t>A 29485-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44979</v>
+        <v>45106</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10506,7 +10486,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10543,14 +10523,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 42902-2025</t>
+          <t>A 60033-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45908.67744212963</v>
+        <v>45642.46236111111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10563,7 +10543,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.7</v>
+        <v>5.3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10600,14 +10580,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 29823-2025</t>
+          <t>A 56831-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45825.85599537037</v>
+        <v>45978.46716435185</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10620,7 +10600,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>7.2</v>
+        <v>0.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10657,14 +10637,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 42584-2025</t>
+          <t>A 57203-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45905.62662037037</v>
+        <v>45979.58972222222</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10676,8 +10656,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>0.8</v>
+        <v>20.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10714,14 +10699,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 42990-2025</t>
+          <t>A 56833-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45909.45178240741</v>
+        <v>45978.47253472222</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10734,7 +10719,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10771,14 +10756,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 4676-2023</t>
+          <t>A 56835-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44953</v>
+        <v>45978.47366898148</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10791,7 +10776,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10828,14 +10813,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 43030-2025</t>
+          <t>A 56966-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45909</v>
+        <v>45978.67543981481</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10847,13 +10832,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10890,14 +10870,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 28337-2022</t>
+          <t>A 57448-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44747.42982638889</v>
+        <v>45980.49452546296</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10909,8 +10889,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10947,14 +10932,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 43685-2025</t>
+          <t>A 57347-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45912.38184027778</v>
+        <v>45980.35763888889</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10967,7 +10952,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3.6</v>
+        <v>6.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11004,14 +10989,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 47472-2024</t>
+          <t>A 57424-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45587.5741087963</v>
+        <v>45980.46134259259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11023,8 +11008,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11061,14 +11051,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 15678-2025</t>
+          <t>A 4676-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45748.45042824074</v>
+        <v>44953</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11081,7 +11071,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>7.1</v>
+        <v>2.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11118,14 +11108,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 44889-2025</t>
+          <t>A 13762-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45918.49681712963</v>
+        <v>45737.43103009259</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11138,7 +11128,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4.4</v>
+        <v>2.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11175,14 +11165,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 44832-2025</t>
+          <t>A 58637-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45918.406875</v>
+        <v>45986.49008101852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11195,7 +11185,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.5</v>
+        <v>4.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11232,14 +11222,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 44975-2025</t>
+          <t>A 686-2026</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45918.64300925926</v>
+        <v>46029.60719907407</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11252,7 +11242,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11289,14 +11279,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 44895-2025</t>
+          <t>A 58584-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45918.50277777778</v>
+        <v>45986.39486111111</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11309,7 +11299,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11346,14 +11336,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 60033-2024</t>
+          <t>A 21041-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45642.46236111111</v>
+        <v>45439.666875</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11366,7 +11356,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>5.3</v>
+        <v>1.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11403,14 +11393,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 2018-2025</t>
+          <t>A 16471-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45672</v>
+        <v>45751.54825231482</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11422,13 +11412,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11465,14 +11450,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 2020-2025</t>
+          <t>A 862-2026</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45672</v>
+        <v>46030.42516203703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11484,13 +11469,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11527,14 +11507,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 52536-2024</t>
+          <t>A 6179-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45609.61851851852</v>
+        <v>45698.44835648148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11547,7 +11527,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.7</v>
+        <v>4.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11584,14 +11564,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 20640-2025</t>
+          <t>A 62553-2021</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45776.37438657408</v>
+        <v>44501</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11604,7 +11584,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>5.2</v>
+        <v>10.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11641,14 +11621,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 31865-2023</t>
+          <t>A 2942-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45118.61383101852</v>
+        <v>45678.39038194445</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11661,7 +11641,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11698,14 +11678,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 21435-2025</t>
+          <t>A 59867-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45782.51766203704</v>
+        <v>45992.87564814815</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11718,7 +11698,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11755,14 +11735,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 21437-2025</t>
+          <t>A 1633-2026</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45782.52001157407</v>
+        <v>46034.49119212963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11775,7 +11755,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11812,14 +11792,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 21361-2025</t>
+          <t>A 56258-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45782.43983796296</v>
+        <v>45624.64472222222</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11832,7 +11812,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11869,14 +11849,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 21615-2025</t>
+          <t>A 56262-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45783.40077546296</v>
+        <v>45624.65004629629</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11888,13 +11868,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>5.4</v>
+        <v>1.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11931,14 +11906,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 48859-2025</t>
+          <t>A 1614-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45937</v>
+        <v>46034.46947916667</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11951,7 +11926,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.2</v>
+        <v>9.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11988,14 +11963,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 49371-2025</t>
+          <t>A 52531-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45938.63061342593</v>
+        <v>45609.61578703704</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12008,7 +11983,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12045,14 +12020,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 48886-2025</t>
+          <t>A 52533-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45937.46611111111</v>
+        <v>45609.61697916667</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12065,7 +12040,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12102,14 +12077,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 48852-2025</t>
+          <t>A 29573-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45937.43040509259</v>
+        <v>45098</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12122,7 +12097,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.2</v>
+        <v>5.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12159,14 +12134,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 49820-2025</t>
+          <t>A 46726-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45940.43907407407</v>
+        <v>45583.46103009259</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12178,13 +12153,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12221,14 +12191,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 49520-2025</t>
+          <t>A 64966-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45939.39337962963</v>
+        <v>45283</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12241,7 +12211,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12278,14 +12248,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 49559-2025</t>
+          <t>A 28347-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45939.45946759259</v>
+        <v>44747.45532407407</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12298,7 +12268,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>7.2</v>
+        <v>0.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12335,14 +12305,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 22900-2025</t>
+          <t>A 2496-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45790.41079861111</v>
+        <v>46037.40002314815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12354,13 +12324,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12397,14 +12362,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 23205-2025</t>
+          <t>A 2072-2026</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45791.46658564815</v>
+        <v>46036.33851851852</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12416,13 +12381,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12459,14 +12419,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 23101-2025</t>
+          <t>A 60533-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45791.35427083333</v>
+        <v>45995.65939814815</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12478,13 +12438,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>8.199999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12521,14 +12476,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 23462-2025</t>
+          <t>A 60619-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45792.43016203704</v>
+        <v>45996.38447916666</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12541,7 +12496,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12578,14 +12533,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 23567-2025</t>
+          <t>A 2772-2026</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45792.60107638889</v>
+        <v>46038.37417824074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12598,7 +12553,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3.7</v>
+        <v>7.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12635,14 +12590,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 45126-2023</t>
+          <t>A 31839-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45187</v>
+        <v>45509.65498842593</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12654,8 +12609,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12692,14 +12652,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 23453-2025</t>
+          <t>A 19734-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45792.42302083333</v>
+        <v>45771.36695601852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12717,7 +12677,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12754,14 +12714,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 23465-2025</t>
+          <t>A 2774-2026</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45792.43493055556</v>
+        <v>46038.37543981482</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12774,7 +12734,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12811,14 +12771,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 51605-2025</t>
+          <t>A 35123-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45951.38592592593</v>
+        <v>45145.50380787037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12830,8 +12790,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>4.7</v>
+        <v>1.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12868,14 +12833,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 51737-2025</t>
+          <t>A 61176-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45951.59630787037</v>
+        <v>46000.57684027778</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12888,7 +12853,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12925,14 +12890,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 51722-2025</t>
+          <t>A 61221-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45951.58085648148</v>
+        <v>46000</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12945,7 +12910,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12982,14 +12947,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 51553-2025</t>
+          <t>A 3540-2026</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45950.87297453704</v>
+        <v>46042.63204861111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13002,7 +12967,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13039,14 +13004,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 52842-2025</t>
+          <t>A 61216-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45957.47827546296</v>
+        <v>46000.62005787037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13059,7 +13024,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13096,14 +13061,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 52820-2025</t>
+          <t>A 61403-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45957.45483796296</v>
+        <v>46001.48989583334</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13116,7 +13081,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>3.3</v>
+        <v>12.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13153,14 +13118,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 23776-2025</t>
+          <t>A 61142-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45793.50012731482</v>
+        <v>46000.51967592593</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13173,7 +13138,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>8.1</v>
+        <v>1.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13210,14 +13175,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 52845-2025</t>
+          <t>A 61155-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45957.48430555555</v>
+        <v>46000.54702546296</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13230,7 +13195,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13267,14 +13232,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 52835-2025</t>
+          <t>A 61158-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45957.47133101852</v>
+        <v>46000.55134259259</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13287,7 +13252,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13324,14 +13289,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 24346-2025</t>
+          <t>A 61182-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45797.58045138889</v>
+        <v>46000.58409722222</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13344,7 +13309,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13381,14 +13346,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 24342-2025</t>
+          <t>A 61204-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45797.57418981481</v>
+        <v>46000.61395833334</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13401,7 +13366,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13438,14 +13403,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 25206-2025</t>
+          <t>A 61127-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45800.46908564815</v>
+        <v>46000.48337962963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13458,7 +13423,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13495,14 +13460,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 24805-2025</t>
+          <t>A 3538-2026</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45799.4409375</v>
+        <v>46042.6296412037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13515,7 +13480,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13552,14 +13517,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 24756-2025</t>
+          <t>A 61118-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45799.37510416667</v>
+        <v>46000.46293981482</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13572,7 +13537,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13609,14 +13574,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 54243-2025</t>
+          <t>A 4109-2026</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45964.63417824074</v>
+        <v>46044.59418981482</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13629,7 +13594,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>6.7</v>
+        <v>5.3</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13666,14 +13631,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 54562-2025</t>
+          <t>A 31132-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45965.66751157407</v>
+        <v>45103</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13686,7 +13651,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13723,14 +13688,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 25205-2025</t>
+          <t>A 35349-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45800.46907407408</v>
+        <v>45146</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13743,7 +13708,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.4</v>
+        <v>5.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13780,14 +13745,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 54421-2025</t>
+          <t>A 4090-2026</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45965.48461805555</v>
+        <v>46044.55434027778</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13800,7 +13765,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>10.4</v>
+        <v>0.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13837,14 +13802,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 24868-2025</t>
+          <t>A 4108-2026</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45799.48819444444</v>
+        <v>46044.59416666667</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13857,7 +13822,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13894,14 +13859,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 24812-2025</t>
+          <t>A 10533-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45799.44790509259</v>
+        <v>44987.92349537037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13914,7 +13879,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13951,14 +13916,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 24856-2025</t>
+          <t>A 4081-2026</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45799.47508101852</v>
+        <v>46044</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13971,7 +13936,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14008,14 +13973,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 24846-2025</t>
+          <t>A 4870-2026</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45799.46851851852</v>
+        <v>46048.6465625</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14028,7 +13993,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14065,14 +14030,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 54570-2025</t>
+          <t>A 63980-2021</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45965.67487268519</v>
+        <v>44509</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14085,7 +14050,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14122,14 +14087,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 24792-2025</t>
+          <t>A 62787-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45799</v>
+        <v>46008.61939814815</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14142,7 +14107,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.9</v>
+        <v>4.9</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14179,14 +14144,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 56320-2025</t>
+          <t>A 4685-2026</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45974.63405092592</v>
+        <v>46048.43700231481</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14199,7 +14164,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14236,14 +14201,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 56329-2025</t>
+          <t>A 17582-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45974.64</v>
+        <v>45415</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14256,7 +14221,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14293,14 +14258,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 56553-2025</t>
+          <t>A 55444-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45975.48762731482</v>
+        <v>45231</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14313,7 +14278,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14350,14 +14315,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 56513-2025</t>
+          <t>A 63574-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45975.45373842592</v>
+        <v>46013.66307870371</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14370,7 +14335,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14407,14 +14372,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 56835-2025</t>
+          <t>A 63160-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45978.47366898148</v>
+        <v>46010.37174768518</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14427,7 +14392,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14464,14 +14429,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 56966-2025</t>
+          <t>A 55173-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45978.67543981481</v>
+        <v>45237</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14484,7 +14449,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14521,14 +14486,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 56831-2025</t>
+          <t>A 31817-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45978.46716435185</v>
+        <v>45509</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14541,7 +14506,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14578,14 +14543,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 56622-2025</t>
+          <t>A 63289-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45975.60040509259</v>
+        <v>46010.59076388889</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14598,7 +14563,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14635,14 +14600,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 56833-2025</t>
+          <t>A 63447-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45978.47253472222</v>
+        <v>46013.4020949074</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14654,8 +14619,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G238" t="n">
-        <v>2.7</v>
+        <v>21.4</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14692,14 +14662,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 57347-2025</t>
+          <t>A 31699-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45980.35763888889</v>
+        <v>45508.61318287037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14711,8 +14681,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>6.9</v>
+        <v>2.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14749,14 +14724,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 57448-2025</t>
+          <t>A 63981-2021</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45980.49452546296</v>
+        <v>44509</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14768,13 +14743,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G240" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14811,14 +14781,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 57203-2025</t>
+          <t>A 46195-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45979.58972222222</v>
+        <v>45581.51873842593</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14830,13 +14800,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G241" t="n">
-        <v>20.1</v>
+        <v>1.2</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14873,14 +14838,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 57424-2025</t>
+          <t>A 46205-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45980.46134259259</v>
+        <v>45581.54357638889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14892,13 +14857,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14935,14 +14895,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 58637-2025</t>
+          <t>A 35006-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45986.49008101852</v>
+        <v>45527</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14955,7 +14915,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14992,14 +14952,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 58584-2025</t>
+          <t>A 29476-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45986.39486111111</v>
+        <v>45106.57149305556</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15012,7 +14972,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15049,14 +15009,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 862-2026</t>
+          <t>A 31867-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>46030.42516203703</v>
+        <v>45118.61844907407</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15069,7 +15029,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15106,14 +15066,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 686-2026</t>
+          <t>A 31869-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>46029.60719907407</v>
+        <v>45118.62401620371</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15126,7 +15086,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15163,14 +15123,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 1614-2026</t>
+          <t>A 9086-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>46034.46947916667</v>
+        <v>44979</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15183,7 +15143,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>9.1</v>
+        <v>1.3</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15220,14 +15180,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 1633-2026</t>
+          <t>A 27110-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>46034.49119212963</v>
+        <v>45471.50009259259</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15240,7 +15200,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15277,14 +15237,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 59867-2025</t>
+          <t>A 22193-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45992.87564814815</v>
+        <v>45069</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15297,7 +15257,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15334,14 +15294,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 2072-2026</t>
+          <t>A 35557-2021</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>46036.33851851852</v>
+        <v>44385</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15354,7 +15314,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15391,14 +15351,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 2774-2026</t>
+          <t>A 10440-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>46038.37543981482</v>
+        <v>44987</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15411,7 +15371,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15448,14 +15408,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 60533-2025</t>
+          <t>A 45899-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45995.65939814815</v>
+        <v>45580.43047453704</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15467,8 +15427,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G252" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15505,14 +15470,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 60619-2025</t>
+          <t>A 21135-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45996.38447916666</v>
+        <v>45440</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15524,8 +15489,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G253" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15562,14 +15532,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 2772-2026</t>
+          <t>A 13758-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>46038.37417824074</v>
+        <v>45390.92747685185</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15582,7 +15552,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>7.7</v>
+        <v>3.4</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15619,14 +15589,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 2496-2026</t>
+          <t>A 8938-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>46037.40002314815</v>
+        <v>45713.44842592593</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15639,7 +15609,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15676,14 +15646,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 61176-2025</t>
+          <t>A 32785-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>46000.57684027778</v>
+        <v>45516.53230324074</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15696,7 +15666,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>8.300000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15733,14 +15703,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 61182-2025</t>
+          <t>A 32792-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>46000.58409722222</v>
+        <v>45516.55068287037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15753,7 +15723,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15790,14 +15760,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 61204-2025</t>
+          <t>A 46212-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>46000.61395833334</v>
+        <v>45581.55569444445</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15810,7 +15780,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15847,14 +15817,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 61118-2025</t>
+          <t>A 39185-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>46000.46293981482</v>
+        <v>45548</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15867,7 +15837,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15904,14 +15874,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 3538-2026</t>
+          <t>A 60640-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>46042.6296412037</v>
+        <v>45644.42787037037</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15923,8 +15893,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G260" t="n">
-        <v>2.4</v>
+        <v>0.3</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15961,14 +15936,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 61127-2025</t>
+          <t>A 60557-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>46000.48337962963</v>
+        <v>45259</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15981,7 +15956,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16018,14 +15993,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 61216-2025</t>
+          <t>A 59716-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>46000.62005787037</v>
+        <v>45639.45857638889</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16038,7 +16013,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16075,14 +16050,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 61221-2025</t>
+          <t>A 27530-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>46000</v>
+        <v>45474.56820601852</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16094,8 +16069,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G263" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16132,14 +16112,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 61142-2025</t>
+          <t>A 19786-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>46000.51967592593</v>
+        <v>45771.44086805556</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16151,8 +16131,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G264" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16189,14 +16174,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 61155-2025</t>
+          <t>A 44295-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>46000.54702546296</v>
+        <v>45188.64064814815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16209,7 +16194,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16246,14 +16231,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 3540-2026</t>
+          <t>A 28367-2022</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>46042.63204861111</v>
+        <v>44747</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16266,7 +16251,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16303,14 +16288,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 4090-2026</t>
+          <t>A 20432-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>46044.55434027778</v>
+        <v>45775.47893518519</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16323,7 +16308,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>0.2</v>
+        <v>2.8</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16360,14 +16345,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 61403-2025</t>
+          <t>A 38956-2022</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>46001.48989583334</v>
+        <v>44816</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16380,7 +16365,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>12.8</v>
+        <v>2.3</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16417,14 +16402,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 31132-2023</t>
+          <t>A 42317-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45103</v>
+        <v>45175</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16437,7 +16422,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16474,14 +16459,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 61158-2025</t>
+          <t>A 42327-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>46000.55134259259</v>
+        <v>45175</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16494,7 +16479,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16531,14 +16516,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 4108-2026</t>
+          <t>A 8940-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>46044.59416666667</v>
+        <v>45713.44855324074</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16551,7 +16536,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16588,14 +16573,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 35349-2023</t>
+          <t>A 9039-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45146</v>
+        <v>45356</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16608,7 +16593,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16645,14 +16630,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 4109-2026</t>
+          <t>A 44319-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>46044.59418981482</v>
+        <v>45183</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16665,7 +16650,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>5.3</v>
+        <v>2.6</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16702,14 +16687,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 4870-2026</t>
+          <t>A 8937-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>46048.6465625</v>
+        <v>45713.44841435185</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16722,7 +16707,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16759,14 +16744,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 4081-2026</t>
+          <t>A 31865-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>46044</v>
+        <v>45118.61383101852</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16779,7 +16764,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16816,14 +16801,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 4685-2026</t>
+          <t>A 20640-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>46048.43700231481</v>
+        <v>45776.37438657408</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16836,7 +16821,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0.8</v>
+        <v>5.2</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16873,14 +16858,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 62787-2025</t>
+          <t>A 21435-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>46008.61939814815</v>
+        <v>45782.51766203704</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16893,7 +16878,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>4.9</v>
+        <v>2.2</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16930,14 +16915,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 63289-2025</t>
+          <t>A 21437-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>46010.59076388889</v>
+        <v>45782.52001157407</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16987,14 +16972,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 63160-2025</t>
+          <t>A 21361-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>46010.37174768518</v>
+        <v>45782.43983796296</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17007,7 +16992,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17044,14 +17029,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 63447-2025</t>
+          <t>A 21615-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>46013.4020949074</v>
+        <v>45783.40077546296</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17065,11 +17050,11 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G280" t="n">
-        <v>21.4</v>
+        <v>5.4</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17106,14 +17091,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 63574-2025</t>
+          <t>A 45126-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>46013.66307870371</v>
+        <v>45187</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17126,7 +17111,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17163,14 +17148,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 7426-2026</t>
+          <t>A 23101-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>46059.4309375</v>
+        <v>45791.35427083333</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17182,8 +17167,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G282" t="n">
-        <v>4.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17220,14 +17210,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 7874-2026</t>
+          <t>A 23205-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>46063.11611111111</v>
+        <v>45791.46658564815</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17239,8 +17229,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G283" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17274,17 +17269,17 @@
       </c>
       <c r="R283" s="2" t="inlineStr"/>
     </row>
-    <row r="284">
+    <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 7875-2026</t>
+          <t>A 22900-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>46063.11847222222</v>
+        <v>45790.41079861111</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17296,8 +17291,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G284" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17330,6 +17330,63 @@
         <v>0</v>
       </c>
       <c r="R284" s="2" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>A 23567-2025</t>
+        </is>
+      </c>
+      <c r="B285" s="1" t="n">
+        <v>45792.60107638889</v>
+      </c>
+      <c r="C285" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G285" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L285" t="n">
+        <v>0</v>
+      </c>
+      <c r="M285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N285" t="n">
+        <v>0</v>
+      </c>
+      <c r="O285" t="n">
+        <v>0</v>
+      </c>
+      <c r="P285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>0</v>
+      </c>
+      <c r="R285" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z285"/>
+  <dimension ref="A1:Z286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45796</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>44503.35390046296</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45943.38998842592</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45771.42275462963</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>45783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,14 +1064,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 1408-2026</t>
+          <t>A 62416-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>46031.65877314815</v>
+        <v>46007.44545138889</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.4</v>
+        <v>2.9</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1117,139 +1117,139 @@
         <v>3</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Spillkråka
+Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 62416-2025 artfynd.xlsx", "A 62416-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 62416-2025 karta.png", "A 62416-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 62416-2025 FSC-klagomål.docx", "A 62416-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 62416-2025 FSC-klagomål mail.docx", "A 62416-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 62416-2025 tillsynsbegäran.docx", "A 62416-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 62416-2025 tillsynsbegäran mail.docx", "A 62416-2025")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 62416-2025 prioriterade fågelarter.docx", "A 62416-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 1408-2026</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>46031.65877314815</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Blå taggsvamp
 Garnlav
 Violettgrå tagellav</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 1408-2026 artfynd.xlsx", "A 1408-2026")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 1408-2026 karta.png", "A 1408-2026")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 1408-2026 FSC-klagomål.docx", "A 1408-2026")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 1408-2026 FSC-klagomål mail.docx", "A 1408-2026")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 1408-2026 tillsynsbegäran.docx", "A 1408-2026")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 1408-2026 tillsynsbegäran mail.docx", "A 1408-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 62416-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>46007.44545138889</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Spillkråka
-Vågbandad barkbock</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 62416-2025 artfynd.xlsx", "A 62416-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 62416-2025 karta.png", "A 62416-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 62416-2025 FSC-klagomål.docx", "A 62416-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 62416-2025 FSC-klagomål mail.docx", "A 62416-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 62416-2025 tillsynsbegäran.docx", "A 62416-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 62416-2025 tillsynsbegäran mail.docx", "A 62416-2025")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 62416-2025 prioriterade fågelarter.docx", "A 62416-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 22648-2024</t>
+          <t>A 63573-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45447.89238425926</v>
+        <v>46013.66015046297</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1261,16 +1261,11 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1301,140 +1296,145 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Järpe
+Sotriska</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 63573-2025 artfynd.xlsx", "A 63573-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 63573-2025 karta.png", "A 63573-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 63573-2025 FSC-klagomål.docx", "A 63573-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 63573-2025 FSC-klagomål mail.docx", "A 63573-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 63573-2025 tillsynsbegäran.docx", "A 63573-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 63573-2025 tillsynsbegäran mail.docx", "A 63573-2025")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 63573-2025 prioriterade fågelarter.docx", "A 63573-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 22648-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45447.89238425926</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Spindelblomster</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 22648-2024 artfynd.xlsx", "A 22648-2024")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 22648-2024 karta.png", "A 22648-2024")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 22648-2024 FSC-klagomål.docx", "A 22648-2024")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 22648-2024 FSC-klagomål mail.docx", "A 22648-2024")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 22648-2024 tillsynsbegäran.docx", "A 22648-2024")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 22648-2024 tillsynsbegäran mail.docx", "A 22648-2024")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 22648-2024 prioriterade fågelarter.docx", "A 22648-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 63573-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>46013.66015046297</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Järpe
-Sotriska</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 63573-2025 artfynd.xlsx", "A 63573-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 63573-2025 karta.png", "A 63573-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 63573-2025 FSC-klagomål.docx", "A 63573-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 63573-2025 FSC-klagomål mail.docx", "A 63573-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 63573-2025 tillsynsbegäran.docx", "A 63573-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 63573-2025 tillsynsbegäran mail.docx", "A 63573-2025")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 63573-2025 prioriterade fågelarter.docx", "A 63573-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 6180-2025</t>
+          <t>A 62418-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45698.44841435185</v>
+        <v>46007.44689814815</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,13 +1447,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.9</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1481,383 +1481,383 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 62418-2025 artfynd.xlsx", "A 62418-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 62418-2025 karta.png", "A 62418-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 62418-2025 FSC-klagomål.docx", "A 62418-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 62418-2025 FSC-klagomål mail.docx", "A 62418-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 62418-2025 tillsynsbegäran.docx", "A 62418-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 62418-2025 tillsynsbegäran mail.docx", "A 62418-2025")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 62418-2025 prioriterade fågelarter.docx", "A 62418-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 63161-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>46010.37401620371</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Veckticka</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 63161-2025 artfynd.xlsx", "A 63161-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 63161-2025 karta.png", "A 63161-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 63161-2025 FSC-klagomål.docx", "A 63161-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 63161-2025 FSC-klagomål mail.docx", "A 63161-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 63161-2025 tillsynsbegäran.docx", "A 63161-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 63161-2025 tillsynsbegäran mail.docx", "A 63161-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 6180-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45698.44841435185</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
           <t>Thomsons trägnagare</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 6180-2025 artfynd.xlsx", "A 6180-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 6180-2025 karta.png", "A 6180-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 6180-2025 FSC-klagomål.docx", "A 6180-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 6180-2025 FSC-klagomål mail.docx", "A 6180-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 6180-2025 tillsynsbegäran.docx", "A 6180-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 6180-2025 tillsynsbegäran mail.docx", "A 6180-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 57206-2025</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>45979.59435185185</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="C14" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G14" t="n">
         <v>12.2</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Huggorm</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 57206-2025 artfynd.xlsx", "A 57206-2025")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 57206-2025 karta.png", "A 57206-2025")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 57206-2025 FSC-klagomål.docx", "A 57206-2025")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 57206-2025 FSC-klagomål mail.docx", "A 57206-2025")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 57206-2025 tillsynsbegäran.docx", "A 57206-2025")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 57206-2025 tillsynsbegäran mail.docx", "A 57206-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 61224-2025</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>46000.62998842593</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="C15" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>3.2</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Älvstarr</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 61224-2025 artfynd.xlsx", "A 61224-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 61224-2025 karta.png", "A 61224-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 61224-2025 FSC-klagomål.docx", "A 61224-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 61224-2025 FSC-klagomål mail.docx", "A 61224-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 61224-2025 tillsynsbegäran.docx", "A 61224-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 61224-2025 tillsynsbegäran mail.docx", "A 61224-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 62418-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>46007.44689814815</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 62418-2025 artfynd.xlsx", "A 62418-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 62418-2025 karta.png", "A 62418-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 62418-2025 FSC-klagomål.docx", "A 62418-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 62418-2025 FSC-klagomål mail.docx", "A 62418-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 62418-2025 tillsynsbegäran.docx", "A 62418-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 62418-2025 tillsynsbegäran mail.docx", "A 62418-2025")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 62418-2025 prioriterade fågelarter.docx", "A 62418-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 63161-2025</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>46010.37401620371</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Veckticka</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 63161-2025 artfynd.xlsx", "A 63161-2025")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 63161-2025 karta.png", "A 63161-2025")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 63161-2025 FSC-klagomål.docx", "A 63161-2025")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 63161-2025 FSC-klagomål mail.docx", "A 63161-2025")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 63161-2025 tillsynsbegäran.docx", "A 63161-2025")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 63161-2025 tillsynsbegäran mail.docx", "A 63161-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44452</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>44355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>44651</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2089,14 +2089,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 11989-2021</t>
+          <t>A 427-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44265</v>
+        <v>44565.92820601852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>9.800000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2146,14 +2146,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 427-2022</t>
+          <t>A 11989-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44565.92820601852</v>
+        <v>44265</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>44524.54244212963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>44446</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>44854.92494212963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>44565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44610</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44524.5028587963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2545,14 +2545,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 54793-2023</t>
+          <t>A 58340-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45229</v>
+        <v>45632.6391087963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2602,14 +2602,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 58340-2024</t>
+          <t>A 54793-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45632.6391087963</v>
+        <v>45229</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2659,14 +2659,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 15409-2021</t>
+          <t>A 22002-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44285</v>
+        <v>45068.92707175926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2716,14 +2716,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 22002-2023</t>
+          <t>A 15409-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45068.92707175926</v>
+        <v>44285</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2773,14 +2773,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 16782-2024</t>
+          <t>A 35737-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45411</v>
+        <v>45532</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2830,14 +2830,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 35737-2024</t>
+          <t>A 35771-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
         <v>45532</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2887,14 +2887,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 35771-2024</t>
+          <t>A 16782-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45532</v>
+        <v>45411</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2951,7 +2951,7 @@
         <v>45601.37128472222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>44571</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>45103</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>45127.88890046296</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>45114.60027777778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44747.42982638889</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3296,14 +3296,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 20228-2023</t>
+          <t>A 35734-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45055</v>
+        <v>45532</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3353,14 +3353,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 60646-2024</t>
+          <t>A 20228-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45644.4325462963</v>
+        <v>45055</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3372,13 +3372,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3415,14 +3410,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 35734-2024</t>
+          <t>A 60646-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45532</v>
+        <v>45644.4325462963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,8 +3429,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3472,14 +3472,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 59253-2024</t>
+          <t>A 45126-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45637.59724537037</v>
+        <v>45187</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3529,14 +3529,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 17409-2025</t>
+          <t>A 23101-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45757.36844907407</v>
+        <v>45791.35427083333</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,8 +3548,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>0.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3586,14 +3591,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 17414-2025</t>
+          <t>A 59253-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45757</v>
+        <v>45637.59724537037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3643,14 +3648,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 23462-2025</t>
+          <t>A 23205-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45792.43016203704</v>
+        <v>45791.46658564815</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,8 +3667,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3700,14 +3710,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 47976-2022</t>
+          <t>A 4109-2026</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44853</v>
+        <v>46044.59418981482</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3720,7 +3730,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>5.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3757,14 +3767,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 23776-2025</t>
+          <t>A 22900-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45793.50012731482</v>
+        <v>45790.41079861111</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,8 +3786,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>8.1</v>
+        <v>1.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3814,14 +3829,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 23453-2025</t>
+          <t>A 23567-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45792.42302083333</v>
+        <v>45792.60107638889</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,13 +3848,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3876,14 +3886,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 31264-2024</t>
+          <t>A 17409-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45503.96868055555</v>
+        <v>45757.36844907407</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3895,13 +3905,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3938,14 +3943,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 31277-2024</t>
+          <t>A 17414-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45504.39555555556</v>
+        <v>45757</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3957,13 +3962,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>5.2</v>
+        <v>0.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4000,14 +4000,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 23465-2025</t>
+          <t>A 31132-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45792.43493055556</v>
+        <v>45103</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4057,14 +4057,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 19100-2022</t>
+          <t>A 35349-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44691.52804398148</v>
+        <v>45146</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.2</v>
+        <v>5.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4114,14 +4114,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 7426-2026</t>
+          <t>A 23462-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>46059.4309375</v>
+        <v>45792.43016203704</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4171,14 +4171,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 32809-2024</t>
+          <t>A 23776-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45516.57067129629</v>
+        <v>45793.50012731482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.7</v>
+        <v>8.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4228,14 +4228,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 24342-2025</t>
+          <t>A 23453-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45797.57418981481</v>
+        <v>45792.42302083333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4247,8 +4247,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4285,14 +4290,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 24346-2025</t>
+          <t>A 23465-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45797.58045138889</v>
+        <v>45792.43493055556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4305,7 +4310,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4342,14 +4347,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 24756-2025</t>
+          <t>A 38566-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45799.37510416667</v>
+        <v>45884.45541666666</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4362,7 +4367,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4399,14 +4404,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 24846-2025</t>
+          <t>A 47976-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45799.46851851852</v>
+        <v>44853</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4419,7 +4424,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4456,14 +4461,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 24805-2025</t>
+          <t>A 31264-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45799.4409375</v>
+        <v>45503.96868055555</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4475,8 +4480,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4513,14 +4523,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 24812-2025</t>
+          <t>A 31277-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45799.44790509259</v>
+        <v>45504.39555555556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4532,8 +4542,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>2.6</v>
+        <v>5.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4570,14 +4585,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 24792-2025</t>
+          <t>A 19100-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45799</v>
+        <v>44691.52804398148</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4590,7 +4605,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4627,14 +4642,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 24868-2025</t>
+          <t>A 24342-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45799.48819444444</v>
+        <v>45797.57418981481</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4647,7 +4662,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4684,14 +4699,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 24856-2025</t>
+          <t>A 24346-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45799.47508101852</v>
+        <v>45797.58045138889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4704,7 +4719,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4741,14 +4756,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 35354-2023</t>
+          <t>A 32809-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45146</v>
+        <v>45516.57067129629</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4761,7 +4776,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4798,14 +4813,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 7874-2026</t>
+          <t>A 4090-2026</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>46063.11611111111</v>
+        <v>46044.55434027778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4818,7 +4833,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4855,14 +4870,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 7875-2026</t>
+          <t>A 24756-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>46063.11847222222</v>
+        <v>45799.37510416667</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4875,7 +4890,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4912,14 +4927,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 47-2025</t>
+          <t>A 24846-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45659</v>
+        <v>45799.46851851852</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4932,7 +4947,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4969,14 +4984,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 25205-2025</t>
+          <t>A 24805-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45800.46907407408</v>
+        <v>45799.4409375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5026,14 +5041,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 28615-2023</t>
+          <t>A 24812-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45103.59210648148</v>
+        <v>45799.44790509259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5046,7 +5061,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>5.2</v>
+        <v>2.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5083,14 +5098,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 25206-2025</t>
+          <t>A 24792-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45800.46908564815</v>
+        <v>45799</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5103,7 +5118,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5140,14 +5155,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 38566-2025</t>
+          <t>A 24868-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45884.45541666666</v>
+        <v>45799.48819444444</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5160,7 +5175,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5197,14 +5212,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 26576-2025</t>
+          <t>A 24856-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45807.68725694445</v>
+        <v>45799.47508101852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5217,7 +5232,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5254,14 +5269,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 57777-2023</t>
+          <t>A 426-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45246</v>
+        <v>44565</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5274,7 +5289,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.9</v>
+        <v>0.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5311,14 +5326,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 26665-2025</t>
+          <t>A 25205-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45810</v>
+        <v>45800.46907407408</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5331,7 +5346,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5368,14 +5383,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 8516-2026</t>
+          <t>A 29462-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>46065.57530092593</v>
+        <v>45824.69697916666</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5388,7 +5403,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.8</v>
+        <v>11.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5425,14 +5440,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 28694-2025</t>
+          <t>A 25206-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45819.88594907407</v>
+        <v>45800.46908564815</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5445,7 +5460,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5482,14 +5497,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 426-2022</t>
+          <t>A 35354-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44565</v>
+        <v>45146</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5502,7 +5517,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5539,14 +5554,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 3584-2025</t>
+          <t>A 47-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45680.78527777778</v>
+        <v>45659</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5559,7 +5574,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5596,14 +5611,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 30163-2025</t>
+          <t>A 26576-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45827.32722222222</v>
+        <v>45807.68725694445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5616,7 +5631,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5653,14 +5668,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 29912-2025</t>
+          <t>A 28615-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45826.40885416666</v>
+        <v>45103.59210648148</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,7 +5688,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>5.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5710,14 +5725,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 2286-2025</t>
+          <t>A 4108-2026</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45673</v>
+        <v>46044.59416666667</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5730,7 +5745,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5767,14 +5782,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 30221-2023</t>
+          <t>A 26665-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45099</v>
+        <v>45810</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5787,7 +5802,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5824,14 +5839,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 29462-2025</t>
+          <t>A 4081-2026</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45824.69697916666</v>
+        <v>46044</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5844,7 +5859,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>11.1</v>
+        <v>0.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5881,14 +5896,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 47771-2022</t>
+          <t>A 42584-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44854</v>
+        <v>45905.62662037037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5901,7 +5916,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5938,14 +5953,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 31986-2025</t>
+          <t>A 4870-2026</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45835.36210648148</v>
+        <v>46048.6465625</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5958,7 +5973,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5995,14 +6010,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 9026-2024</t>
+          <t>A 57777-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45356</v>
+        <v>45246</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6015,7 +6030,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.9</v>
+        <v>4.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6052,14 +6067,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 42141-2023</t>
+          <t>A 42902-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45177</v>
+        <v>45908.67744212963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6072,7 +6087,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6109,14 +6124,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 59771-2023</t>
+          <t>A 29823-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45257</v>
+        <v>45825.85599537037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6129,7 +6144,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.7</v>
+        <v>7.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6166,14 +6181,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 46434-2022</t>
+          <t>A 28694-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44846</v>
+        <v>45819.88594907407</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6186,7 +6201,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6223,14 +6238,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 33226-2021</t>
+          <t>A 42990-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44376</v>
+        <v>45909.45178240741</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6243,7 +6258,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6280,14 +6295,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 35755-2024</t>
+          <t>A 43030-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45532</v>
+        <v>45909</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6299,8 +6314,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6337,14 +6357,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 32956-2024</t>
+          <t>A 30163-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45517</v>
+        <v>45827.32722222222</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6356,13 +6376,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6399,14 +6414,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 42584-2025</t>
+          <t>A 62787-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45905.62662037037</v>
+        <v>46008.61939814815</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6419,7 +6434,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.8</v>
+        <v>4.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6456,14 +6471,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 2018-2025</t>
+          <t>A 43685-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45672</v>
+        <v>45912.38184027778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6475,13 +6490,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6518,14 +6528,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 2020-2025</t>
+          <t>A 29912-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45672</v>
+        <v>45826.40885416666</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6537,13 +6547,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6580,14 +6585,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 12425-2025</t>
+          <t>A 4685-2026</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45730</v>
+        <v>46048.43700231481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6600,7 +6605,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6637,14 +6642,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 42902-2025</t>
+          <t>A 44975-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45908.67744212963</v>
+        <v>45918.64300925926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6657,7 +6662,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6694,14 +6699,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 29823-2025</t>
+          <t>A 3584-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45825.85599537037</v>
+        <v>45680.78527777778</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6714,7 +6719,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>7.2</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6751,14 +6756,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 36801-2025</t>
+          <t>A 44832-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45873.66607638889</v>
+        <v>45918.406875</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6771,7 +6776,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6808,14 +6813,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 1058-2023</t>
+          <t>A 44889-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44929</v>
+        <v>45918.49681712963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6828,7 +6833,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.2</v>
+        <v>4.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6865,14 +6870,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 42990-2025</t>
+          <t>A 44895-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45909.45178240741</v>
+        <v>45918.50277777778</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6885,7 +6890,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6922,14 +6927,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 43030-2025</t>
+          <t>A 2286-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45909</v>
+        <v>45673</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6941,13 +6946,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6984,14 +6984,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 1438-2025</t>
+          <t>A 30221-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45669.68052083333</v>
+        <v>45099</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.3</v>
+        <v>0.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7041,14 +7041,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 8993-2024</t>
+          <t>A 31986-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45357.55085648148</v>
+        <v>45835.36210648148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7098,14 +7098,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 46501-2024</t>
+          <t>A 47771-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45582.6006712963</v>
+        <v>44854</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7155,14 +7155,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 37364-2025</t>
+          <t>A 63574-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45877.32516203704</v>
+        <v>46013.66307870371</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7212,14 +7212,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 25347-2024</t>
+          <t>A 9026-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45462</v>
+        <v>45356</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7269,14 +7269,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 52255-2024</t>
+          <t>A 63160-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45608.64011574074</v>
+        <v>46010.37174768518</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7326,14 +7326,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 43685-2025</t>
+          <t>A 42141-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45912.38184027778</v>
+        <v>45177</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7383,14 +7383,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 8935-2025</t>
+          <t>A 59771-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45713.44832175926</v>
+        <v>45257</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7440,14 +7440,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 8939-2025</t>
+          <t>A 46434-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45713.4485300926</v>
+        <v>44846</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7497,14 +7497,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 44975-2025</t>
+          <t>A 33226-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45918.64300925926</v>
+        <v>44376</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7554,14 +7554,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 44832-2025</t>
+          <t>A 49559-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45918.406875</v>
+        <v>45939.45946759259</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.5</v>
+        <v>7.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7611,14 +7611,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 44889-2025</t>
+          <t>A 48859-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45918.49681712963</v>
+        <v>45937</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7668,14 +7668,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 44895-2025</t>
+          <t>A 48886-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45918.50277777778</v>
+        <v>45937.46611111111</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7725,14 +7725,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 47472-2024</t>
+          <t>A 48852-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45587.5741087963</v>
+        <v>45937.43040509259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7782,14 +7782,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 7871-2023</t>
+          <t>A 63289-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44970</v>
+        <v>46010.59076388889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7839,14 +7839,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 18377-2025</t>
+          <t>A 49520-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45762.57496527778</v>
+        <v>45939.39337962963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7896,14 +7896,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 18380-2025</t>
+          <t>A 49371-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45762.57891203704</v>
+        <v>45938.63061342593</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7953,14 +7953,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 17981-2024</t>
+          <t>A 49820-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45419</v>
+        <v>45940.43907407407</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7972,8 +7972,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8010,14 +8015,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 25453-2024</t>
+          <t>A 35755-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45463.42144675926</v>
+        <v>45532</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8030,7 +8035,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8067,14 +8072,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 1006-2023</t>
+          <t>A 32956-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44935</v>
+        <v>45517</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8086,8 +8091,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8124,14 +8134,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 15678-2025</t>
+          <t>A 2018-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45748.45042824074</v>
+        <v>45672</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8143,8 +8153,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>7.1</v>
+        <v>1.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8181,14 +8196,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 18231-2025</t>
+          <t>A 2020-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45761.87467592592</v>
+        <v>45672</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8200,8 +8215,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8238,14 +8258,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 49559-2025</t>
+          <t>A 12425-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45939.45946759259</v>
+        <v>45730</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8258,7 +8278,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>7.2</v>
+        <v>2.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8295,14 +8315,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 48859-2025</t>
+          <t>A 36801-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45937</v>
+        <v>45873.66607638889</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8315,7 +8335,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8352,14 +8372,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 48886-2025</t>
+          <t>A 63447-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45937.46611111111</v>
+        <v>46013.4020949074</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8371,8 +8391,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>1.8</v>
+        <v>21.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8409,14 +8434,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 48852-2025</t>
+          <t>A 51553-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45937.43040509259</v>
+        <v>45950.87297453704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8429,7 +8454,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8466,14 +8491,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 49520-2025</t>
+          <t>A 37364-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45939.39337962963</v>
+        <v>45877.32516203704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8486,7 +8511,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8523,14 +8548,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 49371-2025</t>
+          <t>A 51722-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45938.63061342593</v>
+        <v>45951.58085648148</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8543,7 +8568,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8580,14 +8605,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 53783-2024</t>
+          <t>A 51605-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45615</v>
+        <v>45951.38592592593</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8600,7 +8625,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8637,14 +8662,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 49820-2025</t>
+          <t>A 25347-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45940.43907407407</v>
+        <v>45462</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8656,13 +8681,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8699,14 +8719,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 2933-2022</t>
+          <t>A 51737-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44581</v>
+        <v>45951.59630787037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8719,7 +8739,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8756,14 +8776,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 52536-2023</t>
+          <t>A 1058-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45218</v>
+        <v>44929</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8776,7 +8796,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8813,14 +8833,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 35360-2023</t>
+          <t>A 52835-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45146.52483796296</v>
+        <v>45957.47133101852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8833,7 +8853,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8870,14 +8890,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 51553-2025</t>
+          <t>A 52845-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45950.87297453704</v>
+        <v>45957.48430555555</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8890,7 +8910,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8927,14 +8947,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 2201-2025</t>
+          <t>A 52842-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45673.39678240741</v>
+        <v>45957.47827546296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8947,7 +8967,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8984,14 +9004,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 51722-2025</t>
+          <t>A 52820-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45951.58085648148</v>
+        <v>45957.45483796296</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9004,7 +9024,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9041,14 +9061,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 51605-2025</t>
+          <t>A 1438-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45951.38592592593</v>
+        <v>45669.68052083333</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9061,7 +9081,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9098,14 +9118,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 51737-2025</t>
+          <t>A 8993-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45951.59630787037</v>
+        <v>45357.55085648148</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9118,7 +9138,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9155,14 +9175,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 52835-2025</t>
+          <t>A 46501-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45957.47133101852</v>
+        <v>45582.6006712963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9175,7 +9195,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9212,14 +9232,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 52845-2025</t>
+          <t>A 7426-2026</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45957.48430555555</v>
+        <v>46059.4309375</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9232,7 +9252,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9269,14 +9289,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 52536-2024</t>
+          <t>A 54570-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45609.61851851852</v>
+        <v>45965.67487268519</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9289,7 +9309,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9326,14 +9346,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 52842-2025</t>
+          <t>A 54243-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45957.47827546296</v>
+        <v>45964.63417824074</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9346,7 +9366,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.4</v>
+        <v>6.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9383,14 +9403,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 12410-2025</t>
+          <t>A 52255-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45730.43505787037</v>
+        <v>45608.64011574074</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9403,7 +9423,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9440,14 +9460,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 52820-2025</t>
+          <t>A 54562-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45957.45483796296</v>
+        <v>45965.66751157407</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9460,7 +9480,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9497,14 +9517,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 54570-2025</t>
+          <t>A 54421-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45965.67487268519</v>
+        <v>45965.48461805555</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9517,7 +9537,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.2</v>
+        <v>10.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9554,14 +9574,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 54243-2025</t>
+          <t>A 7874-2026</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45964.63417824074</v>
+        <v>46063.11611111111</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9574,7 +9594,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>6.7</v>
+        <v>4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9611,14 +9631,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 34760-2023</t>
+          <t>A 7875-2026</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45139</v>
+        <v>46063.11847222222</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9631,7 +9651,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9668,14 +9688,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 54562-2025</t>
+          <t>A 8935-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45965.66751157407</v>
+        <v>45713.44832175926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9688,7 +9708,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9725,14 +9745,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 17073-2025</t>
+          <t>A 8939-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45754</v>
+        <v>45713.4485300926</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9745,7 +9765,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9782,14 +9802,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 54421-2025</t>
+          <t>A 56320-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45965.48461805555</v>
+        <v>45974.63405092592</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9802,7 +9822,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>10.4</v>
+        <v>0.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9839,14 +9859,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 63817-2023</t>
+          <t>A 56513-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45275</v>
+        <v>45975.45373842592</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9859,7 +9879,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>6.7</v>
+        <v>8.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9896,14 +9916,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 1437-2025</t>
+          <t>A 56622-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45669.67790509259</v>
+        <v>45975.60040509259</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9916,7 +9936,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>11.7</v>
+        <v>1.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9953,14 +9973,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 39220-2024</t>
+          <t>A 56553-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45549</v>
+        <v>45975.48762731482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9973,7 +9993,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10010,14 +10030,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 15674-2025</t>
+          <t>A 56329-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45748.44657407407</v>
+        <v>45974.64</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10030,7 +10050,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10067,14 +10087,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 35011-2024</t>
+          <t>A 47472-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45527</v>
+        <v>45587.5741087963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10087,7 +10107,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10124,14 +10144,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 32739-2021</t>
+          <t>A 7871-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44375</v>
+        <v>44970</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10144,7 +10164,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10181,14 +10201,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 56320-2025</t>
+          <t>A 56831-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45974.63405092592</v>
+        <v>45978.46716435185</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10201,7 +10221,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10238,14 +10258,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 56513-2025</t>
+          <t>A 57203-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45975.45373842592</v>
+        <v>45979.58972222222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10257,8 +10277,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>8.5</v>
+        <v>20.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10295,14 +10320,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 56622-2025</t>
+          <t>A 56833-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45975.60040509259</v>
+        <v>45978.47253472222</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10315,7 +10340,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10352,14 +10377,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 56553-2025</t>
+          <t>A 56835-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45975.48762731482</v>
+        <v>45978.47366898148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10372,7 +10397,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10409,14 +10434,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 56329-2025</t>
+          <t>A 56966-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45974.64</v>
+        <v>45978.67543981481</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10429,7 +10454,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10466,14 +10491,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 29485-2023</t>
+          <t>A 57448-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45106</v>
+        <v>45980.49452546296</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10485,8 +10510,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10523,14 +10553,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 60033-2024</t>
+          <t>A 57347-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45642.46236111111</v>
+        <v>45980.35763888889</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10543,7 +10573,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>5.3</v>
+        <v>6.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10580,14 +10610,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 56831-2025</t>
+          <t>A 57424-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45978.46716435185</v>
+        <v>45980.46134259259</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10599,8 +10629,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10637,14 +10672,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 57203-2025</t>
+          <t>A 8516-2026</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45979.58972222222</v>
+        <v>46065.57530092593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10656,13 +10691,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>20.1</v>
+        <v>0.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10699,14 +10729,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 56833-2025</t>
+          <t>A 58637-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45978.47253472222</v>
+        <v>45986.49008101852</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10719,7 +10749,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10756,14 +10786,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 56835-2025</t>
+          <t>A 686-2026</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45978.47366898148</v>
+        <v>46029.60719907407</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10776,7 +10806,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10813,14 +10843,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 56966-2025</t>
+          <t>A 58584-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45978.67543981481</v>
+        <v>45986.39486111111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10833,7 +10863,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10870,14 +10900,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 57448-2025</t>
+          <t>A 18377-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45980.49452546296</v>
+        <v>45762.57496527778</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10889,13 +10919,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10932,14 +10957,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 57347-2025</t>
+          <t>A 18380-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45980.35763888889</v>
+        <v>45762.57891203704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10952,7 +10977,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>6.9</v>
+        <v>0.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10989,14 +11014,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 57424-2025</t>
+          <t>A 17981-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45980.46134259259</v>
+        <v>45419</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11008,13 +11033,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11051,14 +11071,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 4676-2023</t>
+          <t>A 8697-2026</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44953</v>
+        <v>46066.45375</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11071,7 +11091,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11108,14 +11128,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 13762-2025</t>
+          <t>A 25453-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45737.43103009259</v>
+        <v>45463.42144675926</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11128,7 +11148,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11165,14 +11185,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 58637-2025</t>
+          <t>A 1006-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45986.49008101852</v>
+        <v>44935</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11185,7 +11205,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>4.4</v>
+        <v>0.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11222,14 +11242,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 686-2026</t>
+          <t>A 15678-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46029.60719907407</v>
+        <v>45748.45042824074</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11242,7 +11262,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.1</v>
+        <v>7.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11279,14 +11299,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 58584-2025</t>
+          <t>A 18231-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45986.39486111111</v>
+        <v>45761.87467592592</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11336,14 +11356,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 21041-2024</t>
+          <t>A 862-2026</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45439.666875</v>
+        <v>46030.42516203703</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11356,7 +11376,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11393,14 +11413,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 16471-2025</t>
+          <t>A 59867-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45751.54825231482</v>
+        <v>45992.87564814815</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11413,7 +11433,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11450,14 +11470,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 862-2026</t>
+          <t>A 1633-2026</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>46030.42516203703</v>
+        <v>46034.49119212963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11470,7 +11490,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11507,14 +11527,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 6179-2025</t>
+          <t>A 1614-2026</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45698.44835648148</v>
+        <v>46034.46947916667</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11527,7 +11547,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>4.9</v>
+        <v>9.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11564,14 +11584,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 62553-2021</t>
+          <t>A 53783-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44501</v>
+        <v>45615</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11584,7 +11604,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>10.2</v>
+        <v>3.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11621,14 +11641,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 2942-2025</t>
+          <t>A 2496-2026</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45678.39038194445</v>
+        <v>46037.40002314815</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11641,7 +11661,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11678,14 +11698,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 59867-2025</t>
+          <t>A 2072-2026</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45992.87564814815</v>
+        <v>46036.33851851852</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11698,7 +11718,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11735,14 +11755,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 1633-2026</t>
+          <t>A 60533-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>46034.49119212963</v>
+        <v>45995.65939814815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11755,7 +11775,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11792,14 +11812,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 56258-2024</t>
+          <t>A 60619-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45624.64472222222</v>
+        <v>45996.38447916666</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11812,7 +11832,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11849,14 +11869,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 56262-2024</t>
+          <t>A 2772-2026</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45624.65004629629</v>
+        <v>46038.37417824074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11869,7 +11889,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.4</v>
+        <v>7.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11906,14 +11926,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 1614-2026</t>
+          <t>A 2774-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46034.46947916667</v>
+        <v>46038.37543981482</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11926,7 +11946,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>9.1</v>
+        <v>1.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11963,14 +11983,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 52531-2024</t>
+          <t>A 2933-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45609.61578703704</v>
+        <v>44581</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11983,7 +12003,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12020,14 +12040,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 52533-2024</t>
+          <t>A 52536-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45609.61697916667</v>
+        <v>45218</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12040,7 +12060,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12077,14 +12097,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 29573-2023</t>
+          <t>A 35360-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45098</v>
+        <v>45146.52483796296</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12097,7 +12117,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12134,14 +12154,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 46726-2024</t>
+          <t>A 61176-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45583.46103009259</v>
+        <v>46000.57684027778</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12154,7 +12174,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12191,14 +12211,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 64966-2023</t>
+          <t>A 61221-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45283</v>
+        <v>46000</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12211,7 +12231,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12248,14 +12268,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 28347-2022</t>
+          <t>A 3540-2026</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44747.45532407407</v>
+        <v>46042.63204861111</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12305,14 +12325,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 2496-2026</t>
+          <t>A 61216-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46037.40002314815</v>
+        <v>46000.62005787037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12325,7 +12345,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12362,14 +12382,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 2072-2026</t>
+          <t>A 61403-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46036.33851851852</v>
+        <v>46001.48989583334</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12382,7 +12402,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.7</v>
+        <v>12.8</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12419,14 +12439,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 60533-2025</t>
+          <t>A 61142-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45995.65939814815</v>
+        <v>46000.51967592593</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12439,7 +12459,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12476,14 +12496,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 60619-2025</t>
+          <t>A 61155-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45996.38447916666</v>
+        <v>46000.54702546296</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12496,7 +12516,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12533,14 +12553,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 2772-2026</t>
+          <t>A 61158-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>46038.37417824074</v>
+        <v>46000.55134259259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12553,7 +12573,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>7.7</v>
+        <v>0.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12590,14 +12610,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 31839-2024</t>
+          <t>A 61182-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45509.65498842593</v>
+        <v>46000.58409722222</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12609,13 +12629,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12652,14 +12667,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 19734-2025</t>
+          <t>A 61204-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45771.36695601852</v>
+        <v>46000.61395833334</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12671,13 +12686,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12714,14 +12724,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 2774-2026</t>
+          <t>A 2201-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>46038.37543981482</v>
+        <v>45673.39678240741</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12734,7 +12744,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12771,14 +12781,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 35123-2023</t>
+          <t>A 61127-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45145.50380787037</v>
+        <v>46000.48337962963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12790,13 +12800,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12833,14 +12838,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 61176-2025</t>
+          <t>A 3538-2026</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>46000.57684027778</v>
+        <v>46042.6296412037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12853,7 +12858,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>8.300000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12890,14 +12895,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 61221-2025</t>
+          <t>A 61118-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>46000</v>
+        <v>46000.46293981482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12910,7 +12915,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12947,14 +12952,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 3540-2026</t>
+          <t>A 52536-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46042.63204861111</v>
+        <v>45609.61851851852</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12967,7 +12972,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13004,14 +13009,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 61216-2025</t>
+          <t>A 12410-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46000.62005787037</v>
+        <v>45730.43505787037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13024,7 +13029,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13061,14 +13066,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 61403-2025</t>
+          <t>A 34760-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46001.48989583334</v>
+        <v>45139</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13081,7 +13086,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>12.8</v>
+        <v>0.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13118,14 +13123,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 61142-2025</t>
+          <t>A 17073-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>46000.51967592593</v>
+        <v>45754</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13138,7 +13143,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13175,14 +13180,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 61155-2025</t>
+          <t>A 63817-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46000.54702546296</v>
+        <v>45275</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13195,7 +13200,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.4</v>
+        <v>6.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13232,14 +13237,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 61158-2025</t>
+          <t>A 1437-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>46000.55134259259</v>
+        <v>45669.67790509259</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13252,7 +13257,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.9</v>
+        <v>11.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13289,14 +13294,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 61182-2025</t>
+          <t>A 39220-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>46000.58409722222</v>
+        <v>45549</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13309,7 +13314,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13346,14 +13351,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 61204-2025</t>
+          <t>A 15674-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>46000.61395833334</v>
+        <v>45748.44657407407</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13403,14 +13408,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 61127-2025</t>
+          <t>A 35011-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>46000.48337962963</v>
+        <v>45527</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13460,14 +13465,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 3538-2026</t>
+          <t>A 32739-2021</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>46042.6296412037</v>
+        <v>44375</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13480,7 +13485,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13517,14 +13522,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 61118-2025</t>
+          <t>A 29485-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46000.46293981482</v>
+        <v>45106</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13537,7 +13542,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.2</v>
+        <v>5.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13574,14 +13579,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 4109-2026</t>
+          <t>A 60033-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>46044.59418981482</v>
+        <v>45642.46236111111</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13631,14 +13636,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 31132-2023</t>
+          <t>A 4676-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45103</v>
+        <v>44953</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13651,7 +13656,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13688,14 +13693,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 35349-2023</t>
+          <t>A 13762-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45146</v>
+        <v>45737.43103009259</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13708,7 +13713,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>5.4</v>
+        <v>2.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13745,14 +13750,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 4090-2026</t>
+          <t>A 21041-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>46044.55434027778</v>
+        <v>45439.666875</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13765,7 +13770,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13802,14 +13807,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 4108-2026</t>
+          <t>A 16471-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>46044.59416666667</v>
+        <v>45751.54825231482</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13822,7 +13827,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13859,14 +13864,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 10533-2023</t>
+          <t>A 6179-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44987.92349537037</v>
+        <v>45698.44835648148</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13879,7 +13884,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13916,14 +13921,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 4081-2026</t>
+          <t>A 62553-2021</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>46044</v>
+        <v>44501</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13936,7 +13941,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.2</v>
+        <v>10.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13973,14 +13978,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 4870-2026</t>
+          <t>A 2942-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>46048.6465625</v>
+        <v>45678.39038194445</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14030,14 +14035,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 63980-2021</t>
+          <t>A 56258-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44509</v>
+        <v>45624.64472222222</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14050,7 +14055,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14087,14 +14092,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 62787-2025</t>
+          <t>A 56262-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>46008.61939814815</v>
+        <v>45624.65004629629</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14107,7 +14112,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>4.9</v>
+        <v>1.4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14144,14 +14149,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 4685-2026</t>
+          <t>A 52531-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>46048.43700231481</v>
+        <v>45609.61578703704</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14164,7 +14169,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14201,14 +14206,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 17582-2024</t>
+          <t>A 52533-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45415</v>
+        <v>45609.61697916667</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14221,7 +14226,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14258,14 +14263,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 55444-2023</t>
+          <t>A 29573-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45231</v>
+        <v>45098</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14278,7 +14283,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>3.4</v>
+        <v>5.3</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14315,14 +14320,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 63574-2025</t>
+          <t>A 46726-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>46013.66307870371</v>
+        <v>45583.46103009259</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14335,7 +14340,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14372,14 +14377,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 63160-2025</t>
+          <t>A 64966-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>46010.37174768518</v>
+        <v>45283</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14392,7 +14397,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14429,14 +14434,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 55173-2023</t>
+          <t>A 28347-2022</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45237</v>
+        <v>44747.45532407407</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14449,7 +14454,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14486,14 +14491,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 31817-2024</t>
+          <t>A 31839-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45509</v>
+        <v>45509.65498842593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14505,8 +14510,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G236" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14543,14 +14553,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 63289-2025</t>
+          <t>A 19734-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>46010.59076388889</v>
+        <v>45771.36695601852</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14560,6 +14570,11 @@
       <c r="E237" t="inlineStr">
         <is>
           <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G237" t="n">
@@ -14600,14 +14615,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 63447-2025</t>
+          <t>A 35123-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>46013.4020949074</v>
+        <v>45145.50380787037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14621,11 +14636,11 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>21.4</v>
+        <v>1.8</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14662,14 +14677,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 31699-2024</t>
+          <t>A 10533-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45508.61318287037</v>
+        <v>44987.92349537037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14681,13 +14696,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14724,14 +14734,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 63981-2021</t>
+          <t>A 63980-2021</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
         <v>44509</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14744,7 +14754,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14781,14 +14791,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 46195-2024</t>
+          <t>A 17582-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45581.51873842593</v>
+        <v>45415</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14801,7 +14811,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14838,14 +14848,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 46205-2024</t>
+          <t>A 55444-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45581.54357638889</v>
+        <v>45231</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14858,7 +14868,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14895,14 +14905,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 35006-2024</t>
+          <t>A 55173-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45527</v>
+        <v>45237</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14915,7 +14925,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14952,14 +14962,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 29476-2023</t>
+          <t>A 31817-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45106.57149305556</v>
+        <v>45509</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14972,7 +14982,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15009,14 +15019,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 31867-2023</t>
+          <t>A 31699-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45118.61844907407</v>
+        <v>45508.61318287037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15028,8 +15038,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G245" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15066,14 +15081,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 31869-2023</t>
+          <t>A 63981-2021</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45118.62401620371</v>
+        <v>44509</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15086,7 +15101,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15123,14 +15138,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 9086-2023</t>
+          <t>A 46195-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44979</v>
+        <v>45581.51873842593</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15143,7 +15158,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15180,14 +15195,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 27110-2024</t>
+          <t>A 46205-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45471.50009259259</v>
+        <v>45581.54357638889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15237,14 +15252,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 22193-2023</t>
+          <t>A 35006-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45069</v>
+        <v>45527</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15257,7 +15272,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15294,14 +15309,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 35557-2021</t>
+          <t>A 29476-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44385</v>
+        <v>45106.57149305556</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15314,7 +15329,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15351,14 +15366,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 10440-2023</t>
+          <t>A 31867-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44987</v>
+        <v>45118.61844907407</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15371,7 +15386,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15408,14 +15423,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 45899-2024</t>
+          <t>A 31869-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45580.43047453704</v>
+        <v>45118.62401620371</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15427,13 +15442,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G252" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15470,14 +15480,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 21135-2024</t>
+          <t>A 9086-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45440</v>
+        <v>44979</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15489,13 +15499,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G253" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15532,14 +15537,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 13758-2024</t>
+          <t>A 27110-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45390.92747685185</v>
+        <v>45471.50009259259</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15552,7 +15557,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15589,14 +15594,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 8938-2025</t>
+          <t>A 22193-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45713.44842592593</v>
+        <v>45069</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15609,7 +15614,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15646,14 +15651,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 32785-2024</t>
+          <t>A 35557-2021</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45516.53230324074</v>
+        <v>44385</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15666,7 +15671,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>5.3</v>
+        <v>2.2</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15703,14 +15708,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 32792-2024</t>
+          <t>A 10440-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45516.55068287037</v>
+        <v>44987</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15723,7 +15728,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15760,14 +15765,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 46212-2024</t>
+          <t>A 45899-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45581.55569444445</v>
+        <v>45580.43047453704</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15779,8 +15784,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G258" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15817,14 +15827,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 39185-2024</t>
+          <t>A 21135-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45548</v>
+        <v>45440</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15836,8 +15846,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G259" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15874,14 +15889,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 60640-2024</t>
+          <t>A 13758-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45644.42787037037</v>
+        <v>45390.92747685185</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15893,13 +15908,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G260" t="n">
-        <v>0.3</v>
+        <v>3.4</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15936,14 +15946,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 60557-2023</t>
+          <t>A 8938-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45259</v>
+        <v>45713.44842592593</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15956,7 +15966,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15993,14 +16003,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 59716-2024</t>
+          <t>A 32785-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45639.45857638889</v>
+        <v>45516.53230324074</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16013,7 +16023,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16050,14 +16060,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 27530-2024</t>
+          <t>A 32792-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45474.56820601852</v>
+        <v>45516.55068287037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16069,13 +16079,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G263" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16112,14 +16117,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 19786-2025</t>
+          <t>A 46212-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45771.44086805556</v>
+        <v>45581.55569444445</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16129,11 +16134,6 @@
       <c r="E264" t="inlineStr">
         <is>
           <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G264" t="n">
@@ -16174,14 +16174,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 44295-2023</t>
+          <t>A 39185-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45188.64064814815</v>
+        <v>45548</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16231,14 +16231,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 28367-2022</t>
+          <t>A 60640-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44747</v>
+        <v>45644.42787037037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16250,8 +16250,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G266" t="n">
-        <v>2.7</v>
+        <v>0.3</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16288,14 +16293,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 20432-2025</t>
+          <t>A 60557-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45775.47893518519</v>
+        <v>45259</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16308,7 +16313,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16345,14 +16350,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 38956-2022</t>
+          <t>A 59716-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44816</v>
+        <v>45639.45857638889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16365,7 +16370,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>2.3</v>
+        <v>5.8</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16402,14 +16407,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 42317-2023</t>
+          <t>A 27530-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45175</v>
+        <v>45474.56820601852</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16421,8 +16426,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G269" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16459,14 +16469,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 42327-2023</t>
+          <t>A 19786-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45175</v>
+        <v>45771.44086805556</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16478,8 +16488,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G270" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16516,14 +16531,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 8940-2025</t>
+          <t>A 44295-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45713.44855324074</v>
+        <v>45188.64064814815</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16573,14 +16588,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 9039-2024</t>
+          <t>A 28367-2022</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45356</v>
+        <v>44747</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16593,7 +16608,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16630,14 +16645,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 44319-2023</t>
+          <t>A 20432-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45183</v>
+        <v>45775.47893518519</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16650,7 +16665,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16687,14 +16702,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 8937-2025</t>
+          <t>A 38956-2022</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45713.44841435185</v>
+        <v>44816</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16707,7 +16722,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16744,14 +16759,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 31865-2023</t>
+          <t>A 42317-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45118.61383101852</v>
+        <v>45175</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16764,7 +16779,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16801,14 +16816,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 20640-2025</t>
+          <t>A 42327-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45776.37438657408</v>
+        <v>45175</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16821,7 +16836,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16858,14 +16873,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 21435-2025</t>
+          <t>A 8940-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45782.51766203704</v>
+        <v>45713.44855324074</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16878,7 +16893,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16915,14 +16930,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 21437-2025</t>
+          <t>A 9039-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45782.52001157407</v>
+        <v>45356</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16935,7 +16950,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16972,14 +16987,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 21361-2025</t>
+          <t>A 44319-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45782.43983796296</v>
+        <v>45183</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16992,7 +17007,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17029,14 +17044,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 21615-2025</t>
+          <t>A 8937-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45783.40077546296</v>
+        <v>45713.44841435185</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17048,13 +17063,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G280" t="n">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17091,14 +17101,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 45126-2023</t>
+          <t>A 31865-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45187</v>
+        <v>45118.61383101852</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17111,7 +17121,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17148,14 +17158,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 23101-2025</t>
+          <t>A 20640-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45791.35427083333</v>
+        <v>45776.37438657408</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17167,13 +17177,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G282" t="n">
-        <v>8.199999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17210,14 +17215,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 23205-2025</t>
+          <t>A 21435-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45791.46658564815</v>
+        <v>45782.51766203704</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17229,13 +17234,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G283" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17272,14 +17272,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 22900-2025</t>
+          <t>A 21437-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45790.41079861111</v>
+        <v>45782.52001157407</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17291,102 +17291,159 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F284" t="inlineStr">
+      <c r="G284" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0</v>
+      </c>
+      <c r="L284" t="n">
+        <v>0</v>
+      </c>
+      <c r="M284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N284" t="n">
+        <v>0</v>
+      </c>
+      <c r="O284" t="n">
+        <v>0</v>
+      </c>
+      <c r="P284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>0</v>
+      </c>
+      <c r="R284" s="2" t="inlineStr"/>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>A 21361-2025</t>
+        </is>
+      </c>
+      <c r="B285" s="1" t="n">
+        <v>45782.43983796296</v>
+      </c>
+      <c r="C285" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G285" t="n">
+        <v>1</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L285" t="n">
+        <v>0</v>
+      </c>
+      <c r="M285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N285" t="n">
+        <v>0</v>
+      </c>
+      <c r="O285" t="n">
+        <v>0</v>
+      </c>
+      <c r="P285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>0</v>
+      </c>
+      <c r="R285" s="2" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>A 21615-2025</t>
+        </is>
+      </c>
+      <c r="B286" s="1" t="n">
+        <v>45783.40077546296</v>
+      </c>
+      <c r="C286" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
         <is>
           <t>Holmen skog AB</t>
         </is>
       </c>
-      <c r="G284" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
-      <c r="J284" t="n">
-        <v>0</v>
-      </c>
-      <c r="K284" t="n">
-        <v>0</v>
-      </c>
-      <c r="L284" t="n">
-        <v>0</v>
-      </c>
-      <c r="M284" t="n">
-        <v>0</v>
-      </c>
-      <c r="N284" t="n">
-        <v>0</v>
-      </c>
-      <c r="O284" t="n">
-        <v>0</v>
-      </c>
-      <c r="P284" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q284" t="n">
-        <v>0</v>
-      </c>
-      <c r="R284" s="2" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>A 23567-2025</t>
-        </is>
-      </c>
-      <c r="B285" s="1" t="n">
-        <v>45792.60107638889</v>
-      </c>
-      <c r="C285" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="G285" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
-      <c r="J285" t="n">
-        <v>0</v>
-      </c>
-      <c r="K285" t="n">
-        <v>0</v>
-      </c>
-      <c r="L285" t="n">
-        <v>0</v>
-      </c>
-      <c r="M285" t="n">
-        <v>0</v>
-      </c>
-      <c r="N285" t="n">
-        <v>0</v>
-      </c>
-      <c r="O285" t="n">
-        <v>0</v>
-      </c>
-      <c r="P285" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q285" t="n">
-        <v>0</v>
-      </c>
-      <c r="R285" s="2" t="inlineStr"/>
+      <c r="G286" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0</v>
+      </c>
+      <c r="L286" t="n">
+        <v>0</v>
+      </c>
+      <c r="M286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N286" t="n">
+        <v>0</v>
+      </c>
+      <c r="O286" t="n">
+        <v>0</v>
+      </c>
+      <c r="P286" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>0</v>
+      </c>
+      <c r="R286" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z286"/>
+  <dimension ref="A1:Z288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45796</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>44503.35390046296</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45943.38998842592</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45771.42275462963</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>45783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>46007.44545138889</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>46031.65877314815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,14 +1242,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 63573-2025</t>
+          <t>A 22648-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>46013.66015046297</v>
+        <v>45447.89238425926</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1261,11 +1261,16 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1296,145 +1301,140 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Spindelblomster</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 22648-2024 artfynd.xlsx", "A 22648-2024")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 22648-2024 karta.png", "A 22648-2024")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 22648-2024 FSC-klagomål.docx", "A 22648-2024")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 22648-2024 FSC-klagomål mail.docx", "A 22648-2024")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 22648-2024 tillsynsbegäran.docx", "A 22648-2024")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 22648-2024 tillsynsbegäran mail.docx", "A 22648-2024")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 22648-2024 prioriterade fågelarter.docx", "A 22648-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 63573-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>46013.66015046297</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Järpe
 Sotriska</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 63573-2025 artfynd.xlsx", "A 63573-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 63573-2025 karta.png", "A 63573-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 63573-2025 FSC-klagomål.docx", "A 63573-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 63573-2025 FSC-klagomål mail.docx", "A 63573-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 63573-2025 tillsynsbegäran.docx", "A 63573-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 63573-2025 tillsynsbegäran mail.docx", "A 63573-2025")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 63573-2025 prioriterade fågelarter.docx", "A 63573-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 22648-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45447.89238425926</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Spindelblomster</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 22648-2024 artfynd.xlsx", "A 22648-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 22648-2024 karta.png", "A 22648-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 22648-2024 FSC-klagomål.docx", "A 22648-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 22648-2024 FSC-klagomål mail.docx", "A 22648-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 22648-2024 tillsynsbegäran.docx", "A 22648-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 22648-2024 tillsynsbegäran mail.docx", "A 22648-2024")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 22648-2024 prioriterade fågelarter.docx", "A 22648-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 62418-2025</t>
+          <t>A 57206-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>46007.44689814815</v>
+        <v>45979.59435185185</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,8 +1446,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>3.1</v>
+        <v>12.2</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1481,383 +1486,378 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Huggorm</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 57206-2025 artfynd.xlsx", "A 57206-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 57206-2025 karta.png", "A 57206-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 57206-2025 FSC-klagomål.docx", "A 57206-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 57206-2025 FSC-klagomål mail.docx", "A 57206-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 57206-2025 tillsynsbegäran.docx", "A 57206-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 57206-2025 tillsynsbegäran mail.docx", "A 57206-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 6180-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45698.44841435185</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Thomsons trägnagare</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 6180-2025 artfynd.xlsx", "A 6180-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 6180-2025 karta.png", "A 6180-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 6180-2025 FSC-klagomål.docx", "A 6180-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 6180-2025 FSC-klagomål mail.docx", "A 6180-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 6180-2025 tillsynsbegäran.docx", "A 6180-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 6180-2025 tillsynsbegäran mail.docx", "A 6180-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 61224-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>46000.62998842593</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Älvstarr</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 61224-2025 artfynd.xlsx", "A 61224-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 61224-2025 karta.png", "A 61224-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 61224-2025 FSC-klagomål.docx", "A 61224-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 61224-2025 FSC-klagomål mail.docx", "A 61224-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 61224-2025 tillsynsbegäran.docx", "A 61224-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 61224-2025 tillsynsbegäran mail.docx", "A 61224-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 62418-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>46007.44689814815</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Kungsfågel</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 62418-2025 artfynd.xlsx", "A 62418-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 62418-2025 karta.png", "A 62418-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 62418-2025 FSC-klagomål.docx", "A 62418-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 62418-2025 FSC-klagomål mail.docx", "A 62418-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 62418-2025 tillsynsbegäran.docx", "A 62418-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 62418-2025 tillsynsbegäran mail.docx", "A 62418-2025")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 62418-2025 prioriterade fågelarter.docx", "A 62418-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 63161-2025</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>46010.37401620371</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+      <c r="C15" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>1.6</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Veckticka</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 63161-2025 artfynd.xlsx", "A 63161-2025")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 63161-2025 karta.png", "A 63161-2025")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 63161-2025 FSC-klagomål.docx", "A 63161-2025")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 63161-2025 FSC-klagomål mail.docx", "A 63161-2025")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 63161-2025 tillsynsbegäran.docx", "A 63161-2025")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 63161-2025 tillsynsbegäran mail.docx", "A 63161-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 6180-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45698.44841435185</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Thomsons trägnagare</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 6180-2025 artfynd.xlsx", "A 6180-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 6180-2025 karta.png", "A 6180-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 6180-2025 FSC-klagomål.docx", "A 6180-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 6180-2025 FSC-klagomål mail.docx", "A 6180-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 6180-2025 tillsynsbegäran.docx", "A 6180-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 6180-2025 tillsynsbegäran mail.docx", "A 6180-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 57206-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45979.59435185185</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Huggorm</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 57206-2025 artfynd.xlsx", "A 57206-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 57206-2025 karta.png", "A 57206-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 57206-2025 FSC-klagomål.docx", "A 57206-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 57206-2025 FSC-klagomål mail.docx", "A 57206-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 57206-2025 tillsynsbegäran.docx", "A 57206-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 57206-2025 tillsynsbegäran mail.docx", "A 57206-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 61224-2025</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>46000.62998842593</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Älvstarr</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 61224-2025 artfynd.xlsx", "A 61224-2025")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 61224-2025 karta.png", "A 61224-2025")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 61224-2025 FSC-klagomål.docx", "A 61224-2025")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 61224-2025 FSC-klagomål mail.docx", "A 61224-2025")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 61224-2025 tillsynsbegäran.docx", "A 61224-2025")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 61224-2025 tillsynsbegäran mail.docx", "A 61224-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44452</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>44355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>44651</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>44565.92820601852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44265</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44524.54244212963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>44446</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>44854.92494212963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>44565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44610</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44524.5028587963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>45632.6391087963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>45229</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>45068.92707175926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>44285</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>45532</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>45532</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2887,14 +2887,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 16782-2024</t>
+          <t>A 50413-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45411</v>
+        <v>45601.37128472222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2906,8 +2906,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>1.8</v>
+        <v>23.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2944,14 +2949,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 50413-2024</t>
+          <t>A 16782-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45601.37128472222</v>
+        <v>45411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2963,13 +2968,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>23.4</v>
+        <v>1.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>44571</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>45103</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>45127.88890046296</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3177,14 +3177,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 31421-2023</t>
+          <t>A 28337-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45114.60027777778</v>
+        <v>44747.42982638889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3196,13 +3196,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>5.8</v>
+        <v>1.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3239,14 +3234,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 28337-2022</t>
+          <t>A 31421-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44747.42982638889</v>
+        <v>45114.60027777778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3258,8 +3253,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>1.8</v>
+        <v>5.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3296,14 +3296,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 35734-2024</t>
+          <t>A 45126-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45532</v>
+        <v>45187</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3353,14 +3353,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 20228-2023</t>
+          <t>A 23101-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45055</v>
+        <v>45791.35427083333</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3372,8 +3372,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>0.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3410,14 +3415,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 60646-2024</t>
+          <t>A 20228-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45644.4325462963</v>
+        <v>45055</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3429,13 +3434,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3472,14 +3472,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 45126-2023</t>
+          <t>A 60646-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45187</v>
+        <v>45644.4325462963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,8 +3491,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3529,14 +3534,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 23101-2025</t>
+          <t>A 23205-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45791.35427083333</v>
+        <v>45791.46658564815</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3554,7 +3559,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>8.199999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3591,14 +3596,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 59253-2024</t>
+          <t>A 22900-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45637.59724537037</v>
+        <v>45790.41079861111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3610,8 +3615,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3648,14 +3658,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 23205-2025</t>
+          <t>A 35734-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45791.46658564815</v>
+        <v>45532</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3667,13 +3677,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3710,14 +3715,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 4109-2026</t>
+          <t>A 38566-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>46044.59418981482</v>
+        <v>45884.45541666666</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3730,7 +3735,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3767,14 +3772,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 22900-2025</t>
+          <t>A 23567-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45790.41079861111</v>
+        <v>45792.60107638889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3786,13 +3791,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3829,14 +3829,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 23567-2025</t>
+          <t>A 56320-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45792.60107638889</v>
+        <v>45974.63405092592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3886,14 +3886,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 17409-2025</t>
+          <t>A 23462-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45757.36844907407</v>
+        <v>45792.43016203704</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3943,14 +3943,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 17414-2025</t>
+          <t>A 23776-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45757</v>
+        <v>45793.50012731482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.8</v>
+        <v>8.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4000,14 +4000,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 31132-2023</t>
+          <t>A 23453-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45103</v>
+        <v>45792.42302083333</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4019,8 +4019,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4057,14 +4062,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 35349-2023</t>
+          <t>A 23465-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45146</v>
+        <v>45792.43493055556</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4077,7 +4082,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5.4</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4114,14 +4119,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 23462-2025</t>
+          <t>A 59253-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45792.43016203704</v>
+        <v>45637.59724537037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4134,7 +4139,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4171,14 +4176,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 23776-2025</t>
+          <t>A 56513-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45793.50012731482</v>
+        <v>45975.45373842592</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4191,7 +4196,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4228,14 +4233,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 23453-2025</t>
+          <t>A 56622-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45792.42302083333</v>
+        <v>45975.60040509259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4247,13 +4252,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4290,14 +4290,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 23465-2025</t>
+          <t>A 426-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45792.43493055556</v>
+        <v>44565</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4347,14 +4347,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 38566-2025</t>
+          <t>A 56553-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45884.45541666666</v>
+        <v>45975.48762731482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4404,14 +4404,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 47976-2022</t>
+          <t>A 24342-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44853</v>
+        <v>45797.57418981481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4461,14 +4461,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 31264-2024</t>
+          <t>A 24346-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45503.96868055555</v>
+        <v>45797.58045138889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4480,13 +4480,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4523,14 +4518,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 31277-2024</t>
+          <t>A 56329-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45504.39555555556</v>
+        <v>45974.64</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4542,13 +4537,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>5.2</v>
+        <v>1.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4585,14 +4575,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 19100-2022</t>
+          <t>A 17409-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44691.52804398148</v>
+        <v>45757.36844907407</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4605,7 +4595,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4642,14 +4632,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 24342-2025</t>
+          <t>A 17414-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45797.57418981481</v>
+        <v>45757</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4662,7 +4652,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4699,14 +4689,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 24346-2025</t>
+          <t>A 24756-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45797.58045138889</v>
+        <v>45799.37510416667</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4719,7 +4709,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4756,14 +4746,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 32809-2024</t>
+          <t>A 56831-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45516.57067129629</v>
+        <v>45978.46716435185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4776,7 +4766,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4813,14 +4803,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 4090-2026</t>
+          <t>A 24846-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>46044.55434027778</v>
+        <v>45799.46851851852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4833,7 +4823,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.2</v>
+        <v>2.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4870,14 +4860,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 24756-2025</t>
+          <t>A 29462-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45799.37510416667</v>
+        <v>45824.69697916666</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4890,7 +4880,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.8</v>
+        <v>11.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4927,14 +4917,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 24846-2025</t>
+          <t>A 24805-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45799.46851851852</v>
+        <v>45799.4409375</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4947,7 +4937,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4984,14 +4974,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 24805-2025</t>
+          <t>A 47976-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45799.4409375</v>
+        <v>44853</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5004,7 +4994,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5048,7 +5038,7 @@
         <v>45799.44790509259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5098,14 +5088,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 24792-2025</t>
+          <t>A 31264-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45799</v>
+        <v>45503.96868055555</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5117,8 +5107,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5155,14 +5150,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 24868-2025</t>
+          <t>A 24792-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45799.48819444444</v>
+        <v>45799</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5175,7 +5170,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5212,14 +5207,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 24856-2025</t>
+          <t>A 31277-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45799.47508101852</v>
+        <v>45504.39555555556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5231,8 +5226,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>1.6</v>
+        <v>5.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5269,14 +5269,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 426-2022</t>
+          <t>A 24868-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44565</v>
+        <v>45799.48819444444</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5326,14 +5326,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 25205-2025</t>
+          <t>A 57203-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45800.46907407408</v>
+        <v>45979.58972222222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5345,8 +5345,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1.4</v>
+        <v>20.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5383,14 +5388,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 29462-2025</t>
+          <t>A 24856-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45824.69697916666</v>
+        <v>45799.47508101852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5403,7 +5408,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>11.1</v>
+        <v>1.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5440,14 +5445,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 25206-2025</t>
+          <t>A 19100-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45800.46908564815</v>
+        <v>44691.52804398148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5460,7 +5465,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5497,14 +5502,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 35354-2023</t>
+          <t>A 56833-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45146</v>
+        <v>45978.47253472222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5517,7 +5522,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5554,14 +5559,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 47-2025</t>
+          <t>A 56835-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45659</v>
+        <v>45978.47366898148</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5574,7 +5579,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5611,14 +5616,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 26576-2025</t>
+          <t>A 32809-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45807.68725694445</v>
+        <v>45516.57067129629</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5668,14 +5673,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 28615-2023</t>
+          <t>A 56966-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45103.59210648148</v>
+        <v>45978.67543981481</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5688,7 +5693,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5.2</v>
+        <v>3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5725,14 +5730,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 4108-2026</t>
+          <t>A 25205-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>46044.59416666667</v>
+        <v>45800.46907407408</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5745,7 +5750,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5782,14 +5787,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 26665-2025</t>
+          <t>A 25206-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45810</v>
+        <v>45800.46908564815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5802,7 +5807,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5839,14 +5844,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 4081-2026</t>
+          <t>A 26576-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>46044</v>
+        <v>45807.68725694445</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5859,7 +5864,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5896,14 +5901,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 42584-2025</t>
+          <t>A 57448-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45905.62662037037</v>
+        <v>45980.49452546296</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5915,8 +5920,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5953,14 +5963,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 4870-2026</t>
+          <t>A 57347-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>46048.6465625</v>
+        <v>45980.35763888889</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5973,7 +5983,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.4</v>
+        <v>6.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6010,14 +6020,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 57777-2023</t>
+          <t>A 35354-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45246</v>
+        <v>45146</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6030,7 +6040,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.9</v>
+        <v>1.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6067,14 +6077,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 42902-2025</t>
+          <t>A 42584-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45908.67744212963</v>
+        <v>45905.62662037037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6087,7 +6097,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6124,14 +6134,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 29823-2025</t>
+          <t>A 47-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45825.85599537037</v>
+        <v>45659</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6144,7 +6154,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6181,14 +6191,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 28694-2025</t>
+          <t>A 28615-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45819.88594907407</v>
+        <v>45103.59210648148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6201,7 +6211,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.3</v>
+        <v>5.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6238,14 +6248,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 42990-2025</t>
+          <t>A 26665-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45909.45178240741</v>
+        <v>45810</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6258,7 +6268,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6295,14 +6305,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 43030-2025</t>
+          <t>A 42902-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45909</v>
+        <v>45908.67744212963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6314,13 +6324,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6357,14 +6362,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 30163-2025</t>
+          <t>A 29823-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45827.32722222222</v>
+        <v>45825.85599537037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6377,7 +6382,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.3</v>
+        <v>7.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6414,14 +6419,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 62787-2025</t>
+          <t>A 42990-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46008.61939814815</v>
+        <v>45909.45178240741</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6434,7 +6439,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.9</v>
+        <v>2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6471,14 +6476,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 43685-2025</t>
+          <t>A 43030-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45912.38184027778</v>
+        <v>45909</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6490,8 +6495,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6528,14 +6538,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 29912-2025</t>
+          <t>A 57424-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45826.40885416666</v>
+        <v>45980.46134259259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6547,8 +6557,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6585,14 +6600,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 4685-2026</t>
+          <t>A 57777-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46048.43700231481</v>
+        <v>45246</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6605,7 +6620,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.8</v>
+        <v>4.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6642,14 +6657,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 44975-2025</t>
+          <t>A 43685-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45918.64300925926</v>
+        <v>45912.38184027778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6662,7 +6677,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6699,14 +6714,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 3584-2025</t>
+          <t>A 44975-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45680.78527777778</v>
+        <v>45918.64300925926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6719,7 +6734,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6763,7 +6778,7 @@
         <v>45918.406875</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6820,7 +6835,7 @@
         <v>45918.49681712963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6877,7 +6892,7 @@
         <v>45918.50277777778</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6927,14 +6942,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 2286-2025</t>
+          <t>A 28694-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45673</v>
+        <v>45819.88594907407</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6947,7 +6962,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6984,14 +6999,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 30221-2023</t>
+          <t>A 30163-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45099</v>
+        <v>45827.32722222222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7004,7 +7019,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7041,14 +7056,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 31986-2025</t>
+          <t>A 29912-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45835.36210648148</v>
+        <v>45826.40885416666</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7061,7 +7076,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7098,14 +7113,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 47771-2022</t>
+          <t>A 3584-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44854</v>
+        <v>45680.78527777778</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7118,7 +7133,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7155,14 +7170,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 63574-2025</t>
+          <t>A 2286-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46013.66307870371</v>
+        <v>45673</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7175,7 +7190,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7212,14 +7227,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 9026-2024</t>
+          <t>A 30221-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45356</v>
+        <v>45099</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7232,7 +7247,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7269,14 +7284,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 63160-2025</t>
+          <t>A 31986-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46010.37174768518</v>
+        <v>45835.36210648148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7289,7 +7304,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7326,14 +7341,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 42141-2023</t>
+          <t>A 58637-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45177</v>
+        <v>45986.49008101852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7346,7 +7361,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.6</v>
+        <v>4.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7383,14 +7398,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 59771-2023</t>
+          <t>A 47771-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45257</v>
+        <v>44854</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7403,7 +7418,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7440,14 +7455,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 46434-2022</t>
+          <t>A 49559-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44846</v>
+        <v>45939.45946759259</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7460,7 +7475,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.8</v>
+        <v>7.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7497,14 +7512,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 33226-2021</t>
+          <t>A 48859-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44376</v>
+        <v>45937</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7517,7 +7532,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7554,14 +7569,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 49559-2025</t>
+          <t>A 48886-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45939.45946759259</v>
+        <v>45937.46611111111</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7574,7 +7589,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7611,14 +7626,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 48859-2025</t>
+          <t>A 48852-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45937</v>
+        <v>45937.43040509259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7668,14 +7683,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 48886-2025</t>
+          <t>A 9026-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45937.46611111111</v>
+        <v>45356</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7688,7 +7703,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7725,14 +7740,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 48852-2025</t>
+          <t>A 49520-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45937.43040509259</v>
+        <v>45939.39337962963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7745,7 +7760,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7782,14 +7797,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 63289-2025</t>
+          <t>A 42141-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46010.59076388889</v>
+        <v>45177</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7802,7 +7817,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7839,14 +7854,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 49520-2025</t>
+          <t>A 49371-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45939.39337962963</v>
+        <v>45938.63061342593</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7859,7 +7874,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7896,14 +7911,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 49371-2025</t>
+          <t>A 49820-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45938.63061342593</v>
+        <v>45940.43907407407</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7915,8 +7930,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7953,14 +7973,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 49820-2025</t>
+          <t>A 59771-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45940.43907407407</v>
+        <v>45257</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7972,13 +7992,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8015,14 +8030,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 35755-2024</t>
+          <t>A 46434-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45532</v>
+        <v>44846</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8035,7 +8050,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8072,14 +8087,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 32956-2024</t>
+          <t>A 58584-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45517</v>
+        <v>45986.39486111111</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8091,13 +8106,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8134,14 +8144,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 2018-2025</t>
+          <t>A 33226-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45672</v>
+        <v>44376</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,13 +8163,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8196,14 +8201,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 2020-2025</t>
+          <t>A 51553-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45672</v>
+        <v>45950.87297453704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8215,13 +8220,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8258,14 +8258,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 12425-2025</t>
+          <t>A 51722-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45730</v>
+        <v>45951.58085648148</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8315,14 +8315,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 36801-2025</t>
+          <t>A 51605-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45873.66607638889</v>
+        <v>45951.38592592593</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8372,14 +8372,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 63447-2025</t>
+          <t>A 51737-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>46013.4020949074</v>
+        <v>45951.59630787037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8391,13 +8391,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>21.4</v>
+        <v>2.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8434,14 +8429,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 51553-2025</t>
+          <t>A 35755-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45950.87297453704</v>
+        <v>45532</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8454,7 +8449,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8491,14 +8486,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 37364-2025</t>
+          <t>A 32956-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45877.32516203704</v>
+        <v>45517</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8510,8 +8505,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8548,14 +8548,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 51722-2025</t>
+          <t>A 2018-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45951.58085648148</v>
+        <v>45672</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8567,8 +8567,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8605,14 +8610,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 51605-2025</t>
+          <t>A 2020-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45951.38592592593</v>
+        <v>45672</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8624,8 +8629,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8662,14 +8672,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 25347-2024</t>
+          <t>A 12425-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45462</v>
+        <v>45730</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8682,7 +8692,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8719,14 +8729,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 51737-2025</t>
+          <t>A 52835-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45951.59630787037</v>
+        <v>45957.47133101852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8739,7 +8749,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8776,14 +8786,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 1058-2023</t>
+          <t>A 52845-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44929</v>
+        <v>45957.48430555555</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8796,7 +8806,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8833,14 +8843,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 52835-2025</t>
+          <t>A 52842-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45957.47133101852</v>
+        <v>45957.47827546296</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8853,7 +8863,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8890,14 +8900,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 52845-2025</t>
+          <t>A 52820-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45957.48430555555</v>
+        <v>45957.45483796296</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8910,7 +8920,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8947,14 +8957,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 52842-2025</t>
+          <t>A 36801-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45957.47827546296</v>
+        <v>45873.66607638889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8967,7 +8977,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9004,14 +9014,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 52820-2025</t>
+          <t>A 1058-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45957.45483796296</v>
+        <v>44929</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9024,7 +9034,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9061,14 +9071,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 1438-2025</t>
+          <t>A 54570-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45669.68052083333</v>
+        <v>45965.67487268519</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9081,7 +9091,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9118,14 +9128,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 8993-2024</t>
+          <t>A 54243-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45357.55085648148</v>
+        <v>45964.63417824074</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9138,7 +9148,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.4</v>
+        <v>6.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9175,14 +9185,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 46501-2024</t>
+          <t>A 1438-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45582.6006712963</v>
+        <v>45669.68052083333</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9195,7 +9205,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9232,14 +9242,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 7426-2026</t>
+          <t>A 8993-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46059.4309375</v>
+        <v>45357.55085648148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9252,7 +9262,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>4.1</v>
+        <v>0.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9289,14 +9299,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 54570-2025</t>
+          <t>A 54562-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45965.67487268519</v>
+        <v>45965.66751157407</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9309,7 +9319,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9346,14 +9356,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 54243-2025</t>
+          <t>A 46501-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45964.63417824074</v>
+        <v>45582.6006712963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9366,7 +9376,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>6.7</v>
+        <v>1.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9403,14 +9413,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 52255-2024</t>
+          <t>A 54421-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45608.64011574074</v>
+        <v>45965.48461805555</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9423,7 +9433,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.2</v>
+        <v>10.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9460,14 +9470,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 54562-2025</t>
+          <t>A 37364-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45965.66751157407</v>
+        <v>45877.32516203704</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9480,7 +9490,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9517,14 +9527,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 54421-2025</t>
+          <t>A 862-2026</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45965.48461805555</v>
+        <v>46030.42516203703</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9537,7 +9547,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>10.4</v>
+        <v>0.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9574,14 +9584,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 7874-2026</t>
+          <t>A 25347-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46063.11611111111</v>
+        <v>45462</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9594,7 +9604,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9631,14 +9641,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 7875-2026</t>
+          <t>A 52255-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46063.11847222222</v>
+        <v>45608.64011574074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9651,7 +9661,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9688,14 +9698,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 8935-2025</t>
+          <t>A 59867-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45713.44832175926</v>
+        <v>45992.87564814815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9745,14 +9755,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 8939-2025</t>
+          <t>A 1633-2026</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45713.4485300926</v>
+        <v>46034.49119212963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9765,7 +9775,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9802,14 +9812,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 56320-2025</t>
+          <t>A 8935-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45974.63405092592</v>
+        <v>45713.44832175926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9822,7 +9832,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9859,14 +9869,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 56513-2025</t>
+          <t>A 8939-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45975.45373842592</v>
+        <v>45713.4485300926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9879,7 +9889,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>8.5</v>
+        <v>1.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9916,14 +9926,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 56622-2025</t>
+          <t>A 1614-2026</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45975.60040509259</v>
+        <v>46034.46947916667</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9936,7 +9946,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.6</v>
+        <v>9.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9973,14 +9983,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 56553-2025</t>
+          <t>A 47472-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45975.48762731482</v>
+        <v>45587.5741087963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9993,7 +10003,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10030,14 +10040,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 56329-2025</t>
+          <t>A 7871-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45974.64</v>
+        <v>44970</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10087,14 +10097,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 47472-2024</t>
+          <t>A 2496-2026</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45587.5741087963</v>
+        <v>46037.40002314815</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10107,7 +10117,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10144,14 +10154,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 7871-2023</t>
+          <t>A 2072-2026</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44970</v>
+        <v>46036.33851851852</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10164,7 +10174,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10201,14 +10211,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 56831-2025</t>
+          <t>A 60533-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45978.46716435185</v>
+        <v>45995.65939814815</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10258,14 +10268,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 57203-2025</t>
+          <t>A 60619-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45979.58972222222</v>
+        <v>45996.38447916666</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10277,13 +10287,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>20.1</v>
+        <v>2.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10320,14 +10325,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 56833-2025</t>
+          <t>A 2772-2026</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45978.47253472222</v>
+        <v>46038.37417824074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10340,7 +10345,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.7</v>
+        <v>7.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10377,14 +10382,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 56835-2025</t>
+          <t>A 2774-2026</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45978.47366898148</v>
+        <v>46038.37543981482</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10397,7 +10402,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10434,14 +10439,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 56966-2025</t>
+          <t>A 61176-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45978.67543981481</v>
+        <v>46000.57684027778</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10454,7 +10459,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10491,14 +10496,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 57448-2025</t>
+          <t>A 18377-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45980.49452546296</v>
+        <v>45762.57496527778</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10510,13 +10515,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10553,14 +10553,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 57347-2025</t>
+          <t>A 18380-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45980.35763888889</v>
+        <v>45762.57891203704</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>6.9</v>
+        <v>0.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10610,14 +10610,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 57424-2025</t>
+          <t>A 17981-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45980.46134259259</v>
+        <v>45419</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10629,13 +10629,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10672,14 +10667,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 8516-2026</t>
+          <t>A 61221-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46065.57530092593</v>
+        <v>46000</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10692,7 +10687,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10729,14 +10724,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 58637-2025</t>
+          <t>A 3540-2026</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45986.49008101852</v>
+        <v>46042.63204861111</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10749,7 +10744,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10786,14 +10781,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 686-2026</t>
+          <t>A 25453-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46029.60719907407</v>
+        <v>45463.42144675926</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10806,7 +10801,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10843,14 +10838,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 58584-2025</t>
+          <t>A 61216-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45986.39486111111</v>
+        <v>46000.62005787037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10863,7 +10858,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.8</v>
+        <v>4.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10900,14 +10895,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 18377-2025</t>
+          <t>A 61403-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45762.57496527778</v>
+        <v>46001.48989583334</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10920,7 +10915,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.6</v>
+        <v>12.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10957,14 +10952,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 18380-2025</t>
+          <t>A 1006-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45762.57891203704</v>
+        <v>44935</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10977,7 +10972,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11014,14 +11009,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 17981-2024</t>
+          <t>A 61142-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45419</v>
+        <v>46000.51967592593</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11034,7 +11029,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11071,14 +11066,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 8697-2026</t>
+          <t>A 61155-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46066.45375</v>
+        <v>46000.54702546296</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11091,7 +11086,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11128,14 +11123,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 25453-2024</t>
+          <t>A 61158-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45463.42144675926</v>
+        <v>46000.55134259259</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11148,7 +11143,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11185,14 +11180,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 1006-2023</t>
+          <t>A 61182-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44935</v>
+        <v>46000.58409722222</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11205,7 +11200,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11242,14 +11237,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 15678-2025</t>
+          <t>A 61204-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45748.45042824074</v>
+        <v>46000.61395833334</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11262,7 +11257,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>7.1</v>
+        <v>2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11299,14 +11294,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 18231-2025</t>
+          <t>A 61127-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45761.87467592592</v>
+        <v>46000.48337962963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11319,7 +11314,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11356,14 +11351,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 862-2026</t>
+          <t>A 3538-2026</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46030.42516203703</v>
+        <v>46042.6296412037</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11376,7 +11371,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11413,14 +11408,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 59867-2025</t>
+          <t>A 61118-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45992.87564814815</v>
+        <v>46000.46293981482</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11433,7 +11428,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11470,14 +11465,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 1633-2026</t>
+          <t>A 4109-2026</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>46034.49119212963</v>
+        <v>46044.59418981482</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11490,7 +11485,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.9</v>
+        <v>5.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11527,14 +11522,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 1614-2026</t>
+          <t>A 15678-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>46034.46947916667</v>
+        <v>45748.45042824074</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11547,7 +11542,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>9.1</v>
+        <v>7.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11584,14 +11579,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 53783-2024</t>
+          <t>A 31132-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45615</v>
+        <v>45103</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11604,7 +11599,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11641,14 +11636,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 2496-2026</t>
+          <t>A 18231-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46037.40002314815</v>
+        <v>45761.87467592592</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11661,7 +11656,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11698,14 +11693,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 2072-2026</t>
+          <t>A 35349-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>46036.33851851852</v>
+        <v>45146</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11718,7 +11713,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.7</v>
+        <v>5.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11755,14 +11750,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 60533-2025</t>
+          <t>A 4090-2026</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45995.65939814815</v>
+        <v>46044.55434027778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11775,7 +11770,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11812,14 +11807,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 60619-2025</t>
+          <t>A 4108-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45996.38447916666</v>
+        <v>46044.59416666667</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11832,7 +11827,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11869,14 +11864,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 2772-2026</t>
+          <t>A 4081-2026</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46038.37417824074</v>
+        <v>46044</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11889,7 +11884,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>7.7</v>
+        <v>0.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11926,14 +11921,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 2774-2026</t>
+          <t>A 4870-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46038.37543981482</v>
+        <v>46048.6465625</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11946,7 +11941,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11983,14 +11978,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 2933-2022</t>
+          <t>A 53783-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44581</v>
+        <v>45615</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12003,7 +11998,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12040,14 +12035,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 52536-2023</t>
+          <t>A 62787-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45218</v>
+        <v>46008.61939814815</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12060,7 +12055,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3.8</v>
+        <v>4.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12097,14 +12092,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 35360-2023</t>
+          <t>A 4685-2026</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45146.52483796296</v>
+        <v>46048.43700231481</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12117,7 +12112,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12154,14 +12149,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 61176-2025</t>
+          <t>A 2933-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>46000.57684027778</v>
+        <v>44581</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12174,7 +12169,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>8.300000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12211,14 +12206,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 61221-2025</t>
+          <t>A 52536-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46000</v>
+        <v>45218</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12231,7 +12226,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12268,14 +12263,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 3540-2026</t>
+          <t>A 35360-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46042.63204861111</v>
+        <v>45146.52483796296</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12288,7 +12283,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12325,14 +12320,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 61216-2025</t>
+          <t>A 63574-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46000.62005787037</v>
+        <v>46013.66307870371</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12345,7 +12340,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12382,14 +12377,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 61403-2025</t>
+          <t>A 63160-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46001.48989583334</v>
+        <v>46010.37174768518</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12402,7 +12397,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>12.8</v>
+        <v>1.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12439,14 +12434,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 61142-2025</t>
+          <t>A 2201-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46000.51967592593</v>
+        <v>45673.39678240741</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12459,7 +12454,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12496,14 +12491,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 61155-2025</t>
+          <t>A 63289-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46000.54702546296</v>
+        <v>46010.59076388889</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12516,7 +12511,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12553,14 +12548,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 61158-2025</t>
+          <t>A 63447-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>46000.55134259259</v>
+        <v>46013.4020949074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12572,8 +12567,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>0.9</v>
+        <v>21.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12610,14 +12610,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 61182-2025</t>
+          <t>A 7426-2026</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46000.58409722222</v>
+        <v>46059.4309375</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12630,7 +12630,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.8</v>
+        <v>4.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12667,14 +12667,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 61204-2025</t>
+          <t>A 52536-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46000.61395833334</v>
+        <v>45609.61851851852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12687,7 +12687,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12724,14 +12724,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 2201-2025</t>
+          <t>A 12410-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45673.39678240741</v>
+        <v>45730.43505787037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12744,7 +12744,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12781,14 +12781,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 61127-2025</t>
+          <t>A 7874-2026</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46000.48337962963</v>
+        <v>46063.11611111111</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12838,14 +12838,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 3538-2026</t>
+          <t>A 7875-2026</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>46042.6296412037</v>
+        <v>46063.11847222222</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12858,7 +12858,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12895,14 +12895,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 61118-2025</t>
+          <t>A 34760-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>46000.46293981482</v>
+        <v>45139</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12952,14 +12952,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 52536-2024</t>
+          <t>A 17073-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45609.61851851852</v>
+        <v>45754</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13009,14 +13009,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 12410-2025</t>
+          <t>A 8516-2026</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45730.43505787037</v>
+        <v>46065.57530092593</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13066,14 +13066,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 34760-2023</t>
+          <t>A 63817-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45139</v>
+        <v>45275</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.6</v>
+        <v>6.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13123,14 +13123,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 17073-2025</t>
+          <t>A 8697-2026</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45754</v>
+        <v>46066.45375</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13180,14 +13180,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 63817-2023</t>
+          <t>A 1437-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45275</v>
+        <v>45669.67790509259</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>6.7</v>
+        <v>11.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13237,14 +13237,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 1437-2025</t>
+          <t>A 39220-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45669.67790509259</v>
+        <v>45549</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>11.7</v>
+        <v>0.4</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13294,14 +13294,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 39220-2024</t>
+          <t>A 15674-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45549</v>
+        <v>45748.44657407407</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13351,14 +13351,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 15674-2025</t>
+          <t>A 35011-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45748.44657407407</v>
+        <v>45527</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13408,14 +13408,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 35011-2024</t>
+          <t>A 32739-2021</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45527</v>
+        <v>44375</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13465,14 +13465,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 32739-2021</t>
+          <t>A 9525-2026</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44375</v>
+        <v>46071.60148148148</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13529,7 +13529,7 @@
         <v>45106</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>45642.46236111111</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13636,14 +13636,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 4676-2023</t>
+          <t>A 686-2026</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44953</v>
+        <v>46029.60719907407</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13693,14 +13693,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 13762-2025</t>
+          <t>A 9250-2026</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45737.43103009259</v>
+        <v>46070.50366898148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13750,14 +13750,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 21041-2024</t>
+          <t>A 4676-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45439.666875</v>
+        <v>44953</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13807,14 +13807,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 16471-2025</t>
+          <t>A 13762-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45751.54825231482</v>
+        <v>45737.43103009259</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13864,14 +13864,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 6179-2025</t>
+          <t>A 21041-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45698.44835648148</v>
+        <v>45439.666875</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>4.9</v>
+        <v>1.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13921,14 +13921,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 62553-2021</t>
+          <t>A 16471-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44501</v>
+        <v>45751.54825231482</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>10.2</v>
+        <v>2.3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13978,14 +13978,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 2942-2025</t>
+          <t>A 6179-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45678.39038194445</v>
+        <v>45698.44835648148</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13998,7 +13998,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.4</v>
+        <v>4.9</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14035,14 +14035,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 56258-2024</t>
+          <t>A 62553-2021</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45624.64472222222</v>
+        <v>44501</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.6</v>
+        <v>10.2</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14092,14 +14092,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 56262-2024</t>
+          <t>A 2942-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45624.65004629629</v>
+        <v>45678.39038194445</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14149,14 +14149,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 52531-2024</t>
+          <t>A 56258-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45609.61578703704</v>
+        <v>45624.64472222222</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14206,14 +14206,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 52533-2024</t>
+          <t>A 56262-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45609.61697916667</v>
+        <v>45624.65004629629</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14263,14 +14263,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 29573-2023</t>
+          <t>A 52531-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45098</v>
+        <v>45609.61578703704</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>5.3</v>
+        <v>1.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14320,14 +14320,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 46726-2024</t>
+          <t>A 52533-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45583.46103009259</v>
+        <v>45609.61697916667</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14377,14 +14377,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 64966-2023</t>
+          <t>A 29573-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45283</v>
+        <v>45098</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14434,14 +14434,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 28347-2022</t>
+          <t>A 46726-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44747.45532407407</v>
+        <v>45583.46103009259</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14491,14 +14491,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 31839-2024</t>
+          <t>A 64966-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45509.65498842593</v>
+        <v>45283</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14510,13 +14510,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14553,14 +14548,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 19734-2025</t>
+          <t>A 28347-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45771.36695601852</v>
+        <v>44747.45532407407</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14570,11 +14565,6 @@
       <c r="E237" t="inlineStr">
         <is>
           <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G237" t="n">
@@ -14615,14 +14605,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 35123-2023</t>
+          <t>A 31839-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45145.50380787037</v>
+        <v>45509.65498842593</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14640,7 +14630,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14677,14 +14667,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 10533-2023</t>
+          <t>A 19734-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44987.92349537037</v>
+        <v>45771.36695601852</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14696,8 +14686,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14734,14 +14729,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 63980-2021</t>
+          <t>A 35123-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44509</v>
+        <v>45145.50380787037</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14753,8 +14748,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G240" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14791,14 +14791,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 17582-2024</t>
+          <t>A 10533-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45415</v>
+        <v>44987.92349537037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14848,14 +14848,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 55444-2023</t>
+          <t>A 63980-2021</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45231</v>
+        <v>44509</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14905,14 +14905,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 55173-2023</t>
+          <t>A 17582-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45237</v>
+        <v>45415</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14962,14 +14962,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 31817-2024</t>
+          <t>A 55444-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45509</v>
+        <v>45231</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15019,14 +15019,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 31699-2024</t>
+          <t>A 55173-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45508.61318287037</v>
+        <v>45237</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15038,13 +15038,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G245" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15081,14 +15076,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 63981-2021</t>
+          <t>A 31817-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44509</v>
+        <v>45509</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15101,7 +15096,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15138,14 +15133,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 46195-2024</t>
+          <t>A 31699-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45581.51873842593</v>
+        <v>45508.61318287037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15157,8 +15152,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G247" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15195,14 +15195,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 46205-2024</t>
+          <t>A 63981-2021</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45581.54357638889</v>
+        <v>44509</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15252,14 +15252,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 35006-2024</t>
+          <t>A 46195-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45527</v>
+        <v>45581.51873842593</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15309,14 +15309,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 29476-2023</t>
+          <t>A 46205-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45106.57149305556</v>
+        <v>45581.54357638889</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15366,14 +15366,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 31867-2023</t>
+          <t>A 35006-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45118.61844907407</v>
+        <v>45527</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15386,7 +15386,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15423,14 +15423,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 31869-2023</t>
+          <t>A 29476-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45118.62401620371</v>
+        <v>45106.57149305556</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15480,14 +15480,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 9086-2023</t>
+          <t>A 31867-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44979</v>
+        <v>45118.61844907407</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15537,14 +15537,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 27110-2024</t>
+          <t>A 31869-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45471.50009259259</v>
+        <v>45118.62401620371</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15557,7 +15557,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15594,14 +15594,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 22193-2023</t>
+          <t>A 9086-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45069</v>
+        <v>44979</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15614,7 +15614,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15651,14 +15651,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 35557-2021</t>
+          <t>A 27110-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44385</v>
+        <v>45471.50009259259</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15708,14 +15708,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 10440-2023</t>
+          <t>A 22193-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44987</v>
+        <v>45069</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15728,7 +15728,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>3.7</v>
+        <v>0.4</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15765,14 +15765,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 45899-2024</t>
+          <t>A 35557-2021</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45580.43047453704</v>
+        <v>44385</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15784,13 +15784,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G258" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15827,14 +15822,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 21135-2024</t>
+          <t>A 10440-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45440</v>
+        <v>44987</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15844,11 +15839,6 @@
       <c r="E259" t="inlineStr">
         <is>
           <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G259" t="n">
@@ -15889,14 +15879,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 13758-2024</t>
+          <t>A 45899-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45390.92747685185</v>
+        <v>45580.43047453704</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15908,8 +15898,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G260" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15946,14 +15941,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 8938-2025</t>
+          <t>A 21135-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45713.44842592593</v>
+        <v>45440</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15965,8 +15960,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G261" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16003,14 +16003,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 32785-2024</t>
+          <t>A 13758-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45516.53230324074</v>
+        <v>45390.92747685185</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16060,14 +16060,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 32792-2024</t>
+          <t>A 8938-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45516.55068287037</v>
+        <v>45713.44842592593</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16117,14 +16117,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 46212-2024</t>
+          <t>A 32785-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45581.55569444445</v>
+        <v>45516.53230324074</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.8</v>
+        <v>5.3</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16174,14 +16174,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 39185-2024</t>
+          <t>A 32792-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45548</v>
+        <v>45516.55068287037</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16231,14 +16231,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 60640-2024</t>
+          <t>A 46212-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45644.42787037037</v>
+        <v>45581.55569444445</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16250,13 +16250,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G266" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16293,14 +16288,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 60557-2023</t>
+          <t>A 39185-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45259</v>
+        <v>45548</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16313,7 +16308,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16350,14 +16345,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 59716-2024</t>
+          <t>A 60640-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45639.45857638889</v>
+        <v>45644.42787037037</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16369,8 +16364,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G268" t="n">
-        <v>5.8</v>
+        <v>0.3</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16407,14 +16407,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 27530-2024</t>
+          <t>A 60557-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45474.56820601852</v>
+        <v>45259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16426,13 +16426,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G269" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16469,14 +16464,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 19786-2025</t>
+          <t>A 59716-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45771.44086805556</v>
+        <v>45639.45857638889</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16488,13 +16483,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G270" t="n">
-        <v>1.8</v>
+        <v>5.8</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16531,14 +16521,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 44295-2023</t>
+          <t>A 27530-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45188.64064814815</v>
+        <v>45474.56820601852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16550,8 +16540,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G271" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16588,14 +16583,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 28367-2022</t>
+          <t>A 19786-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>44747</v>
+        <v>45771.44086805556</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16607,8 +16602,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G272" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16645,14 +16645,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 20432-2025</t>
+          <t>A 44295-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45775.47893518519</v>
+        <v>45188.64064814815</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16702,14 +16702,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 38956-2022</t>
+          <t>A 28367-2022</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44816</v>
+        <v>44747</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16759,14 +16759,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 42317-2023</t>
+          <t>A 20432-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45175</v>
+        <v>45775.47893518519</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16816,14 +16816,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 42327-2023</t>
+          <t>A 38956-2022</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45175</v>
+        <v>44816</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16873,14 +16873,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 8940-2025</t>
+          <t>A 42317-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45713.44855324074</v>
+        <v>45175</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16930,14 +16930,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 9039-2024</t>
+          <t>A 42327-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45356</v>
+        <v>45175</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16987,14 +16987,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 44319-2023</t>
+          <t>A 8940-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45183</v>
+        <v>45713.44855324074</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17044,14 +17044,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 8937-2025</t>
+          <t>A 9039-2024</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45713.44841435185</v>
+        <v>45356</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17101,14 +17101,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 31865-2023</t>
+          <t>A 44319-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45118.61383101852</v>
+        <v>45183</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17158,14 +17158,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 20640-2025</t>
+          <t>A 8937-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45776.37438657408</v>
+        <v>45713.44841435185</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>5.2</v>
+        <v>1.5</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17215,14 +17215,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 21435-2025</t>
+          <t>A 31865-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45782.51766203704</v>
+        <v>45118.61383101852</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17272,14 +17272,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 21437-2025</t>
+          <t>A 20640-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45782.52001157407</v>
+        <v>45776.37438657408</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>0.8</v>
+        <v>5.2</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17329,121 +17329,235 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
+          <t>A 21435-2025</t>
+        </is>
+      </c>
+      <c r="B285" s="1" t="n">
+        <v>45782.51766203704</v>
+      </c>
+      <c r="C285" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G285" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L285" t="n">
+        <v>0</v>
+      </c>
+      <c r="M285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N285" t="n">
+        <v>0</v>
+      </c>
+      <c r="O285" t="n">
+        <v>0</v>
+      </c>
+      <c r="P285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>0</v>
+      </c>
+      <c r="R285" s="2" t="inlineStr"/>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>A 21437-2025</t>
+        </is>
+      </c>
+      <c r="B286" s="1" t="n">
+        <v>45782.52001157407</v>
+      </c>
+      <c r="C286" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G286" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0</v>
+      </c>
+      <c r="L286" t="n">
+        <v>0</v>
+      </c>
+      <c r="M286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N286" t="n">
+        <v>0</v>
+      </c>
+      <c r="O286" t="n">
+        <v>0</v>
+      </c>
+      <c r="P286" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>0</v>
+      </c>
+      <c r="R286" s="2" t="inlineStr"/>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="A287" t="inlineStr">
+        <is>
           <t>A 21361-2025</t>
         </is>
       </c>
-      <c r="B285" s="1" t="n">
+      <c r="B287" s="1" t="n">
         <v>45782.43983796296</v>
       </c>
-      <c r="C285" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="G285" t="n">
+      <c r="C287" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G287" t="n">
         <v>1</v>
       </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
-      <c r="J285" t="n">
-        <v>0</v>
-      </c>
-      <c r="K285" t="n">
-        <v>0</v>
-      </c>
-      <c r="L285" t="n">
-        <v>0</v>
-      </c>
-      <c r="M285" t="n">
-        <v>0</v>
-      </c>
-      <c r="N285" t="n">
-        <v>0</v>
-      </c>
-      <c r="O285" t="n">
-        <v>0</v>
-      </c>
-      <c r="P285" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q285" t="n">
-        <v>0</v>
-      </c>
-      <c r="R285" s="2" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0</v>
+      </c>
+      <c r="L287" t="n">
+        <v>0</v>
+      </c>
+      <c r="M287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N287" t="n">
+        <v>0</v>
+      </c>
+      <c r="O287" t="n">
+        <v>0</v>
+      </c>
+      <c r="P287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>0</v>
+      </c>
+      <c r="R287" s="2" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
         <is>
           <t>A 21615-2025</t>
         </is>
       </c>
-      <c r="B286" s="1" t="n">
+      <c r="B288" s="1" t="n">
         <v>45783.40077546296</v>
       </c>
-      <c r="C286" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="F286" t="inlineStr">
+      <c r="C288" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
         <is>
           <t>Holmen skog AB</t>
         </is>
       </c>
-      <c r="G286" t="n">
+      <c r="G288" t="n">
         <v>5.4</v>
       </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
-      <c r="J286" t="n">
-        <v>0</v>
-      </c>
-      <c r="K286" t="n">
-        <v>0</v>
-      </c>
-      <c r="L286" t="n">
-        <v>0</v>
-      </c>
-      <c r="M286" t="n">
-        <v>0</v>
-      </c>
-      <c r="N286" t="n">
-        <v>0</v>
-      </c>
-      <c r="O286" t="n">
-        <v>0</v>
-      </c>
-      <c r="P286" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q286" t="n">
-        <v>0</v>
-      </c>
-      <c r="R286" s="2" t="inlineStr"/>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0</v>
+      </c>
+      <c r="L288" t="n">
+        <v>0</v>
+      </c>
+      <c r="M288" t="n">
+        <v>0</v>
+      </c>
+      <c r="N288" t="n">
+        <v>0</v>
+      </c>
+      <c r="O288" t="n">
+        <v>0</v>
+      </c>
+      <c r="P288" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>0</v>
+      </c>
+      <c r="R288" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -575,7 +575,7 @@
         <v>45796</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>44503.35390046296</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45943.38998842592</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -870,14 +870,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 19776-2025</t>
+          <t>A 21711-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45771.42275462963</v>
+        <v>45783</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -928,6 +928,103 @@
         <v>4</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Spillkråka
+Ullticka
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 21711-2025 artfynd.xlsx", "A 21711-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 21711-2025 karta.png", "A 21711-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 21711-2025 FSC-klagomål.docx", "A 21711-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 21711-2025 FSC-klagomål mail.docx", "A 21711-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 21711-2025 tillsynsbegäran.docx", "A 21711-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 21711-2025 tillsynsbegäran mail.docx", "A 21711-2025")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 21711-2025 prioriterade fågelarter.docx", "A 21711-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 19776-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45771.42275462963</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Spillkråka
@@ -935,132 +1032,35 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 19776-2025 artfynd.xlsx", "A 19776-2025")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 19776-2025 karta.png", "A 19776-2025")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 19776-2025 FSC-klagomål.docx", "A 19776-2025")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 19776-2025 FSC-klagomål mail.docx", "A 19776-2025")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 19776-2025 tillsynsbegäran.docx", "A 19776-2025")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 19776-2025 tillsynsbegäran mail.docx", "A 19776-2025")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 19776-2025 prioriterade fågelarter.docx", "A 19776-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 21711-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45783</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Spillkråka
-Ullticka
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 21711-2025 artfynd.xlsx", "A 21711-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 21711-2025 karta.png", "A 21711-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 21711-2025 FSC-klagomål.docx", "A 21711-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 21711-2025 FSC-klagomål mail.docx", "A 21711-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 21711-2025 tillsynsbegäran.docx", "A 21711-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 21711-2025 tillsynsbegäran mail.docx", "A 21711-2025")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 21711-2025 prioriterade fågelarter.docx", "A 21711-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>46007.44545138889</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>46031.65877314815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,14 +1242,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 22648-2024</t>
+          <t>A 63573-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45447.89238425926</v>
+        <v>46013.66015046297</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1261,16 +1261,11 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1301,140 +1296,145 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Järpe
+Sotriska</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 63573-2025 artfynd.xlsx", "A 63573-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 63573-2025 karta.png", "A 63573-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 63573-2025 FSC-klagomål.docx", "A 63573-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 63573-2025 FSC-klagomål mail.docx", "A 63573-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 63573-2025 tillsynsbegäran.docx", "A 63573-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 63573-2025 tillsynsbegäran mail.docx", "A 63573-2025")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 63573-2025 prioriterade fågelarter.docx", "A 63573-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 22648-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45447.89238425926</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Spindelblomster</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 22648-2024 artfynd.xlsx", "A 22648-2024")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 22648-2024 karta.png", "A 22648-2024")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 22648-2024 FSC-klagomål.docx", "A 22648-2024")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 22648-2024 FSC-klagomål mail.docx", "A 22648-2024")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 22648-2024 tillsynsbegäran.docx", "A 22648-2024")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 22648-2024 tillsynsbegäran mail.docx", "A 22648-2024")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 22648-2024 prioriterade fågelarter.docx", "A 22648-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 63573-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>46013.66015046297</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Järpe
-Sotriska</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 63573-2025 artfynd.xlsx", "A 63573-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 63573-2025 karta.png", "A 63573-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 63573-2025 FSC-klagomål.docx", "A 63573-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 63573-2025 FSC-klagomål mail.docx", "A 63573-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 63573-2025 tillsynsbegäran.docx", "A 63573-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 63573-2025 tillsynsbegäran mail.docx", "A 63573-2025")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 63573-2025 prioriterade fågelarter.docx", "A 63573-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 57206-2025</t>
+          <t>A 6180-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45979.59435185185</v>
+        <v>45698.44841435185</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,19 +1446,14 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>12.2</v>
+        <v>5.9</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1486,119 +1481,124 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Thomsons trägnagare</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 6180-2025 artfynd.xlsx", "A 6180-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 6180-2025 karta.png", "A 6180-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 6180-2025 FSC-klagomål.docx", "A 6180-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 6180-2025 FSC-klagomål mail.docx", "A 6180-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 6180-2025 tillsynsbegäran.docx", "A 6180-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 6180-2025 tillsynsbegäran mail.docx", "A 6180-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 57206-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45979.59435185185</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Huggorm</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 57206-2025 artfynd.xlsx", "A 57206-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 57206-2025 karta.png", "A 57206-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 57206-2025 FSC-klagomål.docx", "A 57206-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 57206-2025 FSC-klagomål mail.docx", "A 57206-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 57206-2025 tillsynsbegäran.docx", "A 57206-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 57206-2025 tillsynsbegäran mail.docx", "A 57206-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 6180-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45698.44841435185</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Thomsons trägnagare</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 6180-2025 artfynd.xlsx", "A 6180-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 6180-2025 karta.png", "A 6180-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 6180-2025 FSC-klagomål.docx", "A 6180-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 6180-2025 FSC-klagomål mail.docx", "A 6180-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 6180-2025 tillsynsbegäran.docx", "A 6180-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 6180-2025 tillsynsbegäran mail.docx", "A 6180-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>46000.62998842593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>46007.44689814815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>46010.37401620371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44452</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>44355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>44651</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>44565.92820601852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44265</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44524.54244212963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>44446</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>44854.92494212963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>44565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44610</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44524.5028587963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2545,14 +2545,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 58340-2024</t>
+          <t>A 1437-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45632.6391087963</v>
+        <v>45669.67790509259</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>11.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2602,14 +2602,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 54793-2023</t>
+          <t>A 52536-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45229</v>
+        <v>45218</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2659,14 +2659,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 22002-2023</t>
+          <t>A 38956-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45068.92707175926</v>
+        <v>44816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2716,14 +2716,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 15409-2021</t>
+          <t>A 60033-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44285</v>
+        <v>45642.46236111111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2773,14 +2773,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 35737-2024</t>
+          <t>A 2018-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45532</v>
+        <v>45672</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2792,8 +2792,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2830,14 +2835,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 35771-2024</t>
+          <t>A 2020-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45532</v>
+        <v>45672</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2849,8 +2854,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2887,14 +2897,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 50413-2024</t>
+          <t>A 52536-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45601.37128472222</v>
+        <v>45609.61851851852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2906,13 +2916,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>23.4</v>
+        <v>1.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2949,14 +2954,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 16782-2024</t>
+          <t>A 38566-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45411</v>
+        <v>45884.45541666666</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2969,7 +2974,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3006,14 +3011,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 846-2022</t>
+          <t>A 20640-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44571</v>
+        <v>45776.37438657408</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3026,7 +3031,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.7</v>
+        <v>5.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3063,14 +3068,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 31133-2023</t>
+          <t>A 31865-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45103</v>
+        <v>45118.61383101852</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3083,7 +3088,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3120,14 +3125,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 33319-2023</t>
+          <t>A 48859-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45127.88890046296</v>
+        <v>45937</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3140,7 +3145,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3177,14 +3182,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 28337-2022</t>
+          <t>A 49371-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44747.42982638889</v>
+        <v>45938.63061342593</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3197,7 +3202,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3234,14 +3239,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 31421-2023</t>
+          <t>A 21435-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45114.60027777778</v>
+        <v>45782.51766203704</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3253,13 +3258,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>5.8</v>
+        <v>2.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3296,14 +3296,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 45126-2023</t>
+          <t>A 21437-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45187</v>
+        <v>45782.52001157407</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3353,14 +3353,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 23101-2025</t>
+          <t>A 46434-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45791.35427083333</v>
+        <v>44846</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3372,13 +3372,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>8.199999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3415,14 +3410,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 20228-2023</t>
+          <t>A 21361-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45055</v>
+        <v>45782.43983796296</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3435,7 +3430,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3472,14 +3467,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 60646-2024</t>
+          <t>A 48886-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45644.4325462963</v>
+        <v>45937.46611111111</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,13 +3486,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3534,14 +3524,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 23205-2025</t>
+          <t>A 21615-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45791.46658564815</v>
+        <v>45783.40077546296</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3559,7 +3549,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.5</v>
+        <v>5.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3596,14 +3586,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 22900-2025</t>
+          <t>A 426-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45790.41079861111</v>
+        <v>44565</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3615,13 +3605,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3658,14 +3643,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 35734-2024</t>
+          <t>A 15674-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45532</v>
+        <v>45748.44657407407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3678,7 +3663,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3715,14 +3700,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 38566-2025</t>
+          <t>A 13758-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45884.45541666666</v>
+        <v>45390.92747685185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3735,7 +3720,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3772,14 +3757,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 23567-2025</t>
+          <t>A 29462-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45792.60107638889</v>
+        <v>45824.69697916666</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3792,7 +3777,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.7</v>
+        <v>11.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3829,14 +3814,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 56320-2025</t>
+          <t>A 22900-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45974.63405092592</v>
+        <v>45790.41079861111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3848,8 +3833,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3886,14 +3876,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 23462-2025</t>
+          <t>A 23205-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45792.43016203704</v>
+        <v>45791.46658564815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3905,8 +3895,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3943,14 +3938,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 23776-2025</t>
+          <t>A 23101-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45793.50012731482</v>
+        <v>45791.35427083333</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3962,8 +3957,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4000,14 +4000,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 23453-2025</t>
+          <t>A 23462-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45792.42302083333</v>
+        <v>45792.43016203704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4019,13 +4019,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4062,14 +4057,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 23465-2025</t>
+          <t>A 23567-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45792.43493055556</v>
+        <v>45792.60107638889</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4082,7 +4077,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4119,14 +4114,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 59253-2024</t>
+          <t>A 45126-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45637.59724537037</v>
+        <v>45187</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4139,7 +4134,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4176,14 +4171,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 56513-2025</t>
+          <t>A 23453-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45975.45373842592</v>
+        <v>45792.42302083333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4195,8 +4190,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>8.5</v>
+        <v>1.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4233,14 +4233,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 56622-2025</t>
+          <t>A 48852-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45975.60040509259</v>
+        <v>45937.43040509259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4290,14 +4290,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 426-2022</t>
+          <t>A 23465-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44565</v>
+        <v>45792.43493055556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4347,14 +4347,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 56553-2025</t>
+          <t>A 49820-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45975.48762731482</v>
+        <v>45940.43907407407</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4366,8 +4366,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4404,14 +4409,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 24342-2025</t>
+          <t>A 49520-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45797.57418981481</v>
+        <v>45939.39337962963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4424,7 +4429,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4461,14 +4466,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 24346-2025</t>
+          <t>A 49559-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45797.58045138889</v>
+        <v>45939.45946759259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4481,7 +4486,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.3</v>
+        <v>7.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4518,14 +4523,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 56329-2025</t>
+          <t>A 42902-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45974.64</v>
+        <v>45908.67744212963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4538,7 +4543,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4575,14 +4580,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 17409-2025</t>
+          <t>A 31264-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45757.36844907407</v>
+        <v>45503.96868055555</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4594,8 +4599,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4632,14 +4642,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 17414-2025</t>
+          <t>A 31277-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45757</v>
+        <v>45504.39555555556</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4651,8 +4661,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>0.8</v>
+        <v>5.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4689,14 +4704,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 24756-2025</t>
+          <t>A 23776-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45799.37510416667</v>
+        <v>45793.50012731482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4709,7 +4724,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.8</v>
+        <v>8.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4746,14 +4761,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 56831-2025</t>
+          <t>A 51605-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45978.46716435185</v>
+        <v>45951.38592592593</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4766,7 +4781,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4803,14 +4818,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 24846-2025</t>
+          <t>A 51737-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45799.46851851852</v>
+        <v>45951.59630787037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4823,7 +4838,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4860,14 +4875,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 29462-2025</t>
+          <t>A 1058-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45824.69697916666</v>
+        <v>44929</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4880,7 +4895,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>11.1</v>
+        <v>2.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4917,14 +4932,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 24805-2025</t>
+          <t>A 51722-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45799.4409375</v>
+        <v>45951.58085648148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4937,7 +4952,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4974,14 +4989,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 47976-2022</t>
+          <t>A 51553-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44853</v>
+        <v>45950.87297453704</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4994,7 +5009,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5031,14 +5046,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 24812-2025</t>
+          <t>A 29823-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45799.44790509259</v>
+        <v>45825.85599537037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5051,7 +5066,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.6</v>
+        <v>7.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5088,14 +5103,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 31264-2024</t>
+          <t>A 42584-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45503.96868055555</v>
+        <v>45905.62662037037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5107,13 +5122,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5150,14 +5160,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 24792-2025</t>
+          <t>A 63980-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45799</v>
+        <v>44509</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5170,7 +5180,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5207,14 +5217,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 31277-2024</t>
+          <t>A 42990-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45504.39555555556</v>
+        <v>45909.45178240741</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5226,13 +5236,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5269,14 +5274,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 24868-2025</t>
+          <t>A 24346-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45799.48819444444</v>
+        <v>45797.58045138889</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5289,7 +5294,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5326,14 +5331,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 57203-2025</t>
+          <t>A 24342-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45979.58972222222</v>
+        <v>45797.57418981481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5345,13 +5350,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>20.1</v>
+        <v>1.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5388,14 +5388,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 24856-2025</t>
+          <t>A 52842-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45799.47508101852</v>
+        <v>45957.47827546296</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5445,14 +5445,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 19100-2022</t>
+          <t>A 52820-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44691.52804398148</v>
+        <v>45957.45483796296</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5502,14 +5502,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 56833-2025</t>
+          <t>A 52845-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45978.47253472222</v>
+        <v>45957.48430555555</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5559,14 +5559,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 56835-2025</t>
+          <t>A 25206-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45978.47366898148</v>
+        <v>45800.46908564815</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5616,14 +5616,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 32809-2024</t>
+          <t>A 52835-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45516.57067129629</v>
+        <v>45957.47133101852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5673,14 +5673,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 56966-2025</t>
+          <t>A 43030-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45978.67543981481</v>
+        <v>45909</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5692,8 +5692,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5730,14 +5735,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 25205-2025</t>
+          <t>A 24805-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45800.46907407408</v>
+        <v>45799.4409375</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5787,14 +5792,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 25206-2025</t>
+          <t>A 24756-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45800.46908564815</v>
+        <v>45799.37510416667</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5807,7 +5812,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5844,14 +5849,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 26576-2025</t>
+          <t>A 25205-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45807.68725694445</v>
+        <v>45800.46907407408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5864,7 +5869,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5901,14 +5906,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 57448-2025</t>
+          <t>A 54243-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45980.49452546296</v>
+        <v>45964.63417824074</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5920,13 +5925,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>2.9</v>
+        <v>6.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5963,14 +5963,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 57347-2025</t>
+          <t>A 43685-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45980.35763888889</v>
+        <v>45912.38184027778</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>6.9</v>
+        <v>3.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6020,14 +6020,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 35354-2023</t>
+          <t>A 24868-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45146</v>
+        <v>45799.48819444444</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6077,14 +6077,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 42584-2025</t>
+          <t>A 24812-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45905.62662037037</v>
+        <v>45799.44790509259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6134,14 +6134,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 47-2025</t>
+          <t>A 24856-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45659</v>
+        <v>45799.47508101852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6191,14 +6191,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 28615-2023</t>
+          <t>A 24846-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45103.59210648148</v>
+        <v>45799.46851851852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>5.2</v>
+        <v>2.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6248,14 +6248,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 26665-2025</t>
+          <t>A 24792-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45810</v>
+        <v>45799</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6305,14 +6305,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 42902-2025</t>
+          <t>A 54562-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45908.67744212963</v>
+        <v>45965.66751157407</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6362,14 +6362,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 29823-2025</t>
+          <t>A 54421-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45825.85599537037</v>
+        <v>45965.48461805555</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>7.2</v>
+        <v>10.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6419,14 +6419,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 42990-2025</t>
+          <t>A 54570-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45909.45178240741</v>
+        <v>45965.67487268519</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6476,14 +6476,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 43030-2025</t>
+          <t>A 44889-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45909</v>
+        <v>45918.49681712963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6495,13 +6495,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6538,14 +6533,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 57424-2025</t>
+          <t>A 44832-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45980.46134259259</v>
+        <v>45918.406875</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6557,13 +6552,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6600,14 +6590,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 57777-2023</t>
+          <t>A 44975-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45246</v>
+        <v>45918.64300925926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6620,7 +6610,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.9</v>
+        <v>1.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6657,14 +6647,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 43685-2025</t>
+          <t>A 44895-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45912.38184027778</v>
+        <v>45918.50277777778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6677,7 +6667,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6714,14 +6704,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 44975-2025</t>
+          <t>A 32956-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45918.64300925926</v>
+        <v>45517</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6733,8 +6723,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6771,14 +6766,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 44832-2025</t>
+          <t>A 26665-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45918.406875</v>
+        <v>45810</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6791,7 +6786,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6828,14 +6823,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 44889-2025</t>
+          <t>A 26576-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45918.49681712963</v>
+        <v>45807.68725694445</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6848,7 +6843,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6885,14 +6880,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 44895-2025</t>
+          <t>A 56320-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45918.50277777778</v>
+        <v>45974.63405092592</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6905,7 +6900,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6942,14 +6937,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 28694-2025</t>
+          <t>A 56329-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45819.88594907407</v>
+        <v>45974.64</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6962,7 +6957,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6999,14 +6994,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 30163-2025</t>
+          <t>A 56553-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45827.32722222222</v>
+        <v>45975.48762731482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7019,7 +7014,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7056,14 +7051,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 29912-2025</t>
+          <t>A 56513-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45826.40885416666</v>
+        <v>45975.45373842592</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7076,7 +7071,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.4</v>
+        <v>8.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7113,14 +7108,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 3584-2025</t>
+          <t>A 28694-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45680.78527777778</v>
+        <v>45819.88594907407</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7133,7 +7128,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7170,14 +7165,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 2286-2025</t>
+          <t>A 56835-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45673</v>
+        <v>45978.47366898148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7190,7 +7185,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7227,14 +7222,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 30221-2023</t>
+          <t>A 56966-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45099</v>
+        <v>45978.67543981481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7247,7 +7242,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7284,14 +7279,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 31986-2025</t>
+          <t>A 56831-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45835.36210648148</v>
+        <v>45978.46716435185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7304,7 +7299,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7341,14 +7336,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 58637-2025</t>
+          <t>A 56622-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45986.49008101852</v>
+        <v>45975.60040509259</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7361,7 +7356,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7398,14 +7393,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 47771-2022</t>
+          <t>A 29912-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44854</v>
+        <v>45826.40885416666</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7418,7 +7413,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7455,14 +7450,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 49559-2025</t>
+          <t>A 56833-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45939.45946759259</v>
+        <v>45978.47253472222</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7475,7 +7470,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>7.2</v>
+        <v>2.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7512,14 +7507,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 48859-2025</t>
+          <t>A 30163-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45937</v>
+        <v>45827.32722222222</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7532,7 +7527,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7569,14 +7564,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 48886-2025</t>
+          <t>A 58340-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45937.46611111111</v>
+        <v>45632.6391087963</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7589,7 +7584,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7626,14 +7621,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 48852-2025</t>
+          <t>A 7871-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45937.43040509259</v>
+        <v>44970</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7683,14 +7678,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 9026-2024</t>
+          <t>A 57347-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45356</v>
+        <v>45980.35763888889</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7703,7 +7698,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.9</v>
+        <v>6.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7740,14 +7735,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 49520-2025</t>
+          <t>A 57448-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45939.39337962963</v>
+        <v>45980.49452546296</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7759,8 +7754,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7797,14 +7797,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 42141-2023</t>
+          <t>A 57203-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45177</v>
+        <v>45979.58972222222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7816,8 +7816,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>0.6</v>
+        <v>20.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7854,14 +7859,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 49371-2025</t>
+          <t>A 57424-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45938.63061342593</v>
+        <v>45980.46134259259</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7873,8 +7878,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7911,14 +7921,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 49820-2025</t>
+          <t>A 46205-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45940.43907407407</v>
+        <v>45581.54357638889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7930,13 +7940,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7973,14 +7978,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 59771-2023</t>
+          <t>A 31986-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45257</v>
+        <v>45835.36210648148</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7993,7 +7998,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8030,14 +8035,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 46434-2022</t>
+          <t>A 58637-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44846</v>
+        <v>45986.49008101852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8050,7 +8055,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.8</v>
+        <v>4.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8087,14 +8092,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 58584-2025</t>
+          <t>A 46195-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45986.39486111111</v>
+        <v>45581.51873842593</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8107,7 +8112,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8144,14 +8149,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 33226-2021</t>
+          <t>A 58584-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44376</v>
+        <v>45986.39486111111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8164,7 +8169,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8201,14 +8206,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 51553-2025</t>
+          <t>A 1614-2026</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45950.87297453704</v>
+        <v>46034.46947916667</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8221,7 +8226,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.7</v>
+        <v>9.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8258,14 +8263,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 51722-2025</t>
+          <t>A 1633-2026</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45951.58085648148</v>
+        <v>46034.49119212963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8278,7 +8283,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8315,14 +8320,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 51605-2025</t>
+          <t>A 9026-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45951.38592592593</v>
+        <v>45356</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8335,7 +8340,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8372,14 +8377,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 51737-2025</t>
+          <t>A 46212-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45951.59630787037</v>
+        <v>45581.55569444445</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8392,7 +8397,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8429,14 +8434,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 35755-2024</t>
+          <t>A 57777-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45532</v>
+        <v>45246</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8449,7 +8454,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8486,14 +8491,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 32956-2024</t>
+          <t>A 59867-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45517</v>
+        <v>45992.87564814815</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8505,13 +8510,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8548,14 +8548,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 2018-2025</t>
+          <t>A 12410-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45672</v>
+        <v>45730.43505787037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8567,13 +8567,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8610,14 +8605,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 2020-2025</t>
+          <t>A 2072-2026</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45672</v>
+        <v>46036.33851851852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8629,13 +8624,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8672,14 +8662,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 12425-2025</t>
+          <t>A 36801-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45730</v>
+        <v>45873.66607638889</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8692,7 +8682,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8729,14 +8719,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 52835-2025</t>
+          <t>A 2774-2026</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45957.47133101852</v>
+        <v>46038.37543981482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8749,7 +8739,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8786,14 +8776,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 52845-2025</t>
+          <t>A 2201-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45957.48430555555</v>
+        <v>45673.39678240741</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8806,7 +8796,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8843,14 +8833,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 52842-2025</t>
+          <t>A 60533-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45957.47827546296</v>
+        <v>45995.65939814815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8863,7 +8853,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8900,14 +8890,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 52820-2025</t>
+          <t>A 32792-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45957.45483796296</v>
+        <v>45516.55068287037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8920,7 +8910,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8957,14 +8947,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 36801-2025</t>
+          <t>A 32809-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45873.66607638889</v>
+        <v>45516.57067129629</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8977,7 +8967,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9014,14 +9004,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 1058-2023</t>
+          <t>A 28615-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44929</v>
+        <v>45103.59210648148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9034,7 +9024,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.2</v>
+        <v>5.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9071,14 +9061,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 54570-2025</t>
+          <t>A 60619-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45965.67487268519</v>
+        <v>45996.38447916666</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9091,7 +9081,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9128,14 +9118,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 54243-2025</t>
+          <t>A 2772-2026</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45964.63417824074</v>
+        <v>46038.37417824074</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9148,7 +9138,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9185,14 +9175,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 1438-2025</t>
+          <t>A 2496-2026</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45669.68052083333</v>
+        <v>46037.40002314815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9205,7 +9195,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>4.3</v>
+        <v>1.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9242,14 +9232,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 8993-2024</t>
+          <t>A 42141-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45357.55085648148</v>
+        <v>45177</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9262,7 +9252,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9299,14 +9289,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 54562-2025</t>
+          <t>A 61176-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45965.66751157407</v>
+        <v>46000.57684027778</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9319,7 +9309,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9356,14 +9346,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 46501-2024</t>
+          <t>A 37364-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45582.6006712963</v>
+        <v>45877.32516203704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9376,7 +9366,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9413,14 +9403,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 54421-2025</t>
+          <t>A 61182-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45965.48461805555</v>
+        <v>46000.58409722222</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9433,7 +9423,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>10.4</v>
+        <v>1.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9470,14 +9460,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 37364-2025</t>
+          <t>A 61204-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45877.32516203704</v>
+        <v>46000.61395833334</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9527,14 +9517,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 862-2026</t>
+          <t>A 31133-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46030.42516203703</v>
+        <v>45103</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9547,7 +9537,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9591,7 +9581,7 @@
         <v>45462</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9641,14 +9631,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 52255-2024</t>
+          <t>A 1438-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45608.64011574074</v>
+        <v>45669.68052083333</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9661,7 +9651,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9698,14 +9688,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 59867-2025</t>
+          <t>A 61118-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45992.87564814815</v>
+        <v>46000.46293981482</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9718,7 +9708,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9755,14 +9745,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 1633-2026</t>
+          <t>A 2286-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>46034.49119212963</v>
+        <v>45673</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9775,7 +9765,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9812,14 +9802,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 8935-2025</t>
+          <t>A 3538-2026</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45713.44832175926</v>
+        <v>46042.6296412037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9832,7 +9822,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9869,14 +9859,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 8939-2025</t>
+          <t>A 61127-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45713.4485300926</v>
+        <v>46000.48337962963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9889,7 +9879,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9926,14 +9916,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 1614-2026</t>
+          <t>A 61216-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46034.46947916667</v>
+        <v>46000.62005787037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9946,7 +9936,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>9.1</v>
+        <v>4.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9983,14 +9973,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 47472-2024</t>
+          <t>A 61221-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45587.5741087963</v>
+        <v>46000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10003,7 +9993,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10040,14 +10030,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 7871-2023</t>
+          <t>A 61142-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44970</v>
+        <v>46000.51967592593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10060,7 +10050,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10097,14 +10087,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 2496-2026</t>
+          <t>A 61155-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>46037.40002314815</v>
+        <v>46000.54702546296</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10117,7 +10107,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10154,14 +10144,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 2072-2026</t>
+          <t>A 8935-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46036.33851851852</v>
+        <v>45713.44832175926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10174,7 +10164,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10211,14 +10201,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 60533-2025</t>
+          <t>A 3540-2026</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45995.65939814815</v>
+        <v>46042.63204861111</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10231,7 +10221,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10268,14 +10258,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 60619-2025</t>
+          <t>A 4090-2026</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45996.38447916666</v>
+        <v>46044.55434027778</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10288,7 +10278,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10325,14 +10315,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 2772-2026</t>
+          <t>A 31421-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>46038.37417824074</v>
+        <v>45114.60027777778</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10344,8 +10334,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>7.7</v>
+        <v>5.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10382,14 +10377,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 2774-2026</t>
+          <t>A 61403-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46038.37543981482</v>
+        <v>46001.48989583334</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10402,7 +10397,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.3</v>
+        <v>12.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10439,14 +10434,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 61176-2025</t>
+          <t>A 32739-2021</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46000.57684027778</v>
+        <v>44375</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10459,7 +10454,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>8.300000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10496,14 +10491,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 18377-2025</t>
+          <t>A 31132-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45762.57496527778</v>
+        <v>45103</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10516,7 +10511,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10553,14 +10548,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 18380-2025</t>
+          <t>A 61158-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45762.57891203704</v>
+        <v>46000.55134259259</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10573,7 +10568,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10610,14 +10605,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 17981-2024</t>
+          <t>A 4108-2026</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45419</v>
+        <v>46044.59416666667</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10630,7 +10625,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10667,14 +10662,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 61221-2025</t>
+          <t>A 35349-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46000</v>
+        <v>45146</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10687,7 +10682,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.6</v>
+        <v>5.4</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10724,14 +10719,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 3540-2026</t>
+          <t>A 4109-2026</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46042.63204861111</v>
+        <v>46044.59418981482</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10744,7 +10739,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10781,14 +10776,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 25453-2024</t>
+          <t>A 60640-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45463.42144675926</v>
+        <v>45644.42787037037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10798,6 +10793,11 @@
       <c r="E171" t="inlineStr">
         <is>
           <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G171" t="n">
@@ -10838,14 +10838,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 61216-2025</t>
+          <t>A 47976-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46000.62005787037</v>
+        <v>44853</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10895,14 +10895,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 61403-2025</t>
+          <t>A 63981-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46001.48989583334</v>
+        <v>44509</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>12.8</v>
+        <v>2.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10952,14 +10952,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 1006-2023</t>
+          <t>A 4870-2026</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44935</v>
+        <v>46048.6465625</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11009,14 +11009,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 61142-2025</t>
+          <t>A 4081-2026</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46000.51967592593</v>
+        <v>46044</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11066,14 +11066,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 61155-2025</t>
+          <t>A 44319-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46000.54702546296</v>
+        <v>45183</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11123,14 +11123,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 61158-2025</t>
+          <t>A 3584-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46000.55134259259</v>
+        <v>45680.78527777778</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11180,14 +11180,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 61182-2025</t>
+          <t>A 33226-2021</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>46000.58409722222</v>
+        <v>44376</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11237,14 +11237,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 61204-2025</t>
+          <t>A 4685-2026</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46000.61395833334</v>
+        <v>46048.43700231481</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11294,14 +11294,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 61127-2025</t>
+          <t>A 18380-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46000.48337962963</v>
+        <v>45762.57891203704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11351,14 +11351,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 3538-2026</t>
+          <t>A 18231-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46042.6296412037</v>
+        <v>45761.87467592592</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11408,14 +11408,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 61118-2025</t>
+          <t>A 62787-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46000.46293981482</v>
+        <v>46008.61939814815</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.2</v>
+        <v>4.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11465,14 +11465,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 4109-2026</t>
+          <t>A 20228-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>46044.59418981482</v>
+        <v>45055</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11522,14 +11522,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 15678-2025</t>
+          <t>A 31839-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45748.45042824074</v>
+        <v>45509.65498842593</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11541,8 +11541,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>7.1</v>
+        <v>1.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11579,14 +11584,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 31132-2023</t>
+          <t>A 63289-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45103</v>
+        <v>46010.59076388889</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11599,7 +11604,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11636,14 +11641,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 18231-2025</t>
+          <t>A 63160-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45761.87467592592</v>
+        <v>46010.37174768518</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11656,7 +11661,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11693,14 +11698,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 35349-2023</t>
+          <t>A 22002-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45146</v>
+        <v>45068.92707175926</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11713,7 +11718,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>5.4</v>
+        <v>0.8</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11750,14 +11755,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 4090-2026</t>
+          <t>A 29476-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>46044.55434027778</v>
+        <v>45106.57149305556</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11770,7 +11775,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.2</v>
+        <v>3.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11807,14 +11812,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 4108-2026</t>
+          <t>A 29485-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46044.59416666667</v>
+        <v>45106</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11827,7 +11832,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11864,14 +11869,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 4081-2026</t>
+          <t>A 63447-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46044</v>
+        <v>46013.4020949074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11883,8 +11888,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>0.2</v>
+        <v>21.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11921,14 +11931,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 4870-2026</t>
+          <t>A 63574-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46048.6465625</v>
+        <v>46013.66307870371</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11941,7 +11951,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11978,14 +11988,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 53783-2024</t>
+          <t>A 42317-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45615</v>
+        <v>45175</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11998,7 +12008,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12035,14 +12045,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 62787-2025</t>
+          <t>A 42327-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46008.61939814815</v>
+        <v>45175</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12055,7 +12065,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>4.9</v>
+        <v>3.4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12092,14 +12102,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 4685-2026</t>
+          <t>A 9039-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46048.43700231481</v>
+        <v>45356</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12112,7 +12122,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12149,14 +12159,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 2933-2022</t>
+          <t>A 55173-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44581</v>
+        <v>45237</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12169,7 +12179,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12206,14 +12216,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 52536-2023</t>
+          <t>A 54793-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45218</v>
+        <v>45229</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12226,7 +12236,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12263,14 +12273,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 35360-2023</t>
+          <t>A 7426-2026</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45146.52483796296</v>
+        <v>46059.4309375</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12283,7 +12293,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12320,14 +12330,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 63574-2025</t>
+          <t>A 35734-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46013.66307870371</v>
+        <v>45532</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12340,7 +12350,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12377,14 +12387,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 63160-2025</t>
+          <t>A 64966-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46010.37174768518</v>
+        <v>45283</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12397,7 +12407,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12434,14 +12444,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 2201-2025</t>
+          <t>A 35006-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45673.39678240741</v>
+        <v>45527</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12454,7 +12464,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12491,14 +12501,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 63289-2025</t>
+          <t>A 7874-2026</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46010.59076388889</v>
+        <v>46063.11611111111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12511,7 +12521,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12548,14 +12558,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 63447-2025</t>
+          <t>A 7875-2026</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>46013.4020949074</v>
+        <v>46063.11847222222</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12567,13 +12577,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>21.4</v>
+        <v>3</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12610,14 +12615,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 7426-2026</t>
+          <t>A 8697-2026</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46059.4309375</v>
+        <v>46066.45375</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12630,7 +12635,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12667,14 +12672,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 52536-2024</t>
+          <t>A 8516-2026</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45609.61851851852</v>
+        <v>46065.57530092593</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12687,7 +12692,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12724,14 +12729,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 12410-2025</t>
+          <t>A 9250-2026</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45730.43505787037</v>
+        <v>46070.50366898148</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12744,7 +12749,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12781,14 +12786,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 7874-2026</t>
+          <t>A 35011-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46063.11611111111</v>
+        <v>45527</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12801,7 +12806,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12838,14 +12843,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 7875-2026</t>
+          <t>A 9525-2026</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>46063.11847222222</v>
+        <v>46071.60148148148</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12858,7 +12863,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12895,14 +12900,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 34760-2023</t>
+          <t>A 686-2026</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45139</v>
+        <v>46029.60719907407</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12915,7 +12920,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12952,14 +12957,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 17073-2025</t>
+          <t>A 862-2026</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45754</v>
+        <v>46030.42516203703</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12972,7 +12977,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13009,14 +13014,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 8516-2026</t>
+          <t>A 27110-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46065.57530092593</v>
+        <v>45471.50009259259</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13029,7 +13034,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13066,14 +13071,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 63817-2023</t>
+          <t>A 8939-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45275</v>
+        <v>45713.4485300926</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13086,7 +13091,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>6.7</v>
+        <v>1.1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13123,14 +13128,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 8697-2026</t>
+          <t>A 35360-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>46066.45375</v>
+        <v>45146.52483796296</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13143,7 +13148,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13180,14 +13185,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 1437-2025</t>
+          <t>A 35123-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45669.67790509259</v>
+        <v>45145.50380787037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13199,8 +13204,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>11.7</v>
+        <v>1.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13237,14 +13247,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 39220-2024</t>
+          <t>A 46726-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45549</v>
+        <v>45583.46103009259</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13257,7 +13267,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13294,14 +13304,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 15674-2025</t>
+          <t>A 46501-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45748.44657407407</v>
+        <v>45582.6006712963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13314,7 +13324,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13351,14 +13361,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 35011-2024</t>
+          <t>A 31867-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45527</v>
+        <v>45118.61844907407</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13371,7 +13381,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13408,14 +13418,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 32739-2021</t>
+          <t>A 33319-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44375</v>
+        <v>45127.88890046296</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13428,7 +13438,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13465,14 +13475,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 9525-2026</t>
+          <t>A 17981-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>46071.60148148148</v>
+        <v>45419</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13485,7 +13495,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13522,14 +13532,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 29485-2023</t>
+          <t>A 45899-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45106</v>
+        <v>45580.43047453704</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13541,8 +13551,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13579,14 +13594,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 60033-2024</t>
+          <t>A 31817-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45642.46236111111</v>
+        <v>45509</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13599,7 +13614,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13636,14 +13651,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 686-2026</t>
+          <t>A 52531-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>46029.60719907407</v>
+        <v>45609.61578703704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13656,7 +13671,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13693,14 +13708,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 9250-2026</t>
+          <t>A 52533-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>46070.50366898148</v>
+        <v>45609.61697916667</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13713,7 +13728,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13750,14 +13765,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 4676-2023</t>
+          <t>A 8940-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44953</v>
+        <v>45713.44855324074</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13770,7 +13785,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13807,14 +13822,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 13762-2025</t>
+          <t>A 21041-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45737.43103009259</v>
+        <v>45439.666875</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13827,7 +13842,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13864,14 +13879,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 21041-2024</t>
+          <t>A 59716-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45439.666875</v>
+        <v>45639.45857638889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13884,7 +13899,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.3</v>
+        <v>5.8</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13921,14 +13936,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 16471-2025</t>
+          <t>A 50413-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45751.54825231482</v>
+        <v>45601.37128472222</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13940,8 +13955,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>2.3</v>
+        <v>23.4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13978,14 +13998,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 6179-2025</t>
+          <t>A 47-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45698.44835648148</v>
+        <v>45659</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13998,7 +14018,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>4.9</v>
+        <v>1.8</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14035,14 +14055,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 62553-2021</t>
+          <t>A 13762-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44501</v>
+        <v>45737.43103009259</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14055,7 +14075,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>10.2</v>
+        <v>2.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14092,14 +14112,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 2942-2025</t>
+          <t>A 29573-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45678.39038194445</v>
+        <v>45098</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14112,7 +14132,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.4</v>
+        <v>5.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14149,14 +14169,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 56258-2024</t>
+          <t>A 21135-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45624.64472222222</v>
+        <v>45440</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14168,8 +14188,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G230" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14206,14 +14231,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 56262-2024</t>
+          <t>A 2942-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45624.65004629629</v>
+        <v>45678.39038194445</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14226,7 +14251,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14263,14 +14288,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 52531-2024</t>
+          <t>A 6179-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45609.61578703704</v>
+        <v>45698.44835648148</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14283,7 +14308,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.2</v>
+        <v>4.9</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14320,14 +14345,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 52533-2024</t>
+          <t>A 55444-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45609.61697916667</v>
+        <v>45231</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14340,7 +14365,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14377,14 +14402,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 29573-2023</t>
+          <t>A 2933-2022</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45098</v>
+        <v>44581</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14397,7 +14422,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>5.3</v>
+        <v>1.8</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14434,14 +14459,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 46726-2024</t>
+          <t>A 17582-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45583.46103009259</v>
+        <v>45415</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14454,7 +14479,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14491,14 +14516,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 64966-2023</t>
+          <t>A 44295-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45283</v>
+        <v>45188.64064814815</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14511,7 +14536,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14548,14 +14573,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 28347-2022</t>
+          <t>A 59253-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44747.45532407407</v>
+        <v>45637.59724537037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14605,14 +14630,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 31839-2024</t>
+          <t>A 30221-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45509.65498842593</v>
+        <v>45099</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14624,13 +14649,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G238" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14667,14 +14687,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 19734-2025</t>
+          <t>A 59771-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45771.36695601852</v>
+        <v>45257</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14686,13 +14706,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14729,14 +14744,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 35123-2023</t>
+          <t>A 16471-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45145.50380787037</v>
+        <v>45751.54825231482</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14748,13 +14763,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G240" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14791,14 +14801,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 10533-2023</t>
+          <t>A 47771-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44987.92349537037</v>
+        <v>44854</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14811,7 +14821,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14848,14 +14858,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 63980-2021</t>
+          <t>A 8993-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44509</v>
+        <v>45357.55085648148</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14868,7 +14878,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14905,14 +14915,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 17582-2024</t>
+          <t>A 19734-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45415</v>
+        <v>45771.36695601852</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14924,8 +14934,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G243" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14962,14 +14977,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 55444-2023</t>
+          <t>A 28367-2022</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45231</v>
+        <v>44747</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14982,7 +14997,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15019,14 +15034,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 55173-2023</t>
+          <t>A 17073-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45237</v>
+        <v>45754</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15039,7 +15054,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15076,14 +15091,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 31817-2024</t>
+          <t>A 28347-2022</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45509</v>
+        <v>44747.45532407407</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15096,7 +15111,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15133,14 +15148,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 31699-2024</t>
+          <t>A 60557-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45508.61318287037</v>
+        <v>45259</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15152,13 +15167,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G247" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15195,14 +15205,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 63981-2021</t>
+          <t>A 39220-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44509</v>
+        <v>45549</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15215,7 +15225,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15252,14 +15262,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 46195-2024</t>
+          <t>A 35557-2021</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45581.51873842593</v>
+        <v>44385</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15272,7 +15282,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15309,14 +15319,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 46205-2024</t>
+          <t>A 15409-2021</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45581.54357638889</v>
+        <v>44285</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15329,7 +15339,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15366,14 +15376,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 35006-2024</t>
+          <t>A 19100-2022</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45527</v>
+        <v>44691.52804398148</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15386,7 +15396,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15423,14 +15433,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 29476-2023</t>
+          <t>A 22193-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45106.57149305556</v>
+        <v>45069</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15443,7 +15453,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15480,14 +15490,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 31867-2023</t>
+          <t>A 846-2022</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45118.61844907407</v>
+        <v>44571</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15500,7 +15510,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15537,14 +15547,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 31869-2023</t>
+          <t>A 16782-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45118.62401620371</v>
+        <v>45411</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15557,7 +15567,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15594,14 +15604,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 9086-2023</t>
+          <t>A 32785-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44979</v>
+        <v>45516.53230324074</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15614,7 +15624,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15651,14 +15661,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 27110-2024</t>
+          <t>A 1006-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45471.50009259259</v>
+        <v>44935</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15671,7 +15681,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15708,14 +15718,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 22193-2023</t>
+          <t>A 31869-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45069</v>
+        <v>45118.62401620371</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15728,7 +15738,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15765,14 +15775,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 35557-2021</t>
+          <t>A 31699-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44385</v>
+        <v>45508.61318287037</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15784,8 +15794,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G258" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15822,14 +15837,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 10440-2023</t>
+          <t>A 12425-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44987</v>
+        <v>45730</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15842,7 +15857,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15879,14 +15894,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 45899-2024</t>
+          <t>A 56258-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45580.43047453704</v>
+        <v>45624.64472222222</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15898,13 +15913,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G260" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15941,14 +15951,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 21135-2024</t>
+          <t>A 56262-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45440</v>
+        <v>45624.65004629629</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15960,13 +15970,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G261" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16003,14 +16008,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 13758-2024</t>
+          <t>A 62553-2021</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45390.92747685185</v>
+        <v>44501</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16023,7 +16028,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>3.4</v>
+        <v>10.2</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16060,14 +16065,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 8938-2025</t>
+          <t>A 18377-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45713.44842592593</v>
+        <v>45762.57496527778</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16117,14 +16122,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 32785-2024</t>
+          <t>A 25453-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45516.53230324074</v>
+        <v>45463.42144675926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16137,7 +16142,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>5.3</v>
+        <v>0.3</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16174,14 +16179,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 32792-2024</t>
+          <t>A 52255-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45516.55068287037</v>
+        <v>45608.64011574074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16194,7 +16199,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16231,14 +16236,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 46212-2024</t>
+          <t>A 39185-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45581.55569444445</v>
+        <v>45548</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16251,7 +16256,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16288,14 +16293,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 39185-2024</t>
+          <t>A 63817-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45548</v>
+        <v>45275</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16308,7 +16313,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.6</v>
+        <v>6.7</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16345,14 +16350,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 60640-2024</t>
+          <t>A 19786-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45644.42787037037</v>
+        <v>45771.44086805556</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16370,7 +16375,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16407,14 +16412,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 60557-2023</t>
+          <t>A 60646-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45259</v>
+        <v>45644.4325462963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16426,8 +16431,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G269" t="n">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16464,14 +16474,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 59716-2024</t>
+          <t>A 8937-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45639.45857638889</v>
+        <v>45713.44841435185</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16484,7 +16494,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>5.8</v>
+        <v>1.5</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16521,14 +16531,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 27530-2024</t>
+          <t>A 8938-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45474.56820601852</v>
+        <v>45713.44842592593</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16540,13 +16550,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G271" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16583,14 +16588,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 19786-2025</t>
+          <t>A 35354-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45771.44086805556</v>
+        <v>45146</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16602,13 +16607,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G272" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16645,14 +16645,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 44295-2023</t>
+          <t>A 10533-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45188.64064814815</v>
+        <v>44987.92349537037</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16702,14 +16702,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 28367-2022</t>
+          <t>A 34760-2023</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44747</v>
+        <v>45139</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16759,14 +16759,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 20432-2025</t>
+          <t>A 53783-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45775.47893518519</v>
+        <v>45615</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16816,14 +16816,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 38956-2022</t>
+          <t>A 10440-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44816</v>
+        <v>44987</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16873,14 +16873,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 42317-2023</t>
+          <t>A 17409-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45175</v>
+        <v>45757.36844907407</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16930,14 +16930,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 42327-2023</t>
+          <t>A 17414-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45175</v>
+        <v>45757</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16987,14 +16987,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 8940-2025</t>
+          <t>A 20432-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45713.44855324074</v>
+        <v>45775.47893518519</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17044,14 +17044,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 9039-2024</t>
+          <t>A 35737-2024</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45356</v>
+        <v>45532</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17101,14 +17101,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 44319-2023</t>
+          <t>A 35755-2024</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45183</v>
+        <v>45532</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17158,14 +17158,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 8937-2025</t>
+          <t>A 35771-2024</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45713.44841435185</v>
+        <v>45532</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17215,14 +17215,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 31865-2023</t>
+          <t>A 27530-2024</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45118.61383101852</v>
+        <v>45474.56820601852</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17234,8 +17234,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G283" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17272,14 +17277,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 20640-2025</t>
+          <t>A 9086-2023</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45776.37438657408</v>
+        <v>44979</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17292,7 +17297,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>5.2</v>
+        <v>1.3</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17329,14 +17334,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 21435-2025</t>
+          <t>A 4676-2023</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45782.51766203704</v>
+        <v>44953</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17349,7 +17354,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17386,14 +17391,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 21437-2025</t>
+          <t>A 28337-2022</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45782.52001157407</v>
+        <v>44747.42982638889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17406,7 +17411,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17443,14 +17448,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 21361-2025</t>
+          <t>A 47472-2024</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45782.43983796296</v>
+        <v>45587.5741087963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17463,7 +17468,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17500,14 +17505,14 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 21615-2025</t>
+          <t>A 15678-2025</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45783.40077546296</v>
+        <v>45748.45042824074</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17519,13 +17524,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G288" t="n">
-        <v>5.4</v>
+        <v>7.1</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>

--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -575,7 +575,7 @@
         <v>45796</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>44503.35390046296</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45943.38998842592</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -870,14 +870,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 21711-2025</t>
+          <t>A 19776-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45783</v>
+        <v>45771.42275462963</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -928,6 +928,103 @@
         <v>4</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Spillkråka
+Gullgröppa
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 19776-2025 artfynd.xlsx", "A 19776-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 19776-2025 karta.png", "A 19776-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 19776-2025 FSC-klagomål.docx", "A 19776-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 19776-2025 FSC-klagomål mail.docx", "A 19776-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 19776-2025 tillsynsbegäran.docx", "A 19776-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 19776-2025 tillsynsbegäran mail.docx", "A 19776-2025")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 19776-2025 prioriterade fågelarter.docx", "A 19776-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 21711-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45783</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Spillkråka
@@ -935,132 +1032,35 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 21711-2025 artfynd.xlsx", "A 21711-2025")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 21711-2025 karta.png", "A 21711-2025")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 21711-2025 FSC-klagomål.docx", "A 21711-2025")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 21711-2025 FSC-klagomål mail.docx", "A 21711-2025")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 21711-2025 tillsynsbegäran.docx", "A 21711-2025")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 21711-2025 tillsynsbegäran mail.docx", "A 21711-2025")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 21711-2025 prioriterade fågelarter.docx", "A 21711-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 19776-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45771.42275462963</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Spillkråka
-Gullgröppa
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 19776-2025 artfynd.xlsx", "A 19776-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 19776-2025 karta.png", "A 19776-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 19776-2025 FSC-klagomål.docx", "A 19776-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 19776-2025 FSC-klagomål mail.docx", "A 19776-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 19776-2025 tillsynsbegäran.docx", "A 19776-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 19776-2025 tillsynsbegäran mail.docx", "A 19776-2025")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 19776-2025 prioriterade fågelarter.docx", "A 19776-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>46007.44545138889</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>46031.65877314815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,14 +1242,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 63573-2025</t>
+          <t>A 22648-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>46013.66015046297</v>
+        <v>45447.89238425926</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1261,11 +1261,16 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1296,134 +1301,129 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Spindelblomster</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 22648-2024 artfynd.xlsx", "A 22648-2024")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 22648-2024 karta.png", "A 22648-2024")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 22648-2024 FSC-klagomål.docx", "A 22648-2024")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 22648-2024 FSC-klagomål mail.docx", "A 22648-2024")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 22648-2024 tillsynsbegäran.docx", "A 22648-2024")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 22648-2024 tillsynsbegäran mail.docx", "A 22648-2024")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 22648-2024 prioriterade fågelarter.docx", "A 22648-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 63573-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>46013.66015046297</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Järpe
 Sotriska</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 63573-2025 artfynd.xlsx", "A 63573-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 63573-2025 karta.png", "A 63573-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 63573-2025 FSC-klagomål.docx", "A 63573-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 63573-2025 FSC-klagomål mail.docx", "A 63573-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 63573-2025 tillsynsbegäran.docx", "A 63573-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 63573-2025 tillsynsbegäran mail.docx", "A 63573-2025")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 63573-2025 prioriterade fågelarter.docx", "A 63573-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 22648-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45447.89238425926</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>VÄNNÄS</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Spindelblomster</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/artfynd/A 22648-2024 artfynd.xlsx", "A 22648-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/kartor/A 22648-2024 karta.png", "A 22648-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomål/A 22648-2024 FSC-klagomål.docx", "A 22648-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/klagomålsmail/A 22648-2024 FSC-klagomål mail.docx", "A 22648-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsyn/A 22648-2024 tillsynsbegäran.docx", "A 22648-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/tillsynsmail/A 22648-2024 tillsynsbegäran mail.docx", "A 22648-2024")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2460/fåglar/A 22648-2024 prioriterade fågelarter.docx", "A 22648-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>45698.44841435185</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45979.59435185185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>46000.62998842593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>46007.44689814815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>46010.37401620371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44452</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>44355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>44651</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>44565.92820601852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44265</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44524.54244212963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>44446</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>44854.92494212963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>44565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44610</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44524.5028587963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2545,14 +2545,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 1437-2025</t>
+          <t>A 54793-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45669.67790509259</v>
+        <v>45229</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>11.7</v>
+        <v>0.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2602,14 +2602,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 52536-2023</t>
+          <t>A 58340-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45218</v>
+        <v>45632.6391087963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2659,14 +2659,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 38956-2022</t>
+          <t>A 22002-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44816</v>
+        <v>45068.92707175926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2716,14 +2716,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 60033-2024</t>
+          <t>A 15409-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45642.46236111111</v>
+        <v>44285</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5.3</v>
+        <v>1.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2773,14 +2773,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 2018-2025</t>
+          <t>A 35737-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45672</v>
+        <v>45532</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2792,13 +2792,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2835,14 +2830,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 2020-2025</t>
+          <t>A 35771-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45672</v>
+        <v>45532</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2854,13 +2849,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2897,14 +2887,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 52536-2024</t>
+          <t>A 16782-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45609.61851851852</v>
+        <v>45411</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2917,7 +2907,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2954,14 +2944,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 38566-2025</t>
+          <t>A 50413-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45884.45541666666</v>
+        <v>45601.37128472222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2973,8 +2963,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>5.5</v>
+        <v>23.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3011,14 +3006,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 20640-2025</t>
+          <t>A 846-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45776.37438657408</v>
+        <v>44571</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3031,7 +3026,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>5.2</v>
+        <v>0.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3068,14 +3063,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 31865-2023</t>
+          <t>A 31133-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45118.61383101852</v>
+        <v>45103</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3088,7 +3083,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3125,14 +3120,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 48859-2025</t>
+          <t>A 33319-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45937</v>
+        <v>45127.88890046296</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3145,7 +3140,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3182,14 +3177,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 49371-2025</t>
+          <t>A 31421-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45938.63061342593</v>
+        <v>45114.60027777778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3201,8 +3196,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>5.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3239,14 +3239,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 21435-2025</t>
+          <t>A 28337-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45782.51766203704</v>
+        <v>44747.42982638889</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3296,14 +3296,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 21437-2025</t>
+          <t>A 20228-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45782.52001157407</v>
+        <v>45055</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3353,14 +3353,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 46434-2022</t>
+          <t>A 35734-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44846</v>
+        <v>45532</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3410,14 +3410,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 21361-2025</t>
+          <t>A 60646-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45782.43983796296</v>
+        <v>45644.4325462963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3429,8 +3429,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3467,14 +3472,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 48886-2025</t>
+          <t>A 17409-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45937.46611111111</v>
+        <v>45757.36844907407</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3487,7 +3492,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3524,14 +3529,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 21615-2025</t>
+          <t>A 17414-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45783.40077546296</v>
+        <v>45757</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3543,13 +3548,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>5.4</v>
+        <v>0.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3586,14 +3586,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 426-2022</t>
+          <t>A 47976-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44565</v>
+        <v>44853</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3643,14 +3643,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 15674-2025</t>
+          <t>A 19100-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45748.44657407407</v>
+        <v>44691.52804398148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3700,14 +3700,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 13758-2024</t>
+          <t>A 31264-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45390.92747685185</v>
+        <v>45503.96868055555</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,8 +3719,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3757,14 +3762,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 29462-2025</t>
+          <t>A 31277-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45824.69697916666</v>
+        <v>45504.39555555556</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,8 +3781,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>11.1</v>
+        <v>5.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3814,14 +3824,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 22900-2025</t>
+          <t>A 32809-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45790.41079861111</v>
+        <v>45516.57067129629</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,13 +3843,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3876,14 +3881,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 23205-2025</t>
+          <t>A 35354-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45791.46658564815</v>
+        <v>45146</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3895,13 +3900,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3938,14 +3938,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 23101-2025</t>
+          <t>A 47-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45791.35427083333</v>
+        <v>45659</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3957,13 +3957,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>8.199999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4000,14 +3995,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 23462-2025</t>
+          <t>A 28615-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45792.43016203704</v>
+        <v>45103.59210648148</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4020,7 +4015,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.5</v>
+        <v>5.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4057,14 +4052,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 23567-2025</t>
+          <t>A 57777-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45792.60107638889</v>
+        <v>45246</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4077,7 +4072,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4114,14 +4109,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 45126-2023</t>
+          <t>A 59253-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45187</v>
+        <v>45637.59724537037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4134,7 +4129,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4171,14 +4166,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 23453-2025</t>
+          <t>A 3584-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45792.42302083333</v>
+        <v>45680.78527777778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4190,13 +4185,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4233,14 +4223,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 48852-2025</t>
+          <t>A 38566-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45937.43040509259</v>
+        <v>45884.45541666666</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4253,7 +4243,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.2</v>
+        <v>5.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4290,14 +4280,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 23465-2025</t>
+          <t>A 28694-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45792.43493055556</v>
+        <v>45819.88594907407</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4310,7 +4300,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4347,14 +4337,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 49820-2025</t>
+          <t>A 2286-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45940.43907407407</v>
+        <v>45673</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4366,13 +4356,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4409,14 +4394,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 49520-2025</t>
+          <t>A 30221-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45939.39337962963</v>
+        <v>45099</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4429,7 +4414,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4466,14 +4451,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 49559-2025</t>
+          <t>A 426-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45939.45946759259</v>
+        <v>44565</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4486,7 +4471,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>7.2</v>
+        <v>0.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4523,14 +4508,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 42902-2025</t>
+          <t>A 30163-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45908.67744212963</v>
+        <v>45827.32722222222</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4543,7 +4528,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4580,14 +4565,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 31264-2024</t>
+          <t>A 29912-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45503.96868055555</v>
+        <v>45826.40885416666</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4599,13 +4584,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4642,14 +4622,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 31277-2024</t>
+          <t>A 29462-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45504.39555555556</v>
+        <v>45824.69697916666</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4661,13 +4641,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>5.2</v>
+        <v>11.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4704,14 +4679,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 23776-2025</t>
+          <t>A 47771-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45793.50012731482</v>
+        <v>44854</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4724,7 +4699,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>8.1</v>
+        <v>2.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4761,14 +4736,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 51605-2025</t>
+          <t>A 9026-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45951.38592592593</v>
+        <v>45356</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4781,7 +4756,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4818,14 +4793,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 51737-2025</t>
+          <t>A 42141-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45951.59630787037</v>
+        <v>45177</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4838,7 +4813,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4875,14 +4850,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 1058-2023</t>
+          <t>A 59771-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44929</v>
+        <v>45257</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4895,7 +4870,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4932,14 +4907,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 51722-2025</t>
+          <t>A 31986-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45951.58085648148</v>
+        <v>45835.36210648148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4952,7 +4927,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4989,14 +4964,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 51553-2025</t>
+          <t>A 46434-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45950.87297453704</v>
+        <v>44846</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5009,7 +4984,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5046,14 +5021,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 29823-2025</t>
+          <t>A 33226-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45825.85599537037</v>
+        <v>44376</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5066,7 +5041,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>7.2</v>
+        <v>1.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5110,7 +5085,7 @@
         <v>45905.62662037037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5160,14 +5135,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 63980-2021</t>
+          <t>A 42902-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44509</v>
+        <v>45908.67744212963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5180,7 +5155,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5217,14 +5192,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 42990-2025</t>
+          <t>A 29823-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45909.45178240741</v>
+        <v>45825.85599537037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5237,7 +5212,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>7.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5274,14 +5249,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 24346-2025</t>
+          <t>A 42990-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45797.58045138889</v>
+        <v>45909.45178240741</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5294,7 +5269,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5331,14 +5306,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 24342-2025</t>
+          <t>A 43030-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45797.57418981481</v>
+        <v>45909</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5350,8 +5325,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5388,14 +5368,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 52842-2025</t>
+          <t>A 35755-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45957.47827546296</v>
+        <v>45532</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5408,7 +5388,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5445,14 +5425,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 52820-2025</t>
+          <t>A 32956-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45957.45483796296</v>
+        <v>45517</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5464,8 +5444,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5502,14 +5487,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 52845-2025</t>
+          <t>A 2018-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45957.48430555555</v>
+        <v>45672</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5521,8 +5506,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5559,14 +5549,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 25206-2025</t>
+          <t>A 2020-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45800.46908564815</v>
+        <v>45672</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5578,8 +5568,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5616,14 +5611,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 52835-2025</t>
+          <t>A 12425-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45957.47133101852</v>
+        <v>45730</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5636,7 +5631,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5673,14 +5668,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 43030-2025</t>
+          <t>A 43685-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45909</v>
+        <v>45912.38184027778</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5692,13 +5687,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5735,14 +5725,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 24805-2025</t>
+          <t>A 44975-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45799.4409375</v>
+        <v>45918.64300925926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5755,7 +5745,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5792,14 +5782,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 24756-2025</t>
+          <t>A 44832-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45799.37510416667</v>
+        <v>45918.406875</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5812,7 +5802,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5849,14 +5839,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 25205-2025</t>
+          <t>A 44889-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45800.46907407408</v>
+        <v>45918.49681712963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5869,7 +5859,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5906,14 +5896,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 54243-2025</t>
+          <t>A 44895-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45964.63417824074</v>
+        <v>45918.50277777778</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5926,7 +5916,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>6.7</v>
+        <v>2.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5963,14 +5953,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 43685-2025</t>
+          <t>A 1058-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45912.38184027778</v>
+        <v>44929</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5983,7 +5973,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6020,14 +6010,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 24868-2025</t>
+          <t>A 1438-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45799.48819444444</v>
+        <v>45669.68052083333</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6040,7 +6030,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.8</v>
+        <v>4.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6077,14 +6067,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 24812-2025</t>
+          <t>A 8993-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45799.44790509259</v>
+        <v>45357.55085648148</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6097,7 +6087,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6134,14 +6124,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 24856-2025</t>
+          <t>A 46501-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45799.47508101852</v>
+        <v>45582.6006712963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6154,7 +6144,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6191,14 +6181,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 24846-2025</t>
+          <t>A 36801-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45799.46851851852</v>
+        <v>45873.66607638889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6211,7 +6201,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6248,14 +6238,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 24792-2025</t>
+          <t>A 52255-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45799</v>
+        <v>45608.64011574074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6268,7 +6258,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6305,14 +6295,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 54562-2025</t>
+          <t>A 37364-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45965.66751157407</v>
+        <v>45877.32516203704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6325,7 +6315,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6362,14 +6352,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 54421-2025</t>
+          <t>A 25347-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45965.48461805555</v>
+        <v>45462</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6382,7 +6372,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>10.4</v>
+        <v>1.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6419,14 +6409,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 54570-2025</t>
+          <t>A 8935-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45965.67487268519</v>
+        <v>45713.44832175926</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6439,7 +6429,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6476,14 +6466,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 44889-2025</t>
+          <t>A 8939-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45918.49681712963</v>
+        <v>45713.4485300926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6496,7 +6486,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6533,14 +6523,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 44832-2025</t>
+          <t>A 49559-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45918.406875</v>
+        <v>45939.45946759259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6553,7 +6543,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.5</v>
+        <v>7.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6590,14 +6580,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 44975-2025</t>
+          <t>A 48859-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45918.64300925926</v>
+        <v>45937</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6610,7 +6600,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6647,14 +6637,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 44895-2025</t>
+          <t>A 48886-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45918.50277777778</v>
+        <v>45937.46611111111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6667,7 +6657,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6704,14 +6694,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 32956-2024</t>
+          <t>A 48852-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45517</v>
+        <v>45937.43040509259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6723,13 +6713,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6766,14 +6751,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 26665-2025</t>
+          <t>A 49520-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45810</v>
+        <v>45939.39337962963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6786,7 +6771,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6823,14 +6808,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 26576-2025</t>
+          <t>A 47472-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45807.68725694445</v>
+        <v>45587.5741087963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6843,7 +6828,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6880,14 +6865,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 56320-2025</t>
+          <t>A 7871-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45974.63405092592</v>
+        <v>44970</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6900,7 +6885,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6937,14 +6922,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 56329-2025</t>
+          <t>A 49371-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45974.64</v>
+        <v>45938.63061342593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6957,7 +6942,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6994,14 +6979,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 56553-2025</t>
+          <t>A 49820-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45975.48762731482</v>
+        <v>45940.43907407407</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7013,8 +6998,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7051,14 +7041,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 56513-2025</t>
+          <t>A 51553-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45975.45373842592</v>
+        <v>45950.87297453704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7071,7 +7061,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>8.5</v>
+        <v>0.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7108,14 +7098,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 28694-2025</t>
+          <t>A 18377-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45819.88594907407</v>
+        <v>45762.57496527778</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7128,7 +7118,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7165,14 +7155,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 56835-2025</t>
+          <t>A 18380-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45978.47366898148</v>
+        <v>45762.57891203704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7185,7 +7175,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7222,14 +7212,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 56966-2025</t>
+          <t>A 17981-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45978.67543981481</v>
+        <v>45419</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7242,7 +7232,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7279,14 +7269,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 56831-2025</t>
+          <t>A 25453-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45978.46716435185</v>
+        <v>45463.42144675926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7299,7 +7289,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7336,14 +7326,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 56622-2025</t>
+          <t>A 1006-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45975.60040509259</v>
+        <v>44935</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7356,7 +7346,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7393,14 +7383,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 29912-2025</t>
+          <t>A 51722-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45826.40885416666</v>
+        <v>45951.58085648148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7413,7 +7403,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7450,14 +7440,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 56833-2025</t>
+          <t>A 51605-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45978.47253472222</v>
+        <v>45951.38592592593</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7470,7 +7460,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7507,14 +7497,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 30163-2025</t>
+          <t>A 51737-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45827.32722222222</v>
+        <v>45951.59630787037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7527,7 +7517,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.3</v>
+        <v>2.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7564,14 +7554,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 58340-2024</t>
+          <t>A 15678-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45632.6391087963</v>
+        <v>45748.45042824074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7584,7 +7574,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>7.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7621,14 +7611,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 7871-2023</t>
+          <t>A 52835-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44970</v>
+        <v>45957.47133101852</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7641,7 +7631,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7678,14 +7668,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 57347-2025</t>
+          <t>A 18231-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45980.35763888889</v>
+        <v>45761.87467592592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7698,7 +7688,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>6.9</v>
+        <v>0.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7735,14 +7725,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 57448-2025</t>
+          <t>A 52845-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45980.49452546296</v>
+        <v>45957.48430555555</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7754,13 +7744,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7797,14 +7782,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 57203-2025</t>
+          <t>A 52842-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45979.58972222222</v>
+        <v>45957.47827546296</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7816,13 +7801,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>20.1</v>
+        <v>1.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7859,14 +7839,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 57424-2025</t>
+          <t>A 52820-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45980.46134259259</v>
+        <v>45957.45483796296</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7878,13 +7858,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7921,14 +7896,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 46205-2024</t>
+          <t>A 53783-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45581.54357638889</v>
+        <v>45615</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7941,7 +7916,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7978,14 +7953,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 31986-2025</t>
+          <t>A 54570-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45835.36210648148</v>
+        <v>45965.67487268519</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7998,7 +7973,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8035,14 +8010,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 58637-2025</t>
+          <t>A 54243-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45986.49008101852</v>
+        <v>45964.63417824074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8055,7 +8030,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4.4</v>
+        <v>6.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8092,14 +8067,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 46195-2024</t>
+          <t>A 54562-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45581.51873842593</v>
+        <v>45965.66751157407</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8112,7 +8087,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8149,14 +8124,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 58584-2025</t>
+          <t>A 54421-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45986.39486111111</v>
+        <v>45965.48461805555</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8169,7 +8144,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.8</v>
+        <v>10.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8206,14 +8181,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 1614-2026</t>
+          <t>A 2933-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>46034.46947916667</v>
+        <v>44581</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8226,7 +8201,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>9.1</v>
+        <v>1.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8263,14 +8238,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 1633-2026</t>
+          <t>A 52536-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>46034.49119212963</v>
+        <v>45218</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8283,7 +8258,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8320,14 +8295,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 9026-2024</t>
+          <t>A 35360-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45356</v>
+        <v>45146.52483796296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8340,7 +8315,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8377,14 +8352,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 46212-2024</t>
+          <t>A 56320-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45581.55569444445</v>
+        <v>45974.63405092592</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8397,7 +8372,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8434,14 +8409,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 57777-2023</t>
+          <t>A 2201-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45246</v>
+        <v>45673.39678240741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8454,7 +8429,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8491,14 +8466,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 59867-2025</t>
+          <t>A 56513-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45992.87564814815</v>
+        <v>45975.45373842592</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8511,7 +8486,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.3</v>
+        <v>8.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8548,14 +8523,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 12410-2025</t>
+          <t>A 56622-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45730.43505787037</v>
+        <v>45975.60040509259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8568,7 +8543,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8605,14 +8580,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 2072-2026</t>
+          <t>A 56553-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>46036.33851851852</v>
+        <v>45975.48762731482</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8625,7 +8600,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8662,14 +8637,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 36801-2025</t>
+          <t>A 56329-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45873.66607638889</v>
+        <v>45974.64</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8682,7 +8657,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8719,14 +8694,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 2774-2026</t>
+          <t>A 56831-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46038.37543981482</v>
+        <v>45978.46716435185</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8739,7 +8714,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8776,14 +8751,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 2201-2025</t>
+          <t>A 57203-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45673.39678240741</v>
+        <v>45979.58972222222</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8795,8 +8770,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>3.8</v>
+        <v>20.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8833,14 +8813,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 60533-2025</t>
+          <t>A 56833-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45995.65939814815</v>
+        <v>45978.47253472222</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8853,7 +8833,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8890,14 +8870,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 32792-2024</t>
+          <t>A 56835-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45516.55068287037</v>
+        <v>45978.47366898148</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8910,7 +8890,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8947,14 +8927,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 32809-2024</t>
+          <t>A 56966-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45516.57067129629</v>
+        <v>45978.67543981481</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8967,7 +8947,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9004,14 +8984,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 28615-2023</t>
+          <t>A 57448-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45103.59210648148</v>
+        <v>45980.49452546296</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9023,8 +9003,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>5.2</v>
+        <v>2.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9061,14 +9046,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 60619-2025</t>
+          <t>A 52536-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45996.38447916666</v>
+        <v>45609.61851851852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9081,7 +9066,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9118,14 +9103,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 2772-2026</t>
+          <t>A 57347-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>46038.37417824074</v>
+        <v>45980.35763888889</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9138,7 +9123,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9175,14 +9160,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 2496-2026</t>
+          <t>A 57424-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>46037.40002314815</v>
+        <v>45980.46134259259</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9194,8 +9179,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9232,14 +9222,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 42141-2023</t>
+          <t>A 12410-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45177</v>
+        <v>45730.43505787037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9252,7 +9242,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9289,14 +9279,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 61176-2025</t>
+          <t>A 58637-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46000.57684027778</v>
+        <v>45986.49008101852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9309,7 +9299,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>8.300000000000001</v>
+        <v>4.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9346,14 +9336,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 37364-2025</t>
+          <t>A 58584-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45877.32516203704</v>
+        <v>45986.39486111111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9366,7 +9356,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9403,14 +9393,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 61182-2025</t>
+          <t>A 34760-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46000.58409722222</v>
+        <v>45139</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9423,7 +9413,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9460,14 +9450,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 61204-2025</t>
+          <t>A 17073-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>46000.61395833334</v>
+        <v>45754</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9480,7 +9470,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9517,14 +9507,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 31133-2023</t>
+          <t>A 59867-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45103</v>
+        <v>45992.87564814815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9537,7 +9527,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9574,14 +9564,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 25347-2024</t>
+          <t>A 1633-2026</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45462</v>
+        <v>46034.49119212963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9594,7 +9584,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9631,14 +9621,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 1438-2025</t>
+          <t>A 1614-2026</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45669.68052083333</v>
+        <v>46034.46947916667</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9651,7 +9641,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.3</v>
+        <v>9.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9688,14 +9678,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 61118-2025</t>
+          <t>A 2496-2026</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>46000.46293981482</v>
+        <v>46037.40002314815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9708,7 +9698,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9745,14 +9735,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 2286-2025</t>
+          <t>A 63817-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45673</v>
+        <v>45275</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9765,7 +9755,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.7</v>
+        <v>6.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9802,14 +9792,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 3538-2026</t>
+          <t>A 2072-2026</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46042.6296412037</v>
+        <v>46036.33851851852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9822,7 +9812,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9859,14 +9849,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 61127-2025</t>
+          <t>A 60533-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46000.48337962963</v>
+        <v>45995.65939814815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9879,7 +9869,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9916,14 +9906,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 61216-2025</t>
+          <t>A 1437-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46000.62005787037</v>
+        <v>45669.67790509259</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9936,7 +9926,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4.2</v>
+        <v>11.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9973,14 +9963,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 61221-2025</t>
+          <t>A 60619-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>46000</v>
+        <v>45996.38447916666</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9993,7 +9983,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10030,14 +10020,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 61142-2025</t>
+          <t>A 39220-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>46000.51967592593</v>
+        <v>45549</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10050,7 +10040,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10087,14 +10077,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 61155-2025</t>
+          <t>A 15674-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>46000.54702546296</v>
+        <v>45748.44657407407</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10107,7 +10097,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10144,14 +10134,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 8935-2025</t>
+          <t>A 35011-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45713.44832175926</v>
+        <v>45527</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10164,7 +10154,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10201,14 +10191,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 3540-2026</t>
+          <t>A 2772-2026</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>46042.63204861111</v>
+        <v>46038.37417824074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10221,7 +10211,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.8</v>
+        <v>7.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10258,14 +10248,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 4090-2026</t>
+          <t>A 2774-2026</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46044.55434027778</v>
+        <v>46038.37543981482</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10278,7 +10268,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10315,14 +10305,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 31421-2023</t>
+          <t>A 32739-2021</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45114.60027777778</v>
+        <v>44375</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10334,13 +10324,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10377,14 +10362,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 61403-2025</t>
+          <t>A 61176-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46001.48989583334</v>
+        <v>46000.57684027778</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10397,7 +10382,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>12.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10434,14 +10419,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 32739-2021</t>
+          <t>A 61221-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44375</v>
+        <v>46000</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10454,7 +10439,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10491,14 +10476,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 31132-2023</t>
+          <t>A 3540-2026</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45103</v>
+        <v>46042.63204861111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10511,7 +10496,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10548,14 +10533,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 61158-2025</t>
+          <t>A 61216-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46000.55134259259</v>
+        <v>46000.62005787037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10568,7 +10553,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10605,14 +10590,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 4108-2026</t>
+          <t>A 29485-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46044.59416666667</v>
+        <v>45106</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10625,7 +10610,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10662,14 +10647,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 35349-2023</t>
+          <t>A 61403-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45146</v>
+        <v>46001.48989583334</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10682,7 +10667,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>5.4</v>
+        <v>12.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10719,14 +10704,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 4109-2026</t>
+          <t>A 61142-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46044.59418981482</v>
+        <v>46000.51967592593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10739,7 +10724,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>5.3</v>
+        <v>1.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10776,14 +10761,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 60640-2024</t>
+          <t>A 61155-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45644.42787037037</v>
+        <v>46000.54702546296</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10795,13 +10780,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10838,14 +10818,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 47976-2022</t>
+          <t>A 61158-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44853</v>
+        <v>46000.55134259259</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10858,7 +10838,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10895,14 +10875,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 63981-2021</t>
+          <t>A 60033-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44509</v>
+        <v>45642.46236111111</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10915,7 +10895,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.7</v>
+        <v>5.3</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10952,14 +10932,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 4870-2026</t>
+          <t>A 61182-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46048.6465625</v>
+        <v>46000.58409722222</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10972,7 +10952,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11009,14 +10989,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 4081-2026</t>
+          <t>A 61204-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46044</v>
+        <v>46000.61395833334</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11029,7 +11009,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11066,14 +11046,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 44319-2023</t>
+          <t>A 61127-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45183</v>
+        <v>46000.48337962963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11086,7 +11066,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11123,14 +11103,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 3584-2025</t>
+          <t>A 3538-2026</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45680.78527777778</v>
+        <v>46042.6296412037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11143,7 +11123,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11180,14 +11160,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 33226-2021</t>
+          <t>A 61118-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44376</v>
+        <v>46000.46293981482</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11200,7 +11180,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11237,14 +11217,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 4685-2026</t>
+          <t>A 4109-2026</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46048.43700231481</v>
+        <v>46044.59418981482</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11257,7 +11237,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11294,14 +11274,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 18380-2025</t>
+          <t>A 31132-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45762.57891203704</v>
+        <v>45103</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11314,7 +11294,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11351,14 +11331,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 18231-2025</t>
+          <t>A 35349-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45761.87467592592</v>
+        <v>45146</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11371,7 +11351,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.8</v>
+        <v>5.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11408,14 +11388,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 62787-2025</t>
+          <t>A 4090-2026</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46008.61939814815</v>
+        <v>46044.55434027778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11428,7 +11408,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>4.9</v>
+        <v>0.2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11465,14 +11445,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 20228-2023</t>
+          <t>A 4108-2026</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45055</v>
+        <v>46044.59416666667</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11485,7 +11465,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11522,14 +11502,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 31839-2024</t>
+          <t>A 4676-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45509.65498842593</v>
+        <v>44953</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11541,13 +11521,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11584,14 +11559,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 63289-2025</t>
+          <t>A 4081-2026</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>46010.59076388889</v>
+        <v>46044</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11604,7 +11579,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11641,14 +11616,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 63160-2025</t>
+          <t>A 13762-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46010.37174768518</v>
+        <v>45737.43103009259</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11661,7 +11636,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11698,14 +11673,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 22002-2023</t>
+          <t>A 4870-2026</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45068.92707175926</v>
+        <v>46048.6465625</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11718,7 +11693,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11755,14 +11730,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 29476-2023</t>
+          <t>A 21041-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45106.57149305556</v>
+        <v>45439.666875</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11775,7 +11750,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11812,14 +11787,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 29485-2023</t>
+          <t>A 62787-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45106</v>
+        <v>46008.61939814815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11832,7 +11807,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11869,14 +11844,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 63447-2025</t>
+          <t>A 16471-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46013.4020949074</v>
+        <v>45751.54825231482</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11888,13 +11863,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>21.4</v>
+        <v>2.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11931,14 +11901,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 63574-2025</t>
+          <t>A 4685-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46013.66307870371</v>
+        <v>46048.43700231481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11951,7 +11921,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11988,14 +11958,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 42317-2023</t>
+          <t>A 6179-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45175</v>
+        <v>45698.44835648148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12008,7 +11978,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.3</v>
+        <v>4.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12045,14 +12015,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 42327-2023</t>
+          <t>A 62553-2021</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45175</v>
+        <v>44501</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12065,7 +12035,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3.4</v>
+        <v>10.2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12102,14 +12072,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 9039-2024</t>
+          <t>A 2942-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45356</v>
+        <v>45678.39038194445</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12122,7 +12092,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12159,14 +12129,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 55173-2023</t>
+          <t>A 63574-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45237</v>
+        <v>46013.66307870371</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12179,7 +12149,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12216,14 +12186,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 54793-2023</t>
+          <t>A 63160-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45229</v>
+        <v>46010.37174768518</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12236,7 +12206,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12273,14 +12243,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 7426-2026</t>
+          <t>A 63289-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46059.4309375</v>
+        <v>46010.59076388889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12293,7 +12263,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12330,14 +12300,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 35734-2024</t>
+          <t>A 63447-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45532</v>
+        <v>46013.4020949074</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12349,8 +12319,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>2.7</v>
+        <v>21.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12387,14 +12362,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 64966-2023</t>
+          <t>A 56258-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45283</v>
+        <v>45624.64472222222</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12407,7 +12382,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12444,14 +12419,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 35006-2024</t>
+          <t>A 56262-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45527</v>
+        <v>45624.65004629629</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12464,7 +12439,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12501,14 +12476,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 7874-2026</t>
+          <t>A 52531-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46063.11611111111</v>
+        <v>45609.61578703704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12521,7 +12496,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12558,14 +12533,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 7875-2026</t>
+          <t>A 52533-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>46063.11847222222</v>
+        <v>45609.61697916667</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12578,7 +12553,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12615,14 +12590,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 8697-2026</t>
+          <t>A 29573-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46066.45375</v>
+        <v>45098</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12635,7 +12610,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12672,14 +12647,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 8516-2026</t>
+          <t>A 46726-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>46065.57530092593</v>
+        <v>45583.46103009259</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12692,7 +12667,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12729,14 +12704,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 9250-2026</t>
+          <t>A 64966-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>46070.50366898148</v>
+        <v>45283</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12749,7 +12724,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12786,14 +12761,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 35011-2024</t>
+          <t>A 28347-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45527</v>
+        <v>44747.45532407407</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12806,7 +12781,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12843,14 +12818,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 9525-2026</t>
+          <t>A 7426-2026</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>46071.60148148148</v>
+        <v>46059.4309375</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12863,7 +12838,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12900,14 +12875,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 686-2026</t>
+          <t>A 31839-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>46029.60719907407</v>
+        <v>45509.65498842593</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12919,8 +12894,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12957,14 +12937,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 862-2026</t>
+          <t>A 19734-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46030.42516203703</v>
+        <v>45771.36695601852</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12974,6 +12954,11 @@
       <c r="E209" t="inlineStr">
         <is>
           <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G209" t="n">
@@ -13014,14 +12999,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 27110-2024</t>
+          <t>A 7874-2026</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45471.50009259259</v>
+        <v>46063.11611111111</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13034,7 +13019,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13071,14 +13056,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 8939-2025</t>
+          <t>A 7875-2026</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45713.4485300926</v>
+        <v>46063.11847222222</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13091,7 +13076,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13128,14 +13113,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 35360-2023</t>
+          <t>A 35123-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45146.52483796296</v>
+        <v>45145.50380787037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13147,8 +13132,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13185,14 +13175,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 35123-2023</t>
+          <t>A 8516-2026</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45145.50380787037</v>
+        <v>46065.57530092593</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13204,13 +13194,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13247,14 +13232,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 46726-2024</t>
+          <t>A 8697-2026</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45583.46103009259</v>
+        <v>46066.45375</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13267,7 +13252,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13304,14 +13289,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 46501-2024</t>
+          <t>A 10533-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45582.6006712963</v>
+        <v>44987.92349537037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13324,7 +13309,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13361,14 +13346,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 31867-2023</t>
+          <t>A 63980-2021</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45118.61844907407</v>
+        <v>44509</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13381,7 +13366,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13418,14 +13403,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 33319-2023</t>
+          <t>A 9525-2026</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45127.88890046296</v>
+        <v>46071.60148148148</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13438,7 +13423,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13475,14 +13460,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 17981-2024</t>
+          <t>A 17582-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45419</v>
+        <v>45415</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13495,7 +13480,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13532,14 +13517,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 45899-2024</t>
+          <t>A 55444-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45580.43047453704</v>
+        <v>45231</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13551,13 +13536,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G219" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13594,14 +13574,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 31817-2024</t>
+          <t>A 686-2026</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45509</v>
+        <v>46029.60719907407</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13614,7 +13594,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13651,14 +13631,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 52531-2024</t>
+          <t>A 9250-2026</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45609.61578703704</v>
+        <v>46070.50366898148</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13671,7 +13651,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13708,14 +13688,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 52533-2024</t>
+          <t>A 55173-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45609.61697916667</v>
+        <v>45237</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13728,7 +13708,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13765,14 +13745,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 8940-2025</t>
+          <t>A 31817-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45713.44855324074</v>
+        <v>45509</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13785,7 +13765,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13822,14 +13802,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 21041-2024</t>
+          <t>A 862-2026</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45439.666875</v>
+        <v>46030.42516203703</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13842,7 +13822,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13879,14 +13859,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 59716-2024</t>
+          <t>A 31699-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45639.45857638889</v>
+        <v>45508.61318287037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13898,8 +13878,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G225" t="n">
-        <v>5.8</v>
+        <v>2.8</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13936,14 +13921,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 50413-2024</t>
+          <t>A 63981-2021</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45601.37128472222</v>
+        <v>44509</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13955,13 +13940,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>23.4</v>
+        <v>2.7</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13998,14 +13978,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 47-2025</t>
+          <t>A 46195-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45659</v>
+        <v>45581.51873842593</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14018,7 +13998,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14055,14 +14035,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 13762-2025</t>
+          <t>A 46205-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45737.43103009259</v>
+        <v>45581.54357638889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14075,7 +14055,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14112,14 +14092,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 29573-2023</t>
+          <t>A 35006-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45098</v>
+        <v>45527</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14132,7 +14112,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>5.3</v>
+        <v>0.8</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14169,14 +14149,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 21135-2024</t>
+          <t>A 29476-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45440</v>
+        <v>45106.57149305556</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14188,13 +14168,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14231,14 +14206,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 2942-2025</t>
+          <t>A 31867-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45678.39038194445</v>
+        <v>45118.61844907407</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14251,7 +14226,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14288,14 +14263,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 6179-2025</t>
+          <t>A 31869-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45698.44835648148</v>
+        <v>45118.62401620371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14308,7 +14283,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>4.9</v>
+        <v>2.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14345,14 +14320,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 55444-2023</t>
+          <t>A 9086-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45231</v>
+        <v>44979</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14365,7 +14340,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14402,14 +14377,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 2933-2022</t>
+          <t>A 27110-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44581</v>
+        <v>45471.50009259259</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14422,7 +14397,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14459,14 +14434,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 17582-2024</t>
+          <t>A 22193-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45415</v>
+        <v>45069</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14479,7 +14454,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14516,14 +14491,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 44295-2023</t>
+          <t>A 35557-2021</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45188.64064814815</v>
+        <v>44385</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14536,7 +14511,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14573,14 +14548,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 59253-2024</t>
+          <t>A 10440-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45637.59724537037</v>
+        <v>44987</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14593,7 +14568,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14630,14 +14605,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 30221-2023</t>
+          <t>A 45899-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45099</v>
+        <v>45580.43047453704</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14649,8 +14624,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G238" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14687,14 +14667,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 59771-2023</t>
+          <t>A 21135-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45257</v>
+        <v>45440</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14706,8 +14686,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14744,14 +14729,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 16471-2025</t>
+          <t>A 13758-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45751.54825231482</v>
+        <v>45390.92747685185</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14764,7 +14749,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14801,14 +14786,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 47771-2022</t>
+          <t>A 8938-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44854</v>
+        <v>45713.44842592593</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14821,7 +14806,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14858,14 +14843,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 8993-2024</t>
+          <t>A 32785-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45357.55085648148</v>
+        <v>45516.53230324074</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14878,7 +14863,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.4</v>
+        <v>5.3</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14915,14 +14900,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 19734-2025</t>
+          <t>A 32792-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45771.36695601852</v>
+        <v>45516.55068287037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14934,13 +14919,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G243" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14977,14 +14957,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 28367-2022</t>
+          <t>A 46212-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44747</v>
+        <v>45581.55569444445</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14997,7 +14977,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15034,14 +15014,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 17073-2025</t>
+          <t>A 39185-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45754</v>
+        <v>45548</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15054,7 +15034,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15091,14 +15071,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 28347-2022</t>
+          <t>A 60640-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44747.45532407407</v>
+        <v>45644.42787037037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15110,8 +15090,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G246" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15155,7 +15140,7 @@
         <v>45259</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15205,14 +15190,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 39220-2024</t>
+          <t>A 59716-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45549</v>
+        <v>45639.45857638889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15225,7 +15210,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.4</v>
+        <v>5.8</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15262,14 +15247,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 35557-2021</t>
+          <t>A 27530-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44385</v>
+        <v>45474.56820601852</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15281,8 +15266,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G249" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15319,14 +15309,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 15409-2021</t>
+          <t>A 19786-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44285</v>
+        <v>45771.44086805556</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15338,8 +15328,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G250" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15376,14 +15371,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 19100-2022</t>
+          <t>A 44295-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44691.52804398148</v>
+        <v>45188.64064814815</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15396,7 +15391,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15433,14 +15428,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 22193-2023</t>
+          <t>A 28367-2022</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45069</v>
+        <v>44747</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15453,7 +15448,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15490,14 +15485,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 846-2022</t>
+          <t>A 20432-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44571</v>
+        <v>45775.47893518519</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15510,7 +15505,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15547,14 +15542,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 16782-2024</t>
+          <t>A 38956-2022</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45411</v>
+        <v>44816</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15567,7 +15562,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15604,14 +15599,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 32785-2024</t>
+          <t>A 42317-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45516.53230324074</v>
+        <v>45175</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15624,7 +15619,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>5.3</v>
+        <v>1.3</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15661,14 +15656,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 1006-2023</t>
+          <t>A 42327-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44935</v>
+        <v>45175</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15681,7 +15676,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15718,14 +15713,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 31869-2023</t>
+          <t>A 8940-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45118.62401620371</v>
+        <v>45713.44855324074</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15738,7 +15733,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15775,14 +15770,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 31699-2024</t>
+          <t>A 9039-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45508.61318287037</v>
+        <v>45356</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15794,13 +15789,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G258" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15837,14 +15827,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 12425-2025</t>
+          <t>A 44319-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45730</v>
+        <v>45183</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15857,7 +15847,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15894,14 +15884,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 56258-2024</t>
+          <t>A 8937-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45624.64472222222</v>
+        <v>45713.44841435185</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15914,7 +15904,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15951,14 +15941,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 56262-2024</t>
+          <t>A 31865-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45624.65004629629</v>
+        <v>45118.61383101852</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15971,7 +15961,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16008,14 +15998,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 62553-2021</t>
+          <t>A 20640-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44501</v>
+        <v>45776.37438657408</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16028,7 +16018,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>10.2</v>
+        <v>5.2</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16065,14 +16055,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 18377-2025</t>
+          <t>A 21435-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45762.57496527778</v>
+        <v>45782.51766203704</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16085,7 +16075,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16122,14 +16112,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 25453-2024</t>
+          <t>A 21437-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45463.42144675926</v>
+        <v>45782.52001157407</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16142,7 +16132,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16179,14 +16169,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 52255-2024</t>
+          <t>A 21361-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45608.64011574074</v>
+        <v>45782.43983796296</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16199,7 +16189,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16236,14 +16226,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 39185-2024</t>
+          <t>A 21615-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45548</v>
+        <v>45783.40077546296</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16255,8 +16245,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G266" t="n">
-        <v>1.6</v>
+        <v>5.4</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16293,14 +16288,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 63817-2023</t>
+          <t>A 45126-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45275</v>
+        <v>45187</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16313,7 +16308,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>6.7</v>
+        <v>1</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16350,14 +16345,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 19786-2025</t>
+          <t>A 23101-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45771.44086805556</v>
+        <v>45791.35427083333</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16375,7 +16370,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16412,14 +16407,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 60646-2024</t>
+          <t>A 23205-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45644.4325462963</v>
+        <v>45791.46658564815</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16437,7 +16432,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16474,14 +16469,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 8937-2025</t>
+          <t>A 22900-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45713.44841435185</v>
+        <v>45790.41079861111</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16491,6 +16486,11 @@
       <c r="E270" t="inlineStr">
         <is>
           <t>VÄNNÄS</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
         </is>
       </c>
       <c r="G270" t="n">
@@ -16531,14 +16531,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 8938-2025</t>
+          <t>A 23567-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45713.44842592593</v>
+        <v>45792.60107638889</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16588,14 +16588,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 35354-2023</t>
+          <t>A 23462-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45146</v>
+        <v>45792.43016203704</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16645,14 +16645,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 10533-2023</t>
+          <t>A 23776-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44987.92349537037</v>
+        <v>45793.50012731482</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>3</v>
+        <v>8.1</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16702,14 +16702,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 34760-2023</t>
+          <t>A 23453-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45139</v>
+        <v>45792.42302083333</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16721,8 +16721,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G274" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16759,14 +16764,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 53783-2024</t>
+          <t>A 23465-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45615</v>
+        <v>45792.43493055556</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16779,7 +16784,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16816,14 +16821,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 10440-2023</t>
+          <t>A 24342-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44987</v>
+        <v>45797.57418981481</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16836,7 +16841,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16873,14 +16878,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 17409-2025</t>
+          <t>A 24346-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45757.36844907407</v>
+        <v>45797.58045138889</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16893,7 +16898,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16930,14 +16935,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 17414-2025</t>
+          <t>A 24756-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45757</v>
+        <v>45799.37510416667</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16950,7 +16955,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16987,14 +16992,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 20432-2025</t>
+          <t>A 24846-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45775.47893518519</v>
+        <v>45799.46851851852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17044,14 +17049,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 35737-2024</t>
+          <t>A 24805-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45532</v>
+        <v>45799.4409375</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17064,7 +17069,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17101,14 +17106,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 35755-2024</t>
+          <t>A 24812-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45532</v>
+        <v>45799.44790509259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17121,7 +17126,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17158,14 +17163,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 35771-2024</t>
+          <t>A 24792-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45532</v>
+        <v>45799</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17178,7 +17183,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17215,14 +17220,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 27530-2024</t>
+          <t>A 24868-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45474.56820601852</v>
+        <v>45799.48819444444</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17234,13 +17239,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G283" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17277,14 +17277,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 9086-2023</t>
+          <t>A 24856-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>44979</v>
+        <v>45799.47508101852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17297,7 +17297,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17334,14 +17334,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 4676-2023</t>
+          <t>A 25205-2025</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>44953</v>
+        <v>45800.46907407408</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17391,14 +17391,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 28337-2022</t>
+          <t>A 25206-2025</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>44747.42982638889</v>
+        <v>45800.46908564815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17448,14 +17448,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 47472-2024</t>
+          <t>A 26576-2025</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45587.5741087963</v>
+        <v>45807.68725694445</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17505,14 +17505,14 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 15678-2025</t>
+          <t>A 26665-2025</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45748.45042824074</v>
+        <v>45810</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>7.1</v>
+        <v>1.5</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>

--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -575,7 +575,7 @@
         <v>45796</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>44503.35390046296</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45943.38998842592</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45771.42275462963</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>45783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>46007.44545138889</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>46031.65877314815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         <v>45447.89238425926</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>46013.66015046297</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>45698.44841435185</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45979.59435185185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>46000.62998842593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>46007.44689814815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>46010.37401620371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44452</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>44355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>44651</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>44565.92820601852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44265</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44524.54244212963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>44446</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>44854.92494212963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>44565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44610</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44524.5028587963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>45229</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>45632.6391087963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>45068.92707175926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>44285</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>45532</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>45532</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>45411</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>45601.37128472222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>44571</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>45103</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>45127.88890046296</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>45114.60027777778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44747.42982638889</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>45055</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>45532</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>45644.4325462963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45757.36844907407</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45757</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44853</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44691.52804398148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>45503.96868055555</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>45504.39555555556</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>45516.57067129629</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>45146</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45659</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>45103.59210648148</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>45246</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>45637.59724537037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>45680.78527777778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45884.45541666666</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45819.88594907407</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45673</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>45099</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>44565</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>45827.32722222222</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>45826.40885416666</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>45824.69697916666</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>44854</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45356</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>45177</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>45257</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45835.36210648148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>44846</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>44376</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45905.62662037037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45908.67744212963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>45825.85599537037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>45909.45178240741</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>45909</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>45532</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>45517</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>45672</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>45672</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>45730</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>45912.38184027778</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>45918.64300925926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>45918.406875</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>45918.49681712963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>45918.50277777778</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         <v>44929</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>45669.68052083333</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>45357.55085648148</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>45582.6006712963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>45873.66607638889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>45608.64011574074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>45877.32516203704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         <v>45462</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>45713.44832175926</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>45713.4485300926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>45939.45946759259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>45937</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>45937.46611111111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>45937.43040509259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>45939.39337962963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>45587.5741087963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>44970</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>45938.63061342593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>45940.43907407407</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>45950.87297453704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>45762.57496527778</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>45762.57891203704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>45419</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>45463.42144675926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44935</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>45951.58085648148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>45951.38592592593</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>45951.59630787037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>45748.45042824074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>45957.47133101852</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>45761.87467592592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>45957.48430555555</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>45957.47827546296</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>45957.45483796296</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>45615</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>45965.67487268519</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>45964.63417824074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>45965.66751157407</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>45965.48461805555</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>44581</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>45218</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>45146.52483796296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>45974.63405092592</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>45673.39678240741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>45975.45373842592</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>45975.60040509259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>45975.48762731482</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>45974.64</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45978.46716435185</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>45979.58972222222</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>45978.47253472222</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>45978.47366898148</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45978.67543981481</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>45980.49452546296</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
         <v>45609.61851851852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9110,7 +9110,7 @@
         <v>45980.35763888889</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9167,7 +9167,7 @@
         <v>45980.46134259259</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>45730.43505787037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>45986.49008101852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>45986.39486111111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>45139</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>45754</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>45992.87564814815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>46034.49119212963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>46034.46947916667</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>46037.40002314815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>45275</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>46036.33851851852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>45995.65939814815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>45669.67790509259</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>45996.38447916666</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>45549</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>45748.44657407407</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>45527</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>46038.37417824074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>46038.37543981482</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>44375</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>46000.57684027778</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>46000</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>46042.63204861111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>46000.62005787037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>45106</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>46001.48989583334</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>46000.51967592593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>46000.54702546296</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>46000.55134259259</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>45642.46236111111</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>46000.58409722222</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>46000.61395833334</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>46000.48337962963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>46042.6296412037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>46000.46293981482</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>46044.59418981482</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>45103</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>45146</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>46044.55434027778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>46044.59416666667</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44953</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>46044</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>45737.43103009259</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>46048.6465625</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>45439.666875</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>46008.61939814815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>45751.54825231482</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>46048.43700231481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>45698.44835648148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44501</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>45678.39038194445</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>46013.66307870371</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>46010.37174768518</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>46010.59076388889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>46013.4020949074</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>45624.64472222222</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>45624.65004629629</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>45609.61578703704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>45609.61697916667</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>45098</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>45583.46103009259</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>45283</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>44747.45532407407</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>46059.4309375</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>45509.65498842593</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>45771.36695601852</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>46063.11611111111</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>46063.11847222222</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>45145.50380787037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>46065.57530092593</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>46066.45375</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44987.92349537037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44509</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>46071.60148148148</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>45415</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>45231</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>46029.60719907407</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>46070.50366898148</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>45237</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>45509</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>46030.42516203703</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>45508.61318287037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44509</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45581.51873842593</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>45581.54357638889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>45527</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>45106.57149305556</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>45118.61844907407</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>45118.62401620371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44979</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>45471.50009259259</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>45069</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44385</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44987</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>45580.43047453704</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>45440</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>45390.92747685185</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>45713.44842592593</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>45516.53230324074</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>45516.55068287037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14964,7 +14964,7 @@
         <v>45581.55569444445</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>45548</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>45644.42787037037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>45259</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>45639.45857638889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>45474.56820601852</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>45771.44086805556</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45188.64064814815</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44747</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>45775.47893518519</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44816</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>45175</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>45175</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>45713.44855324074</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>45356</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>45183</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>45713.44841435185</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>45118.61383101852</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>45776.37438657408</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>45782.51766203704</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>45782.52001157407</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>45782.43983796296</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>45783.40077546296</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>45187</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>45791.35427083333</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>45791.46658564815</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>45790.41079861111</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>45792.60107638889</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>45792.43016203704</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>45793.50012731482</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>45792.42302083333</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16771,7 +16771,7 @@
         <v>45792.43493055556</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16828,7 +16828,7 @@
         <v>45797.57418981481</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>45797.58045138889</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>45799.37510416667</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>45799.46851851852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>45799.4409375</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>45799.44790509259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>45799</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>45799.48819444444</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>45799.47508101852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>45800.46907407408</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>45800.46908564815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>45807.68725694445</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>45810</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>

--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -575,7 +575,7 @@
         <v>45796</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>44503.35390046296</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45943.38998842592</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45771.42275462963</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>45783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>46007.44545138889</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>46031.65877314815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         <v>45447.89238425926</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>46013.66015046297</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>45698.44841435185</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45979.59435185185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>46000.62998842593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>46007.44689814815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>46010.37401620371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44452</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>44355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>44651</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>44565.92820601852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>44265</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44524.54244212963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>44446</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>44854.92494212963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>44565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44610</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44524.5028587963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>45229</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>45632.6391087963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>45068.92707175926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>44285</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>45532</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>45532</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>45411</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>45601.37128472222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>44571</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>45103</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>45127.88890046296</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>45114.60027777778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44747.42982638889</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>45055</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>45532</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>45644.4325462963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45757.36844907407</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45757</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44853</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44691.52804398148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>45503.96868055555</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>45504.39555555556</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>45516.57067129629</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>45146</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45659</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>45103.59210648148</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>45246</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>45637.59724537037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>45680.78527777778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>45884.45541666666</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45819.88594907407</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45673</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>45099</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>44565</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>45827.32722222222</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>45826.40885416666</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>45824.69697916666</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>44854</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>45356</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>45177</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>45257</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45835.36210648148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>44846</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>44376</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45905.62662037037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45908.67744212963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>45825.85599537037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>45909.45178240741</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>45909</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>45532</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>45517</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>45672</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>45672</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>45730</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>45912.38184027778</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>45918.64300925926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>45918.406875</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>45918.49681712963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>45918.50277777778</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         <v>44929</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>45669.68052083333</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>45357.55085648148</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>45582.6006712963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>45873.66607638889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>45608.64011574074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>45877.32516203704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         <v>45462</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>45713.44832175926</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>45713.4485300926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>45939.45946759259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>45937</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>45937.46611111111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>45937.43040509259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>45939.39337962963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>45587.5741087963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>44970</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>45938.63061342593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>45940.43907407407</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>45950.87297453704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>45762.57496527778</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>45762.57891203704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>45419</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>45463.42144675926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44935</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>45951.58085648148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>45951.38592592593</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>45951.59630787037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>45748.45042824074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>45957.47133101852</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>45761.87467592592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>45957.48430555555</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>45957.47827546296</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>45957.45483796296</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>45615</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>45965.67487268519</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>45964.63417824074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         <v>45965.66751157407</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>45965.48461805555</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         <v>44581</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         <v>45218</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>45146.52483796296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>45974.63405092592</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>45673.39678240741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>45975.45373842592</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>45975.60040509259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>45975.48762731482</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>45974.64</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45978.46716435185</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>45979.58972222222</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>45978.47253472222</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>45978.47366898148</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45978.67543981481</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>45980.49452546296</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9053,7 +9053,7 @@
         <v>45609.61851851852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9110,7 +9110,7 @@
         <v>45980.35763888889</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9167,7 +9167,7 @@
         <v>45980.46134259259</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>45730.43505787037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>45986.49008101852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>45986.39486111111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>45139</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>45754</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>45992.87564814815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>46034.49119212963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>46034.46947916667</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>46037.40002314815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>45275</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>46036.33851851852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>45995.65939814815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>45669.67790509259</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>45996.38447916666</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>45549</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>45748.44657407407</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>45527</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>46038.37417824074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>46038.37543981482</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>44375</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>46000.57684027778</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>46000</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>46042.63204861111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>46000.62005787037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>45106</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>46001.48989583334</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>46000.51967592593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>46000.54702546296</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>46000.55134259259</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>45642.46236111111</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>46000.58409722222</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>46000.61395833334</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>46000.48337962963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>46042.6296412037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>46000.46293981482</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>46044.59418981482</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>45103</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>45146</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>46044.55434027778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>46044.59416666667</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44953</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>46044</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>45737.43103009259</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>46048.6465625</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>45439.666875</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>46008.61939814815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>45751.54825231482</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>46048.43700231481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>45698.44835648148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44501</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>45678.39038194445</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>46013.66307870371</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>46010.37174768518</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>46010.59076388889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>46013.4020949074</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>45624.64472222222</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>45624.65004629629</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>45609.61578703704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>45609.61697916667</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>45098</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>45583.46103009259</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>45283</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>44747.45532407407</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>46059.4309375</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>45509.65498842593</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>45771.36695601852</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>46063.11611111111</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>46063.11847222222</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         <v>45145.50380787037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>46065.57530092593</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>46066.45375</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44987.92349537037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44509</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>46071.60148148148</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>45415</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>45231</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>46029.60719907407</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>46070.50366898148</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>45237</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>45509</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>46030.42516203703</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>45508.61318287037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44509</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45581.51873842593</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>45581.54357638889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>45527</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>45106.57149305556</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>45118.61844907407</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>45118.62401620371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44979</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>45471.50009259259</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>45069</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44385</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44987</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>45580.43047453704</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>45440</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>45390.92747685185</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>45713.44842592593</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14850,7 +14850,7 @@
         <v>45516.53230324074</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14907,7 +14907,7 @@
         <v>45516.55068287037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14964,7 +14964,7 @@
         <v>45581.55569444445</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>45548</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>45644.42787037037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>45259</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>45639.45857638889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>45474.56820601852</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>45771.44086805556</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45188.64064814815</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44747</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>45775.47893518519</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44816</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>45175</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>45175</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>45713.44855324074</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>45356</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>45183</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>45713.44841435185</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>45118.61383101852</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>45776.37438657408</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>45782.51766203704</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>45782.52001157407</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>45782.43983796296</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>45783.40077546296</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>45187</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>45791.35427083333</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>45791.46658564815</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>45790.41079861111</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>45792.60107638889</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>45792.43016203704</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>45793.50012731482</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>45792.42302083333</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16771,7 +16771,7 @@
         <v>45792.43493055556</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16828,7 +16828,7 @@
         <v>45797.57418981481</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>45797.58045138889</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>45799.37510416667</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>45799.46851851852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>45799.4409375</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>45799.44790509259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>45799</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>45799.48819444444</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>45799.47508101852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>45800.46907407408</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>45800.46908564815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>45807.68725694445</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>45810</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>

--- a/Översikt VÄNNÄS.xlsx
+++ b/Översikt VÄNNÄS.xlsx
@@ -575,7 +575,7 @@
         <v>45796</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>44503.35390046296</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45943.38998842592</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45771.42275462963</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>45783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>46007.44545138889</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>46031.65877314815</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         <v>45447.89238425926</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>46013.66015046297</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>45698.44841435185</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45979.59435185185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>46000.62998842593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>46007.44689814815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>46010.37401620371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44452</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>44355</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>44454</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2032,14 +2032,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 14222-2022</t>
+          <t>A 427-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44651</v>
+        <v>44565.92820601852</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2089,14 +2089,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 427-2022</t>
+          <t>A 11989-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44565.92820601852</v>
+        <v>44265</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2146,14 +2146,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 11989-2021</t>
+          <t>A 67534-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44265</v>
+        <v>44524.54244212963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>9.800000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2203,14 +2203,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 67534-2021</t>
+          <t>A 46950-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44524.54244212963</v>
+        <v>44446</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2260,14 +2260,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 46950-2021</t>
+          <t>A 14222-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44446</v>
+        <v>44651</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>44854.92494212963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>44565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44610</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2488,14 +2488,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 67514-2021</t>
+          <t>A 1437-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44524.5028587963</v>
+        <v>45669.67790509259</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.7</v>
+        <v>11.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2545,14 +2545,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 54793-2023</t>
+          <t>A 67514-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45229</v>
+        <v>44524.5028587963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2602,14 +2602,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 58340-2024</t>
+          <t>A 52536-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45632.6391087963</v>
+        <v>45218</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2659,14 +2659,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 22002-2023</t>
+          <t>A 2201-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45068.92707175926</v>
+        <v>45673.39678240741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2716,14 +2716,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 15409-2021</t>
+          <t>A 38956-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44285</v>
+        <v>44816</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2773,14 +2773,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 35737-2024</t>
+          <t>A 15674-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45532</v>
+        <v>45748.44657407407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2830,14 +2830,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 35771-2024</t>
+          <t>A 32792-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45532</v>
+        <v>45516.55068287037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2887,14 +2887,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 16782-2024</t>
+          <t>A 32809-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45411</v>
+        <v>45516.57067129629</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2944,14 +2944,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 50413-2024</t>
+          <t>A 28615-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45601.37128472222</v>
+        <v>45103.59210648148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2963,13 +2963,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>23.4</v>
+        <v>5.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3006,14 +3001,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 846-2022</t>
+          <t>A 42141-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44571</v>
+        <v>45177</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3026,7 +3021,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3070,7 +3065,7 @@
         <v>45103</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3120,14 +3115,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 33319-2023</t>
+          <t>A 1438-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45127.88890046296</v>
+        <v>45669.68052083333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3140,7 +3135,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3177,14 +3172,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 31421-2023</t>
+          <t>A 13758-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45114.60027777778</v>
+        <v>45390.92747685185</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3196,13 +3191,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>5.8</v>
+        <v>3.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3239,14 +3229,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 28337-2022</t>
+          <t>A 46434-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44747.42982638889</v>
+        <v>44846</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3259,7 +3249,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3296,14 +3286,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 20228-2023</t>
+          <t>A 2286-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45055</v>
+        <v>45673</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3353,14 +3343,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 35734-2024</t>
+          <t>A 58340-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45532</v>
+        <v>45632.6391087963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3373,7 +3363,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3410,14 +3400,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 60646-2024</t>
+          <t>A 7871-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45644.4325462963</v>
+        <v>44970</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3429,13 +3419,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3472,14 +3457,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 17409-2025</t>
+          <t>A 18231-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45757.36844907407</v>
+        <v>45761.87467592592</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3492,7 +3477,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3529,14 +3514,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 17414-2025</t>
+          <t>A 8935-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45757</v>
+        <v>45713.44832175926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3549,7 +3534,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3586,14 +3571,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 47976-2022</t>
+          <t>A 20228-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44853</v>
+        <v>45055</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3606,7 +3591,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3643,14 +3628,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 19100-2022</t>
+          <t>A 31421-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44691.52804398148</v>
+        <v>45114.60027777778</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,8 +3647,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>1.2</v>
+        <v>5.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3700,14 +3690,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 31264-2024</t>
+          <t>A 31839-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45503.96868055555</v>
+        <v>45509.65498842593</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3725,7 +3715,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3762,14 +3752,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 31277-2024</t>
+          <t>A 32739-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45504.39555555556</v>
+        <v>44375</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3781,13 +3771,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>5.2</v>
+        <v>2.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3824,14 +3809,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 32809-2024</t>
+          <t>A 46205-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45516.57067129629</v>
+        <v>45581.54357638889</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3844,7 +3829,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3881,14 +3866,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 35354-2023</t>
+          <t>A 22002-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45146</v>
+        <v>45068.92707175926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3901,7 +3886,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3938,14 +3923,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 47-2025</t>
+          <t>A 29476-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45659</v>
+        <v>45106.57149305556</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3958,7 +3943,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3995,14 +3980,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 28615-2023</t>
+          <t>A 60640-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45103.59210648148</v>
+        <v>45644.42787037037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4014,8 +3999,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>5.2</v>
+        <v>0.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4052,14 +4042,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 57777-2023</t>
+          <t>A 29485-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45246</v>
+        <v>45106</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4072,7 +4062,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4109,14 +4099,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 59253-2024</t>
+          <t>A 47976-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45637.59724537037</v>
+        <v>44853</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4129,7 +4119,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4166,14 +4156,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 3584-2025</t>
+          <t>A 46195-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45680.78527777778</v>
+        <v>45581.51873842593</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4186,7 +4176,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4223,14 +4213,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 38566-2025</t>
+          <t>A 63981-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45884.45541666666</v>
+        <v>44509</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4243,7 +4233,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4280,14 +4270,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 28694-2025</t>
+          <t>A 44319-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45819.88594907407</v>
+        <v>45183</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4300,7 +4290,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4337,14 +4327,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 2286-2025</t>
+          <t>A 3584-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45673</v>
+        <v>45680.78527777778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4357,7 +4347,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4394,14 +4384,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 30221-2023</t>
+          <t>A 33226-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45099</v>
+        <v>44376</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4414,7 +4404,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4451,14 +4441,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 426-2022</t>
+          <t>A 18380-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44565</v>
+        <v>45762.57891203704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4471,7 +4461,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4508,14 +4498,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 30163-2025</t>
+          <t>A 42317-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45827.32722222222</v>
+        <v>45175</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4528,7 +4518,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4565,14 +4555,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 29912-2025</t>
+          <t>A 42327-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45826.40885416666</v>
+        <v>45175</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4585,7 +4575,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4622,14 +4612,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 29462-2025</t>
+          <t>A 35011-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45824.69697916666</v>
+        <v>45527</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4642,7 +4632,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>11.1</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4679,14 +4669,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 47771-2022</t>
+          <t>A 9039-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44854</v>
+        <v>45356</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4699,7 +4689,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4743,7 +4733,7 @@
         <v>45356</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4793,14 +4783,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 42141-2023</t>
+          <t>A 46212-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45177</v>
+        <v>45581.55569444445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4813,7 +4803,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4850,14 +4840,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 59771-2023</t>
+          <t>A 57777-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45257</v>
+        <v>45246</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4870,7 +4860,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.7</v>
+        <v>4.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4907,14 +4897,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 31986-2025</t>
+          <t>A 27110-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45835.36210648148</v>
+        <v>45471.50009259259</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4927,7 +4917,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4964,14 +4954,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 46434-2022</t>
+          <t>A 8939-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44846</v>
+        <v>45713.4485300926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4984,7 +4974,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5021,14 +5011,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 33226-2021</t>
+          <t>A 12410-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44376</v>
+        <v>45730.43505787037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5041,7 +5031,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5078,14 +5068,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 42584-2025</t>
+          <t>A 55173-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45905.62662037037</v>
+        <v>45237</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5098,7 +5088,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5135,14 +5125,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 42902-2025</t>
+          <t>A 35360-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45908.67744212963</v>
+        <v>45146.52483796296</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5155,7 +5145,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5192,14 +5182,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 29823-2025</t>
+          <t>A 54793-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45825.85599537037</v>
+        <v>45229</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5212,7 +5202,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>7.2</v>
+        <v>0.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5249,14 +5239,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 42990-2025</t>
+          <t>A 35123-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45909.45178240741</v>
+        <v>45145.50380787037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5268,8 +5258,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5306,14 +5301,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 43030-2025</t>
+          <t>A 35734-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45909</v>
+        <v>45532</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5325,13 +5320,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5368,14 +5358,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 35755-2024</t>
+          <t>A 46726-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45532</v>
+        <v>45583.46103009259</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5388,7 +5378,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5425,14 +5415,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 32956-2024</t>
+          <t>A 44295-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45517</v>
+        <v>45188.64064814815</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5444,13 +5434,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5487,14 +5472,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 2018-2025</t>
+          <t>A 46501-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45672</v>
+        <v>45582.6006712963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5506,13 +5491,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5549,14 +5529,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 2020-2025</t>
+          <t>A 64966-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45672</v>
+        <v>45283</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5568,13 +5548,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5611,14 +5586,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 12425-2025</t>
+          <t>A 35006-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45730</v>
+        <v>45527</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5631,7 +5606,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5668,14 +5643,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 43685-2025</t>
+          <t>A 31867-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45912.38184027778</v>
+        <v>45118.61844907407</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5688,7 +5663,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5725,14 +5700,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 44975-2025</t>
+          <t>A 33319-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45918.64300925926</v>
+        <v>45127.88890046296</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5745,7 +5720,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5782,14 +5757,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 44832-2025</t>
+          <t>A 59253-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45918.406875</v>
+        <v>45637.59724537037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5802,7 +5777,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5839,14 +5814,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 44889-2025</t>
+          <t>A 17981-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45918.49681712963</v>
+        <v>45419</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5859,7 +5834,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5896,14 +5871,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 44895-2025</t>
+          <t>A 30221-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45918.50277777778</v>
+        <v>45099</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5916,7 +5891,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5953,14 +5928,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 1058-2023</t>
+          <t>A 45899-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44929</v>
+        <v>45580.43047453704</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5972,8 +5947,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6010,14 +5990,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 1438-2025</t>
+          <t>A 31817-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45669.68052083333</v>
+        <v>45509</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6030,7 +6010,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6067,14 +6047,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 8993-2024</t>
+          <t>A 59771-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45357.55085648148</v>
+        <v>45257</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6087,7 +6067,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6124,14 +6104,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 46501-2024</t>
+          <t>A 16471-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45582.6006712963</v>
+        <v>45751.54825231482</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6144,7 +6124,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6181,14 +6161,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 36801-2025</t>
+          <t>A 52531-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45873.66607638889</v>
+        <v>45609.61578703704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6201,7 +6181,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6238,14 +6218,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 52255-2024</t>
+          <t>A 52533-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45608.64011574074</v>
+        <v>45609.61697916667</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6258,7 +6238,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6295,14 +6275,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 37364-2025</t>
+          <t>A 8940-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45877.32516203704</v>
+        <v>45713.44855324074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6315,7 +6295,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6352,14 +6332,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 25347-2024</t>
+          <t>A 21041-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45462</v>
+        <v>45439.666875</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6372,7 +6352,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6409,14 +6389,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 8935-2025</t>
+          <t>A 47771-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45713.44832175926</v>
+        <v>44854</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6429,7 +6409,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6466,14 +6446,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 8939-2025</t>
+          <t>A 59716-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45713.4485300926</v>
+        <v>45639.45857638889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6486,7 +6466,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6523,14 +6503,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 49559-2025</t>
+          <t>A 31264-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45939.45946759259</v>
+        <v>45503.96868055555</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6542,8 +6522,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>7.2</v>
+        <v>2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6580,14 +6565,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 48859-2025</t>
+          <t>A 31277-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45937</v>
+        <v>45504.39555555556</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6599,8 +6584,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>1.2</v>
+        <v>5.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6637,14 +6627,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 48886-2025</t>
+          <t>A 1058-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45937.46611111111</v>
+        <v>44929</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6657,7 +6647,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6694,14 +6684,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 48852-2025</t>
+          <t>A 50413-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45937.43040509259</v>
+        <v>45601.37128472222</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6713,8 +6703,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>23.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6751,14 +6746,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 49520-2025</t>
+          <t>A 8993-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45939.39337962963</v>
+        <v>45357.55085648148</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6771,7 +6766,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6808,14 +6803,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 47472-2024</t>
+          <t>A 19734-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45587.5741087963</v>
+        <v>45771.36695601852</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6827,8 +6822,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6865,14 +6865,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 7871-2023</t>
+          <t>A 47-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44970</v>
+        <v>45659</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6922,14 +6922,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 49371-2025</t>
+          <t>A 63980-2021</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45938.63061342593</v>
+        <v>44509</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6979,14 +6979,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 49820-2025</t>
+          <t>A 28367-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45940.43907407407</v>
+        <v>44747</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6998,13 +6998,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7041,14 +7036,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 51553-2025</t>
+          <t>A 17073-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45950.87297453704</v>
+        <v>45754</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7061,7 +7056,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7098,14 +7093,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 18377-2025</t>
+          <t>A 28347-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45762.57496527778</v>
+        <v>44747.45532407407</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7118,7 +7113,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7155,14 +7150,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 18380-2025</t>
+          <t>A 13762-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45762.57891203704</v>
+        <v>45737.43103009259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7175,7 +7170,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7212,14 +7207,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 17981-2024</t>
+          <t>A 29573-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45419</v>
+        <v>45098</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7232,7 +7227,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.2</v>
+        <v>5.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7269,14 +7264,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 25453-2024</t>
+          <t>A 38566-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45463.42144675926</v>
+        <v>45884.45541666666</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7289,7 +7284,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.3</v>
+        <v>5.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7326,14 +7321,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 1006-2023</t>
+          <t>A 21135-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44935</v>
+        <v>45440</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7345,8 +7340,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7383,14 +7383,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 51722-2025</t>
+          <t>A 2942-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45951.58085648148</v>
+        <v>45678.39038194445</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7440,14 +7440,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 51605-2025</t>
+          <t>A 6179-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45951.38592592593</v>
+        <v>45698.44835648148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7497,14 +7497,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 51737-2025</t>
+          <t>A 55444-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45951.59630787037</v>
+        <v>45231</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7554,14 +7554,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 15678-2025</t>
+          <t>A 60557-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45748.45042824074</v>
+        <v>45259</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>7.1</v>
+        <v>3.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7611,14 +7611,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 52835-2025</t>
+          <t>A 39220-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45957.47133101852</v>
+        <v>45549</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7668,14 +7668,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 18231-2025</t>
+          <t>A 426-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45761.87467592592</v>
+        <v>44565</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7725,14 +7725,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 52845-2025</t>
+          <t>A 2933-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45957.48430555555</v>
+        <v>44581</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7782,14 +7782,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 52842-2025</t>
+          <t>A 29462-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45957.47827546296</v>
+        <v>45824.69697916666</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.4</v>
+        <v>11.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7839,14 +7839,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 52820-2025</t>
+          <t>A 17582-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45957.45483796296</v>
+        <v>45415</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7896,14 +7896,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 53783-2024</t>
+          <t>A 32956-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45615</v>
+        <v>45517</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7915,8 +7915,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7953,14 +7958,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 54570-2025</t>
+          <t>A 35557-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45965.67487268519</v>
+        <v>44385</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7973,7 +7978,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8010,14 +8015,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 54243-2025</t>
+          <t>A 15409-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45964.63417824074</v>
+        <v>44285</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8030,7 +8035,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>6.7</v>
+        <v>1.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8067,14 +8072,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 54562-2025</t>
+          <t>A 42902-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45965.66751157407</v>
+        <v>45908.67744212963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8087,7 +8092,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8124,14 +8129,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 54421-2025</t>
+          <t>A 19100-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45965.48461805555</v>
+        <v>44691.52804398148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8144,7 +8149,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>10.4</v>
+        <v>1.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8181,14 +8186,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 2933-2022</t>
+          <t>A 22193-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44581</v>
+        <v>45069</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8201,7 +8206,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8238,14 +8243,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 52536-2023</t>
+          <t>A 846-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45218</v>
+        <v>44571</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8258,7 +8263,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8295,14 +8300,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 35360-2023</t>
+          <t>A 29823-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45146.52483796296</v>
+        <v>45825.85599537037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8315,7 +8320,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>7.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8352,14 +8357,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 56320-2025</t>
+          <t>A 42584-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45974.63405092592</v>
+        <v>45905.62662037037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8372,7 +8377,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8409,14 +8414,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 2201-2025</t>
+          <t>A 42990-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45673.39678240741</v>
+        <v>45909.45178240741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8429,7 +8434,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8466,14 +8471,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 56513-2025</t>
+          <t>A 43030-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45975.45373842592</v>
+        <v>45909</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8485,8 +8490,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>8.5</v>
+        <v>4.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8523,14 +8533,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 56622-2025</t>
+          <t>A 43685-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45975.60040509259</v>
+        <v>45912.38184027778</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8543,7 +8553,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8580,14 +8590,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 56553-2025</t>
+          <t>A 16782-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45975.48762731482</v>
+        <v>45411</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8600,7 +8610,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8637,14 +8647,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 56329-2025</t>
+          <t>A 32785-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45974.64</v>
+        <v>45516.53230324074</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8657,7 +8667,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.2</v>
+        <v>5.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8694,14 +8704,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 56831-2025</t>
+          <t>A 44889-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45978.46716435185</v>
+        <v>45918.49681712963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8714,7 +8724,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8751,14 +8761,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 57203-2025</t>
+          <t>A 44832-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45979.58972222222</v>
+        <v>45918.406875</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8770,13 +8780,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>20.1</v>
+        <v>0.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8813,14 +8818,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 56833-2025</t>
+          <t>A 44975-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45978.47253472222</v>
+        <v>45918.64300925926</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8833,7 +8838,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8870,14 +8875,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 56835-2025</t>
+          <t>A 44895-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45978.47366898148</v>
+        <v>45918.50277777778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8890,7 +8895,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8927,14 +8932,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 56966-2025</t>
+          <t>A 1006-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45978.67543981481</v>
+        <v>44935</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8947,7 +8952,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8984,14 +8989,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 57448-2025</t>
+          <t>A 31869-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45980.49452546296</v>
+        <v>45118.62401620371</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9003,13 +9008,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9046,14 +9046,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 52536-2024</t>
+          <t>A 31699-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45609.61851851852</v>
+        <v>45508.61318287037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9065,8 +9065,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9103,14 +9108,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 57347-2025</t>
+          <t>A 12425-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45980.35763888889</v>
+        <v>45730</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9123,7 +9128,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>6.9</v>
+        <v>2.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9160,14 +9165,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 57424-2025</t>
+          <t>A 56258-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45980.46134259259</v>
+        <v>45624.64472222222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9179,13 +9184,8 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9222,14 +9222,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 12410-2025</t>
+          <t>A 56262-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45730.43505787037</v>
+        <v>45624.65004629629</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9279,14 +9279,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 58637-2025</t>
+          <t>A 62553-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45986.49008101852</v>
+        <v>44501</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.4</v>
+        <v>10.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9336,14 +9336,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 58584-2025</t>
+          <t>A 18377-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45986.39486111111</v>
+        <v>45762.57496527778</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9393,14 +9393,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 34760-2023</t>
+          <t>A 48859-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45139</v>
+        <v>45937</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9450,14 +9450,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 17073-2025</t>
+          <t>A 49371-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45754</v>
+        <v>45938.63061342593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9507,14 +9507,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 59867-2025</t>
+          <t>A 48886-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45992.87564814815</v>
+        <v>45937.46611111111</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9564,14 +9564,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 1633-2026</t>
+          <t>A 25453-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46034.49119212963</v>
+        <v>45463.42144675926</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9621,14 +9621,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 1614-2026</t>
+          <t>A 52255-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46034.46947916667</v>
+        <v>45608.64011574074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>9.1</v>
+        <v>1.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9678,14 +9678,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 2496-2026</t>
+          <t>A 48852-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>46037.40002314815</v>
+        <v>45937.43040509259</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9735,14 +9735,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 63817-2023</t>
+          <t>A 39185-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45275</v>
+        <v>45548</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>6.7</v>
+        <v>1.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9792,14 +9792,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 2072-2026</t>
+          <t>A 49820-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46036.33851851852</v>
+        <v>45940.43907407407</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9811,8 +9811,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9849,14 +9854,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 60533-2025</t>
+          <t>A 49520-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45995.65939814815</v>
+        <v>45939.39337962963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9869,7 +9874,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9906,14 +9911,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 1437-2025</t>
+          <t>A 49559-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45669.67790509259</v>
+        <v>45939.45946759259</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9926,7 +9931,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>11.7</v>
+        <v>7.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9963,14 +9968,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 60619-2025</t>
+          <t>A 63817-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45996.38447916666</v>
+        <v>45275</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9983,7 +9988,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.5</v>
+        <v>6.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10020,14 +10025,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 39220-2024</t>
+          <t>A 19786-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45549</v>
+        <v>45771.44086805556</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10039,8 +10044,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10077,14 +10087,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 15674-2025</t>
+          <t>A 60646-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45748.44657407407</v>
+        <v>45644.4325462963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10096,8 +10106,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10134,14 +10149,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 35011-2024</t>
+          <t>A 8937-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45527</v>
+        <v>45713.44841435185</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10154,7 +10169,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10191,14 +10206,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 2772-2026</t>
+          <t>A 8938-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>46038.37417824074</v>
+        <v>45713.44842592593</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10211,7 +10226,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>7.7</v>
+        <v>0.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10248,14 +10263,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 2774-2026</t>
+          <t>A 35354-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46038.37543981482</v>
+        <v>45146</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10305,14 +10320,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 32739-2021</t>
+          <t>A 10533-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44375</v>
+        <v>44987.92349537037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10325,7 +10340,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10362,14 +10377,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 61176-2025</t>
+          <t>A 34760-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46000.57684027778</v>
+        <v>45139</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10382,7 +10397,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>8.300000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10419,14 +10434,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 61221-2025</t>
+          <t>A 53783-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46000</v>
+        <v>45615</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10439,7 +10454,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10476,14 +10491,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 3540-2026</t>
+          <t>A 51605-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46042.63204861111</v>
+        <v>45951.38592592593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10496,7 +10511,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.8</v>
+        <v>4.7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10533,14 +10548,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 61216-2025</t>
+          <t>A 51737-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46000.62005787037</v>
+        <v>45951.59630787037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10553,7 +10568,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10590,14 +10605,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 29485-2023</t>
+          <t>A 51722-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45106</v>
+        <v>45951.58085648148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10610,7 +10625,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10647,14 +10662,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 61403-2025</t>
+          <t>A 51553-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46001.48989583334</v>
+        <v>45950.87297453704</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10667,7 +10682,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>12.8</v>
+        <v>0.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10704,14 +10719,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 61142-2025</t>
+          <t>A 10440-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46000.51967592593</v>
+        <v>44987</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10724,7 +10739,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10761,14 +10776,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 61155-2025</t>
+          <t>A 17409-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46000.54702546296</v>
+        <v>45757.36844907407</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10781,7 +10796,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10818,14 +10833,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 61158-2025</t>
+          <t>A 17414-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46000.55134259259</v>
+        <v>45757</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10838,7 +10853,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10875,14 +10890,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 60033-2024</t>
+          <t>A 20432-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45642.46236111111</v>
+        <v>45775.47893518519</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10895,7 +10910,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>5.3</v>
+        <v>2.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10932,14 +10947,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 61182-2025</t>
+          <t>A 35737-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46000.58409722222</v>
+        <v>45532</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10952,7 +10967,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10989,14 +11004,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 61204-2025</t>
+          <t>A 35755-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46000.61395833334</v>
+        <v>45532</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11009,7 +11024,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11046,14 +11061,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 61127-2025</t>
+          <t>A 35771-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46000.48337962963</v>
+        <v>45532</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11066,7 +11081,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11103,14 +11118,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 3538-2026</t>
+          <t>A 52842-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46042.6296412037</v>
+        <v>45957.47827546296</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11123,7 +11138,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11160,14 +11175,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 61118-2025</t>
+          <t>A 27530-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>46000.46293981482</v>
+        <v>45474.56820601852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11179,8 +11194,13 @@
           <t>VÄNNÄS</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11217,14 +11237,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 4109-2026</t>
+          <t>A 9086-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46044.59418981482</v>
+        <v>44979</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11237,7 +11257,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>5.3</v>
+        <v>1.3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11274,14 +11294,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 31132-2023</t>
+          <t>A 52820-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45103</v>
+        <v>45957.45483796296</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11294,7 +11314,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="H